--- a/docs/newRPL Command Database.xlsx
+++ b/docs/newRPL Command Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="827">
   <si>
     <t>!</t>
   </si>
@@ -2496,10 +2496,10 @@
     <t>Percentage completion</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Number of lists param. Is not optional</t>
+  </si>
+  <si>
+    <t>Number of elem. Para. Is not optional</t>
   </si>
 </sst>
 </file>
@@ -2949,8 +2949,8 @@
   <dimension ref="A2:G783"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G214" sqref="G214"/>
+      <pane ySplit="5" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D768" sqref="D768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2970,7 +2970,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7">
         <f>COUNTA(D6:D1001)</f>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>823</v>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="D3" s="8">
         <f>D2/F2</f>
-        <v>9.383033419023136E-2</v>
+        <v>0.10025706940874037</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
@@ -6393,11 +6393,9 @@
         <v>787</v>
       </c>
       <c r="E212" s="10"/>
-      <c r="F212" s="10" t="s">
+      <c r="F212" s="10"/>
+      <c r="G212" s="12" t="s">
         <v>825</v>
-      </c>
-      <c r="G212" s="12" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="213" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
@@ -6427,10 +6425,14 @@
       <c r="C214" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="D214" s="10"/>
+      <c r="D214" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E214" s="10"/>
       <c r="F214" s="10"/>
-      <c r="G214" s="12"/>
+      <c r="G214" s="12" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="215" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A215" s="10">
@@ -6787,7 +6789,9 @@
       <c r="C236" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="D236" s="10"/>
+      <c r="D236" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E236" s="10"/>
       <c r="F236" s="10"/>
       <c r="G236" s="12"/>
@@ -9505,7 +9509,9 @@
       <c r="C404" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="D404" s="10"/>
+      <c r="D404" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E404" s="10"/>
       <c r="F404" s="10"/>
       <c r="G404" s="12"/>
@@ -10117,7 +10123,9 @@
       <c r="C442" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="D442" s="10"/>
+      <c r="D442" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E442" s="10"/>
       <c r="F442" s="10"/>
       <c r="G442" s="12"/>
@@ -12000,7 +12008,7 @@
       <c r="F559" s="10"/>
       <c r="G559" s="12"/>
     </row>
-    <row r="560" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="560" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A560" s="10">
         <f t="shared" si="8"/>
         <v>555</v>
@@ -12009,7 +12017,7 @@
         <v>502</v>
       </c>
       <c r="C560" s="10" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D560" s="10"/>
       <c r="E560" s="10"/>
@@ -13589,7 +13597,9 @@
       <c r="C658" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="D658" s="10"/>
+      <c r="D658" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E658" s="10"/>
       <c r="F658" s="10"/>
       <c r="G658" s="12"/>
@@ -15699,7 +15709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/docs/newRPL Command Database.xlsx
+++ b/docs/newRPL Command Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="828">
   <si>
     <t>!</t>
   </si>
@@ -2500,6 +2500,9 @@
   </si>
   <si>
     <t>Number of elem. Para. Is not optional</t>
+  </si>
+  <si>
+    <t>Lists with one element return the elem.</t>
   </si>
 </sst>
 </file>
@@ -2945,12 +2948,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:G783"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D768" sqref="D768"/>
+      <pane ySplit="5" topLeftCell="A769" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M769" sqref="M769"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2970,7 +2972,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7">
         <f>COUNTA(D6:D1001)</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>823</v>
@@ -2986,7 +2988,7 @@
       </c>
       <c r="D3" s="8">
         <f>D2/F2</f>
-        <v>0.10025706940874037</v>
+        <v>0.10282776349614396</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
@@ -3015,7 +3017,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -3032,7 +3034,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="7" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="10">
         <f t="shared" ref="A7:A70" si="0">A6+1</f>
         <v>2</v>
@@ -3050,7 +3052,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="8" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3066,7 +3068,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3082,7 +3084,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="10" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3098,7 +3100,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3114,7 +3116,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3132,7 +3134,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A13" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3150,7 +3152,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3168,7 +3170,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="15" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A15" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3186,7 +3188,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3202,7 +3204,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="17" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3218,7 +3220,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="18" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3236,7 +3238,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="19" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3254,7 +3256,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="20" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A20" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3270,7 +3272,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="21" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3288,7 +3290,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="22" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A22" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3306,7 +3308,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="23" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A23" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3324,7 +3326,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="24" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A24" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3342,7 +3344,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A25" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3360,7 +3362,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A26" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3376,7 +3378,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="27" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A27" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3394,7 +3396,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="28" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A28" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3410,7 +3412,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="29" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A29" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3428,7 +3430,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="30" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A30" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3446,7 +3448,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="31" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A31" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3462,7 +3464,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="32" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3478,7 +3480,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="33" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A33" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3496,7 +3498,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="34" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A34" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3512,7 +3514,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A35" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3528,7 +3530,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="36" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A36" s="10">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3544,7 +3546,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="37" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A37" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3560,7 +3562,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="38" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A38" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3576,7 +3578,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="39" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A39" s="10">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3592,7 +3594,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="40" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A40" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3608,7 +3610,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="41" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A41" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3624,7 +3626,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="42" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A42" s="10">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3640,7 +3642,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="43" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A43" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3656,7 +3658,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="44" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A44" s="10">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3690,7 +3692,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="46" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A46" s="10">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3706,7 +3708,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="47" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A47" s="10">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3722,7 +3724,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="48" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A48" s="10">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3738,7 +3740,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="49" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A49" s="10">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3754,7 +3756,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="50" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A50" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3770,7 +3772,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="51" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A51" s="10">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3786,7 +3788,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="52" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A52" s="10">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3802,7 +3804,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="53" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A53" s="10">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3818,7 +3820,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="54" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A54" s="10">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3834,7 +3836,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="55" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A55" s="10">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3850,7 +3852,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="56" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A56" s="10">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3866,7 +3868,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="57" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A57" s="10">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3882,7 +3884,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="58" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A58" s="10">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3898,7 +3900,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="59" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A59" s="10">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3914,7 +3916,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="60" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A60" s="10">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3930,7 +3932,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="61" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A61" s="10">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3946,7 +3948,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="62" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A62" s="10">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3962,7 +3964,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="63" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A63" s="10">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3980,7 +3982,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="64" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A64" s="10">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3996,7 +3998,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="12"/>
     </row>
-    <row r="65" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="65" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A65" s="10">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4012,7 +4014,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="66" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A66" s="10">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4030,7 +4032,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="12"/>
     </row>
-    <row r="67" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="67" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A67" s="10">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4046,7 +4048,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="68" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A68" s="10">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4080,7 +4082,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="70" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A70" s="10">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4096,7 +4098,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="12"/>
     </row>
-    <row r="71" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="71" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A71" s="10">
         <f t="shared" ref="A71:A134" si="1">A70+1</f>
         <v>66</v>
@@ -4112,7 +4114,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="72" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A72" s="10">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4128,7 +4130,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="12"/>
     </row>
-    <row r="73" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="73" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A73" s="10">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4144,7 +4146,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="74" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A74" s="10">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4160,7 +4162,7 @@
       <c r="F74" s="10"/>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="75" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A75" s="10">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4178,7 +4180,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="76" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A76" s="10">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4194,7 +4196,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="12"/>
     </row>
-    <row r="77" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="77" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A77" s="10">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4210,7 +4212,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="12"/>
     </row>
-    <row r="78" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="78" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A78" s="10">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4226,7 +4228,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="79" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A79" s="10">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4242,7 +4244,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="80" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A80" s="10">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4258,7 +4260,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="12"/>
     </row>
-    <row r="81" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="81" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A81" s="10">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4274,7 +4276,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="82" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A82" s="10">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4290,7 +4292,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="83" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A83" s="10">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4306,7 +4308,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="84" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A84" s="10">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4322,7 +4324,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="12"/>
     </row>
-    <row r="85" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="85" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A85" s="10">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4338,7 +4340,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="12"/>
     </row>
-    <row r="86" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="86" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A86" s="10">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4356,7 +4358,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="87" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A87" s="10">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4372,7 +4374,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="88" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A88" s="10">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4388,7 +4390,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="12"/>
     </row>
-    <row r="89" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="89" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A89" s="10">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4406,7 +4408,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="90" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A90" s="10">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4422,7 +4424,7 @@
       <c r="F90" s="10"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="91" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A91" s="10">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4438,7 +4440,7 @@
       <c r="F91" s="10"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="92" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A92" s="10">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4454,7 +4456,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="12"/>
     </row>
-    <row r="93" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="93" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A93" s="10">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4470,7 +4472,7 @@
       <c r="F93" s="10"/>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="94" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A94" s="10">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4486,7 +4488,7 @@
       <c r="F94" s="10"/>
       <c r="G94" s="12"/>
     </row>
-    <row r="95" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="95" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A95" s="10">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4502,7 +4504,7 @@
       <c r="F95" s="10"/>
       <c r="G95" s="12"/>
     </row>
-    <row r="96" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="96" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A96" s="10">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4518,7 +4520,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="97" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A97" s="10">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4536,7 +4538,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="98" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A98" s="10">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4552,7 +4554,7 @@
       <c r="F98" s="10"/>
       <c r="G98" s="12"/>
     </row>
-    <row r="99" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="99" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A99" s="10">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4570,7 +4572,7 @@
       <c r="F99" s="10"/>
       <c r="G99" s="12"/>
     </row>
-    <row r="100" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="100" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A100" s="10">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4586,7 +4588,7 @@
       <c r="F100" s="10"/>
       <c r="G100" s="12"/>
     </row>
-    <row r="101" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="101" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A101" s="10">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4602,7 +4604,7 @@
       <c r="F101" s="10"/>
       <c r="G101" s="12"/>
     </row>
-    <row r="102" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="102" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A102" s="10">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4618,7 +4620,7 @@
       <c r="F102" s="10"/>
       <c r="G102" s="12"/>
     </row>
-    <row r="103" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="103" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A103" s="10">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4634,7 +4636,7 @@
       <c r="F103" s="10"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="104" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A104" s="10">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4650,7 +4652,7 @@
       <c r="F104" s="10"/>
       <c r="G104" s="12"/>
     </row>
-    <row r="105" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="105" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A105" s="10">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4666,7 +4668,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="12"/>
     </row>
-    <row r="106" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="106" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A106" s="10">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4682,7 +4684,7 @@
       <c r="F106" s="10"/>
       <c r="G106" s="12"/>
     </row>
-    <row r="107" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="107" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A107" s="10">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4698,7 +4700,7 @@
       <c r="F107" s="10"/>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="108" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A108" s="10">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4714,7 +4716,7 @@
       <c r="F108" s="10"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="109" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A109" s="10">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4730,7 +4732,7 @@
       <c r="F109" s="10"/>
       <c r="G109" s="12"/>
     </row>
-    <row r="110" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="110" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A110" s="10">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4746,7 +4748,7 @@
       <c r="F110" s="10"/>
       <c r="G110" s="12"/>
     </row>
-    <row r="111" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="111" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A111" s="10">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4762,7 +4764,7 @@
       <c r="F111" s="10"/>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="112" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A112" s="10">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4778,7 +4780,7 @@
       <c r="F112" s="10"/>
       <c r="G112" s="12"/>
     </row>
-    <row r="113" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="113" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A113" s="10">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4794,7 +4796,7 @@
       <c r="F113" s="10"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="114" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A114" s="10">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4810,7 +4812,7 @@
       <c r="F114" s="10"/>
       <c r="G114" s="12"/>
     </row>
-    <row r="115" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="115" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A115" s="10">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4826,7 +4828,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="116" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A116" s="10">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4842,7 +4844,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="12"/>
     </row>
-    <row r="117" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="117" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A117" s="10">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4858,7 +4860,7 @@
       <c r="F117" s="10"/>
       <c r="G117" s="12"/>
     </row>
-    <row r="118" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="118" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A118" s="10">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4874,7 +4876,7 @@
       <c r="F118" s="10"/>
       <c r="G118" s="12"/>
     </row>
-    <row r="119" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="119" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A119" s="10">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -4890,7 +4892,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="120" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A120" s="10">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -4906,7 +4908,7 @@
       <c r="F120" s="10"/>
       <c r="G120" s="12"/>
     </row>
-    <row r="121" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="121" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A121" s="10">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -4922,7 +4924,7 @@
       <c r="F121" s="10"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="122" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A122" s="10">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -4938,7 +4940,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="12"/>
     </row>
-    <row r="123" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="123" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A123" s="10">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -4954,7 +4956,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="124" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A124" s="10">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -4970,7 +4972,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="12"/>
     </row>
-    <row r="125" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="125" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A125" s="10">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -4986,7 +4988,7 @@
       <c r="F125" s="10"/>
       <c r="G125" s="12"/>
     </row>
-    <row r="126" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="126" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A126" s="10">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5002,7 +5004,7 @@
       <c r="F126" s="10"/>
       <c r="G126" s="12"/>
     </row>
-    <row r="127" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="127" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A127" s="10">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5020,7 +5022,7 @@
       <c r="F127" s="10"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="128" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A128" s="10">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -5038,7 +5040,7 @@
       <c r="F128" s="10"/>
       <c r="G128" s="12"/>
     </row>
-    <row r="129" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="129" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A129" s="10">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5054,7 +5056,7 @@
       <c r="F129" s="10"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="130" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A130" s="10">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5070,7 +5072,7 @@
       <c r="F130" s="10"/>
       <c r="G130" s="12"/>
     </row>
-    <row r="131" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="131" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A131" s="10">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5086,7 +5088,7 @@
       <c r="F131" s="10"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="132" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A132" s="10">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -5102,7 +5104,7 @@
       <c r="F132" s="10"/>
       <c r="G132" s="12"/>
     </row>
-    <row r="133" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="133" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A133" s="10">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -5118,7 +5120,7 @@
       <c r="F133" s="10"/>
       <c r="G133" s="12"/>
     </row>
-    <row r="134" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="134" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A134" s="10">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -5134,7 +5136,7 @@
       <c r="F134" s="10"/>
       <c r="G134" s="12"/>
     </row>
-    <row r="135" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="135" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A135" s="10">
         <f t="shared" ref="A135:A198" si="2">A134+1</f>
         <v>130</v>
@@ -5150,7 +5152,7 @@
       <c r="F135" s="10"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="136" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A136" s="10">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -5166,7 +5168,7 @@
       <c r="F136" s="10"/>
       <c r="G136" s="12"/>
     </row>
-    <row r="137" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="137" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A137" s="10">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -5184,7 +5186,7 @@
       <c r="F137" s="10"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="138" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A138" s="10">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -5200,7 +5202,7 @@
       <c r="F138" s="10"/>
       <c r="G138" s="12"/>
     </row>
-    <row r="139" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="139" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A139" s="10">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -5216,7 +5218,7 @@
       <c r="F139" s="10"/>
       <c r="G139" s="12"/>
     </row>
-    <row r="140" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="140" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A140" s="10">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -5232,7 +5234,7 @@
       <c r="F140" s="10"/>
       <c r="G140" s="12"/>
     </row>
-    <row r="141" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="141" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A141" s="10">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -5248,7 +5250,7 @@
       <c r="F141" s="10"/>
       <c r="G141" s="12"/>
     </row>
-    <row r="142" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="142" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A142" s="10">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5264,7 +5266,7 @@
       <c r="F142" s="10"/>
       <c r="G142" s="12"/>
     </row>
-    <row r="143" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="143" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A143" s="10">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -5280,7 +5282,7 @@
       <c r="F143" s="10"/>
       <c r="G143" s="12"/>
     </row>
-    <row r="144" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="144" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A144" s="10">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -5296,7 +5298,7 @@
       <c r="F144" s="10"/>
       <c r="G144" s="12"/>
     </row>
-    <row r="145" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="145" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A145" s="10">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -5312,7 +5314,7 @@
       <c r="F145" s="10"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="146" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A146" s="10">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -5328,7 +5330,7 @@
       <c r="F146" s="10"/>
       <c r="G146" s="12"/>
     </row>
-    <row r="147" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="147" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A147" s="10">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -5344,7 +5346,7 @@
       <c r="F147" s="10"/>
       <c r="G147" s="12"/>
     </row>
-    <row r="148" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="148" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A148" s="10">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -5360,7 +5362,7 @@
       <c r="F148" s="10"/>
       <c r="G148" s="12"/>
     </row>
-    <row r="149" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="149" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A149" s="10">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -5376,7 +5378,7 @@
       <c r="F149" s="10"/>
       <c r="G149" s="12"/>
     </row>
-    <row r="150" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="150" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A150" s="10">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -5392,7 +5394,7 @@
       <c r="F150" s="10"/>
       <c r="G150" s="12"/>
     </row>
-    <row r="151" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="151" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A151" s="10">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -5408,7 +5410,7 @@
       <c r="F151" s="10"/>
       <c r="G151" s="12"/>
     </row>
-    <row r="152" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="152" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A152" s="10">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5424,7 +5426,7 @@
       <c r="F152" s="10"/>
       <c r="G152" s="12"/>
     </row>
-    <row r="153" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="153" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A153" s="10">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5440,7 +5442,7 @@
       <c r="F153" s="10"/>
       <c r="G153" s="12"/>
     </row>
-    <row r="154" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="154" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A154" s="10">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5456,7 +5458,7 @@
       <c r="F154" s="10"/>
       <c r="G154" s="12"/>
     </row>
-    <row r="155" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="155" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A155" s="10">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -5472,7 +5474,7 @@
       <c r="F155" s="10"/>
       <c r="G155" s="12"/>
     </row>
-    <row r="156" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="156" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A156" s="10">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -5488,7 +5490,7 @@
       <c r="F156" s="10"/>
       <c r="G156" s="12"/>
     </row>
-    <row r="157" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="157" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A157" s="10">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -5504,7 +5506,7 @@
       <c r="F157" s="10"/>
       <c r="G157" s="12"/>
     </row>
-    <row r="158" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="158" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A158" s="10">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -5520,7 +5522,7 @@
       <c r="F158" s="10"/>
       <c r="G158" s="12"/>
     </row>
-    <row r="159" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="159" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A159" s="10">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -5536,7 +5538,7 @@
       <c r="F159" s="10"/>
       <c r="G159" s="12"/>
     </row>
-    <row r="160" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="160" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A160" s="10">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -5552,7 +5554,7 @@
       <c r="F160" s="10"/>
       <c r="G160" s="12"/>
     </row>
-    <row r="161" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="161" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A161" s="10">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -5568,7 +5570,7 @@
       <c r="F161" s="10"/>
       <c r="G161" s="12"/>
     </row>
-    <row r="162" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="162" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A162" s="10">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -5586,7 +5588,7 @@
       <c r="F162" s="10"/>
       <c r="G162" s="12"/>
     </row>
-    <row r="163" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="163" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A163" s="10">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -5604,7 +5606,7 @@
       <c r="F163" s="10"/>
       <c r="G163" s="12"/>
     </row>
-    <row r="164" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="164" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A164" s="10">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -5620,7 +5622,7 @@
       <c r="F164" s="10"/>
       <c r="G164" s="12"/>
     </row>
-    <row r="165" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="165" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A165" s="10">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -5636,7 +5638,7 @@
       <c r="F165" s="10"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="166" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A166" s="10">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -5654,7 +5656,7 @@
       <c r="F166" s="10"/>
       <c r="G166" s="12"/>
     </row>
-    <row r="167" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="167" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A167" s="10">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -5670,7 +5672,7 @@
       <c r="F167" s="10"/>
       <c r="G167" s="12"/>
     </row>
-    <row r="168" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="168" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A168" s="10">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -5686,7 +5688,7 @@
       <c r="F168" s="10"/>
       <c r="G168" s="12"/>
     </row>
-    <row r="169" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="169" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A169" s="10">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -5702,7 +5704,7 @@
       <c r="F169" s="10"/>
       <c r="G169" s="12"/>
     </row>
-    <row r="170" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="170" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A170" s="10">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -5718,7 +5720,7 @@
       <c r="F170" s="10"/>
       <c r="G170" s="12"/>
     </row>
-    <row r="171" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="171" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A171" s="10">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -5734,7 +5736,7 @@
       <c r="F171" s="10"/>
       <c r="G171" s="12"/>
     </row>
-    <row r="172" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="172" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A172" s="10">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -5750,7 +5752,7 @@
       <c r="F172" s="10"/>
       <c r="G172" s="12"/>
     </row>
-    <row r="173" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="173" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A173" s="10">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -5766,7 +5768,7 @@
       <c r="F173" s="10"/>
       <c r="G173" s="12"/>
     </row>
-    <row r="174" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="174" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A174" s="10">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -5782,7 +5784,7 @@
       <c r="F174" s="10"/>
       <c r="G174" s="12"/>
     </row>
-    <row r="175" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="175" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A175" s="10">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -5798,7 +5800,7 @@
       <c r="F175" s="10"/>
       <c r="G175" s="12"/>
     </row>
-    <row r="176" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="176" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A176" s="10">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -5814,7 +5816,7 @@
       <c r="F176" s="10"/>
       <c r="G176" s="12"/>
     </row>
-    <row r="177" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="177" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A177" s="10">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -5830,7 +5832,7 @@
       <c r="F177" s="10"/>
       <c r="G177" s="12"/>
     </row>
-    <row r="178" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="178" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A178" s="10">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -5846,7 +5848,7 @@
       <c r="F178" s="10"/>
       <c r="G178" s="12"/>
     </row>
-    <row r="179" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="179" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A179" s="10">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -5862,7 +5864,7 @@
       <c r="F179" s="10"/>
       <c r="G179" s="12"/>
     </row>
-    <row r="180" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="180" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A180" s="10">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -5880,7 +5882,7 @@
       <c r="F180" s="10"/>
       <c r="G180" s="12"/>
     </row>
-    <row r="181" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="181" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A181" s="10">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -5896,7 +5898,7 @@
       <c r="F181" s="10"/>
       <c r="G181" s="12"/>
     </row>
-    <row r="182" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="182" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A182" s="10">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -5912,7 +5914,7 @@
       <c r="F182" s="10"/>
       <c r="G182" s="12"/>
     </row>
-    <row r="183" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="183" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A183" s="10">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -5928,7 +5930,7 @@
       <c r="F183" s="10"/>
       <c r="G183" s="12"/>
     </row>
-    <row r="184" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="184" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A184" s="10">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -5944,7 +5946,7 @@
       <c r="F184" s="10"/>
       <c r="G184" s="12"/>
     </row>
-    <row r="185" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="185" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A185" s="10">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -5960,7 +5962,7 @@
       <c r="F185" s="10"/>
       <c r="G185" s="12"/>
     </row>
-    <row r="186" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="186" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A186" s="10">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -5976,7 +5978,7 @@
       <c r="F186" s="10"/>
       <c r="G186" s="12"/>
     </row>
-    <row r="187" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="187" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A187" s="10">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -5992,7 +5994,7 @@
       <c r="F187" s="10"/>
       <c r="G187" s="12"/>
     </row>
-    <row r="188" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="188" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A188" s="10">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -6008,7 +6010,7 @@
       <c r="F188" s="10"/>
       <c r="G188" s="12"/>
     </row>
-    <row r="189" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="189" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A189" s="10">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -6024,7 +6026,7 @@
       <c r="F189" s="10"/>
       <c r="G189" s="12"/>
     </row>
-    <row r="190" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="190" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A190" s="10">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -6040,7 +6042,7 @@
       <c r="F190" s="10"/>
       <c r="G190" s="12"/>
     </row>
-    <row r="191" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="191" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A191" s="10">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -6056,7 +6058,7 @@
       <c r="F191" s="10"/>
       <c r="G191" s="12"/>
     </row>
-    <row r="192" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="192" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A192" s="10">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -6072,7 +6074,7 @@
       <c r="F192" s="10"/>
       <c r="G192" s="12"/>
     </row>
-    <row r="193" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="193" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A193" s="10">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -6088,7 +6090,7 @@
       <c r="F193" s="10"/>
       <c r="G193" s="12"/>
     </row>
-    <row r="194" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="194" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A194" s="10">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -6104,7 +6106,7 @@
       <c r="F194" s="10"/>
       <c r="G194" s="12"/>
     </row>
-    <row r="195" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="195" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A195" s="10">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -6120,7 +6122,7 @@
       <c r="F195" s="10"/>
       <c r="G195" s="12"/>
     </row>
-    <row r="196" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="196" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A196" s="10">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -6136,7 +6138,7 @@
       <c r="F196" s="10"/>
       <c r="G196" s="12"/>
     </row>
-    <row r="197" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="197" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A197" s="10">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -6152,7 +6154,7 @@
       <c r="F197" s="10"/>
       <c r="G197" s="12"/>
     </row>
-    <row r="198" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="198" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A198" s="10">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -6168,7 +6170,7 @@
       <c r="F198" s="10"/>
       <c r="G198" s="12"/>
     </row>
-    <row r="199" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="199" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A199" s="10">
         <f t="shared" ref="A199:A262" si="3">A198+1</f>
         <v>194</v>
@@ -6184,7 +6186,7 @@
       <c r="F199" s="10"/>
       <c r="G199" s="12"/>
     </row>
-    <row r="200" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="200" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A200" s="10">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -6200,7 +6202,7 @@
       <c r="F200" s="10"/>
       <c r="G200" s="12"/>
     </row>
-    <row r="201" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="201" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A201" s="10">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -6216,7 +6218,7 @@
       <c r="F201" s="10"/>
       <c r="G201" s="12"/>
     </row>
-    <row r="202" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="202" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A202" s="10">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -6232,7 +6234,7 @@
       <c r="F202" s="10"/>
       <c r="G202" s="12"/>
     </row>
-    <row r="203" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="203" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A203" s="10">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -6248,7 +6250,7 @@
       <c r="F203" s="10"/>
       <c r="G203" s="12"/>
     </row>
-    <row r="204" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="204" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A204" s="10">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -6264,7 +6266,7 @@
       <c r="F204" s="10"/>
       <c r="G204" s="12"/>
     </row>
-    <row r="205" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="205" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A205" s="10">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -6280,7 +6282,7 @@
       <c r="F205" s="10"/>
       <c r="G205" s="12"/>
     </row>
-    <row r="206" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="206" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A206" s="10">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -6296,7 +6298,7 @@
       <c r="F206" s="10"/>
       <c r="G206" s="12"/>
     </row>
-    <row r="207" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="207" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A207" s="10">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -6312,7 +6314,7 @@
       <c r="F207" s="10"/>
       <c r="G207" s="12"/>
     </row>
-    <row r="208" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="208" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A208" s="10">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -6328,7 +6330,7 @@
       <c r="F208" s="10"/>
       <c r="G208" s="12"/>
     </row>
-    <row r="209" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="209" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A209" s="10">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -6344,7 +6346,7 @@
       <c r="F209" s="10"/>
       <c r="G209" s="12"/>
     </row>
-    <row r="210" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="210" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A210" s="10">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -6362,7 +6364,7 @@
       <c r="F210" s="10"/>
       <c r="G210" s="12"/>
     </row>
-    <row r="211" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="211" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A211" s="10">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -6398,7 +6400,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="213" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A213" s="10">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -6434,7 +6436,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="215" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A215" s="10">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -6450,7 +6452,7 @@
       <c r="F215" s="10"/>
       <c r="G215" s="12"/>
     </row>
-    <row r="216" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="216" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A216" s="10">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -6466,7 +6468,7 @@
       <c r="F216" s="10"/>
       <c r="G216" s="12"/>
     </row>
-    <row r="217" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="217" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A217" s="10">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -6482,7 +6484,7 @@
       <c r="F217" s="10"/>
       <c r="G217" s="12"/>
     </row>
-    <row r="218" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="218" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A218" s="10">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -6498,7 +6500,7 @@
       <c r="F218" s="10"/>
       <c r="G218" s="12"/>
     </row>
-    <row r="219" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="219" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A219" s="10">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -6514,7 +6516,7 @@
       <c r="F219" s="10"/>
       <c r="G219" s="12"/>
     </row>
-    <row r="220" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="220" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A220" s="10">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -6532,7 +6534,7 @@
       <c r="F220" s="10"/>
       <c r="G220" s="12"/>
     </row>
-    <row r="221" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="221" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A221" s="10">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -6548,7 +6550,7 @@
       <c r="F221" s="10"/>
       <c r="G221" s="12"/>
     </row>
-    <row r="222" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="222" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A222" s="10">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -6564,7 +6566,7 @@
       <c r="F222" s="10"/>
       <c r="G222" s="12"/>
     </row>
-    <row r="223" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="223" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A223" s="10">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -6580,7 +6582,7 @@
       <c r="F223" s="10"/>
       <c r="G223" s="12"/>
     </row>
-    <row r="224" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="224" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A224" s="10">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -6598,7 +6600,7 @@
       <c r="F224" s="10"/>
       <c r="G224" s="12"/>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A225" s="10">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -6614,7 +6616,7 @@
       <c r="F225" s="10"/>
       <c r="G225" s="12"/>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="226" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A226" s="10">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -6630,7 +6632,7 @@
       <c r="F226" s="10"/>
       <c r="G226" s="12"/>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="227" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A227" s="10">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -6646,7 +6648,7 @@
       <c r="F227" s="10"/>
       <c r="G227" s="12"/>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A228" s="10">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -6662,7 +6664,7 @@
       <c r="F228" s="10"/>
       <c r="G228" s="12"/>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="229" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A229" s="10">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -6678,7 +6680,7 @@
       <c r="F229" s="10"/>
       <c r="G229" s="12"/>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="230" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A230" s="10">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -6694,7 +6696,7 @@
       <c r="F230" s="10"/>
       <c r="G230" s="12"/>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="231" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A231" s="10">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -6710,7 +6712,7 @@
       <c r="F231" s="10"/>
       <c r="G231" s="12"/>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="232" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A232" s="10">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -6726,7 +6728,7 @@
       <c r="F232" s="10"/>
       <c r="G232" s="12"/>
     </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="233" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A233" s="10">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -6742,7 +6744,7 @@
       <c r="F233" s="10"/>
       <c r="G233" s="12"/>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A234" s="10">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -6760,7 +6762,7 @@
       <c r="F234" s="10"/>
       <c r="G234" s="12"/>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="235" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A235" s="10">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -6796,7 +6798,7 @@
       <c r="F236" s="10"/>
       <c r="G236" s="12"/>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="237" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A237" s="10">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -6812,7 +6814,7 @@
       <c r="F237" s="10"/>
       <c r="G237" s="12"/>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="238" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A238" s="10">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -6828,7 +6830,7 @@
       <c r="F238" s="10"/>
       <c r="G238" s="12"/>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="239" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A239" s="10">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -6844,7 +6846,7 @@
       <c r="F239" s="10"/>
       <c r="G239" s="12"/>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="240" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A240" s="10">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -6860,7 +6862,7 @@
       <c r="F240" s="10"/>
       <c r="G240" s="12"/>
     </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A241" s="10">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -6876,7 +6878,7 @@
       <c r="F241" s="10"/>
       <c r="G241" s="12"/>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="242" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A242" s="10">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -6892,7 +6894,7 @@
       <c r="F242" s="10"/>
       <c r="G242" s="12"/>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="243" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A243" s="10">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -6908,7 +6910,7 @@
       <c r="F243" s="10"/>
       <c r="G243" s="12"/>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="244" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A244" s="10">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -6924,7 +6926,7 @@
       <c r="F244" s="10"/>
       <c r="G244" s="12"/>
     </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="245" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A245" s="10">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -6940,7 +6942,7 @@
       <c r="F245" s="10"/>
       <c r="G245" s="12"/>
     </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="246" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A246" s="10">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -6956,7 +6958,7 @@
       <c r="F246" s="10"/>
       <c r="G246" s="12"/>
     </row>
-    <row r="247" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="247" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A247" s="10">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -6974,7 +6976,7 @@
       <c r="F247" s="10"/>
       <c r="G247" s="12"/>
     </row>
-    <row r="248" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="248" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A248" s="10">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -6990,7 +6992,7 @@
       <c r="F248" s="10"/>
       <c r="G248" s="12"/>
     </row>
-    <row r="249" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="249" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A249" s="10">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -7008,7 +7010,7 @@
       <c r="F249" s="10"/>
       <c r="G249" s="12"/>
     </row>
-    <row r="250" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="250" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A250" s="10">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -7024,7 +7026,7 @@
       <c r="F250" s="10"/>
       <c r="G250" s="12"/>
     </row>
-    <row r="251" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="251" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A251" s="10">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -7040,7 +7042,7 @@
       <c r="F251" s="10"/>
       <c r="G251" s="12"/>
     </row>
-    <row r="252" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="252" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A252" s="10">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -7056,7 +7058,7 @@
       <c r="F252" s="10"/>
       <c r="G252" s="12"/>
     </row>
-    <row r="253" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="253" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A253" s="10">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -7072,7 +7074,7 @@
       <c r="F253" s="10"/>
       <c r="G253" s="12"/>
     </row>
-    <row r="254" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="254" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A254" s="10">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -7088,7 +7090,7 @@
       <c r="F254" s="10"/>
       <c r="G254" s="12"/>
     </row>
-    <row r="255" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="255" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A255" s="10">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -7104,7 +7106,7 @@
       <c r="F255" s="10"/>
       <c r="G255" s="12"/>
     </row>
-    <row r="256" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="256" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A256" s="10">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -7120,7 +7122,7 @@
       <c r="F256" s="10"/>
       <c r="G256" s="12"/>
     </row>
-    <row r="257" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="257" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A257" s="10">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -7136,7 +7138,7 @@
       <c r="F257" s="10"/>
       <c r="G257" s="12"/>
     </row>
-    <row r="258" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="258" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A258" s="10">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -7152,7 +7154,7 @@
       <c r="F258" s="10"/>
       <c r="G258" s="12"/>
     </row>
-    <row r="259" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="259" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A259" s="10">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -7168,7 +7170,7 @@
       <c r="F259" s="10"/>
       <c r="G259" s="12"/>
     </row>
-    <row r="260" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="260" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A260" s="10">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -7184,7 +7186,7 @@
       <c r="F260" s="10"/>
       <c r="G260" s="12"/>
     </row>
-    <row r="261" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="261" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A261" s="10">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -7200,7 +7202,7 @@
       <c r="F261" s="10"/>
       <c r="G261" s="12"/>
     </row>
-    <row r="262" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="262" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A262" s="10">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -7216,7 +7218,7 @@
       <c r="F262" s="10"/>
       <c r="G262" s="12"/>
     </row>
-    <row r="263" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="263" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A263" s="10">
         <f t="shared" ref="A263:A326" si="4">A262+1</f>
         <v>258</v>
@@ -7232,7 +7234,7 @@
       <c r="F263" s="10"/>
       <c r="G263" s="12"/>
     </row>
-    <row r="264" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="264" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A264" s="10">
         <f t="shared" si="4"/>
         <v>259</v>
@@ -7248,7 +7250,7 @@
       <c r="F264" s="10"/>
       <c r="G264" s="12"/>
     </row>
-    <row r="265" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="265" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A265" s="10">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -7264,7 +7266,7 @@
       <c r="F265" s="10"/>
       <c r="G265" s="12"/>
     </row>
-    <row r="266" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="266" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A266" s="10">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -7280,7 +7282,7 @@
       <c r="F266" s="10"/>
       <c r="G266" s="12"/>
     </row>
-    <row r="267" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="267" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A267" s="10">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -7296,7 +7298,7 @@
       <c r="F267" s="10"/>
       <c r="G267" s="12"/>
     </row>
-    <row r="268" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="268" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A268" s="10">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -7312,7 +7314,7 @@
       <c r="F268" s="10"/>
       <c r="G268" s="12"/>
     </row>
-    <row r="269" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="269" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A269" s="10">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -7328,7 +7330,7 @@
       <c r="F269" s="10"/>
       <c r="G269" s="12"/>
     </row>
-    <row r="270" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="270" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A270" s="10">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -7344,7 +7346,7 @@
       <c r="F270" s="10"/>
       <c r="G270" s="12"/>
     </row>
-    <row r="271" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="271" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A271" s="10">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -7360,7 +7362,7 @@
       <c r="F271" s="10"/>
       <c r="G271" s="12"/>
     </row>
-    <row r="272" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="272" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A272" s="10">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -7376,7 +7378,7 @@
       <c r="F272" s="10"/>
       <c r="G272" s="12"/>
     </row>
-    <row r="273" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="273" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A273" s="10">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -7392,7 +7394,7 @@
       <c r="F273" s="10"/>
       <c r="G273" s="12"/>
     </row>
-    <row r="274" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="274" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A274" s="10">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -7408,7 +7410,7 @@
       <c r="F274" s="10"/>
       <c r="G274" s="12"/>
     </row>
-    <row r="275" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="275" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A275" s="10">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -7424,7 +7426,7 @@
       <c r="F275" s="10"/>
       <c r="G275" s="12"/>
     </row>
-    <row r="276" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="276" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A276" s="10">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -7440,7 +7442,7 @@
       <c r="F276" s="10"/>
       <c r="G276" s="12"/>
     </row>
-    <row r="277" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="277" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A277" s="10">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -7458,7 +7460,7 @@
       <c r="F277" s="10"/>
       <c r="G277" s="12"/>
     </row>
-    <row r="278" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="278" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A278" s="10">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -7474,7 +7476,7 @@
       <c r="F278" s="10"/>
       <c r="G278" s="12"/>
     </row>
-    <row r="279" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="279" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A279" s="10">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -7490,7 +7492,7 @@
       <c r="F279" s="10"/>
       <c r="G279" s="12"/>
     </row>
-    <row r="280" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="280" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A280" s="10">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -7506,7 +7508,7 @@
       <c r="F280" s="10"/>
       <c r="G280" s="12"/>
     </row>
-    <row r="281" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="281" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A281" s="10">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -7522,7 +7524,7 @@
       <c r="F281" s="10"/>
       <c r="G281" s="12"/>
     </row>
-    <row r="282" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="282" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A282" s="10">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -7540,7 +7542,7 @@
       <c r="F282" s="10"/>
       <c r="G282" s="12"/>
     </row>
-    <row r="283" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="283" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A283" s="10">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -7556,7 +7558,7 @@
       <c r="F283" s="10"/>
       <c r="G283" s="12"/>
     </row>
-    <row r="284" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="284" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A284" s="10">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -7574,7 +7576,7 @@
       <c r="F284" s="10"/>
       <c r="G284" s="12"/>
     </row>
-    <row r="285" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="285" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A285" s="10">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -7590,7 +7592,7 @@
       <c r="F285" s="10"/>
       <c r="G285" s="12"/>
     </row>
-    <row r="286" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="286" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A286" s="10">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -7606,7 +7608,7 @@
       <c r="F286" s="10"/>
       <c r="G286" s="12"/>
     </row>
-    <row r="287" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="287" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A287" s="10">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -7622,7 +7624,7 @@
       <c r="F287" s="10"/>
       <c r="G287" s="12"/>
     </row>
-    <row r="288" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="288" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A288" s="10">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -7638,7 +7640,7 @@
       <c r="F288" s="10"/>
       <c r="G288" s="12"/>
     </row>
-    <row r="289" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="289" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A289" s="10">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -7654,7 +7656,7 @@
       <c r="F289" s="10"/>
       <c r="G289" s="12"/>
     </row>
-    <row r="290" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="290" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A290" s="10">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -7670,7 +7672,7 @@
       <c r="F290" s="10"/>
       <c r="G290" s="12"/>
     </row>
-    <row r="291" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="291" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A291" s="10">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -7686,7 +7688,7 @@
       <c r="F291" s="10"/>
       <c r="G291" s="12"/>
     </row>
-    <row r="292" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="292" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A292" s="10">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -7702,7 +7704,7 @@
       <c r="F292" s="10"/>
       <c r="G292" s="12"/>
     </row>
-    <row r="293" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="293" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A293" s="10">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -7718,7 +7720,7 @@
       <c r="F293" s="10"/>
       <c r="G293" s="12"/>
     </row>
-    <row r="294" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="294" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A294" s="10">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -7734,7 +7736,7 @@
       <c r="F294" s="10"/>
       <c r="G294" s="12"/>
     </row>
-    <row r="295" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="295" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A295" s="10">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -7786,7 +7788,7 @@
       <c r="F297" s="10"/>
       <c r="G297" s="12"/>
     </row>
-    <row r="298" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="298" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A298" s="10">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -7802,7 +7804,7 @@
       <c r="F298" s="10"/>
       <c r="G298" s="12"/>
     </row>
-    <row r="299" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="299" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A299" s="10">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -7818,7 +7820,7 @@
       <c r="F299" s="10"/>
       <c r="G299" s="12"/>
     </row>
-    <row r="300" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="300" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A300" s="10">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -7834,7 +7836,7 @@
       <c r="F300" s="10"/>
       <c r="G300" s="12"/>
     </row>
-    <row r="301" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="301" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A301" s="10">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -7850,7 +7852,7 @@
       <c r="F301" s="10"/>
       <c r="G301" s="12"/>
     </row>
-    <row r="302" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="302" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A302" s="10">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -7866,7 +7868,7 @@
       <c r="F302" s="10"/>
       <c r="G302" s="12"/>
     </row>
-    <row r="303" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="303" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A303" s="10">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -7882,7 +7884,7 @@
       <c r="F303" s="10"/>
       <c r="G303" s="12"/>
     </row>
-    <row r="304" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="304" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A304" s="10">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -7898,7 +7900,7 @@
       <c r="F304" s="10"/>
       <c r="G304" s="12"/>
     </row>
-    <row r="305" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="305" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A305" s="10">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -7914,7 +7916,7 @@
       <c r="F305" s="10"/>
       <c r="G305" s="12"/>
     </row>
-    <row r="306" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="306" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A306" s="10">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -7930,7 +7932,7 @@
       <c r="F306" s="10"/>
       <c r="G306" s="12"/>
     </row>
-    <row r="307" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="307" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A307" s="10">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -7946,7 +7948,7 @@
       <c r="F307" s="10"/>
       <c r="G307" s="12"/>
     </row>
-    <row r="308" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="308" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A308" s="10">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -7962,7 +7964,7 @@
       <c r="F308" s="10"/>
       <c r="G308" s="12"/>
     </row>
-    <row r="309" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="309" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A309" s="10">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -7978,7 +7980,7 @@
       <c r="F309" s="10"/>
       <c r="G309" s="12"/>
     </row>
-    <row r="310" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="310" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A310" s="10">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -7994,7 +7996,7 @@
       <c r="F310" s="10"/>
       <c r="G310" s="12"/>
     </row>
-    <row r="311" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="311" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A311" s="10">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -8028,7 +8030,7 @@
       <c r="F312" s="10"/>
       <c r="G312" s="12"/>
     </row>
-    <row r="313" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="313" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A313" s="10">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -8044,7 +8046,7 @@
       <c r="F313" s="10"/>
       <c r="G313" s="12"/>
     </row>
-    <row r="314" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="314" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A314" s="10">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -8060,7 +8062,7 @@
       <c r="F314" s="10"/>
       <c r="G314" s="12"/>
     </row>
-    <row r="315" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="315" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A315" s="10">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -8076,7 +8078,7 @@
       <c r="F315" s="10"/>
       <c r="G315" s="12"/>
     </row>
-    <row r="316" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="316" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A316" s="10">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -8092,7 +8094,7 @@
       <c r="F316" s="10"/>
       <c r="G316" s="12"/>
     </row>
-    <row r="317" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="317" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A317" s="10">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -8108,7 +8110,7 @@
       <c r="F317" s="10"/>
       <c r="G317" s="12"/>
     </row>
-    <row r="318" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="318" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A318" s="10">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -8124,7 +8126,7 @@
       <c r="F318" s="10"/>
       <c r="G318" s="12"/>
     </row>
-    <row r="319" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="319" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A319" s="10">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -8140,7 +8142,7 @@
       <c r="F319" s="10"/>
       <c r="G319" s="12"/>
     </row>
-    <row r="320" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="320" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A320" s="10">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -8156,7 +8158,7 @@
       <c r="F320" s="10"/>
       <c r="G320" s="12"/>
     </row>
-    <row r="321" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="321" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A321" s="10">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -8172,7 +8174,7 @@
       <c r="F321" s="10"/>
       <c r="G321" s="12"/>
     </row>
-    <row r="322" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="322" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A322" s="10">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -8188,7 +8190,7 @@
       <c r="F322" s="10"/>
       <c r="G322" s="12"/>
     </row>
-    <row r="323" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="323" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A323" s="10">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -8204,7 +8206,7 @@
       <c r="F323" s="10"/>
       <c r="G323" s="12"/>
     </row>
-    <row r="324" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="324" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A324" s="10">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -8220,7 +8222,7 @@
       <c r="F324" s="10"/>
       <c r="G324" s="12"/>
     </row>
-    <row r="325" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="325" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A325" s="10">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -8236,7 +8238,7 @@
       <c r="F325" s="10"/>
       <c r="G325" s="12"/>
     </row>
-    <row r="326" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="326" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A326" s="10">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -8252,7 +8254,7 @@
       <c r="F326" s="10"/>
       <c r="G326" s="12"/>
     </row>
-    <row r="327" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="327" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A327" s="10">
         <f t="shared" ref="A327:A390" si="5">A326+1</f>
         <v>322</v>
@@ -8268,7 +8270,7 @@
       <c r="F327" s="10"/>
       <c r="G327" s="12"/>
     </row>
-    <row r="328" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="328" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A328" s="10">
         <f t="shared" si="5"/>
         <v>323</v>
@@ -8284,7 +8286,7 @@
       <c r="F328" s="10"/>
       <c r="G328" s="12"/>
     </row>
-    <row r="329" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="329" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A329" s="10">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -8300,7 +8302,7 @@
       <c r="F329" s="10"/>
       <c r="G329" s="12"/>
     </row>
-    <row r="330" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="330" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A330" s="10">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -8316,7 +8318,7 @@
       <c r="F330" s="10"/>
       <c r="G330" s="12"/>
     </row>
-    <row r="331" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="331" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A331" s="10">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -8332,7 +8334,7 @@
       <c r="F331" s="10"/>
       <c r="G331" s="12"/>
     </row>
-    <row r="332" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="332" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A332" s="10">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -8348,7 +8350,7 @@
       <c r="F332" s="10"/>
       <c r="G332" s="12"/>
     </row>
-    <row r="333" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="333" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A333" s="10">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -8364,7 +8366,7 @@
       <c r="F333" s="10"/>
       <c r="G333" s="12"/>
     </row>
-    <row r="334" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="334" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A334" s="10">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -8380,7 +8382,7 @@
       <c r="F334" s="10"/>
       <c r="G334" s="12"/>
     </row>
-    <row r="335" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="335" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A335" s="10">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -8396,7 +8398,7 @@
       <c r="F335" s="10"/>
       <c r="G335" s="12"/>
     </row>
-    <row r="336" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="336" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A336" s="10">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -8414,7 +8416,7 @@
       <c r="F336" s="10"/>
       <c r="G336" s="12"/>
     </row>
-    <row r="337" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="337" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A337" s="10">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -8432,7 +8434,7 @@
       <c r="F337" s="10"/>
       <c r="G337" s="12"/>
     </row>
-    <row r="338" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="338" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A338" s="10">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -8448,7 +8450,7 @@
       <c r="F338" s="10"/>
       <c r="G338" s="12"/>
     </row>
-    <row r="339" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="339" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A339" s="10">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -8464,7 +8466,7 @@
       <c r="F339" s="10"/>
       <c r="G339" s="12"/>
     </row>
-    <row r="340" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="340" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A340" s="10">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -8480,7 +8482,7 @@
       <c r="F340" s="10"/>
       <c r="G340" s="12"/>
     </row>
-    <row r="341" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="341" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A341" s="10">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -8496,7 +8498,7 @@
       <c r="F341" s="10"/>
       <c r="G341" s="12"/>
     </row>
-    <row r="342" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="342" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A342" s="10">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -8512,7 +8514,7 @@
       <c r="F342" s="10"/>
       <c r="G342" s="12"/>
     </row>
-    <row r="343" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="343" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A343" s="10">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -8528,7 +8530,7 @@
       <c r="F343" s="10"/>
       <c r="G343" s="12"/>
     </row>
-    <row r="344" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="344" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A344" s="10">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -8546,7 +8548,7 @@
       <c r="F344" s="10"/>
       <c r="G344" s="12"/>
     </row>
-    <row r="345" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="345" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A345" s="10">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -8562,7 +8564,7 @@
       <c r="F345" s="10"/>
       <c r="G345" s="12"/>
     </row>
-    <row r="346" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="346" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A346" s="10">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -8578,7 +8580,7 @@
       <c r="F346" s="10"/>
       <c r="G346" s="12"/>
     </row>
-    <row r="347" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="347" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A347" s="10">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -8594,7 +8596,7 @@
       <c r="F347" s="10"/>
       <c r="G347" s="12"/>
     </row>
-    <row r="348" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="348" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A348" s="10">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -8610,7 +8612,7 @@
       <c r="F348" s="10"/>
       <c r="G348" s="12"/>
     </row>
-    <row r="349" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="349" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A349" s="10">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -8626,7 +8628,7 @@
       <c r="F349" s="10"/>
       <c r="G349" s="12"/>
     </row>
-    <row r="350" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="350" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A350" s="10">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -8642,7 +8644,7 @@
       <c r="F350" s="10"/>
       <c r="G350" s="12"/>
     </row>
-    <row r="351" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="351" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A351" s="10">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -8660,7 +8662,7 @@
       <c r="F351" s="10"/>
       <c r="G351" s="12"/>
     </row>
-    <row r="352" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="352" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A352" s="10">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -8676,7 +8678,7 @@
       <c r="F352" s="10"/>
       <c r="G352" s="12"/>
     </row>
-    <row r="353" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="353" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A353" s="10">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -8694,7 +8696,7 @@
       <c r="F353" s="10"/>
       <c r="G353" s="12"/>
     </row>
-    <row r="354" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="354" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A354" s="10">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -8710,7 +8712,7 @@
       <c r="F354" s="10"/>
       <c r="G354" s="12"/>
     </row>
-    <row r="355" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="355" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A355" s="10">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -8726,7 +8728,7 @@
       <c r="F355" s="10"/>
       <c r="G355" s="12"/>
     </row>
-    <row r="356" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="356" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A356" s="10">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -8742,7 +8744,7 @@
       <c r="F356" s="10"/>
       <c r="G356" s="12"/>
     </row>
-    <row r="357" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="357" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A357" s="10">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -8758,7 +8760,7 @@
       <c r="F357" s="10"/>
       <c r="G357" s="12"/>
     </row>
-    <row r="358" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="358" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A358" s="10">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -8774,7 +8776,7 @@
       <c r="F358" s="10"/>
       <c r="G358" s="12"/>
     </row>
-    <row r="359" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="359" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A359" s="10">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -8790,7 +8792,7 @@
       <c r="F359" s="10"/>
       <c r="G359" s="12"/>
     </row>
-    <row r="360" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="360" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A360" s="10">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -8806,7 +8808,7 @@
       <c r="F360" s="10"/>
       <c r="G360" s="12"/>
     </row>
-    <row r="361" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="361" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A361" s="10">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -8822,7 +8824,7 @@
       <c r="F361" s="10"/>
       <c r="G361" s="12"/>
     </row>
-    <row r="362" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="362" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A362" s="10">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -8838,7 +8840,7 @@
       <c r="F362" s="10"/>
       <c r="G362" s="12"/>
     </row>
-    <row r="363" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="363" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A363" s="10">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -8854,7 +8856,7 @@
       <c r="F363" s="10"/>
       <c r="G363" s="12"/>
     </row>
-    <row r="364" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="364" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A364" s="10">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -8870,7 +8872,7 @@
       <c r="F364" s="10"/>
       <c r="G364" s="12"/>
     </row>
-    <row r="365" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="365" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A365" s="10">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -8886,7 +8888,7 @@
       <c r="F365" s="10"/>
       <c r="G365" s="12"/>
     </row>
-    <row r="366" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="366" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A366" s="10">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -8902,7 +8904,7 @@
       <c r="F366" s="10"/>
       <c r="G366" s="12"/>
     </row>
-    <row r="367" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="367" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A367" s="10">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -8918,7 +8920,7 @@
       <c r="F367" s="10"/>
       <c r="G367" s="12"/>
     </row>
-    <row r="368" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="368" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A368" s="10">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -8934,7 +8936,7 @@
       <c r="F368" s="10"/>
       <c r="G368" s="12"/>
     </row>
-    <row r="369" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="369" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A369" s="10">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -8950,7 +8952,7 @@
       <c r="F369" s="10"/>
       <c r="G369" s="12"/>
     </row>
-    <row r="370" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="370" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A370" s="10">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -8966,7 +8968,7 @@
       <c r="F370" s="10"/>
       <c r="G370" s="12"/>
     </row>
-    <row r="371" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="371" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A371" s="10">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -8982,7 +8984,7 @@
       <c r="F371" s="10"/>
       <c r="G371" s="12"/>
     </row>
-    <row r="372" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="372" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A372" s="10">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -8998,7 +9000,7 @@
       <c r="F372" s="10"/>
       <c r="G372" s="12"/>
     </row>
-    <row r="373" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="373" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A373" s="10">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -9014,7 +9016,7 @@
       <c r="F373" s="10"/>
       <c r="G373" s="12"/>
     </row>
-    <row r="374" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="374" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A374" s="10">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -9030,7 +9032,7 @@
       <c r="F374" s="10"/>
       <c r="G374" s="12"/>
     </row>
-    <row r="375" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="375" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A375" s="10">
         <f t="shared" si="5"/>
         <v>370</v>
@@ -9046,7 +9048,7 @@
       <c r="F375" s="10"/>
       <c r="G375" s="12"/>
     </row>
-    <row r="376" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="376" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A376" s="10">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -9062,7 +9064,7 @@
       <c r="F376" s="10"/>
       <c r="G376" s="12"/>
     </row>
-    <row r="377" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="377" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A377" s="10">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -9078,7 +9080,7 @@
       <c r="F377" s="10"/>
       <c r="G377" s="12"/>
     </row>
-    <row r="378" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="378" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A378" s="10">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -9094,7 +9096,7 @@
       <c r="F378" s="10"/>
       <c r="G378" s="12"/>
     </row>
-    <row r="379" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="379" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A379" s="10">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -9110,7 +9112,7 @@
       <c r="F379" s="10"/>
       <c r="G379" s="12"/>
     </row>
-    <row r="380" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="380" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A380" s="10">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -9126,7 +9128,7 @@
       <c r="F380" s="10"/>
       <c r="G380" s="12"/>
     </row>
-    <row r="381" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="381" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A381" s="10">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -9142,7 +9144,7 @@
       <c r="F381" s="10"/>
       <c r="G381" s="12"/>
     </row>
-    <row r="382" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="382" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A382" s="10">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -9158,7 +9160,7 @@
       <c r="F382" s="10"/>
       <c r="G382" s="12"/>
     </row>
-    <row r="383" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="383" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A383" s="10">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -9174,7 +9176,7 @@
       <c r="F383" s="10"/>
       <c r="G383" s="12"/>
     </row>
-    <row r="384" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="384" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A384" s="10">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -9190,7 +9192,7 @@
       <c r="F384" s="10"/>
       <c r="G384" s="12"/>
     </row>
-    <row r="385" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="385" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A385" s="10">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -9206,7 +9208,7 @@
       <c r="F385" s="10"/>
       <c r="G385" s="12"/>
     </row>
-    <row r="386" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="386" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A386" s="10">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -9222,7 +9224,7 @@
       <c r="F386" s="10"/>
       <c r="G386" s="12"/>
     </row>
-    <row r="387" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="387" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A387" s="10">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -9256,7 +9258,7 @@
       <c r="F388" s="10"/>
       <c r="G388" s="12"/>
     </row>
-    <row r="389" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="389" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A389" s="10">
         <f t="shared" si="5"/>
         <v>384</v>
@@ -9274,7 +9276,7 @@
       <c r="F389" s="10"/>
       <c r="G389" s="12"/>
     </row>
-    <row r="390" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="390" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A390" s="10">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -9290,7 +9292,7 @@
       <c r="F390" s="10"/>
       <c r="G390" s="12"/>
     </row>
-    <row r="391" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="391" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A391" s="10">
         <f t="shared" ref="A391:A454" si="6">A390+1</f>
         <v>386</v>
@@ -9306,7 +9308,7 @@
       <c r="F391" s="10"/>
       <c r="G391" s="12"/>
     </row>
-    <row r="392" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="392" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A392" s="10">
         <f t="shared" si="6"/>
         <v>387</v>
@@ -9322,7 +9324,7 @@
       <c r="F392" s="10"/>
       <c r="G392" s="12"/>
     </row>
-    <row r="393" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="393" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A393" s="10">
         <f t="shared" si="6"/>
         <v>388</v>
@@ -9338,7 +9340,7 @@
       <c r="F393" s="10"/>
       <c r="G393" s="12"/>
     </row>
-    <row r="394" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="394" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A394" s="10">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -9354,7 +9356,7 @@
       <c r="F394" s="10"/>
       <c r="G394" s="12"/>
     </row>
-    <row r="395" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="395" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A395" s="10">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -9370,7 +9372,7 @@
       <c r="F395" s="10"/>
       <c r="G395" s="12"/>
     </row>
-    <row r="396" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="396" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A396" s="10">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -9386,7 +9388,7 @@
       <c r="F396" s="10"/>
       <c r="G396" s="12"/>
     </row>
-    <row r="397" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="397" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A397" s="10">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -9402,7 +9404,7 @@
       <c r="F397" s="10"/>
       <c r="G397" s="12"/>
     </row>
-    <row r="398" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="398" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A398" s="10">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -9418,7 +9420,7 @@
       <c r="F398" s="10"/>
       <c r="G398" s="12"/>
     </row>
-    <row r="399" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="399" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A399" s="10">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -9434,7 +9436,7 @@
       <c r="F399" s="10"/>
       <c r="G399" s="12"/>
     </row>
-    <row r="400" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="400" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A400" s="10">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -9450,7 +9452,7 @@
       <c r="F400" s="10"/>
       <c r="G400" s="12"/>
     </row>
-    <row r="401" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="401" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A401" s="10">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -9466,7 +9468,7 @@
       <c r="F401" s="10"/>
       <c r="G401" s="12"/>
     </row>
-    <row r="402" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="402" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A402" s="10">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -9482,7 +9484,7 @@
       <c r="F402" s="10"/>
       <c r="G402" s="12"/>
     </row>
-    <row r="403" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="403" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A403" s="10">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -9516,7 +9518,7 @@
       <c r="F404" s="10"/>
       <c r="G404" s="12"/>
     </row>
-    <row r="405" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="405" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A405" s="10">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -9532,7 +9534,7 @@
       <c r="F405" s="10"/>
       <c r="G405" s="12"/>
     </row>
-    <row r="406" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="406" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A406" s="10">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -9548,7 +9550,7 @@
       <c r="F406" s="10"/>
       <c r="G406" s="12"/>
     </row>
-    <row r="407" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="407" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A407" s="10">
         <f t="shared" si="6"/>
         <v>402</v>
@@ -9564,7 +9566,7 @@
       <c r="F407" s="10"/>
       <c r="G407" s="12"/>
     </row>
-    <row r="408" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="408" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A408" s="10">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -9580,7 +9582,7 @@
       <c r="F408" s="10"/>
       <c r="G408" s="12"/>
     </row>
-    <row r="409" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="409" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A409" s="10">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -9596,7 +9598,7 @@
       <c r="F409" s="10"/>
       <c r="G409" s="12"/>
     </row>
-    <row r="410" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="410" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A410" s="10">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -9612,7 +9614,7 @@
       <c r="F410" s="10"/>
       <c r="G410" s="12"/>
     </row>
-    <row r="411" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="411" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A411" s="10">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -9628,7 +9630,7 @@
       <c r="F411" s="10"/>
       <c r="G411" s="12"/>
     </row>
-    <row r="412" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="412" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A412" s="10">
         <f t="shared" si="6"/>
         <v>407</v>
@@ -9644,7 +9646,7 @@
       <c r="F412" s="10"/>
       <c r="G412" s="12"/>
     </row>
-    <row r="413" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="413" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A413" s="10">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -9660,7 +9662,7 @@
       <c r="F413" s="10"/>
       <c r="G413" s="12"/>
     </row>
-    <row r="414" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="414" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A414" s="10">
         <f t="shared" si="6"/>
         <v>409</v>
@@ -9676,7 +9678,7 @@
       <c r="F414" s="10"/>
       <c r="G414" s="12"/>
     </row>
-    <row r="415" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="415" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A415" s="10">
         <f t="shared" si="6"/>
         <v>410</v>
@@ -9692,7 +9694,7 @@
       <c r="F415" s="10"/>
       <c r="G415" s="12"/>
     </row>
-    <row r="416" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="416" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A416" s="10">
         <f t="shared" si="6"/>
         <v>411</v>
@@ -9708,7 +9710,7 @@
       <c r="F416" s="10"/>
       <c r="G416" s="12"/>
     </row>
-    <row r="417" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="417" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A417" s="10">
         <f t="shared" si="6"/>
         <v>412</v>
@@ -9724,7 +9726,7 @@
       <c r="F417" s="10"/>
       <c r="G417" s="12"/>
     </row>
-    <row r="418" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="418" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A418" s="10">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -9740,7 +9742,7 @@
       <c r="F418" s="10"/>
       <c r="G418" s="12"/>
     </row>
-    <row r="419" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="419" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A419" s="10">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -9756,7 +9758,7 @@
       <c r="F419" s="10"/>
       <c r="G419" s="12"/>
     </row>
-    <row r="420" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="420" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A420" s="10">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -9772,7 +9774,7 @@
       <c r="F420" s="10"/>
       <c r="G420" s="12"/>
     </row>
-    <row r="421" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="421" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A421" s="10">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -9788,7 +9790,7 @@
       <c r="F421" s="10"/>
       <c r="G421" s="12"/>
     </row>
-    <row r="422" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="422" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A422" s="10">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -9804,7 +9806,7 @@
       <c r="F422" s="10"/>
       <c r="G422" s="12"/>
     </row>
-    <row r="423" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="423" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A423" s="10">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -9820,7 +9822,7 @@
       <c r="F423" s="10"/>
       <c r="G423" s="12"/>
     </row>
-    <row r="424" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="424" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A424" s="10">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -9836,7 +9838,7 @@
       <c r="F424" s="10"/>
       <c r="G424" s="12"/>
     </row>
-    <row r="425" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="425" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A425" s="10">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -9852,7 +9854,7 @@
       <c r="F425" s="10"/>
       <c r="G425" s="12"/>
     </row>
-    <row r="426" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="426" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A426" s="10">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -9868,7 +9870,7 @@
       <c r="F426" s="10"/>
       <c r="G426" s="12"/>
     </row>
-    <row r="427" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="427" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A427" s="10">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -9884,7 +9886,7 @@
       <c r="F427" s="10"/>
       <c r="G427" s="12"/>
     </row>
-    <row r="428" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="428" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A428" s="10">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -9900,7 +9902,7 @@
       <c r="F428" s="10"/>
       <c r="G428" s="12"/>
     </row>
-    <row r="429" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="429" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A429" s="10">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -9916,7 +9918,7 @@
       <c r="F429" s="10"/>
       <c r="G429" s="12"/>
     </row>
-    <row r="430" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="430" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A430" s="10">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -9932,7 +9934,7 @@
       <c r="F430" s="10"/>
       <c r="G430" s="12"/>
     </row>
-    <row r="431" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="431" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A431" s="10">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -9948,7 +9950,7 @@
       <c r="F431" s="10"/>
       <c r="G431" s="12"/>
     </row>
-    <row r="432" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="432" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A432" s="10">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -9964,7 +9966,7 @@
       <c r="F432" s="10"/>
       <c r="G432" s="12"/>
     </row>
-    <row r="433" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="433" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A433" s="10">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -9980,7 +9982,7 @@
       <c r="F433" s="10"/>
       <c r="G433" s="12"/>
     </row>
-    <row r="434" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="434" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A434" s="10">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -9996,7 +9998,7 @@
       <c r="F434" s="10"/>
       <c r="G434" s="12"/>
     </row>
-    <row r="435" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="435" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A435" s="10">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -10014,7 +10016,7 @@
       <c r="F435" s="10"/>
       <c r="G435" s="12"/>
     </row>
-    <row r="436" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="436" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A436" s="10">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -10030,7 +10032,7 @@
       <c r="F436" s="10"/>
       <c r="G436" s="12"/>
     </row>
-    <row r="437" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="437" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A437" s="10">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -10048,7 +10050,7 @@
       <c r="F437" s="10"/>
       <c r="G437" s="12"/>
     </row>
-    <row r="438" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="438" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A438" s="10">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -10064,7 +10066,7 @@
       <c r="F438" s="10"/>
       <c r="G438" s="12"/>
     </row>
-    <row r="439" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="439" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A439" s="10">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -10080,7 +10082,7 @@
       <c r="F439" s="10"/>
       <c r="G439" s="12"/>
     </row>
-    <row r="440" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="440" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A440" s="10">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -10096,7 +10098,7 @@
       <c r="F440" s="10"/>
       <c r="G440" s="12"/>
     </row>
-    <row r="441" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="441" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A441" s="10">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -10130,7 +10132,7 @@
       <c r="F442" s="10"/>
       <c r="G442" s="12"/>
     </row>
-    <row r="443" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="443" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A443" s="10">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -10146,7 +10148,7 @@
       <c r="F443" s="10"/>
       <c r="G443" s="12"/>
     </row>
-    <row r="444" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="444" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A444" s="10">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -10162,7 +10164,7 @@
       <c r="F444" s="10"/>
       <c r="G444" s="12"/>
     </row>
-    <row r="445" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="445" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A445" s="10">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -10178,7 +10180,7 @@
       <c r="F445" s="10"/>
       <c r="G445" s="12"/>
     </row>
-    <row r="446" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="446" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A446" s="10">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -10194,7 +10196,7 @@
       <c r="F446" s="10"/>
       <c r="G446" s="12"/>
     </row>
-    <row r="447" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="447" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A447" s="10">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -10210,7 +10212,7 @@
       <c r="F447" s="10"/>
       <c r="G447" s="12"/>
     </row>
-    <row r="448" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="448" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A448" s="10">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -10226,7 +10228,7 @@
       <c r="F448" s="10"/>
       <c r="G448" s="12"/>
     </row>
-    <row r="449" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="449" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A449" s="10">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -10242,7 +10244,7 @@
       <c r="F449" s="10"/>
       <c r="G449" s="12"/>
     </row>
-    <row r="450" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="450" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A450" s="10">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -10258,7 +10260,7 @@
       <c r="F450" s="10"/>
       <c r="G450" s="12"/>
     </row>
-    <row r="451" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="451" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A451" s="10">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -10274,7 +10276,7 @@
       <c r="F451" s="10"/>
       <c r="G451" s="12"/>
     </row>
-    <row r="452" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="452" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A452" s="10">
         <f t="shared" si="6"/>
         <v>447</v>
@@ -10290,7 +10292,7 @@
       <c r="F452" s="10"/>
       <c r="G452" s="12"/>
     </row>
-    <row r="453" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="453" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A453" s="10">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -10306,7 +10308,7 @@
       <c r="F453" s="10"/>
       <c r="G453" s="12"/>
     </row>
-    <row r="454" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="454" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A454" s="10">
         <f t="shared" si="6"/>
         <v>449</v>
@@ -10322,7 +10324,7 @@
       <c r="F454" s="10"/>
       <c r="G454" s="12"/>
     </row>
-    <row r="455" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="455" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A455" s="10">
         <f t="shared" ref="A455:A518" si="7">A454+1</f>
         <v>450</v>
@@ -10338,7 +10340,7 @@
       <c r="F455" s="10"/>
       <c r="G455" s="12"/>
     </row>
-    <row r="456" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="456" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A456" s="10">
         <f t="shared" si="7"/>
         <v>451</v>
@@ -10354,7 +10356,7 @@
       <c r="F456" s="10"/>
       <c r="G456" s="12"/>
     </row>
-    <row r="457" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="457" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A457" s="10">
         <f t="shared" si="7"/>
         <v>452</v>
@@ -10370,7 +10372,7 @@
       <c r="F457" s="10"/>
       <c r="G457" s="12"/>
     </row>
-    <row r="458" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="458" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A458" s="10">
         <f t="shared" si="7"/>
         <v>453</v>
@@ -10386,7 +10388,7 @@
       <c r="F458" s="10"/>
       <c r="G458" s="12"/>
     </row>
-    <row r="459" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="459" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A459" s="10">
         <f t="shared" si="7"/>
         <v>454</v>
@@ -10402,7 +10404,7 @@
       <c r="F459" s="10"/>
       <c r="G459" s="12"/>
     </row>
-    <row r="460" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="460" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A460" s="10">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -10418,7 +10420,7 @@
       <c r="F460" s="10"/>
       <c r="G460" s="12"/>
     </row>
-    <row r="461" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="461" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A461" s="10">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -10434,7 +10436,7 @@
       <c r="F461" s="10"/>
       <c r="G461" s="12"/>
     </row>
-    <row r="462" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="462" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A462" s="10">
         <f t="shared" si="7"/>
         <v>457</v>
@@ -10450,7 +10452,7 @@
       <c r="F462" s="10"/>
       <c r="G462" s="12"/>
     </row>
-    <row r="463" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="463" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A463" s="10">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -10466,7 +10468,7 @@
       <c r="F463" s="10"/>
       <c r="G463" s="12"/>
     </row>
-    <row r="464" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="464" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A464" s="10">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -10482,7 +10484,7 @@
       <c r="F464" s="10"/>
       <c r="G464" s="12"/>
     </row>
-    <row r="465" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="465" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A465" s="10">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -10498,7 +10500,7 @@
       <c r="F465" s="10"/>
       <c r="G465" s="12"/>
     </row>
-    <row r="466" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="466" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A466" s="10">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -10514,7 +10516,7 @@
       <c r="F466" s="10"/>
       <c r="G466" s="12"/>
     </row>
-    <row r="467" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="467" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A467" s="10">
         <f t="shared" si="7"/>
         <v>462</v>
@@ -10530,7 +10532,7 @@
       <c r="F467" s="10"/>
       <c r="G467" s="12"/>
     </row>
-    <row r="468" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="468" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A468" s="10">
         <f t="shared" si="7"/>
         <v>463</v>
@@ -10546,7 +10548,7 @@
       <c r="F468" s="10"/>
       <c r="G468" s="12"/>
     </row>
-    <row r="469" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="469" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A469" s="10">
         <f t="shared" si="7"/>
         <v>464</v>
@@ -10562,7 +10564,7 @@
       <c r="F469" s="10"/>
       <c r="G469" s="12"/>
     </row>
-    <row r="470" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="470" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A470" s="10">
         <f t="shared" si="7"/>
         <v>465</v>
@@ -10578,7 +10580,7 @@
       <c r="F470" s="10"/>
       <c r="G470" s="12"/>
     </row>
-    <row r="471" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="471" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A471" s="10">
         <f t="shared" si="7"/>
         <v>466</v>
@@ -10594,7 +10596,7 @@
       <c r="F471" s="10"/>
       <c r="G471" s="12"/>
     </row>
-    <row r="472" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="472" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A472" s="10">
         <f t="shared" si="7"/>
         <v>467</v>
@@ -10610,7 +10612,7 @@
       <c r="F472" s="10"/>
       <c r="G472" s="12"/>
     </row>
-    <row r="473" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="473" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A473" s="10">
         <f t="shared" si="7"/>
         <v>468</v>
@@ -10626,7 +10628,7 @@
       <c r="F473" s="10"/>
       <c r="G473" s="12"/>
     </row>
-    <row r="474" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="474" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A474" s="10">
         <f t="shared" si="7"/>
         <v>469</v>
@@ -10642,7 +10644,7 @@
       <c r="F474" s="10"/>
       <c r="G474" s="12"/>
     </row>
-    <row r="475" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="475" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A475" s="10">
         <f t="shared" si="7"/>
         <v>470</v>
@@ -10658,7 +10660,7 @@
       <c r="F475" s="10"/>
       <c r="G475" s="12"/>
     </row>
-    <row r="476" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="476" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A476" s="10">
         <f t="shared" si="7"/>
         <v>471</v>
@@ -10674,7 +10676,7 @@
       <c r="F476" s="10"/>
       <c r="G476" s="12"/>
     </row>
-    <row r="477" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="477" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A477" s="10">
         <f t="shared" si="7"/>
         <v>472</v>
@@ -10690,7 +10692,7 @@
       <c r="F477" s="10"/>
       <c r="G477" s="12"/>
     </row>
-    <row r="478" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="478" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A478" s="10">
         <f t="shared" si="7"/>
         <v>473</v>
@@ -10706,7 +10708,7 @@
       <c r="F478" s="10"/>
       <c r="G478" s="12"/>
     </row>
-    <row r="479" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="479" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A479" s="10">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -10722,7 +10724,7 @@
       <c r="F479" s="10"/>
       <c r="G479" s="12"/>
     </row>
-    <row r="480" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="480" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A480" s="10">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -10738,7 +10740,7 @@
       <c r="F480" s="10"/>
       <c r="G480" s="12"/>
     </row>
-    <row r="481" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="481" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A481" s="10">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -10754,7 +10756,7 @@
       <c r="F481" s="10"/>
       <c r="G481" s="12"/>
     </row>
-    <row r="482" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="482" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A482" s="10">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -10770,7 +10772,7 @@
       <c r="F482" s="10"/>
       <c r="G482" s="12"/>
     </row>
-    <row r="483" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="483" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A483" s="10">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -10786,7 +10788,7 @@
       <c r="F483" s="10"/>
       <c r="G483" s="12"/>
     </row>
-    <row r="484" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="484" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A484" s="10">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -10802,7 +10804,7 @@
       <c r="F484" s="10"/>
       <c r="G484" s="12"/>
     </row>
-    <row r="485" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="485" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A485" s="10">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -10818,7 +10820,7 @@
       <c r="F485" s="10"/>
       <c r="G485" s="12"/>
     </row>
-    <row r="486" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="486" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A486" s="10">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -10834,7 +10836,7 @@
       <c r="F486" s="10"/>
       <c r="G486" s="12"/>
     </row>
-    <row r="487" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="487" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A487" s="10">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -10850,7 +10852,7 @@
       <c r="F487" s="10"/>
       <c r="G487" s="12"/>
     </row>
-    <row r="488" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="488" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A488" s="10">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -10866,7 +10868,7 @@
       <c r="F488" s="10"/>
       <c r="G488" s="12"/>
     </row>
-    <row r="489" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="489" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A489" s="10">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -10882,7 +10884,7 @@
       <c r="F489" s="10"/>
       <c r="G489" s="12"/>
     </row>
-    <row r="490" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="490" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A490" s="10">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -10898,7 +10900,7 @@
       <c r="F490" s="10"/>
       <c r="G490" s="12"/>
     </row>
-    <row r="491" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="491" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A491" s="10">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -10914,7 +10916,7 @@
       <c r="F491" s="10"/>
       <c r="G491" s="12"/>
     </row>
-    <row r="492" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="492" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A492" s="10">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -10930,7 +10932,7 @@
       <c r="F492" s="10"/>
       <c r="G492" s="12"/>
     </row>
-    <row r="493" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="493" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A493" s="10">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -10946,7 +10948,7 @@
       <c r="F493" s="10"/>
       <c r="G493" s="12"/>
     </row>
-    <row r="494" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="494" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A494" s="10">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -10962,7 +10964,7 @@
       <c r="F494" s="10"/>
       <c r="G494" s="12"/>
     </row>
-    <row r="495" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="495" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A495" s="10">
         <f t="shared" si="7"/>
         <v>490</v>
@@ -10978,7 +10980,7 @@
       <c r="F495" s="10"/>
       <c r="G495" s="12"/>
     </row>
-    <row r="496" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="496" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A496" s="10">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -10994,7 +10996,7 @@
       <c r="F496" s="10"/>
       <c r="G496" s="12"/>
     </row>
-    <row r="497" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="497" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A497" s="10">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -11010,7 +11012,7 @@
       <c r="F497" s="10"/>
       <c r="G497" s="12"/>
     </row>
-    <row r="498" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="498" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A498" s="10">
         <f t="shared" si="7"/>
         <v>493</v>
@@ -11026,7 +11028,7 @@
       <c r="F498" s="10"/>
       <c r="G498" s="12"/>
     </row>
-    <row r="499" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="499" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A499" s="10">
         <f t="shared" si="7"/>
         <v>494</v>
@@ -11042,7 +11044,7 @@
       <c r="F499" s="10"/>
       <c r="G499" s="12"/>
     </row>
-    <row r="500" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="500" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A500" s="10">
         <f t="shared" si="7"/>
         <v>495</v>
@@ -11058,7 +11060,7 @@
       <c r="F500" s="10"/>
       <c r="G500" s="12"/>
     </row>
-    <row r="501" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="501" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A501" s="10">
         <f t="shared" si="7"/>
         <v>496</v>
@@ -11074,7 +11076,7 @@
       <c r="F501" s="10"/>
       <c r="G501" s="12"/>
     </row>
-    <row r="502" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="502" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A502" s="10">
         <f t="shared" si="7"/>
         <v>497</v>
@@ -11090,7 +11092,7 @@
       <c r="F502" s="10"/>
       <c r="G502" s="12"/>
     </row>
-    <row r="503" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="503" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A503" s="10">
         <f t="shared" si="7"/>
         <v>498</v>
@@ -11106,7 +11108,7 @@
       <c r="F503" s="10"/>
       <c r="G503" s="12"/>
     </row>
-    <row r="504" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="504" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A504" s="10">
         <f t="shared" si="7"/>
         <v>499</v>
@@ -11122,7 +11124,7 @@
       <c r="F504" s="10"/>
       <c r="G504" s="12"/>
     </row>
-    <row r="505" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="505" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A505" s="10">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -11138,7 +11140,7 @@
       <c r="F505" s="10"/>
       <c r="G505" s="12"/>
     </row>
-    <row r="506" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="506" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A506" s="10">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -11154,7 +11156,7 @@
       <c r="F506" s="10"/>
       <c r="G506" s="12"/>
     </row>
-    <row r="507" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="507" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A507" s="10">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -11170,7 +11172,7 @@
       <c r="F507" s="10"/>
       <c r="G507" s="12"/>
     </row>
-    <row r="508" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="508" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A508" s="10">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -11186,7 +11188,7 @@
       <c r="F508" s="10"/>
       <c r="G508" s="12"/>
     </row>
-    <row r="509" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="509" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A509" s="10">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -11202,7 +11204,7 @@
       <c r="F509" s="10"/>
       <c r="G509" s="12"/>
     </row>
-    <row r="510" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="510" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A510" s="10">
         <f t="shared" si="7"/>
         <v>505</v>
@@ -11218,7 +11220,7 @@
       <c r="F510" s="10"/>
       <c r="G510" s="12"/>
     </row>
-    <row r="511" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="511" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A511" s="10">
         <f t="shared" si="7"/>
         <v>506</v>
@@ -11234,7 +11236,7 @@
       <c r="F511" s="10"/>
       <c r="G511" s="12"/>
     </row>
-    <row r="512" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="512" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A512" s="10">
         <f t="shared" si="7"/>
         <v>507</v>
@@ -11250,7 +11252,7 @@
       <c r="F512" s="10"/>
       <c r="G512" s="12"/>
     </row>
-    <row r="513" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="513" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A513" s="10">
         <f t="shared" si="7"/>
         <v>508</v>
@@ -11266,7 +11268,7 @@
       <c r="F513" s="10"/>
       <c r="G513" s="12"/>
     </row>
-    <row r="514" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="514" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A514" s="10">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -11282,7 +11284,7 @@
       <c r="F514" s="10"/>
       <c r="G514" s="12"/>
     </row>
-    <row r="515" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="515" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A515" s="10">
         <f t="shared" si="7"/>
         <v>510</v>
@@ -11298,7 +11300,7 @@
       <c r="F515" s="10"/>
       <c r="G515" s="12"/>
     </row>
-    <row r="516" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="516" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A516" s="10">
         <f t="shared" si="7"/>
         <v>511</v>
@@ -11350,7 +11352,7 @@
       <c r="F518" s="10"/>
       <c r="G518" s="12"/>
     </row>
-    <row r="519" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="519" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A519" s="10">
         <f t="shared" ref="A519:A582" si="8">A518+1</f>
         <v>514</v>
@@ -11366,7 +11368,7 @@
       <c r="F519" s="10"/>
       <c r="G519" s="12"/>
     </row>
-    <row r="520" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="520" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A520" s="10">
         <f t="shared" si="8"/>
         <v>515</v>
@@ -11382,7 +11384,7 @@
       <c r="F520" s="10"/>
       <c r="G520" s="12"/>
     </row>
-    <row r="521" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="521" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A521" s="10">
         <f t="shared" si="8"/>
         <v>516</v>
@@ -11398,7 +11400,7 @@
       <c r="F521" s="10"/>
       <c r="G521" s="12"/>
     </row>
-    <row r="522" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="522" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A522" s="10">
         <f t="shared" si="8"/>
         <v>517</v>
@@ -11414,7 +11416,7 @@
       <c r="F522" s="10"/>
       <c r="G522" s="12"/>
     </row>
-    <row r="523" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="523" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A523" s="10">
         <f t="shared" si="8"/>
         <v>518</v>
@@ -11430,7 +11432,7 @@
       <c r="F523" s="10"/>
       <c r="G523" s="12"/>
     </row>
-    <row r="524" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="524" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A524" s="10">
         <f t="shared" si="8"/>
         <v>519</v>
@@ -11446,7 +11448,7 @@
       <c r="F524" s="10"/>
       <c r="G524" s="12"/>
     </row>
-    <row r="525" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="525" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A525" s="10">
         <f t="shared" si="8"/>
         <v>520</v>
@@ -11462,7 +11464,7 @@
       <c r="F525" s="10"/>
       <c r="G525" s="12"/>
     </row>
-    <row r="526" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="526" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A526" s="10">
         <f t="shared" si="8"/>
         <v>521</v>
@@ -11478,7 +11480,7 @@
       <c r="F526" s="10"/>
       <c r="G526" s="12"/>
     </row>
-    <row r="527" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="527" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A527" s="10">
         <f t="shared" si="8"/>
         <v>522</v>
@@ -11494,7 +11496,7 @@
       <c r="F527" s="10"/>
       <c r="G527" s="12"/>
     </row>
-    <row r="528" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="528" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A528" s="10">
         <f t="shared" si="8"/>
         <v>523</v>
@@ -11510,7 +11512,7 @@
       <c r="F528" s="10"/>
       <c r="G528" s="12"/>
     </row>
-    <row r="529" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="529" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A529" s="10">
         <f t="shared" si="8"/>
         <v>524</v>
@@ -11526,7 +11528,7 @@
       <c r="F529" s="10"/>
       <c r="G529" s="12"/>
     </row>
-    <row r="530" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="530" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A530" s="10">
         <f t="shared" si="8"/>
         <v>525</v>
@@ -11542,7 +11544,7 @@
       <c r="F530" s="10"/>
       <c r="G530" s="12"/>
     </row>
-    <row r="531" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="531" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A531" s="10">
         <f t="shared" si="8"/>
         <v>526</v>
@@ -11558,7 +11560,7 @@
       <c r="F531" s="10"/>
       <c r="G531" s="12"/>
     </row>
-    <row r="532" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="532" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A532" s="10">
         <f t="shared" si="8"/>
         <v>527</v>
@@ -11574,7 +11576,7 @@
       <c r="F532" s="10"/>
       <c r="G532" s="12"/>
     </row>
-    <row r="533" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="533" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A533" s="10">
         <f t="shared" si="8"/>
         <v>528</v>
@@ -11590,7 +11592,7 @@
       <c r="F533" s="10"/>
       <c r="G533" s="12"/>
     </row>
-    <row r="534" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="534" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A534" s="10">
         <f t="shared" si="8"/>
         <v>529</v>
@@ -11606,7 +11608,7 @@
       <c r="F534" s="10"/>
       <c r="G534" s="12"/>
     </row>
-    <row r="535" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="535" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A535" s="10">
         <f t="shared" si="8"/>
         <v>530</v>
@@ -11622,7 +11624,7 @@
       <c r="F535" s="10"/>
       <c r="G535" s="12"/>
     </row>
-    <row r="536" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="536" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A536" s="10">
         <f t="shared" si="8"/>
         <v>531</v>
@@ -11638,7 +11640,7 @@
       <c r="F536" s="10"/>
       <c r="G536" s="12"/>
     </row>
-    <row r="537" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="537" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A537" s="10">
         <f t="shared" si="8"/>
         <v>532</v>
@@ -11654,7 +11656,7 @@
       <c r="F537" s="10"/>
       <c r="G537" s="12"/>
     </row>
-    <row r="538" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="538" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A538" s="10">
         <f t="shared" si="8"/>
         <v>533</v>
@@ -11670,7 +11672,7 @@
       <c r="F538" s="10"/>
       <c r="G538" s="12"/>
     </row>
-    <row r="539" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="539" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A539" s="10">
         <f t="shared" si="8"/>
         <v>534</v>
@@ -11686,7 +11688,7 @@
       <c r="F539" s="10"/>
       <c r="G539" s="12"/>
     </row>
-    <row r="540" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="540" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A540" s="10">
         <f t="shared" si="8"/>
         <v>535</v>
@@ -11702,7 +11704,7 @@
       <c r="F540" s="10"/>
       <c r="G540" s="12"/>
     </row>
-    <row r="541" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="541" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A541" s="10">
         <f t="shared" si="8"/>
         <v>536</v>
@@ -11718,7 +11720,7 @@
       <c r="F541" s="10"/>
       <c r="G541" s="12"/>
     </row>
-    <row r="542" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="542" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A542" s="10">
         <f t="shared" si="8"/>
         <v>537</v>
@@ -11734,7 +11736,7 @@
       <c r="F542" s="10"/>
       <c r="G542" s="12"/>
     </row>
-    <row r="543" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="543" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A543" s="10">
         <f t="shared" si="8"/>
         <v>538</v>
@@ -11750,7 +11752,7 @@
       <c r="F543" s="10"/>
       <c r="G543" s="12"/>
     </row>
-    <row r="544" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="544" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A544" s="10">
         <f t="shared" si="8"/>
         <v>539</v>
@@ -11766,7 +11768,7 @@
       <c r="F544" s="10"/>
       <c r="G544" s="12"/>
     </row>
-    <row r="545" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="545" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A545" s="10">
         <f t="shared" si="8"/>
         <v>540</v>
@@ -11782,7 +11784,7 @@
       <c r="F545" s="10"/>
       <c r="G545" s="12"/>
     </row>
-    <row r="546" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="546" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A546" s="10">
         <f t="shared" si="8"/>
         <v>541</v>
@@ -11798,7 +11800,7 @@
       <c r="F546" s="10"/>
       <c r="G546" s="12"/>
     </row>
-    <row r="547" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="547" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A547" s="10">
         <f t="shared" si="8"/>
         <v>542</v>
@@ -11814,7 +11816,7 @@
       <c r="F547" s="10"/>
       <c r="G547" s="12"/>
     </row>
-    <row r="548" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="548" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A548" s="10">
         <f t="shared" si="8"/>
         <v>543</v>
@@ -11830,7 +11832,7 @@
       <c r="F548" s="10"/>
       <c r="G548" s="12"/>
     </row>
-    <row r="549" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="549" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A549" s="10">
         <f t="shared" si="8"/>
         <v>544</v>
@@ -11846,7 +11848,7 @@
       <c r="F549" s="10"/>
       <c r="G549" s="12"/>
     </row>
-    <row r="550" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="550" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A550" s="10">
         <f t="shared" si="8"/>
         <v>545</v>
@@ -11862,7 +11864,7 @@
       <c r="F550" s="10"/>
       <c r="G550" s="12"/>
     </row>
-    <row r="551" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="551" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A551" s="10">
         <f t="shared" si="8"/>
         <v>546</v>
@@ -11878,7 +11880,7 @@
       <c r="F551" s="10"/>
       <c r="G551" s="12"/>
     </row>
-    <row r="552" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="552" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A552" s="10">
         <f t="shared" si="8"/>
         <v>547</v>
@@ -11894,7 +11896,7 @@
       <c r="F552" s="10"/>
       <c r="G552" s="12"/>
     </row>
-    <row r="553" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="553" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A553" s="10">
         <f t="shared" si="8"/>
         <v>548</v>
@@ -11910,7 +11912,7 @@
       <c r="F553" s="10"/>
       <c r="G553" s="12"/>
     </row>
-    <row r="554" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="554" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A554" s="10">
         <f t="shared" si="8"/>
         <v>549</v>
@@ -11926,7 +11928,7 @@
       <c r="F554" s="10"/>
       <c r="G554" s="12"/>
     </row>
-    <row r="555" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="555" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A555" s="10">
         <f t="shared" si="8"/>
         <v>550</v>
@@ -11942,7 +11944,7 @@
       <c r="F555" s="10"/>
       <c r="G555" s="12"/>
     </row>
-    <row r="556" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="556" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A556" s="10">
         <f t="shared" si="8"/>
         <v>551</v>
@@ -11958,7 +11960,7 @@
       <c r="F556" s="10"/>
       <c r="G556" s="12"/>
     </row>
-    <row r="557" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="557" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A557" s="10">
         <f t="shared" si="8"/>
         <v>552</v>
@@ -11974,7 +11976,7 @@
       <c r="F557" s="10"/>
       <c r="G557" s="12"/>
     </row>
-    <row r="558" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="558" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A558" s="10">
         <f t="shared" si="8"/>
         <v>553</v>
@@ -11990,7 +11992,7 @@
       <c r="F558" s="10"/>
       <c r="G558" s="12"/>
     </row>
-    <row r="559" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="559" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A559" s="10">
         <f t="shared" si="8"/>
         <v>554</v>
@@ -12008,7 +12010,7 @@
       <c r="F559" s="10"/>
       <c r="G559" s="12"/>
     </row>
-    <row r="560" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="560" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A560" s="10">
         <f t="shared" si="8"/>
         <v>555</v>
@@ -12024,7 +12026,7 @@
       <c r="F560" s="10"/>
       <c r="G560" s="12"/>
     </row>
-    <row r="561" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="561" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A561" s="10">
         <f t="shared" si="8"/>
         <v>556</v>
@@ -12040,7 +12042,7 @@
       <c r="F561" s="10"/>
       <c r="G561" s="12"/>
     </row>
-    <row r="562" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="562" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A562" s="10">
         <f t="shared" si="8"/>
         <v>557</v>
@@ -12056,7 +12058,7 @@
       <c r="F562" s="10"/>
       <c r="G562" s="12"/>
     </row>
-    <row r="563" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="563" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A563" s="10">
         <f t="shared" si="8"/>
         <v>558</v>
@@ -12088,7 +12090,7 @@
       <c r="F564" s="10"/>
       <c r="G564" s="12"/>
     </row>
-    <row r="565" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="565" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A565" s="10">
         <f t="shared" si="8"/>
         <v>560</v>
@@ -12104,7 +12106,7 @@
       <c r="F565" s="10"/>
       <c r="G565" s="12"/>
     </row>
-    <row r="566" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="566" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A566" s="10">
         <f t="shared" si="8"/>
         <v>561</v>
@@ -12120,7 +12122,7 @@
       <c r="F566" s="10"/>
       <c r="G566" s="12"/>
     </row>
-    <row r="567" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="567" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A567" s="10">
         <f t="shared" si="8"/>
         <v>562</v>
@@ -12136,7 +12138,7 @@
       <c r="F567" s="10"/>
       <c r="G567" s="12"/>
     </row>
-    <row r="568" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="568" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A568" s="10">
         <f t="shared" si="8"/>
         <v>563</v>
@@ -12152,7 +12154,7 @@
       <c r="F568" s="10"/>
       <c r="G568" s="12"/>
     </row>
-    <row r="569" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="569" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A569" s="10">
         <f t="shared" si="8"/>
         <v>564</v>
@@ -12168,7 +12170,7 @@
       <c r="F569" s="10"/>
       <c r="G569" s="12"/>
     </row>
-    <row r="570" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="570" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A570" s="10">
         <f t="shared" si="8"/>
         <v>565</v>
@@ -12184,7 +12186,7 @@
       <c r="F570" s="10"/>
       <c r="G570" s="12"/>
     </row>
-    <row r="571" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="571" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A571" s="10">
         <f t="shared" si="8"/>
         <v>566</v>
@@ -12200,7 +12202,7 @@
       <c r="F571" s="10"/>
       <c r="G571" s="12"/>
     </row>
-    <row r="572" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="572" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A572" s="10">
         <f t="shared" si="8"/>
         <v>567</v>
@@ -12216,7 +12218,7 @@
       <c r="F572" s="10"/>
       <c r="G572" s="12"/>
     </row>
-    <row r="573" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="573" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A573" s="10">
         <f t="shared" si="8"/>
         <v>568</v>
@@ -12232,7 +12234,7 @@
       <c r="F573" s="10"/>
       <c r="G573" s="12"/>
     </row>
-    <row r="574" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="574" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A574" s="10">
         <f t="shared" si="8"/>
         <v>569</v>
@@ -12248,7 +12250,7 @@
       <c r="F574" s="10"/>
       <c r="G574" s="12"/>
     </row>
-    <row r="575" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="575" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A575" s="10">
         <f t="shared" si="8"/>
         <v>570</v>
@@ -12264,7 +12266,7 @@
       <c r="F575" s="10"/>
       <c r="G575" s="12"/>
     </row>
-    <row r="576" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="576" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A576" s="10">
         <f t="shared" si="8"/>
         <v>571</v>
@@ -12280,7 +12282,7 @@
       <c r="F576" s="10"/>
       <c r="G576" s="12"/>
     </row>
-    <row r="577" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="577" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A577" s="10">
         <f t="shared" si="8"/>
         <v>572</v>
@@ -12296,7 +12298,7 @@
       <c r="F577" s="10"/>
       <c r="G577" s="12"/>
     </row>
-    <row r="578" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="578" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A578" s="10">
         <f t="shared" si="8"/>
         <v>573</v>
@@ -12312,7 +12314,7 @@
       <c r="F578" s="10"/>
       <c r="G578" s="12"/>
     </row>
-    <row r="579" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="579" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A579" s="10">
         <f t="shared" si="8"/>
         <v>574</v>
@@ -12328,7 +12330,7 @@
       <c r="F579" s="10"/>
       <c r="G579" s="12"/>
     </row>
-    <row r="580" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="580" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A580" s="10">
         <f t="shared" si="8"/>
         <v>575</v>
@@ -12344,7 +12346,7 @@
       <c r="F580" s="10"/>
       <c r="G580" s="12"/>
     </row>
-    <row r="581" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="581" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A581" s="10">
         <f t="shared" si="8"/>
         <v>576</v>
@@ -12360,7 +12362,7 @@
       <c r="F581" s="10"/>
       <c r="G581" s="12"/>
     </row>
-    <row r="582" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="582" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A582" s="10">
         <f t="shared" si="8"/>
         <v>577</v>
@@ -12376,7 +12378,7 @@
       <c r="F582" s="10"/>
       <c r="G582" s="12"/>
     </row>
-    <row r="583" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="583" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A583" s="10">
         <f t="shared" ref="A583:A646" si="9">A582+1</f>
         <v>578</v>
@@ -12392,7 +12394,7 @@
       <c r="F583" s="10"/>
       <c r="G583" s="12"/>
     </row>
-    <row r="584" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="584" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A584" s="10">
         <f t="shared" si="9"/>
         <v>579</v>
@@ -12408,7 +12410,7 @@
       <c r="F584" s="10"/>
       <c r="G584" s="12"/>
     </row>
-    <row r="585" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="585" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A585" s="10">
         <f t="shared" si="9"/>
         <v>580</v>
@@ -12424,7 +12426,7 @@
       <c r="F585" s="10"/>
       <c r="G585" s="12"/>
     </row>
-    <row r="586" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="586" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A586" s="10">
         <f t="shared" si="9"/>
         <v>581</v>
@@ -12440,7 +12442,7 @@
       <c r="F586" s="10"/>
       <c r="G586" s="12"/>
     </row>
-    <row r="587" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="587" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A587" s="10">
         <f t="shared" si="9"/>
         <v>582</v>
@@ -12456,7 +12458,7 @@
       <c r="F587" s="10"/>
       <c r="G587" s="12"/>
     </row>
-    <row r="588" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="588" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A588" s="10">
         <f t="shared" si="9"/>
         <v>583</v>
@@ -12472,7 +12474,7 @@
       <c r="F588" s="10"/>
       <c r="G588" s="12"/>
     </row>
-    <row r="589" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="589" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A589" s="10">
         <f t="shared" si="9"/>
         <v>584</v>
@@ -12488,7 +12490,7 @@
       <c r="F589" s="10"/>
       <c r="G589" s="12"/>
     </row>
-    <row r="590" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="590" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A590" s="10">
         <f t="shared" si="9"/>
         <v>585</v>
@@ -12504,7 +12506,7 @@
       <c r="F590" s="10"/>
       <c r="G590" s="12"/>
     </row>
-    <row r="591" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="591" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A591" s="10">
         <f t="shared" si="9"/>
         <v>586</v>
@@ -12520,7 +12522,7 @@
       <c r="F591" s="10"/>
       <c r="G591" s="12"/>
     </row>
-    <row r="592" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="592" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A592" s="10">
         <f t="shared" si="9"/>
         <v>587</v>
@@ -12536,7 +12538,7 @@
       <c r="F592" s="10"/>
       <c r="G592" s="12"/>
     </row>
-    <row r="593" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="593" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A593" s="10">
         <f t="shared" si="9"/>
         <v>588</v>
@@ -12552,7 +12554,7 @@
       <c r="F593" s="10"/>
       <c r="G593" s="12"/>
     </row>
-    <row r="594" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="594" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A594" s="10">
         <f t="shared" si="9"/>
         <v>589</v>
@@ -12568,7 +12570,7 @@
       <c r="F594" s="10"/>
       <c r="G594" s="12"/>
     </row>
-    <row r="595" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="595" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A595" s="10">
         <f t="shared" si="9"/>
         <v>590</v>
@@ -12584,7 +12586,7 @@
       <c r="F595" s="10"/>
       <c r="G595" s="12"/>
     </row>
-    <row r="596" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="596" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A596" s="10">
         <f t="shared" si="9"/>
         <v>591</v>
@@ -12600,7 +12602,7 @@
       <c r="F596" s="10"/>
       <c r="G596" s="12"/>
     </row>
-    <row r="597" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="597" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A597" s="10">
         <f t="shared" si="9"/>
         <v>592</v>
@@ -12616,7 +12618,7 @@
       <c r="F597" s="10"/>
       <c r="G597" s="12"/>
     </row>
-    <row r="598" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="598" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A598" s="10">
         <f t="shared" si="9"/>
         <v>593</v>
@@ -12632,7 +12634,7 @@
       <c r="F598" s="10"/>
       <c r="G598" s="12"/>
     </row>
-    <row r="599" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="599" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A599" s="10">
         <f t="shared" si="9"/>
         <v>594</v>
@@ -12648,7 +12650,7 @@
       <c r="F599" s="10"/>
       <c r="G599" s="12"/>
     </row>
-    <row r="600" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="600" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A600" s="10">
         <f t="shared" si="9"/>
         <v>595</v>
@@ -12664,7 +12666,7 @@
       <c r="F600" s="10"/>
       <c r="G600" s="12"/>
     </row>
-    <row r="601" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="601" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A601" s="10">
         <f t="shared" si="9"/>
         <v>596</v>
@@ -12680,7 +12682,7 @@
       <c r="F601" s="10"/>
       <c r="G601" s="12"/>
     </row>
-    <row r="602" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="602" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A602" s="10">
         <f t="shared" si="9"/>
         <v>597</v>
@@ -12696,7 +12698,7 @@
       <c r="F602" s="10"/>
       <c r="G602" s="12"/>
     </row>
-    <row r="603" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="603" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A603" s="10">
         <f t="shared" si="9"/>
         <v>598</v>
@@ -12712,7 +12714,7 @@
       <c r="F603" s="10"/>
       <c r="G603" s="12"/>
     </row>
-    <row r="604" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="604" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A604" s="10">
         <f t="shared" si="9"/>
         <v>599</v>
@@ -12728,7 +12730,7 @@
       <c r="F604" s="10"/>
       <c r="G604" s="12"/>
     </row>
-    <row r="605" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="605" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A605" s="10">
         <f t="shared" si="9"/>
         <v>600</v>
@@ -12760,7 +12762,7 @@
       <c r="F606" s="10"/>
       <c r="G606" s="12"/>
     </row>
-    <row r="607" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="607" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A607" s="10">
         <f t="shared" si="9"/>
         <v>602</v>
@@ -12776,7 +12778,7 @@
       <c r="F607" s="10"/>
       <c r="G607" s="12"/>
     </row>
-    <row r="608" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="608" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A608" s="10">
         <f t="shared" si="9"/>
         <v>603</v>
@@ -12792,7 +12794,7 @@
       <c r="F608" s="10"/>
       <c r="G608" s="12"/>
     </row>
-    <row r="609" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="609" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A609" s="10">
         <f t="shared" si="9"/>
         <v>604</v>
@@ -12808,7 +12810,7 @@
       <c r="F609" s="10"/>
       <c r="G609" s="12"/>
     </row>
-    <row r="610" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="610" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A610" s="10">
         <f t="shared" si="9"/>
         <v>605</v>
@@ -12824,7 +12826,7 @@
       <c r="F610" s="10"/>
       <c r="G610" s="12"/>
     </row>
-    <row r="611" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="611" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A611" s="10">
         <f t="shared" si="9"/>
         <v>606</v>
@@ -12840,7 +12842,7 @@
       <c r="F611" s="10"/>
       <c r="G611" s="12"/>
     </row>
-    <row r="612" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="612" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A612" s="10">
         <f t="shared" si="9"/>
         <v>607</v>
@@ -12856,7 +12858,7 @@
       <c r="F612" s="10"/>
       <c r="G612" s="12"/>
     </row>
-    <row r="613" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="613" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A613" s="10">
         <f t="shared" si="9"/>
         <v>608</v>
@@ -12872,7 +12874,7 @@
       <c r="F613" s="10"/>
       <c r="G613" s="12"/>
     </row>
-    <row r="614" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="614" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A614" s="10">
         <f t="shared" si="9"/>
         <v>609</v>
@@ -12888,7 +12890,7 @@
       <c r="F614" s="10"/>
       <c r="G614" s="12"/>
     </row>
-    <row r="615" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="615" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A615" s="10">
         <f t="shared" si="9"/>
         <v>610</v>
@@ -12904,7 +12906,7 @@
       <c r="F615" s="10"/>
       <c r="G615" s="12"/>
     </row>
-    <row r="616" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="616" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A616" s="10">
         <f t="shared" si="9"/>
         <v>611</v>
@@ -12920,7 +12922,7 @@
       <c r="F616" s="10"/>
       <c r="G616" s="12"/>
     </row>
-    <row r="617" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="617" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A617" s="10">
         <f t="shared" si="9"/>
         <v>612</v>
@@ -12936,7 +12938,7 @@
       <c r="F617" s="10"/>
       <c r="G617" s="12"/>
     </row>
-    <row r="618" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="618" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A618" s="10">
         <f t="shared" si="9"/>
         <v>613</v>
@@ -12952,7 +12954,7 @@
       <c r="F618" s="10"/>
       <c r="G618" s="12"/>
     </row>
-    <row r="619" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="619" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A619" s="10">
         <f t="shared" si="9"/>
         <v>614</v>
@@ -12970,7 +12972,7 @@
       <c r="F619" s="10"/>
       <c r="G619" s="12"/>
     </row>
-    <row r="620" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="620" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A620" s="10">
         <f t="shared" si="9"/>
         <v>615</v>
@@ -12986,7 +12988,7 @@
       <c r="F620" s="10"/>
       <c r="G620" s="12"/>
     </row>
-    <row r="621" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="621" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A621" s="10">
         <f t="shared" si="9"/>
         <v>616</v>
@@ -13004,7 +13006,7 @@
       <c r="F621" s="10"/>
       <c r="G621" s="12"/>
     </row>
-    <row r="622" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="622" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A622" s="10">
         <f t="shared" si="9"/>
         <v>617</v>
@@ -13020,7 +13022,7 @@
       <c r="F622" s="10"/>
       <c r="G622" s="12"/>
     </row>
-    <row r="623" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="623" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A623" s="10">
         <f t="shared" si="9"/>
         <v>618</v>
@@ -13036,7 +13038,7 @@
       <c r="F623" s="10"/>
       <c r="G623" s="12"/>
     </row>
-    <row r="624" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="624" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A624" s="10">
         <f t="shared" si="9"/>
         <v>619</v>
@@ -13052,7 +13054,7 @@
       <c r="F624" s="10"/>
       <c r="G624" s="12"/>
     </row>
-    <row r="625" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="625" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A625" s="10">
         <f t="shared" si="9"/>
         <v>620</v>
@@ -13068,7 +13070,7 @@
       <c r="F625" s="10"/>
       <c r="G625" s="12"/>
     </row>
-    <row r="626" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="626" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A626" s="10">
         <f t="shared" si="9"/>
         <v>621</v>
@@ -13084,7 +13086,7 @@
       <c r="F626" s="10"/>
       <c r="G626" s="12"/>
     </row>
-    <row r="627" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="627" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A627" s="10">
         <f t="shared" si="9"/>
         <v>622</v>
@@ -13100,7 +13102,7 @@
       <c r="F627" s="10"/>
       <c r="G627" s="12"/>
     </row>
-    <row r="628" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="628" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A628" s="10">
         <f t="shared" si="9"/>
         <v>623</v>
@@ -13116,7 +13118,7 @@
       <c r="F628" s="10"/>
       <c r="G628" s="12"/>
     </row>
-    <row r="629" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="629" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A629" s="10">
         <f t="shared" si="9"/>
         <v>624</v>
@@ -13132,7 +13134,7 @@
       <c r="F629" s="10"/>
       <c r="G629" s="12"/>
     </row>
-    <row r="630" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="630" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A630" s="10">
         <f t="shared" si="9"/>
         <v>625</v>
@@ -13148,7 +13150,7 @@
       <c r="F630" s="10"/>
       <c r="G630" s="12"/>
     </row>
-    <row r="631" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="631" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A631" s="10">
         <f t="shared" si="9"/>
         <v>626</v>
@@ -13164,7 +13166,7 @@
       <c r="F631" s="10"/>
       <c r="G631" s="12"/>
     </row>
-    <row r="632" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="632" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A632" s="10">
         <f t="shared" si="9"/>
         <v>627</v>
@@ -13196,7 +13198,7 @@
       <c r="F633" s="10"/>
       <c r="G633" s="12"/>
     </row>
-    <row r="634" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="634" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A634" s="10">
         <f t="shared" si="9"/>
         <v>629</v>
@@ -13212,7 +13214,7 @@
       <c r="F634" s="10"/>
       <c r="G634" s="12"/>
     </row>
-    <row r="635" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="635" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A635" s="10">
         <f t="shared" si="9"/>
         <v>630</v>
@@ -13228,7 +13230,7 @@
       <c r="F635" s="10"/>
       <c r="G635" s="12"/>
     </row>
-    <row r="636" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="636" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A636" s="10">
         <f t="shared" si="9"/>
         <v>631</v>
@@ -13244,7 +13246,7 @@
       <c r="F636" s="10"/>
       <c r="G636" s="12"/>
     </row>
-    <row r="637" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="637" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A637" s="10">
         <f t="shared" si="9"/>
         <v>632</v>
@@ -13260,7 +13262,7 @@
       <c r="F637" s="10"/>
       <c r="G637" s="12"/>
     </row>
-    <row r="638" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="638" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A638" s="10">
         <f t="shared" si="9"/>
         <v>633</v>
@@ -13276,7 +13278,7 @@
       <c r="F638" s="10"/>
       <c r="G638" s="12"/>
     </row>
-    <row r="639" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="639" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A639" s="10">
         <f t="shared" si="9"/>
         <v>634</v>
@@ -13292,7 +13294,7 @@
       <c r="F639" s="10"/>
       <c r="G639" s="12"/>
     </row>
-    <row r="640" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="640" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A640" s="10">
         <f t="shared" si="9"/>
         <v>635</v>
@@ -13308,7 +13310,7 @@
       <c r="F640" s="10"/>
       <c r="G640" s="12"/>
     </row>
-    <row r="641" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="641" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A641" s="10">
         <f t="shared" si="9"/>
         <v>636</v>
@@ -13326,7 +13328,7 @@
       <c r="F641" s="10"/>
       <c r="G641" s="12"/>
     </row>
-    <row r="642" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="642" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A642" s="10">
         <f t="shared" si="9"/>
         <v>637</v>
@@ -13342,7 +13344,7 @@
       <c r="F642" s="10"/>
       <c r="G642" s="12"/>
     </row>
-    <row r="643" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="643" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A643" s="10">
         <f t="shared" si="9"/>
         <v>638</v>
@@ -13360,7 +13362,7 @@
       <c r="F643" s="10"/>
       <c r="G643" s="12"/>
     </row>
-    <row r="644" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="644" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A644" s="10">
         <f t="shared" si="9"/>
         <v>639</v>
@@ -13376,7 +13378,7 @@
       <c r="F644" s="10"/>
       <c r="G644" s="12"/>
     </row>
-    <row r="645" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="645" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A645" s="10">
         <f t="shared" si="9"/>
         <v>640</v>
@@ -13392,7 +13394,7 @@
       <c r="F645" s="10"/>
       <c r="G645" s="12"/>
     </row>
-    <row r="646" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="646" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A646" s="10">
         <f t="shared" si="9"/>
         <v>641</v>
@@ -13410,7 +13412,7 @@
       <c r="F646" s="10"/>
       <c r="G646" s="12"/>
     </row>
-    <row r="647" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="647" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A647" s="10">
         <f t="shared" ref="A647:A710" si="10">A646+1</f>
         <v>642</v>
@@ -13426,7 +13428,7 @@
       <c r="F647" s="10"/>
       <c r="G647" s="12"/>
     </row>
-    <row r="648" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="648" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A648" s="10">
         <f t="shared" si="10"/>
         <v>643</v>
@@ -13442,7 +13444,7 @@
       <c r="F648" s="10"/>
       <c r="G648" s="12"/>
     </row>
-    <row r="649" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="649" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A649" s="10">
         <f t="shared" si="10"/>
         <v>644</v>
@@ -13458,7 +13460,7 @@
       <c r="F649" s="10"/>
       <c r="G649" s="12"/>
     </row>
-    <row r="650" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="650" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A650" s="10">
         <f t="shared" si="10"/>
         <v>645</v>
@@ -13474,7 +13476,7 @@
       <c r="F650" s="10"/>
       <c r="G650" s="12"/>
     </row>
-    <row r="651" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="651" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A651" s="10">
         <f t="shared" si="10"/>
         <v>646</v>
@@ -13490,7 +13492,7 @@
       <c r="F651" s="10"/>
       <c r="G651" s="12"/>
     </row>
-    <row r="652" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="652" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A652" s="10">
         <f t="shared" si="10"/>
         <v>647</v>
@@ -13506,7 +13508,7 @@
       <c r="F652" s="10"/>
       <c r="G652" s="12"/>
     </row>
-    <row r="653" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="653" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A653" s="10">
         <f t="shared" si="10"/>
         <v>648</v>
@@ -13522,7 +13524,7 @@
       <c r="F653" s="10"/>
       <c r="G653" s="12"/>
     </row>
-    <row r="654" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="654" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A654" s="10">
         <f t="shared" si="10"/>
         <v>649</v>
@@ -13538,7 +13540,7 @@
       <c r="F654" s="10"/>
       <c r="G654" s="12"/>
     </row>
-    <row r="655" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="655" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A655" s="10">
         <f t="shared" si="10"/>
         <v>650</v>
@@ -13554,7 +13556,7 @@
       <c r="F655" s="10"/>
       <c r="G655" s="12"/>
     </row>
-    <row r="656" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="656" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A656" s="10">
         <f t="shared" si="10"/>
         <v>651</v>
@@ -13570,7 +13572,7 @@
       <c r="F656" s="10"/>
       <c r="G656" s="12"/>
     </row>
-    <row r="657" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="657" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A657" s="10">
         <f t="shared" si="10"/>
         <v>652</v>
@@ -13604,7 +13606,7 @@
       <c r="F658" s="10"/>
       <c r="G658" s="12"/>
     </row>
-    <row r="659" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="659" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A659" s="10">
         <f t="shared" si="10"/>
         <v>654</v>
@@ -13620,7 +13622,7 @@
       <c r="F659" s="10"/>
       <c r="G659" s="12"/>
     </row>
-    <row r="660" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="660" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A660" s="10">
         <f t="shared" si="10"/>
         <v>655</v>
@@ -13636,7 +13638,7 @@
       <c r="F660" s="10"/>
       <c r="G660" s="12"/>
     </row>
-    <row r="661" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="661" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A661" s="10">
         <f t="shared" si="10"/>
         <v>656</v>
@@ -13652,7 +13654,7 @@
       <c r="F661" s="10"/>
       <c r="G661" s="12"/>
     </row>
-    <row r="662" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="662" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A662" s="10">
         <f t="shared" si="10"/>
         <v>657</v>
@@ -13668,7 +13670,7 @@
       <c r="F662" s="10"/>
       <c r="G662" s="12"/>
     </row>
-    <row r="663" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="663" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A663" s="10">
         <f t="shared" si="10"/>
         <v>658</v>
@@ -13684,7 +13686,7 @@
       <c r="F663" s="10"/>
       <c r="G663" s="12"/>
     </row>
-    <row r="664" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="664" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A664" s="10">
         <f t="shared" si="10"/>
         <v>659</v>
@@ -13700,7 +13702,7 @@
       <c r="F664" s="10"/>
       <c r="G664" s="12"/>
     </row>
-    <row r="665" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="665" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A665" s="10">
         <f t="shared" si="10"/>
         <v>660</v>
@@ -13716,7 +13718,7 @@
       <c r="F665" s="10"/>
       <c r="G665" s="12"/>
     </row>
-    <row r="666" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="666" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A666" s="10">
         <f t="shared" si="10"/>
         <v>661</v>
@@ -13732,7 +13734,7 @@
       <c r="F666" s="10"/>
       <c r="G666" s="12"/>
     </row>
-    <row r="667" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="667" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A667" s="10">
         <f t="shared" si="10"/>
         <v>662</v>
@@ -13750,7 +13752,7 @@
       <c r="F667" s="10"/>
       <c r="G667" s="12"/>
     </row>
-    <row r="668" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="668" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A668" s="10">
         <f t="shared" si="10"/>
         <v>663</v>
@@ -13766,7 +13768,7 @@
       <c r="F668" s="10"/>
       <c r="G668" s="12"/>
     </row>
-    <row r="669" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="669" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A669" s="10">
         <f t="shared" si="10"/>
         <v>664</v>
@@ -13782,7 +13784,7 @@
       <c r="F669" s="10"/>
       <c r="G669" s="12"/>
     </row>
-    <row r="670" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="670" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A670" s="10">
         <f t="shared" si="10"/>
         <v>665</v>
@@ -13798,7 +13800,7 @@
       <c r="F670" s="10"/>
       <c r="G670" s="12"/>
     </row>
-    <row r="671" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="671" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A671" s="10">
         <f t="shared" si="10"/>
         <v>666</v>
@@ -13814,7 +13816,7 @@
       <c r="F671" s="10"/>
       <c r="G671" s="12"/>
     </row>
-    <row r="672" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="672" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A672" s="10">
         <f t="shared" si="10"/>
         <v>667</v>
@@ -13848,7 +13850,7 @@
       <c r="F673" s="10"/>
       <c r="G673" s="12"/>
     </row>
-    <row r="674" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="674" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A674" s="10">
         <f t="shared" si="10"/>
         <v>669</v>
@@ -13866,7 +13868,7 @@
       <c r="F674" s="10"/>
       <c r="G674" s="12"/>
     </row>
-    <row r="675" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="675" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A675" s="10">
         <f t="shared" si="10"/>
         <v>670</v>
@@ -13882,7 +13884,7 @@
       <c r="F675" s="10"/>
       <c r="G675" s="12"/>
     </row>
-    <row r="676" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="676" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A676" s="10">
         <f t="shared" si="10"/>
         <v>671</v>
@@ -13898,7 +13900,7 @@
       <c r="F676" s="10"/>
       <c r="G676" s="12"/>
     </row>
-    <row r="677" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="677" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A677" s="10">
         <f t="shared" si="10"/>
         <v>672</v>
@@ -13914,7 +13916,7 @@
       <c r="F677" s="10"/>
       <c r="G677" s="12"/>
     </row>
-    <row r="678" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="678" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A678" s="10">
         <f t="shared" si="10"/>
         <v>673</v>
@@ -13932,7 +13934,7 @@
       <c r="F678" s="10"/>
       <c r="G678" s="12"/>
     </row>
-    <row r="679" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="679" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A679" s="10">
         <f t="shared" si="10"/>
         <v>674</v>
@@ -13948,7 +13950,7 @@
       <c r="F679" s="10"/>
       <c r="G679" s="12"/>
     </row>
-    <row r="680" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="680" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A680" s="10">
         <f t="shared" si="10"/>
         <v>675</v>
@@ -13964,7 +13966,7 @@
       <c r="F680" s="10"/>
       <c r="G680" s="12"/>
     </row>
-    <row r="681" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="681" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A681" s="10">
         <f t="shared" si="10"/>
         <v>676</v>
@@ -13980,7 +13982,7 @@
       <c r="F681" s="10"/>
       <c r="G681" s="12"/>
     </row>
-    <row r="682" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="682" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A682" s="10">
         <f t="shared" si="10"/>
         <v>677</v>
@@ -13996,7 +13998,7 @@
       <c r="F682" s="10"/>
       <c r="G682" s="12"/>
     </row>
-    <row r="683" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="683" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A683" s="10">
         <f t="shared" si="10"/>
         <v>678</v>
@@ -14012,7 +14014,7 @@
       <c r="F683" s="10"/>
       <c r="G683" s="12"/>
     </row>
-    <row r="684" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="684" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A684" s="10">
         <f t="shared" si="10"/>
         <v>679</v>
@@ -14028,7 +14030,7 @@
       <c r="F684" s="10"/>
       <c r="G684" s="12"/>
     </row>
-    <row r="685" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="685" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A685" s="10">
         <f t="shared" si="10"/>
         <v>680</v>
@@ -14044,7 +14046,7 @@
       <c r="F685" s="10"/>
       <c r="G685" s="12"/>
     </row>
-    <row r="686" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="686" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A686" s="10">
         <f t="shared" si="10"/>
         <v>681</v>
@@ -14060,7 +14062,7 @@
       <c r="F686" s="10"/>
       <c r="G686" s="12"/>
     </row>
-    <row r="687" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="687" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A687" s="10">
         <f t="shared" si="10"/>
         <v>682</v>
@@ -14076,7 +14078,7 @@
       <c r="F687" s="10"/>
       <c r="G687" s="12"/>
     </row>
-    <row r="688" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="688" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A688" s="10">
         <f t="shared" si="10"/>
         <v>683</v>
@@ -14094,7 +14096,7 @@
       <c r="F688" s="10"/>
       <c r="G688" s="12"/>
     </row>
-    <row r="689" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="689" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A689" s="10">
         <f t="shared" si="10"/>
         <v>684</v>
@@ -14110,7 +14112,7 @@
       <c r="F689" s="10"/>
       <c r="G689" s="12"/>
     </row>
-    <row r="690" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="690" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A690" s="10">
         <f t="shared" si="10"/>
         <v>685</v>
@@ -14126,7 +14128,7 @@
       <c r="F690" s="10"/>
       <c r="G690" s="12"/>
     </row>
-    <row r="691" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="691" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A691" s="10">
         <f t="shared" si="10"/>
         <v>686</v>
@@ -14142,7 +14144,7 @@
       <c r="F691" s="10"/>
       <c r="G691" s="12"/>
     </row>
-    <row r="692" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="692" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A692" s="10">
         <f t="shared" si="10"/>
         <v>687</v>
@@ -14158,7 +14160,7 @@
       <c r="F692" s="10"/>
       <c r="G692" s="12"/>
     </row>
-    <row r="693" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="693" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A693" s="10">
         <f t="shared" si="10"/>
         <v>688</v>
@@ -14174,7 +14176,7 @@
       <c r="F693" s="10"/>
       <c r="G693" s="12"/>
     </row>
-    <row r="694" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="694" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A694" s="10">
         <f t="shared" si="10"/>
         <v>689</v>
@@ -14190,7 +14192,7 @@
       <c r="F694" s="10"/>
       <c r="G694" s="12"/>
     </row>
-    <row r="695" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="695" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A695" s="10">
         <f t="shared" si="10"/>
         <v>690</v>
@@ -14206,7 +14208,7 @@
       <c r="F695" s="10"/>
       <c r="G695" s="12"/>
     </row>
-    <row r="696" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="696" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A696" s="10">
         <f t="shared" si="10"/>
         <v>691</v>
@@ -14222,7 +14224,7 @@
       <c r="F696" s="10"/>
       <c r="G696" s="12"/>
     </row>
-    <row r="697" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="697" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A697" s="10">
         <f t="shared" si="10"/>
         <v>692</v>
@@ -14238,7 +14240,7 @@
       <c r="F697" s="10"/>
       <c r="G697" s="12"/>
     </row>
-    <row r="698" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="698" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A698" s="10">
         <f t="shared" si="10"/>
         <v>693</v>
@@ -14254,7 +14256,7 @@
       <c r="F698" s="10"/>
       <c r="G698" s="12"/>
     </row>
-    <row r="699" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="699" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A699" s="10">
         <f t="shared" si="10"/>
         <v>694</v>
@@ -14270,7 +14272,7 @@
       <c r="F699" s="10"/>
       <c r="G699" s="12"/>
     </row>
-    <row r="700" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="700" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A700" s="10">
         <f t="shared" si="10"/>
         <v>695</v>
@@ -14286,7 +14288,7 @@
       <c r="F700" s="10"/>
       <c r="G700" s="12"/>
     </row>
-    <row r="701" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="701" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A701" s="10">
         <f t="shared" si="10"/>
         <v>696</v>
@@ -14302,7 +14304,7 @@
       <c r="F701" s="10"/>
       <c r="G701" s="12"/>
     </row>
-    <row r="702" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="702" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A702" s="10">
         <f t="shared" si="10"/>
         <v>697</v>
@@ -14318,7 +14320,7 @@
       <c r="F702" s="10"/>
       <c r="G702" s="12"/>
     </row>
-    <row r="703" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="703" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A703" s="10">
         <f t="shared" si="10"/>
         <v>698</v>
@@ -14334,7 +14336,7 @@
       <c r="F703" s="10"/>
       <c r="G703" s="12"/>
     </row>
-    <row r="704" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="704" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A704" s="10">
         <f t="shared" si="10"/>
         <v>699</v>
@@ -14350,7 +14352,7 @@
       <c r="F704" s="10"/>
       <c r="G704" s="12"/>
     </row>
-    <row r="705" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="705" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A705" s="10">
         <f t="shared" si="10"/>
         <v>700</v>
@@ -14366,7 +14368,7 @@
       <c r="F705" s="10"/>
       <c r="G705" s="12"/>
     </row>
-    <row r="706" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="706" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A706" s="10">
         <f t="shared" si="10"/>
         <v>701</v>
@@ -14382,7 +14384,7 @@
       <c r="F706" s="10"/>
       <c r="G706" s="12"/>
     </row>
-    <row r="707" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="707" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A707" s="10">
         <f t="shared" si="10"/>
         <v>702</v>
@@ -14398,7 +14400,7 @@
       <c r="F707" s="10"/>
       <c r="G707" s="12"/>
     </row>
-    <row r="708" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="708" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A708" s="10">
         <f t="shared" si="10"/>
         <v>703</v>
@@ -14414,7 +14416,7 @@
       <c r="F708" s="10"/>
       <c r="G708" s="12"/>
     </row>
-    <row r="709" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="709" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A709" s="10">
         <f t="shared" si="10"/>
         <v>704</v>
@@ -14430,7 +14432,7 @@
       <c r="F709" s="10"/>
       <c r="G709" s="12"/>
     </row>
-    <row r="710" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="710" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A710" s="10">
         <f t="shared" si="10"/>
         <v>705</v>
@@ -14446,7 +14448,7 @@
       <c r="F710" s="10"/>
       <c r="G710" s="12"/>
     </row>
-    <row r="711" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="711" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A711" s="10">
         <f t="shared" ref="A711:A774" si="11">A710+1</f>
         <v>706</v>
@@ -14462,7 +14464,7 @@
       <c r="F711" s="10"/>
       <c r="G711" s="12"/>
     </row>
-    <row r="712" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="712" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A712" s="10">
         <f t="shared" si="11"/>
         <v>707</v>
@@ -14478,7 +14480,7 @@
       <c r="F712" s="10"/>
       <c r="G712" s="12"/>
     </row>
-    <row r="713" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="713" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A713" s="10">
         <f t="shared" si="11"/>
         <v>708</v>
@@ -14494,7 +14496,7 @@
       <c r="F713" s="10"/>
       <c r="G713" s="12"/>
     </row>
-    <row r="714" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="714" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A714" s="10">
         <f t="shared" si="11"/>
         <v>709</v>
@@ -14510,7 +14512,7 @@
       <c r="F714" s="10"/>
       <c r="G714" s="12"/>
     </row>
-    <row r="715" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="715" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A715" s="10">
         <f t="shared" si="11"/>
         <v>710</v>
@@ -14526,7 +14528,7 @@
       <c r="F715" s="10"/>
       <c r="G715" s="12"/>
     </row>
-    <row r="716" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="716" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A716" s="10">
         <f t="shared" si="11"/>
         <v>711</v>
@@ -14542,7 +14544,7 @@
       <c r="F716" s="10"/>
       <c r="G716" s="12"/>
     </row>
-    <row r="717" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="717" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A717" s="10">
         <f t="shared" si="11"/>
         <v>712</v>
@@ -14558,7 +14560,7 @@
       <c r="F717" s="10"/>
       <c r="G717" s="12"/>
     </row>
-    <row r="718" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="718" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A718" s="10">
         <f t="shared" si="11"/>
         <v>713</v>
@@ -14574,7 +14576,7 @@
       <c r="F718" s="10"/>
       <c r="G718" s="12"/>
     </row>
-    <row r="719" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="719" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A719" s="10">
         <f t="shared" si="11"/>
         <v>714</v>
@@ -14590,7 +14592,7 @@
       <c r="F719" s="10"/>
       <c r="G719" s="12"/>
     </row>
-    <row r="720" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="720" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A720" s="10">
         <f t="shared" si="11"/>
         <v>715</v>
@@ -14606,7 +14608,7 @@
       <c r="F720" s="10"/>
       <c r="G720" s="12"/>
     </row>
-    <row r="721" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="721" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A721" s="10">
         <f t="shared" si="11"/>
         <v>716</v>
@@ -14622,7 +14624,7 @@
       <c r="F721" s="10"/>
       <c r="G721" s="12"/>
     </row>
-    <row r="722" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="722" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A722" s="10">
         <f t="shared" si="11"/>
         <v>717</v>
@@ -14638,7 +14640,7 @@
       <c r="F722" s="10"/>
       <c r="G722" s="12"/>
     </row>
-    <row r="723" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="723" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A723" s="10">
         <f t="shared" si="11"/>
         <v>718</v>
@@ -14656,7 +14658,7 @@
       <c r="F723" s="10"/>
       <c r="G723" s="12"/>
     </row>
-    <row r="724" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="724" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A724" s="10">
         <f t="shared" si="11"/>
         <v>719</v>
@@ -14674,7 +14676,7 @@
       <c r="F724" s="10"/>
       <c r="G724" s="12"/>
     </row>
-    <row r="725" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="725" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A725" s="10">
         <f t="shared" si="11"/>
         <v>720</v>
@@ -14692,7 +14694,7 @@
       <c r="F725" s="10"/>
       <c r="G725" s="12"/>
     </row>
-    <row r="726" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="726" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A726" s="10">
         <f t="shared" si="11"/>
         <v>721</v>
@@ -14708,7 +14710,7 @@
       <c r="F726" s="10"/>
       <c r="G726" s="12"/>
     </row>
-    <row r="727" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="727" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A727" s="10">
         <f t="shared" si="11"/>
         <v>722</v>
@@ -14724,7 +14726,7 @@
       <c r="F727" s="10"/>
       <c r="G727" s="12"/>
     </row>
-    <row r="728" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="728" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A728" s="10">
         <f t="shared" si="11"/>
         <v>723</v>
@@ -14740,7 +14742,7 @@
       <c r="F728" s="10"/>
       <c r="G728" s="12"/>
     </row>
-    <row r="729" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="729" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A729" s="10">
         <f t="shared" si="11"/>
         <v>724</v>
@@ -14756,7 +14758,7 @@
       <c r="F729" s="10"/>
       <c r="G729" s="12"/>
     </row>
-    <row r="730" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="730" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A730" s="10">
         <f t="shared" si="11"/>
         <v>725</v>
@@ -14772,7 +14774,7 @@
       <c r="F730" s="10"/>
       <c r="G730" s="12"/>
     </row>
-    <row r="731" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="731" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A731" s="10">
         <f t="shared" si="11"/>
         <v>726</v>
@@ -14788,7 +14790,7 @@
       <c r="F731" s="10"/>
       <c r="G731" s="12"/>
     </row>
-    <row r="732" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="732" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A732" s="10">
         <f t="shared" si="11"/>
         <v>727</v>
@@ -14804,7 +14806,7 @@
       <c r="F732" s="10"/>
       <c r="G732" s="12"/>
     </row>
-    <row r="733" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="733" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A733" s="10">
         <f t="shared" si="11"/>
         <v>728</v>
@@ -14820,7 +14822,7 @@
       <c r="F733" s="10"/>
       <c r="G733" s="12"/>
     </row>
-    <row r="734" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="734" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A734" s="10">
         <f t="shared" si="11"/>
         <v>729</v>
@@ -14836,7 +14838,7 @@
       <c r="F734" s="10"/>
       <c r="G734" s="12"/>
     </row>
-    <row r="735" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="735" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A735" s="10">
         <f t="shared" si="11"/>
         <v>730</v>
@@ -14852,7 +14854,7 @@
       <c r="F735" s="10"/>
       <c r="G735" s="12"/>
     </row>
-    <row r="736" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="736" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A736" s="10">
         <f t="shared" si="11"/>
         <v>731</v>
@@ -14868,7 +14870,7 @@
       <c r="F736" s="10"/>
       <c r="G736" s="12"/>
     </row>
-    <row r="737" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="737" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A737" s="10">
         <f t="shared" si="11"/>
         <v>732</v>
@@ -14884,7 +14886,7 @@
       <c r="F737" s="10"/>
       <c r="G737" s="12"/>
     </row>
-    <row r="738" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="738" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A738" s="10">
         <f t="shared" si="11"/>
         <v>733</v>
@@ -14900,7 +14902,7 @@
       <c r="F738" s="10"/>
       <c r="G738" s="12"/>
     </row>
-    <row r="739" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="739" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A739" s="10">
         <f t="shared" si="11"/>
         <v>734</v>
@@ -14916,7 +14918,7 @@
       <c r="F739" s="10"/>
       <c r="G739" s="12"/>
     </row>
-    <row r="740" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="740" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A740" s="10">
         <f t="shared" si="11"/>
         <v>735</v>
@@ -14932,7 +14934,7 @@
       <c r="F740" s="10"/>
       <c r="G740" s="12"/>
     </row>
-    <row r="741" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="741" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A741" s="10">
         <f t="shared" si="11"/>
         <v>736</v>
@@ -14948,7 +14950,7 @@
       <c r="F741" s="10"/>
       <c r="G741" s="12"/>
     </row>
-    <row r="742" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="742" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A742" s="10">
         <f t="shared" si="11"/>
         <v>737</v>
@@ -14966,7 +14968,7 @@
       <c r="F742" s="10"/>
       <c r="G742" s="12"/>
     </row>
-    <row r="743" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="743" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A743" s="10">
         <f t="shared" si="11"/>
         <v>738</v>
@@ -14982,7 +14984,7 @@
       <c r="F743" s="10"/>
       <c r="G743" s="12"/>
     </row>
-    <row r="744" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="744" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A744" s="10">
         <f t="shared" si="11"/>
         <v>739</v>
@@ -14998,7 +15000,7 @@
       <c r="F744" s="10"/>
       <c r="G744" s="12"/>
     </row>
-    <row r="745" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="745" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A745" s="10">
         <f t="shared" si="11"/>
         <v>740</v>
@@ -15014,7 +15016,7 @@
       <c r="F745" s="10"/>
       <c r="G745" s="12"/>
     </row>
-    <row r="746" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="746" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A746" s="10">
         <f t="shared" si="11"/>
         <v>741</v>
@@ -15030,7 +15032,7 @@
       <c r="F746" s="10"/>
       <c r="G746" s="12"/>
     </row>
-    <row r="747" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="747" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A747" s="10">
         <f t="shared" si="11"/>
         <v>742</v>
@@ -15062,7 +15064,7 @@
       <c r="F748" s="10"/>
       <c r="G748" s="12"/>
     </row>
-    <row r="749" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="749" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A749" s="10">
         <f t="shared" si="11"/>
         <v>744</v>
@@ -15078,7 +15080,7 @@
       <c r="F749" s="10"/>
       <c r="G749" s="12"/>
     </row>
-    <row r="750" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="750" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A750" s="10">
         <f t="shared" si="11"/>
         <v>745</v>
@@ -15094,7 +15096,7 @@
       <c r="F750" s="10"/>
       <c r="G750" s="12"/>
     </row>
-    <row r="751" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="751" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A751" s="10">
         <f t="shared" si="11"/>
         <v>746</v>
@@ -15110,7 +15112,7 @@
       <c r="F751" s="10"/>
       <c r="G751" s="12"/>
     </row>
-    <row r="752" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="752" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A752" s="10">
         <f t="shared" si="11"/>
         <v>747</v>
@@ -15126,7 +15128,7 @@
       <c r="F752" s="10"/>
       <c r="G752" s="12"/>
     </row>
-    <row r="753" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="753" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A753" s="10">
         <f t="shared" si="11"/>
         <v>748</v>
@@ -15142,7 +15144,7 @@
       <c r="F753" s="10"/>
       <c r="G753" s="12"/>
     </row>
-    <row r="754" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="754" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A754" s="10">
         <f t="shared" si="11"/>
         <v>749</v>
@@ -15158,7 +15160,7 @@
       <c r="F754" s="10"/>
       <c r="G754" s="12"/>
     </row>
-    <row r="755" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="755" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A755" s="10">
         <f t="shared" si="11"/>
         <v>750</v>
@@ -15174,7 +15176,7 @@
       <c r="F755" s="10"/>
       <c r="G755" s="12"/>
     </row>
-    <row r="756" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="756" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A756" s="10">
         <f t="shared" si="11"/>
         <v>751</v>
@@ -15190,7 +15192,7 @@
       <c r="F756" s="10"/>
       <c r="G756" s="12"/>
     </row>
-    <row r="757" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="757" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A757" s="10">
         <f t="shared" si="11"/>
         <v>752</v>
@@ -15206,7 +15208,7 @@
       <c r="F757" s="10"/>
       <c r="G757" s="12"/>
     </row>
-    <row r="758" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="758" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A758" s="10">
         <f t="shared" si="11"/>
         <v>753</v>
@@ -15222,7 +15224,7 @@
       <c r="F758" s="10"/>
       <c r="G758" s="12"/>
     </row>
-    <row r="759" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="759" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A759" s="10">
         <f t="shared" si="11"/>
         <v>754</v>
@@ -15238,7 +15240,7 @@
       <c r="F759" s="10"/>
       <c r="G759" s="12"/>
     </row>
-    <row r="760" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="760" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A760" s="10">
         <f t="shared" si="11"/>
         <v>755</v>
@@ -15254,7 +15256,7 @@
       <c r="F760" s="10"/>
       <c r="G760" s="12"/>
     </row>
-    <row r="761" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="761" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A761" s="10">
         <f t="shared" si="11"/>
         <v>756</v>
@@ -15270,7 +15272,7 @@
       <c r="F761" s="10"/>
       <c r="G761" s="12"/>
     </row>
-    <row r="762" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="762" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A762" s="10">
         <f t="shared" si="11"/>
         <v>757</v>
@@ -15286,7 +15288,7 @@
       <c r="F762" s="10"/>
       <c r="G762" s="12"/>
     </row>
-    <row r="763" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="763" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A763" s="10">
         <f t="shared" si="11"/>
         <v>758</v>
@@ -15302,7 +15304,7 @@
       <c r="F763" s="10"/>
       <c r="G763" s="12"/>
     </row>
-    <row r="764" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="764" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A764" s="10">
         <f t="shared" si="11"/>
         <v>759</v>
@@ -15318,7 +15320,7 @@
       <c r="F764" s="10"/>
       <c r="G764" s="12"/>
     </row>
-    <row r="765" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="765" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A765" s="10">
         <f t="shared" si="11"/>
         <v>760</v>
@@ -15334,7 +15336,7 @@
       <c r="F765" s="10"/>
       <c r="G765" s="12"/>
     </row>
-    <row r="766" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="766" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A766" s="10">
         <f t="shared" si="11"/>
         <v>761</v>
@@ -15350,7 +15352,7 @@
       <c r="F766" s="10"/>
       <c r="G766" s="12"/>
     </row>
-    <row r="767" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="767" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A767" s="10">
         <f t="shared" si="11"/>
         <v>762</v>
@@ -15382,7 +15384,7 @@
       <c r="F768" s="10"/>
       <c r="G768" s="12"/>
     </row>
-    <row r="769" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="769" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A769" s="10">
         <f t="shared" si="11"/>
         <v>764</v>
@@ -15409,12 +15411,16 @@
       <c r="C770" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="D770" s="10"/>
+      <c r="D770" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E770" s="10"/>
       <c r="F770" s="10"/>
-      <c r="G770" s="12"/>
-    </row>
-    <row r="771" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+      <c r="G770" s="12" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A771" s="10">
         <f t="shared" si="11"/>
         <v>766</v>
@@ -15430,7 +15436,7 @@
       <c r="F771" s="10"/>
       <c r="G771" s="12"/>
     </row>
-    <row r="772" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="772" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A772" s="10">
         <f t="shared" si="11"/>
         <v>767</v>
@@ -15446,7 +15452,7 @@
       <c r="F772" s="10"/>
       <c r="G772" s="12"/>
     </row>
-    <row r="773" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="773" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A773" s="10">
         <f t="shared" si="11"/>
         <v>768</v>
@@ -15462,7 +15468,7 @@
       <c r="F773" s="10"/>
       <c r="G773" s="12"/>
     </row>
-    <row r="774" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="774" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A774" s="10">
         <f t="shared" si="11"/>
         <v>769</v>
@@ -15489,12 +15495,16 @@
       <c r="C775" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="D775" s="10"/>
+      <c r="D775" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E775" s="10"/>
       <c r="F775" s="10"/>
-      <c r="G775" s="12"/>
-    </row>
-    <row r="776" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+      <c r="G775" s="12" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A776" s="10">
         <f t="shared" si="12"/>
         <v>771</v>
@@ -15510,7 +15520,7 @@
       <c r="F776" s="10"/>
       <c r="G776" s="12"/>
     </row>
-    <row r="777" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="777" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A777" s="10">
         <f t="shared" si="12"/>
         <v>772</v>
@@ -15526,7 +15536,7 @@
       <c r="F777" s="10"/>
       <c r="G777" s="12"/>
     </row>
-    <row r="778" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="778" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A778" s="10">
         <f t="shared" si="12"/>
         <v>773</v>
@@ -15542,7 +15552,7 @@
       <c r="F778" s="10"/>
       <c r="G778" s="12"/>
     </row>
-    <row r="779" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="779" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A779" s="10">
         <f t="shared" si="12"/>
         <v>774</v>
@@ -15558,7 +15568,7 @@
       <c r="F779" s="10"/>
       <c r="G779" s="12"/>
     </row>
-    <row r="780" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="780" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A780" s="10">
         <f t="shared" si="12"/>
         <v>775</v>
@@ -15574,7 +15584,7 @@
       <c r="F780" s="10"/>
       <c r="G780" s="12"/>
     </row>
-    <row r="781" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="781" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A781" s="10">
         <f t="shared" si="12"/>
         <v>776</v>
@@ -15590,7 +15600,7 @@
       <c r="F781" s="10"/>
       <c r="G781" s="12"/>
     </row>
-    <row r="782" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="782" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A782" s="10">
         <f t="shared" si="12"/>
         <v>777</v>
@@ -15606,7 +15616,7 @@
       <c r="F782" s="10"/>
       <c r="G782" s="12"/>
     </row>
-    <row r="783" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="783" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A783" s="10">
         <f t="shared" si="12"/>
         <v>778</v>
@@ -15624,11 +15634,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:G783">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Lists"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="2"/>
   </autoFilter>
   <sortState ref="A6:G783">
     <sortCondition ref="B6:B783"/>

--- a/docs/newRPL Command Database.xlsx
+++ b/docs/newRPL Command Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="828">
   <si>
     <t>!</t>
   </si>
@@ -2948,11 +2948,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:G783"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A769" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M769" sqref="M769"/>
+      <pane ySplit="5" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D790" sqref="D790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2972,7 +2973,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7">
         <f>COUNTA(D6:D1001)</f>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>823</v>
@@ -2988,7 +2989,7 @@
       </c>
       <c r="D3" s="8">
         <f>D2/F2</f>
-        <v>0.10282776349614396</v>
+        <v>0.10668380462724936</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
@@ -3017,7 +3018,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -3034,7 +3035,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="7" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A7" s="10">
         <f t="shared" ref="A7:A70" si="0">A6+1</f>
         <v>2</v>
@@ -3052,7 +3053,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="8" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3068,7 +3069,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3084,7 +3085,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="10" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3100,7 +3101,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3116,7 +3117,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3134,7 +3135,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A13" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3152,7 +3153,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3170,7 +3171,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="15" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A15" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3188,7 +3189,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A16" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3204,7 +3205,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="17" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A17" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3220,7 +3221,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="18" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A18" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3238,7 +3239,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="19" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A19" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3256,7 +3257,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="20" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A20" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3272,7 +3273,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="21" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A21" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3290,7 +3291,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="22" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A22" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3308,7 +3309,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="23" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A23" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3326,7 +3327,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="24" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A24" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3344,7 +3345,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A25" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3362,7 +3363,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A26" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3378,7 +3379,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="27" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A27" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3396,7 +3397,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="28" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A28" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3412,7 +3413,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="29" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A29" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3430,7 +3431,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="30" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A30" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3448,7 +3449,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="31" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A31" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3464,7 +3465,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="32" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A32" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3480,7 +3481,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="33" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A33" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3498,7 +3499,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="34" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A34" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3514,7 +3515,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A35" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3530,7 +3531,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="36" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A36" s="10">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3546,7 +3547,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="37" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A37" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3562,7 +3563,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="38" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A38" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3578,7 +3579,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="39" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A39" s="10">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3594,7 +3595,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="40" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A40" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3610,7 +3611,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="41" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A41" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3626,7 +3627,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="42" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A42" s="10">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3642,7 +3643,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="43" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A43" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3658,7 +3659,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="44" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A44" s="10">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3692,7 +3693,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="46" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A46" s="10">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3708,7 +3709,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="47" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A47" s="10">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3724,7 +3725,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="48" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A48" s="10">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3740,7 +3741,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="49" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A49" s="10">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3756,7 +3757,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="50" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A50" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3772,7 +3773,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="51" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A51" s="10">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3788,7 +3789,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="52" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A52" s="10">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3804,7 +3805,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="53" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A53" s="10">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3820,7 +3821,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="54" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A54" s="10">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3836,7 +3837,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="55" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A55" s="10">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3852,7 +3853,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="56" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A56" s="10">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3868,7 +3869,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="57" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A57" s="10">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3884,7 +3885,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="58" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A58" s="10">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3900,7 +3901,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="59" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A59" s="10">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3916,7 +3917,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="60" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A60" s="10">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3932,7 +3933,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="61" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A61" s="10">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3948,7 +3949,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="62" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A62" s="10">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3964,7 +3965,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="63" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A63" s="10">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3982,7 +3983,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="64" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A64" s="10">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3998,7 +3999,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="12"/>
     </row>
-    <row r="65" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="65" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A65" s="10">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4014,7 +4015,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="66" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A66" s="10">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4032,7 +4033,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="12"/>
     </row>
-    <row r="67" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="67" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A67" s="10">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4048,7 +4049,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="68" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A68" s="10">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4082,7 +4083,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="70" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A70" s="10">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4098,7 +4099,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="12"/>
     </row>
-    <row r="71" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="71" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A71" s="10">
         <f t="shared" ref="A71:A134" si="1">A70+1</f>
         <v>66</v>
@@ -4114,7 +4115,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="72" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A72" s="10">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4130,7 +4131,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="12"/>
     </row>
-    <row r="73" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="73" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A73" s="10">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4146,7 +4147,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="74" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A74" s="10">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4162,7 +4163,7 @@
       <c r="F74" s="10"/>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="75" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A75" s="10">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4180,7 +4181,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="76" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A76" s="10">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4196,7 +4197,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="12"/>
     </row>
-    <row r="77" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="77" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A77" s="10">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4212,7 +4213,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="12"/>
     </row>
-    <row r="78" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="78" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A78" s="10">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4228,7 +4229,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="79" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A79" s="10">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4244,7 +4245,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="80" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A80" s="10">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4260,7 +4261,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="12"/>
     </row>
-    <row r="81" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="81" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A81" s="10">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4276,7 +4277,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="82" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A82" s="10">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4292,7 +4293,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="83" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A83" s="10">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4308,7 +4309,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="84" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A84" s="10">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4324,7 +4325,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="12"/>
     </row>
-    <row r="85" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="85" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A85" s="10">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4340,7 +4341,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="12"/>
     </row>
-    <row r="86" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="86" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A86" s="10">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4358,7 +4359,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="87" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A87" s="10">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4374,7 +4375,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="88" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A88" s="10">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4390,7 +4391,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="12"/>
     </row>
-    <row r="89" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="89" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A89" s="10">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4408,7 +4409,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="90" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A90" s="10">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4424,7 +4425,7 @@
       <c r="F90" s="10"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="91" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A91" s="10">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4440,7 +4441,7 @@
       <c r="F91" s="10"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="92" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A92" s="10">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4456,7 +4457,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="12"/>
     </row>
-    <row r="93" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="93" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A93" s="10">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4472,7 +4473,7 @@
       <c r="F93" s="10"/>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="94" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A94" s="10">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4488,7 +4489,7 @@
       <c r="F94" s="10"/>
       <c r="G94" s="12"/>
     </row>
-    <row r="95" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="95" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A95" s="10">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4504,7 +4505,7 @@
       <c r="F95" s="10"/>
       <c r="G95" s="12"/>
     </row>
-    <row r="96" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="96" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A96" s="10">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4520,7 +4521,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="97" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A97" s="10">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4538,7 +4539,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="98" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A98" s="10">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4554,7 +4555,7 @@
       <c r="F98" s="10"/>
       <c r="G98" s="12"/>
     </row>
-    <row r="99" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="99" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A99" s="10">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4572,7 +4573,7 @@
       <c r="F99" s="10"/>
       <c r="G99" s="12"/>
     </row>
-    <row r="100" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="100" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A100" s="10">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4588,7 +4589,7 @@
       <c r="F100" s="10"/>
       <c r="G100" s="12"/>
     </row>
-    <row r="101" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="101" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A101" s="10">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4604,7 +4605,7 @@
       <c r="F101" s="10"/>
       <c r="G101" s="12"/>
     </row>
-    <row r="102" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="102" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A102" s="10">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4620,7 +4621,7 @@
       <c r="F102" s="10"/>
       <c r="G102" s="12"/>
     </row>
-    <row r="103" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="103" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A103" s="10">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4636,7 +4637,7 @@
       <c r="F103" s="10"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="104" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A104" s="10">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4652,7 +4653,7 @@
       <c r="F104" s="10"/>
       <c r="G104" s="12"/>
     </row>
-    <row r="105" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="105" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A105" s="10">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4668,7 +4669,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="12"/>
     </row>
-    <row r="106" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="106" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A106" s="10">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4684,7 +4685,7 @@
       <c r="F106" s="10"/>
       <c r="G106" s="12"/>
     </row>
-    <row r="107" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="107" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A107" s="10">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4700,7 +4701,7 @@
       <c r="F107" s="10"/>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="108" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A108" s="10">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4716,7 +4717,7 @@
       <c r="F108" s="10"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="109" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A109" s="10">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4732,7 +4733,7 @@
       <c r="F109" s="10"/>
       <c r="G109" s="12"/>
     </row>
-    <row r="110" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="110" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A110" s="10">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4748,7 +4749,7 @@
       <c r="F110" s="10"/>
       <c r="G110" s="12"/>
     </row>
-    <row r="111" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="111" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A111" s="10">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4764,7 +4765,7 @@
       <c r="F111" s="10"/>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="112" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A112" s="10">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4780,7 +4781,7 @@
       <c r="F112" s="10"/>
       <c r="G112" s="12"/>
     </row>
-    <row r="113" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="113" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A113" s="10">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4796,7 +4797,7 @@
       <c r="F113" s="10"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="114" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A114" s="10">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4812,7 +4813,7 @@
       <c r="F114" s="10"/>
       <c r="G114" s="12"/>
     </row>
-    <row r="115" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="115" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A115" s="10">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4828,7 +4829,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="116" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A116" s="10">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4844,7 +4845,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="12"/>
     </row>
-    <row r="117" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="117" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A117" s="10">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4860,7 +4861,7 @@
       <c r="F117" s="10"/>
       <c r="G117" s="12"/>
     </row>
-    <row r="118" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="118" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A118" s="10">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4876,7 +4877,7 @@
       <c r="F118" s="10"/>
       <c r="G118" s="12"/>
     </row>
-    <row r="119" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="119" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A119" s="10">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -4892,7 +4893,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="120" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A120" s="10">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -4908,7 +4909,7 @@
       <c r="F120" s="10"/>
       <c r="G120" s="12"/>
     </row>
-    <row r="121" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="121" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A121" s="10">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -4924,7 +4925,7 @@
       <c r="F121" s="10"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="122" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A122" s="10">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -4940,7 +4941,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="12"/>
     </row>
-    <row r="123" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="123" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A123" s="10">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -4956,7 +4957,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="124" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A124" s="10">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -4972,7 +4973,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="12"/>
     </row>
-    <row r="125" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="125" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A125" s="10">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -4988,7 +4989,7 @@
       <c r="F125" s="10"/>
       <c r="G125" s="12"/>
     </row>
-    <row r="126" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="126" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A126" s="10">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5004,7 +5005,7 @@
       <c r="F126" s="10"/>
       <c r="G126" s="12"/>
     </row>
-    <row r="127" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="127" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A127" s="10">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5022,7 +5023,7 @@
       <c r="F127" s="10"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="128" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A128" s="10">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -5040,7 +5041,7 @@
       <c r="F128" s="10"/>
       <c r="G128" s="12"/>
     </row>
-    <row r="129" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="129" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A129" s="10">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5056,7 +5057,7 @@
       <c r="F129" s="10"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="130" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A130" s="10">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5072,7 +5073,7 @@
       <c r="F130" s="10"/>
       <c r="G130" s="12"/>
     </row>
-    <row r="131" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="131" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A131" s="10">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5088,7 +5089,7 @@
       <c r="F131" s="10"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="132" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A132" s="10">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -5104,7 +5105,7 @@
       <c r="F132" s="10"/>
       <c r="G132" s="12"/>
     </row>
-    <row r="133" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="133" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A133" s="10">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -5120,7 +5121,7 @@
       <c r="F133" s="10"/>
       <c r="G133" s="12"/>
     </row>
-    <row r="134" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="134" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A134" s="10">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -5136,7 +5137,7 @@
       <c r="F134" s="10"/>
       <c r="G134" s="12"/>
     </row>
-    <row r="135" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="135" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A135" s="10">
         <f t="shared" ref="A135:A198" si="2">A134+1</f>
         <v>130</v>
@@ -5152,7 +5153,7 @@
       <c r="F135" s="10"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="136" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A136" s="10">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -5168,7 +5169,7 @@
       <c r="F136" s="10"/>
       <c r="G136" s="12"/>
     </row>
-    <row r="137" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="137" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A137" s="10">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -5186,7 +5187,7 @@
       <c r="F137" s="10"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="138" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A138" s="10">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -5202,7 +5203,7 @@
       <c r="F138" s="10"/>
       <c r="G138" s="12"/>
     </row>
-    <row r="139" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="139" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A139" s="10">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -5218,7 +5219,7 @@
       <c r="F139" s="10"/>
       <c r="G139" s="12"/>
     </row>
-    <row r="140" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="140" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A140" s="10">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -5234,7 +5235,7 @@
       <c r="F140" s="10"/>
       <c r="G140" s="12"/>
     </row>
-    <row r="141" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="141" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A141" s="10">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -5250,7 +5251,7 @@
       <c r="F141" s="10"/>
       <c r="G141" s="12"/>
     </row>
-    <row r="142" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="142" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A142" s="10">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5266,7 +5267,7 @@
       <c r="F142" s="10"/>
       <c r="G142" s="12"/>
     </row>
-    <row r="143" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="143" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A143" s="10">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -5282,7 +5283,7 @@
       <c r="F143" s="10"/>
       <c r="G143" s="12"/>
     </row>
-    <row r="144" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="144" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A144" s="10">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -5298,7 +5299,7 @@
       <c r="F144" s="10"/>
       <c r="G144" s="12"/>
     </row>
-    <row r="145" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="145" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A145" s="10">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -5314,7 +5315,7 @@
       <c r="F145" s="10"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="146" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A146" s="10">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -5330,7 +5331,7 @@
       <c r="F146" s="10"/>
       <c r="G146" s="12"/>
     </row>
-    <row r="147" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="147" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A147" s="10">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -5346,7 +5347,7 @@
       <c r="F147" s="10"/>
       <c r="G147" s="12"/>
     </row>
-    <row r="148" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="148" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A148" s="10">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -5362,7 +5363,7 @@
       <c r="F148" s="10"/>
       <c r="G148" s="12"/>
     </row>
-    <row r="149" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="149" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A149" s="10">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -5378,7 +5379,7 @@
       <c r="F149" s="10"/>
       <c r="G149" s="12"/>
     </row>
-    <row r="150" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="150" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A150" s="10">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -5394,7 +5395,7 @@
       <c r="F150" s="10"/>
       <c r="G150" s="12"/>
     </row>
-    <row r="151" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="151" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A151" s="10">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -5410,7 +5411,7 @@
       <c r="F151" s="10"/>
       <c r="G151" s="12"/>
     </row>
-    <row r="152" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="152" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A152" s="10">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5426,7 +5427,7 @@
       <c r="F152" s="10"/>
       <c r="G152" s="12"/>
     </row>
-    <row r="153" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="153" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A153" s="10">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5442,7 +5443,7 @@
       <c r="F153" s="10"/>
       <c r="G153" s="12"/>
     </row>
-    <row r="154" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="154" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A154" s="10">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5458,7 +5459,7 @@
       <c r="F154" s="10"/>
       <c r="G154" s="12"/>
     </row>
-    <row r="155" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="155" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A155" s="10">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -5474,7 +5475,7 @@
       <c r="F155" s="10"/>
       <c r="G155" s="12"/>
     </row>
-    <row r="156" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="156" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A156" s="10">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -5490,7 +5491,7 @@
       <c r="F156" s="10"/>
       <c r="G156" s="12"/>
     </row>
-    <row r="157" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="157" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A157" s="10">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -5506,7 +5507,7 @@
       <c r="F157" s="10"/>
       <c r="G157" s="12"/>
     </row>
-    <row r="158" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="158" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A158" s="10">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -5522,7 +5523,7 @@
       <c r="F158" s="10"/>
       <c r="G158" s="12"/>
     </row>
-    <row r="159" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="159" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A159" s="10">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -5538,7 +5539,7 @@
       <c r="F159" s="10"/>
       <c r="G159" s="12"/>
     </row>
-    <row r="160" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="160" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A160" s="10">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -5554,7 +5555,7 @@
       <c r="F160" s="10"/>
       <c r="G160" s="12"/>
     </row>
-    <row r="161" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="161" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A161" s="10">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -5570,7 +5571,7 @@
       <c r="F161" s="10"/>
       <c r="G161" s="12"/>
     </row>
-    <row r="162" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="162" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A162" s="10">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -5588,7 +5589,7 @@
       <c r="F162" s="10"/>
       <c r="G162" s="12"/>
     </row>
-    <row r="163" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="163" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A163" s="10">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -5606,7 +5607,7 @@
       <c r="F163" s="10"/>
       <c r="G163" s="12"/>
     </row>
-    <row r="164" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="164" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A164" s="10">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -5622,7 +5623,7 @@
       <c r="F164" s="10"/>
       <c r="G164" s="12"/>
     </row>
-    <row r="165" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="165" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A165" s="10">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -5638,7 +5639,7 @@
       <c r="F165" s="10"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="166" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A166" s="10">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -5656,7 +5657,7 @@
       <c r="F166" s="10"/>
       <c r="G166" s="12"/>
     </row>
-    <row r="167" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="167" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A167" s="10">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -5672,7 +5673,7 @@
       <c r="F167" s="10"/>
       <c r="G167" s="12"/>
     </row>
-    <row r="168" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="168" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A168" s="10">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -5688,7 +5689,7 @@
       <c r="F168" s="10"/>
       <c r="G168" s="12"/>
     </row>
-    <row r="169" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="169" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A169" s="10">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -5704,7 +5705,7 @@
       <c r="F169" s="10"/>
       <c r="G169" s="12"/>
     </row>
-    <row r="170" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="170" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A170" s="10">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -5720,7 +5721,7 @@
       <c r="F170" s="10"/>
       <c r="G170" s="12"/>
     </row>
-    <row r="171" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="171" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A171" s="10">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -5736,7 +5737,7 @@
       <c r="F171" s="10"/>
       <c r="G171" s="12"/>
     </row>
-    <row r="172" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="172" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A172" s="10">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -5752,7 +5753,7 @@
       <c r="F172" s="10"/>
       <c r="G172" s="12"/>
     </row>
-    <row r="173" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="173" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A173" s="10">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -5768,7 +5769,7 @@
       <c r="F173" s="10"/>
       <c r="G173" s="12"/>
     </row>
-    <row r="174" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="174" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A174" s="10">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -5784,7 +5785,7 @@
       <c r="F174" s="10"/>
       <c r="G174" s="12"/>
     </row>
-    <row r="175" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="175" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A175" s="10">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -5800,7 +5801,7 @@
       <c r="F175" s="10"/>
       <c r="G175" s="12"/>
     </row>
-    <row r="176" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="176" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A176" s="10">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -5816,7 +5817,7 @@
       <c r="F176" s="10"/>
       <c r="G176" s="12"/>
     </row>
-    <row r="177" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="177" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A177" s="10">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -5832,7 +5833,7 @@
       <c r="F177" s="10"/>
       <c r="G177" s="12"/>
     </row>
-    <row r="178" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="178" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A178" s="10">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -5848,7 +5849,7 @@
       <c r="F178" s="10"/>
       <c r="G178" s="12"/>
     </row>
-    <row r="179" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="179" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A179" s="10">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -5857,14 +5858,14 @@
         <v>131</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="D179" s="10"/>
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
       <c r="G179" s="12"/>
     </row>
-    <row r="180" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="180" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A180" s="10">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -5882,7 +5883,7 @@
       <c r="F180" s="10"/>
       <c r="G180" s="12"/>
     </row>
-    <row r="181" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="181" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A181" s="10">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -5898,7 +5899,7 @@
       <c r="F181" s="10"/>
       <c r="G181" s="12"/>
     </row>
-    <row r="182" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="182" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A182" s="10">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -5914,7 +5915,7 @@
       <c r="F182" s="10"/>
       <c r="G182" s="12"/>
     </row>
-    <row r="183" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="183" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A183" s="10">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -5930,7 +5931,7 @@
       <c r="F183" s="10"/>
       <c r="G183" s="12"/>
     </row>
-    <row r="184" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="184" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A184" s="10">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -5946,7 +5947,7 @@
       <c r="F184" s="10"/>
       <c r="G184" s="12"/>
     </row>
-    <row r="185" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="185" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A185" s="10">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -5962,7 +5963,7 @@
       <c r="F185" s="10"/>
       <c r="G185" s="12"/>
     </row>
-    <row r="186" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="186" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A186" s="10">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -5978,7 +5979,7 @@
       <c r="F186" s="10"/>
       <c r="G186" s="12"/>
     </row>
-    <row r="187" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="187" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A187" s="10">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -5994,7 +5995,7 @@
       <c r="F187" s="10"/>
       <c r="G187" s="12"/>
     </row>
-    <row r="188" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="188" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A188" s="10">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -6010,7 +6011,7 @@
       <c r="F188" s="10"/>
       <c r="G188" s="12"/>
     </row>
-    <row r="189" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="189" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A189" s="10">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -6026,7 +6027,7 @@
       <c r="F189" s="10"/>
       <c r="G189" s="12"/>
     </row>
-    <row r="190" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="190" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A190" s="10">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -6042,7 +6043,7 @@
       <c r="F190" s="10"/>
       <c r="G190" s="12"/>
     </row>
-    <row r="191" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="191" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A191" s="10">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -6058,7 +6059,7 @@
       <c r="F191" s="10"/>
       <c r="G191" s="12"/>
     </row>
-    <row r="192" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="192" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A192" s="10">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -6074,7 +6075,7 @@
       <c r="F192" s="10"/>
       <c r="G192" s="12"/>
     </row>
-    <row r="193" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="193" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A193" s="10">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -6090,7 +6091,7 @@
       <c r="F193" s="10"/>
       <c r="G193" s="12"/>
     </row>
-    <row r="194" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="194" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A194" s="10">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -6106,7 +6107,7 @@
       <c r="F194" s="10"/>
       <c r="G194" s="12"/>
     </row>
-    <row r="195" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="195" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A195" s="10">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -6122,7 +6123,7 @@
       <c r="F195" s="10"/>
       <c r="G195" s="12"/>
     </row>
-    <row r="196" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="196" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A196" s="10">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -6138,7 +6139,7 @@
       <c r="F196" s="10"/>
       <c r="G196" s="12"/>
     </row>
-    <row r="197" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="197" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A197" s="10">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -6154,7 +6155,7 @@
       <c r="F197" s="10"/>
       <c r="G197" s="12"/>
     </row>
-    <row r="198" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="198" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A198" s="10">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -6170,7 +6171,7 @@
       <c r="F198" s="10"/>
       <c r="G198" s="12"/>
     </row>
-    <row r="199" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="199" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A199" s="10">
         <f t="shared" ref="A199:A262" si="3">A198+1</f>
         <v>194</v>
@@ -6186,7 +6187,7 @@
       <c r="F199" s="10"/>
       <c r="G199" s="12"/>
     </row>
-    <row r="200" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="200" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A200" s="10">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -6202,7 +6203,7 @@
       <c r="F200" s="10"/>
       <c r="G200" s="12"/>
     </row>
-    <row r="201" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="201" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A201" s="10">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -6218,7 +6219,7 @@
       <c r="F201" s="10"/>
       <c r="G201" s="12"/>
     </row>
-    <row r="202" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="202" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A202" s="10">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -6234,7 +6235,7 @@
       <c r="F202" s="10"/>
       <c r="G202" s="12"/>
     </row>
-    <row r="203" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="203" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A203" s="10">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -6250,7 +6251,7 @@
       <c r="F203" s="10"/>
       <c r="G203" s="12"/>
     </row>
-    <row r="204" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="204" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A204" s="10">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -6266,7 +6267,7 @@
       <c r="F204" s="10"/>
       <c r="G204" s="12"/>
     </row>
-    <row r="205" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="205" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A205" s="10">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -6282,7 +6283,7 @@
       <c r="F205" s="10"/>
       <c r="G205" s="12"/>
     </row>
-    <row r="206" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="206" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A206" s="10">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -6298,7 +6299,7 @@
       <c r="F206" s="10"/>
       <c r="G206" s="12"/>
     </row>
-    <row r="207" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="207" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A207" s="10">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -6314,7 +6315,7 @@
       <c r="F207" s="10"/>
       <c r="G207" s="12"/>
     </row>
-    <row r="208" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="208" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A208" s="10">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -6330,7 +6331,7 @@
       <c r="F208" s="10"/>
       <c r="G208" s="12"/>
     </row>
-    <row r="209" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="209" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A209" s="10">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -6346,7 +6347,7 @@
       <c r="F209" s="10"/>
       <c r="G209" s="12"/>
     </row>
-    <row r="210" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="210" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A210" s="10">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -6364,7 +6365,7 @@
       <c r="F210" s="10"/>
       <c r="G210" s="12"/>
     </row>
-    <row r="211" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="211" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A211" s="10">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -6400,7 +6401,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="213" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A213" s="10">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -6436,7 +6437,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="215" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A215" s="10">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -6452,7 +6453,7 @@
       <c r="F215" s="10"/>
       <c r="G215" s="12"/>
     </row>
-    <row r="216" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="216" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A216" s="10">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -6468,7 +6469,7 @@
       <c r="F216" s="10"/>
       <c r="G216" s="12"/>
     </row>
-    <row r="217" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="217" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A217" s="10">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -6484,7 +6485,7 @@
       <c r="F217" s="10"/>
       <c r="G217" s="12"/>
     </row>
-    <row r="218" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="218" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A218" s="10">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -6500,7 +6501,7 @@
       <c r="F218" s="10"/>
       <c r="G218" s="12"/>
     </row>
-    <row r="219" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="219" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A219" s="10">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -6516,7 +6517,7 @@
       <c r="F219" s="10"/>
       <c r="G219" s="12"/>
     </row>
-    <row r="220" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="220" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A220" s="10">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -6534,7 +6535,7 @@
       <c r="F220" s="10"/>
       <c r="G220" s="12"/>
     </row>
-    <row r="221" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="221" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A221" s="10">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -6550,7 +6551,7 @@
       <c r="F221" s="10"/>
       <c r="G221" s="12"/>
     </row>
-    <row r="222" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="222" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A222" s="10">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -6566,7 +6567,7 @@
       <c r="F222" s="10"/>
       <c r="G222" s="12"/>
     </row>
-    <row r="223" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="223" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A223" s="10">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -6582,7 +6583,7 @@
       <c r="F223" s="10"/>
       <c r="G223" s="12"/>
     </row>
-    <row r="224" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="224" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A224" s="10">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -6600,7 +6601,7 @@
       <c r="F224" s="10"/>
       <c r="G224" s="12"/>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A225" s="10">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -6616,7 +6617,7 @@
       <c r="F225" s="10"/>
       <c r="G225" s="12"/>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="226" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A226" s="10">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -6632,7 +6633,7 @@
       <c r="F226" s="10"/>
       <c r="G226" s="12"/>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="227" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A227" s="10">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -6648,7 +6649,7 @@
       <c r="F227" s="10"/>
       <c r="G227" s="12"/>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A228" s="10">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -6664,7 +6665,7 @@
       <c r="F228" s="10"/>
       <c r="G228" s="12"/>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="229" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A229" s="10">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -6680,7 +6681,7 @@
       <c r="F229" s="10"/>
       <c r="G229" s="12"/>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="230" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A230" s="10">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -6696,7 +6697,7 @@
       <c r="F230" s="10"/>
       <c r="G230" s="12"/>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="231" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A231" s="10">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -6712,7 +6713,7 @@
       <c r="F231" s="10"/>
       <c r="G231" s="12"/>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="232" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A232" s="10">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -6728,7 +6729,7 @@
       <c r="F232" s="10"/>
       <c r="G232" s="12"/>
     </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="233" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A233" s="10">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -6744,7 +6745,7 @@
       <c r="F233" s="10"/>
       <c r="G233" s="12"/>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A234" s="10">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -6762,7 +6763,7 @@
       <c r="F234" s="10"/>
       <c r="G234" s="12"/>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="235" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A235" s="10">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -6798,7 +6799,7 @@
       <c r="F236" s="10"/>
       <c r="G236" s="12"/>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="237" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A237" s="10">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -6814,7 +6815,7 @@
       <c r="F237" s="10"/>
       <c r="G237" s="12"/>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="238" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A238" s="10">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -6830,7 +6831,7 @@
       <c r="F238" s="10"/>
       <c r="G238" s="12"/>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="239" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A239" s="10">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -6846,7 +6847,7 @@
       <c r="F239" s="10"/>
       <c r="G239" s="12"/>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="240" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A240" s="10">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -6862,7 +6863,7 @@
       <c r="F240" s="10"/>
       <c r="G240" s="12"/>
     </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A241" s="10">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -6878,7 +6879,7 @@
       <c r="F241" s="10"/>
       <c r="G241" s="12"/>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="242" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A242" s="10">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -6894,7 +6895,7 @@
       <c r="F242" s="10"/>
       <c r="G242" s="12"/>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="243" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A243" s="10">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -6910,7 +6911,7 @@
       <c r="F243" s="10"/>
       <c r="G243" s="12"/>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="244" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A244" s="10">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -6926,7 +6927,7 @@
       <c r="F244" s="10"/>
       <c r="G244" s="12"/>
     </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="245" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A245" s="10">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -6942,7 +6943,7 @@
       <c r="F245" s="10"/>
       <c r="G245" s="12"/>
     </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="246" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A246" s="10">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -6958,7 +6959,7 @@
       <c r="F246" s="10"/>
       <c r="G246" s="12"/>
     </row>
-    <row r="247" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="247" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A247" s="10">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -6976,7 +6977,7 @@
       <c r="F247" s="10"/>
       <c r="G247" s="12"/>
     </row>
-    <row r="248" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="248" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A248" s="10">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -6992,7 +6993,7 @@
       <c r="F248" s="10"/>
       <c r="G248" s="12"/>
     </row>
-    <row r="249" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="249" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A249" s="10">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -7010,7 +7011,7 @@
       <c r="F249" s="10"/>
       <c r="G249" s="12"/>
     </row>
-    <row r="250" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="250" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A250" s="10">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -7026,7 +7027,7 @@
       <c r="F250" s="10"/>
       <c r="G250" s="12"/>
     </row>
-    <row r="251" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="251" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A251" s="10">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -7042,7 +7043,7 @@
       <c r="F251" s="10"/>
       <c r="G251" s="12"/>
     </row>
-    <row r="252" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="252" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A252" s="10">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -7058,7 +7059,7 @@
       <c r="F252" s="10"/>
       <c r="G252" s="12"/>
     </row>
-    <row r="253" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="253" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A253" s="10">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -7074,7 +7075,7 @@
       <c r="F253" s="10"/>
       <c r="G253" s="12"/>
     </row>
-    <row r="254" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="254" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A254" s="10">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -7090,7 +7091,7 @@
       <c r="F254" s="10"/>
       <c r="G254" s="12"/>
     </row>
-    <row r="255" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="255" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A255" s="10">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -7106,7 +7107,7 @@
       <c r="F255" s="10"/>
       <c r="G255" s="12"/>
     </row>
-    <row r="256" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="256" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A256" s="10">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -7122,7 +7123,7 @@
       <c r="F256" s="10"/>
       <c r="G256" s="12"/>
     </row>
-    <row r="257" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="257" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A257" s="10">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -7138,7 +7139,7 @@
       <c r="F257" s="10"/>
       <c r="G257" s="12"/>
     </row>
-    <row r="258" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="258" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A258" s="10">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -7154,7 +7155,7 @@
       <c r="F258" s="10"/>
       <c r="G258" s="12"/>
     </row>
-    <row r="259" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="259" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A259" s="10">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -7170,7 +7171,7 @@
       <c r="F259" s="10"/>
       <c r="G259" s="12"/>
     </row>
-    <row r="260" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="260" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A260" s="10">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -7186,7 +7187,7 @@
       <c r="F260" s="10"/>
       <c r="G260" s="12"/>
     </row>
-    <row r="261" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="261" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A261" s="10">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -7202,7 +7203,7 @@
       <c r="F261" s="10"/>
       <c r="G261" s="12"/>
     </row>
-    <row r="262" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="262" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A262" s="10">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -7218,7 +7219,7 @@
       <c r="F262" s="10"/>
       <c r="G262" s="12"/>
     </row>
-    <row r="263" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="263" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A263" s="10">
         <f t="shared" ref="A263:A326" si="4">A262+1</f>
         <v>258</v>
@@ -7234,7 +7235,7 @@
       <c r="F263" s="10"/>
       <c r="G263" s="12"/>
     </row>
-    <row r="264" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="264" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A264" s="10">
         <f t="shared" si="4"/>
         <v>259</v>
@@ -7250,7 +7251,7 @@
       <c r="F264" s="10"/>
       <c r="G264" s="12"/>
     </row>
-    <row r="265" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="265" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A265" s="10">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -7266,7 +7267,7 @@
       <c r="F265" s="10"/>
       <c r="G265" s="12"/>
     </row>
-    <row r="266" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="266" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A266" s="10">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -7282,7 +7283,7 @@
       <c r="F266" s="10"/>
       <c r="G266" s="12"/>
     </row>
-    <row r="267" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="267" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A267" s="10">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -7298,7 +7299,7 @@
       <c r="F267" s="10"/>
       <c r="G267" s="12"/>
     </row>
-    <row r="268" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="268" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A268" s="10">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -7314,7 +7315,7 @@
       <c r="F268" s="10"/>
       <c r="G268" s="12"/>
     </row>
-    <row r="269" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="269" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A269" s="10">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -7330,7 +7331,7 @@
       <c r="F269" s="10"/>
       <c r="G269" s="12"/>
     </row>
-    <row r="270" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="270" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A270" s="10">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -7346,7 +7347,7 @@
       <c r="F270" s="10"/>
       <c r="G270" s="12"/>
     </row>
-    <row r="271" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="271" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A271" s="10">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -7362,7 +7363,7 @@
       <c r="F271" s="10"/>
       <c r="G271" s="12"/>
     </row>
-    <row r="272" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="272" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A272" s="10">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -7378,7 +7379,7 @@
       <c r="F272" s="10"/>
       <c r="G272" s="12"/>
     </row>
-    <row r="273" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="273" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A273" s="10">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -7394,7 +7395,7 @@
       <c r="F273" s="10"/>
       <c r="G273" s="12"/>
     </row>
-    <row r="274" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="274" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A274" s="10">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -7410,7 +7411,7 @@
       <c r="F274" s="10"/>
       <c r="G274" s="12"/>
     </row>
-    <row r="275" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="275" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A275" s="10">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -7426,7 +7427,7 @@
       <c r="F275" s="10"/>
       <c r="G275" s="12"/>
     </row>
-    <row r="276" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="276" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A276" s="10">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -7442,7 +7443,7 @@
       <c r="F276" s="10"/>
       <c r="G276" s="12"/>
     </row>
-    <row r="277" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="277" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A277" s="10">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -7460,7 +7461,7 @@
       <c r="F277" s="10"/>
       <c r="G277" s="12"/>
     </row>
-    <row r="278" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="278" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A278" s="10">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -7476,7 +7477,7 @@
       <c r="F278" s="10"/>
       <c r="G278" s="12"/>
     </row>
-    <row r="279" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="279" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A279" s="10">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -7492,7 +7493,7 @@
       <c r="F279" s="10"/>
       <c r="G279" s="12"/>
     </row>
-    <row r="280" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="280" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A280" s="10">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -7508,7 +7509,7 @@
       <c r="F280" s="10"/>
       <c r="G280" s="12"/>
     </row>
-    <row r="281" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="281" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A281" s="10">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -7524,7 +7525,7 @@
       <c r="F281" s="10"/>
       <c r="G281" s="12"/>
     </row>
-    <row r="282" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="282" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A282" s="10">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -7542,7 +7543,7 @@
       <c r="F282" s="10"/>
       <c r="G282" s="12"/>
     </row>
-    <row r="283" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="283" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A283" s="10">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -7558,7 +7559,7 @@
       <c r="F283" s="10"/>
       <c r="G283" s="12"/>
     </row>
-    <row r="284" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="284" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A284" s="10">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -7576,7 +7577,7 @@
       <c r="F284" s="10"/>
       <c r="G284" s="12"/>
     </row>
-    <row r="285" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="285" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A285" s="10">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -7592,7 +7593,7 @@
       <c r="F285" s="10"/>
       <c r="G285" s="12"/>
     </row>
-    <row r="286" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="286" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A286" s="10">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -7608,7 +7609,7 @@
       <c r="F286" s="10"/>
       <c r="G286" s="12"/>
     </row>
-    <row r="287" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="287" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A287" s="10">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -7624,7 +7625,7 @@
       <c r="F287" s="10"/>
       <c r="G287" s="12"/>
     </row>
-    <row r="288" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="288" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A288" s="10">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -7640,7 +7641,7 @@
       <c r="F288" s="10"/>
       <c r="G288" s="12"/>
     </row>
-    <row r="289" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="289" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A289" s="10">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -7656,7 +7657,7 @@
       <c r="F289" s="10"/>
       <c r="G289" s="12"/>
     </row>
-    <row r="290" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="290" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A290" s="10">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -7672,7 +7673,7 @@
       <c r="F290" s="10"/>
       <c r="G290" s="12"/>
     </row>
-    <row r="291" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="291" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A291" s="10">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -7688,7 +7689,7 @@
       <c r="F291" s="10"/>
       <c r="G291" s="12"/>
     </row>
-    <row r="292" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="292" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A292" s="10">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -7704,7 +7705,7 @@
       <c r="F292" s="10"/>
       <c r="G292" s="12"/>
     </row>
-    <row r="293" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="293" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A293" s="10">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -7720,7 +7721,7 @@
       <c r="F293" s="10"/>
       <c r="G293" s="12"/>
     </row>
-    <row r="294" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="294" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A294" s="10">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -7736,7 +7737,7 @@
       <c r="F294" s="10"/>
       <c r="G294" s="12"/>
     </row>
-    <row r="295" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="295" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A295" s="10">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -7788,7 +7789,7 @@
       <c r="F297" s="10"/>
       <c r="G297" s="12"/>
     </row>
-    <row r="298" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="298" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A298" s="10">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -7804,7 +7805,7 @@
       <c r="F298" s="10"/>
       <c r="G298" s="12"/>
     </row>
-    <row r="299" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="299" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A299" s="10">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -7820,7 +7821,7 @@
       <c r="F299" s="10"/>
       <c r="G299" s="12"/>
     </row>
-    <row r="300" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="300" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A300" s="10">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -7836,7 +7837,7 @@
       <c r="F300" s="10"/>
       <c r="G300" s="12"/>
     </row>
-    <row r="301" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="301" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A301" s="10">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -7852,7 +7853,7 @@
       <c r="F301" s="10"/>
       <c r="G301" s="12"/>
     </row>
-    <row r="302" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="302" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A302" s="10">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -7868,7 +7869,7 @@
       <c r="F302" s="10"/>
       <c r="G302" s="12"/>
     </row>
-    <row r="303" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="303" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A303" s="10">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -7884,7 +7885,7 @@
       <c r="F303" s="10"/>
       <c r="G303" s="12"/>
     </row>
-    <row r="304" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="304" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A304" s="10">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -7900,7 +7901,7 @@
       <c r="F304" s="10"/>
       <c r="G304" s="12"/>
     </row>
-    <row r="305" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="305" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A305" s="10">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -7916,7 +7917,7 @@
       <c r="F305" s="10"/>
       <c r="G305" s="12"/>
     </row>
-    <row r="306" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="306" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A306" s="10">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -7932,7 +7933,7 @@
       <c r="F306" s="10"/>
       <c r="G306" s="12"/>
     </row>
-    <row r="307" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="307" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A307" s="10">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -7948,7 +7949,7 @@
       <c r="F307" s="10"/>
       <c r="G307" s="12"/>
     </row>
-    <row r="308" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="308" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A308" s="10">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -7964,7 +7965,7 @@
       <c r="F308" s="10"/>
       <c r="G308" s="12"/>
     </row>
-    <row r="309" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="309" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A309" s="10">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -7980,7 +7981,7 @@
       <c r="F309" s="10"/>
       <c r="G309" s="12"/>
     </row>
-    <row r="310" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="310" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A310" s="10">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -7996,7 +7997,7 @@
       <c r="F310" s="10"/>
       <c r="G310" s="12"/>
     </row>
-    <row r="311" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="311" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A311" s="10">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -8030,7 +8031,7 @@
       <c r="F312" s="10"/>
       <c r="G312" s="12"/>
     </row>
-    <row r="313" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="313" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A313" s="10">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -8046,7 +8047,7 @@
       <c r="F313" s="10"/>
       <c r="G313" s="12"/>
     </row>
-    <row r="314" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="314" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A314" s="10">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -8062,7 +8063,7 @@
       <c r="F314" s="10"/>
       <c r="G314" s="12"/>
     </row>
-    <row r="315" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="315" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A315" s="10">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -8078,7 +8079,7 @@
       <c r="F315" s="10"/>
       <c r="G315" s="12"/>
     </row>
-    <row r="316" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="316" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A316" s="10">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -8094,7 +8095,7 @@
       <c r="F316" s="10"/>
       <c r="G316" s="12"/>
     </row>
-    <row r="317" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="317" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A317" s="10">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -8110,7 +8111,7 @@
       <c r="F317" s="10"/>
       <c r="G317" s="12"/>
     </row>
-    <row r="318" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="318" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A318" s="10">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -8126,7 +8127,7 @@
       <c r="F318" s="10"/>
       <c r="G318" s="12"/>
     </row>
-    <row r="319" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="319" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A319" s="10">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -8142,7 +8143,7 @@
       <c r="F319" s="10"/>
       <c r="G319" s="12"/>
     </row>
-    <row r="320" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="320" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A320" s="10">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -8158,7 +8159,7 @@
       <c r="F320" s="10"/>
       <c r="G320" s="12"/>
     </row>
-    <row r="321" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="321" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A321" s="10">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -8174,7 +8175,7 @@
       <c r="F321" s="10"/>
       <c r="G321" s="12"/>
     </row>
-    <row r="322" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="322" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A322" s="10">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -8190,7 +8191,7 @@
       <c r="F322" s="10"/>
       <c r="G322" s="12"/>
     </row>
-    <row r="323" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="323" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A323" s="10">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -8206,7 +8207,7 @@
       <c r="F323" s="10"/>
       <c r="G323" s="12"/>
     </row>
-    <row r="324" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="324" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A324" s="10">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -8222,7 +8223,7 @@
       <c r="F324" s="10"/>
       <c r="G324" s="12"/>
     </row>
-    <row r="325" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="325" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A325" s="10">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -8238,7 +8239,7 @@
       <c r="F325" s="10"/>
       <c r="G325" s="12"/>
     </row>
-    <row r="326" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="326" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A326" s="10">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -8254,7 +8255,7 @@
       <c r="F326" s="10"/>
       <c r="G326" s="12"/>
     </row>
-    <row r="327" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="327" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A327" s="10">
         <f t="shared" ref="A327:A390" si="5">A326+1</f>
         <v>322</v>
@@ -8270,7 +8271,7 @@
       <c r="F327" s="10"/>
       <c r="G327" s="12"/>
     </row>
-    <row r="328" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="328" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A328" s="10">
         <f t="shared" si="5"/>
         <v>323</v>
@@ -8286,7 +8287,7 @@
       <c r="F328" s="10"/>
       <c r="G328" s="12"/>
     </row>
-    <row r="329" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="329" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A329" s="10">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -8302,7 +8303,7 @@
       <c r="F329" s="10"/>
       <c r="G329" s="12"/>
     </row>
-    <row r="330" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="330" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A330" s="10">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -8318,7 +8319,7 @@
       <c r="F330" s="10"/>
       <c r="G330" s="12"/>
     </row>
-    <row r="331" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="331" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A331" s="10">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -8334,7 +8335,7 @@
       <c r="F331" s="10"/>
       <c r="G331" s="12"/>
     </row>
-    <row r="332" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="332" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A332" s="10">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -8350,7 +8351,7 @@
       <c r="F332" s="10"/>
       <c r="G332" s="12"/>
     </row>
-    <row r="333" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="333" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A333" s="10">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -8366,7 +8367,7 @@
       <c r="F333" s="10"/>
       <c r="G333" s="12"/>
     </row>
-    <row r="334" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="334" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A334" s="10">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -8382,7 +8383,7 @@
       <c r="F334" s="10"/>
       <c r="G334" s="12"/>
     </row>
-    <row r="335" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="335" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A335" s="10">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -8398,7 +8399,7 @@
       <c r="F335" s="10"/>
       <c r="G335" s="12"/>
     </row>
-    <row r="336" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="336" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A336" s="10">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -8416,7 +8417,7 @@
       <c r="F336" s="10"/>
       <c r="G336" s="12"/>
     </row>
-    <row r="337" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="337" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A337" s="10">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -8434,7 +8435,7 @@
       <c r="F337" s="10"/>
       <c r="G337" s="12"/>
     </row>
-    <row r="338" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="338" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A338" s="10">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -8450,7 +8451,7 @@
       <c r="F338" s="10"/>
       <c r="G338" s="12"/>
     </row>
-    <row r="339" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="339" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A339" s="10">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -8466,7 +8467,7 @@
       <c r="F339" s="10"/>
       <c r="G339" s="12"/>
     </row>
-    <row r="340" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="340" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A340" s="10">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -8482,7 +8483,7 @@
       <c r="F340" s="10"/>
       <c r="G340" s="12"/>
     </row>
-    <row r="341" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="341" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A341" s="10">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -8498,7 +8499,7 @@
       <c r="F341" s="10"/>
       <c r="G341" s="12"/>
     </row>
-    <row r="342" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="342" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A342" s="10">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -8514,7 +8515,7 @@
       <c r="F342" s="10"/>
       <c r="G342" s="12"/>
     </row>
-    <row r="343" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="343" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A343" s="10">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -8530,7 +8531,7 @@
       <c r="F343" s="10"/>
       <c r="G343" s="12"/>
     </row>
-    <row r="344" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="344" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A344" s="10">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -8548,7 +8549,7 @@
       <c r="F344" s="10"/>
       <c r="G344" s="12"/>
     </row>
-    <row r="345" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="345" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A345" s="10">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -8564,7 +8565,7 @@
       <c r="F345" s="10"/>
       <c r="G345" s="12"/>
     </row>
-    <row r="346" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="346" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A346" s="10">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -8580,7 +8581,7 @@
       <c r="F346" s="10"/>
       <c r="G346" s="12"/>
     </row>
-    <row r="347" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="347" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A347" s="10">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -8596,7 +8597,7 @@
       <c r="F347" s="10"/>
       <c r="G347" s="12"/>
     </row>
-    <row r="348" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="348" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A348" s="10">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -8612,7 +8613,7 @@
       <c r="F348" s="10"/>
       <c r="G348" s="12"/>
     </row>
-    <row r="349" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="349" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A349" s="10">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -8628,7 +8629,7 @@
       <c r="F349" s="10"/>
       <c r="G349" s="12"/>
     </row>
-    <row r="350" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="350" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A350" s="10">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -8644,7 +8645,7 @@
       <c r="F350" s="10"/>
       <c r="G350" s="12"/>
     </row>
-    <row r="351" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="351" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A351" s="10">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -8662,7 +8663,7 @@
       <c r="F351" s="10"/>
       <c r="G351" s="12"/>
     </row>
-    <row r="352" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="352" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A352" s="10">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -8678,7 +8679,7 @@
       <c r="F352" s="10"/>
       <c r="G352" s="12"/>
     </row>
-    <row r="353" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="353" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A353" s="10">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -8696,7 +8697,7 @@
       <c r="F353" s="10"/>
       <c r="G353" s="12"/>
     </row>
-    <row r="354" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="354" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A354" s="10">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -8712,7 +8713,7 @@
       <c r="F354" s="10"/>
       <c r="G354" s="12"/>
     </row>
-    <row r="355" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="355" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A355" s="10">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -8728,7 +8729,7 @@
       <c r="F355" s="10"/>
       <c r="G355" s="12"/>
     </row>
-    <row r="356" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="356" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A356" s="10">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -8744,7 +8745,7 @@
       <c r="F356" s="10"/>
       <c r="G356" s="12"/>
     </row>
-    <row r="357" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="357" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A357" s="10">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -8760,7 +8761,7 @@
       <c r="F357" s="10"/>
       <c r="G357" s="12"/>
     </row>
-    <row r="358" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="358" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A358" s="10">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -8776,7 +8777,7 @@
       <c r="F358" s="10"/>
       <c r="G358" s="12"/>
     </row>
-    <row r="359" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="359" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A359" s="10">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -8792,7 +8793,7 @@
       <c r="F359" s="10"/>
       <c r="G359" s="12"/>
     </row>
-    <row r="360" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="360" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A360" s="10">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -8808,7 +8809,7 @@
       <c r="F360" s="10"/>
       <c r="G360" s="12"/>
     </row>
-    <row r="361" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="361" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A361" s="10">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -8824,7 +8825,7 @@
       <c r="F361" s="10"/>
       <c r="G361" s="12"/>
     </row>
-    <row r="362" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="362" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A362" s="10">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -8840,7 +8841,7 @@
       <c r="F362" s="10"/>
       <c r="G362" s="12"/>
     </row>
-    <row r="363" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="363" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A363" s="10">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -8856,7 +8857,7 @@
       <c r="F363" s="10"/>
       <c r="G363" s="12"/>
     </row>
-    <row r="364" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="364" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A364" s="10">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -8872,7 +8873,7 @@
       <c r="F364" s="10"/>
       <c r="G364" s="12"/>
     </row>
-    <row r="365" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="365" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A365" s="10">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -8888,7 +8889,7 @@
       <c r="F365" s="10"/>
       <c r="G365" s="12"/>
     </row>
-    <row r="366" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="366" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A366" s="10">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -8904,7 +8905,7 @@
       <c r="F366" s="10"/>
       <c r="G366" s="12"/>
     </row>
-    <row r="367" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="367" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A367" s="10">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -8920,7 +8921,7 @@
       <c r="F367" s="10"/>
       <c r="G367" s="12"/>
     </row>
-    <row r="368" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="368" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A368" s="10">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -8936,7 +8937,7 @@
       <c r="F368" s="10"/>
       <c r="G368" s="12"/>
     </row>
-    <row r="369" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="369" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A369" s="10">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -8952,7 +8953,7 @@
       <c r="F369" s="10"/>
       <c r="G369" s="12"/>
     </row>
-    <row r="370" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="370" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A370" s="10">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -8968,7 +8969,7 @@
       <c r="F370" s="10"/>
       <c r="G370" s="12"/>
     </row>
-    <row r="371" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="371" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A371" s="10">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -8984,7 +8985,7 @@
       <c r="F371" s="10"/>
       <c r="G371" s="12"/>
     </row>
-    <row r="372" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="372" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A372" s="10">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -9000,7 +9001,7 @@
       <c r="F372" s="10"/>
       <c r="G372" s="12"/>
     </row>
-    <row r="373" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="373" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A373" s="10">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -9016,7 +9017,7 @@
       <c r="F373" s="10"/>
       <c r="G373" s="12"/>
     </row>
-    <row r="374" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="374" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A374" s="10">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -9032,7 +9033,7 @@
       <c r="F374" s="10"/>
       <c r="G374" s="12"/>
     </row>
-    <row r="375" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="375" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A375" s="10">
         <f t="shared" si="5"/>
         <v>370</v>
@@ -9048,7 +9049,7 @@
       <c r="F375" s="10"/>
       <c r="G375" s="12"/>
     </row>
-    <row r="376" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="376" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A376" s="10">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -9064,7 +9065,7 @@
       <c r="F376" s="10"/>
       <c r="G376" s="12"/>
     </row>
-    <row r="377" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="377" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A377" s="10">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -9080,7 +9081,7 @@
       <c r="F377" s="10"/>
       <c r="G377" s="12"/>
     </row>
-    <row r="378" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="378" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A378" s="10">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -9096,7 +9097,7 @@
       <c r="F378" s="10"/>
       <c r="G378" s="12"/>
     </row>
-    <row r="379" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="379" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A379" s="10">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -9112,7 +9113,7 @@
       <c r="F379" s="10"/>
       <c r="G379" s="12"/>
     </row>
-    <row r="380" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="380" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A380" s="10">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -9128,7 +9129,7 @@
       <c r="F380" s="10"/>
       <c r="G380" s="12"/>
     </row>
-    <row r="381" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="381" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A381" s="10">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -9144,7 +9145,7 @@
       <c r="F381" s="10"/>
       <c r="G381" s="12"/>
     </row>
-    <row r="382" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="382" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A382" s="10">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -9160,7 +9161,7 @@
       <c r="F382" s="10"/>
       <c r="G382" s="12"/>
     </row>
-    <row r="383" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="383" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A383" s="10">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -9176,7 +9177,7 @@
       <c r="F383" s="10"/>
       <c r="G383" s="12"/>
     </row>
-    <row r="384" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="384" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A384" s="10">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -9192,7 +9193,7 @@
       <c r="F384" s="10"/>
       <c r="G384" s="12"/>
     </row>
-    <row r="385" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="385" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A385" s="10">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -9208,7 +9209,7 @@
       <c r="F385" s="10"/>
       <c r="G385" s="12"/>
     </row>
-    <row r="386" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="386" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A386" s="10">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -9224,7 +9225,7 @@
       <c r="F386" s="10"/>
       <c r="G386" s="12"/>
     </row>
-    <row r="387" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="387" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A387" s="10">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -9258,7 +9259,7 @@
       <c r="F388" s="10"/>
       <c r="G388" s="12"/>
     </row>
-    <row r="389" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="389" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A389" s="10">
         <f t="shared" si="5"/>
         <v>384</v>
@@ -9276,7 +9277,7 @@
       <c r="F389" s="10"/>
       <c r="G389" s="12"/>
     </row>
-    <row r="390" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="390" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A390" s="10">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -9292,7 +9293,7 @@
       <c r="F390" s="10"/>
       <c r="G390" s="12"/>
     </row>
-    <row r="391" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="391" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A391" s="10">
         <f t="shared" ref="A391:A454" si="6">A390+1</f>
         <v>386</v>
@@ -9308,7 +9309,7 @@
       <c r="F391" s="10"/>
       <c r="G391" s="12"/>
     </row>
-    <row r="392" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="392" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A392" s="10">
         <f t="shared" si="6"/>
         <v>387</v>
@@ -9324,7 +9325,7 @@
       <c r="F392" s="10"/>
       <c r="G392" s="12"/>
     </row>
-    <row r="393" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="393" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A393" s="10">
         <f t="shared" si="6"/>
         <v>388</v>
@@ -9340,7 +9341,7 @@
       <c r="F393" s="10"/>
       <c r="G393" s="12"/>
     </row>
-    <row r="394" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="394" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A394" s="10">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -9356,7 +9357,7 @@
       <c r="F394" s="10"/>
       <c r="G394" s="12"/>
     </row>
-    <row r="395" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="395" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A395" s="10">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -9372,7 +9373,7 @@
       <c r="F395" s="10"/>
       <c r="G395" s="12"/>
     </row>
-    <row r="396" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="396" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A396" s="10">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -9388,7 +9389,7 @@
       <c r="F396" s="10"/>
       <c r="G396" s="12"/>
     </row>
-    <row r="397" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="397" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A397" s="10">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -9404,7 +9405,7 @@
       <c r="F397" s="10"/>
       <c r="G397" s="12"/>
     </row>
-    <row r="398" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="398" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A398" s="10">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -9420,7 +9421,7 @@
       <c r="F398" s="10"/>
       <c r="G398" s="12"/>
     </row>
-    <row r="399" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="399" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A399" s="10">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -9436,7 +9437,7 @@
       <c r="F399" s="10"/>
       <c r="G399" s="12"/>
     </row>
-    <row r="400" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="400" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A400" s="10">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -9452,7 +9453,7 @@
       <c r="F400" s="10"/>
       <c r="G400" s="12"/>
     </row>
-    <row r="401" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="401" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A401" s="10">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -9468,7 +9469,7 @@
       <c r="F401" s="10"/>
       <c r="G401" s="12"/>
     </row>
-    <row r="402" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="402" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A402" s="10">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -9484,7 +9485,7 @@
       <c r="F402" s="10"/>
       <c r="G402" s="12"/>
     </row>
-    <row r="403" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="403" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A403" s="10">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -9518,7 +9519,7 @@
       <c r="F404" s="10"/>
       <c r="G404" s="12"/>
     </row>
-    <row r="405" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="405" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A405" s="10">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -9534,7 +9535,7 @@
       <c r="F405" s="10"/>
       <c r="G405" s="12"/>
     </row>
-    <row r="406" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="406" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A406" s="10">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -9550,7 +9551,7 @@
       <c r="F406" s="10"/>
       <c r="G406" s="12"/>
     </row>
-    <row r="407" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="407" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A407" s="10">
         <f t="shared" si="6"/>
         <v>402</v>
@@ -9566,7 +9567,7 @@
       <c r="F407" s="10"/>
       <c r="G407" s="12"/>
     </row>
-    <row r="408" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="408" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A408" s="10">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -9582,7 +9583,7 @@
       <c r="F408" s="10"/>
       <c r="G408" s="12"/>
     </row>
-    <row r="409" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="409" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A409" s="10">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -9598,7 +9599,7 @@
       <c r="F409" s="10"/>
       <c r="G409" s="12"/>
     </row>
-    <row r="410" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="410" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A410" s="10">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -9614,7 +9615,7 @@
       <c r="F410" s="10"/>
       <c r="G410" s="12"/>
     </row>
-    <row r="411" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="411" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A411" s="10">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -9630,7 +9631,7 @@
       <c r="F411" s="10"/>
       <c r="G411" s="12"/>
     </row>
-    <row r="412" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="412" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A412" s="10">
         <f t="shared" si="6"/>
         <v>407</v>
@@ -9646,7 +9647,7 @@
       <c r="F412" s="10"/>
       <c r="G412" s="12"/>
     </row>
-    <row r="413" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="413" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A413" s="10">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -9662,7 +9663,7 @@
       <c r="F413" s="10"/>
       <c r="G413" s="12"/>
     </row>
-    <row r="414" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="414" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A414" s="10">
         <f t="shared" si="6"/>
         <v>409</v>
@@ -9678,7 +9679,7 @@
       <c r="F414" s="10"/>
       <c r="G414" s="12"/>
     </row>
-    <row r="415" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="415" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A415" s="10">
         <f t="shared" si="6"/>
         <v>410</v>
@@ -9694,7 +9695,7 @@
       <c r="F415" s="10"/>
       <c r="G415" s="12"/>
     </row>
-    <row r="416" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="416" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A416" s="10">
         <f t="shared" si="6"/>
         <v>411</v>
@@ -9710,7 +9711,7 @@
       <c r="F416" s="10"/>
       <c r="G416" s="12"/>
     </row>
-    <row r="417" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="417" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A417" s="10">
         <f t="shared" si="6"/>
         <v>412</v>
@@ -9726,7 +9727,7 @@
       <c r="F417" s="10"/>
       <c r="G417" s="12"/>
     </row>
-    <row r="418" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="418" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A418" s="10">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -9742,7 +9743,7 @@
       <c r="F418" s="10"/>
       <c r="G418" s="12"/>
     </row>
-    <row r="419" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="419" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A419" s="10">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -9758,7 +9759,7 @@
       <c r="F419" s="10"/>
       <c r="G419" s="12"/>
     </row>
-    <row r="420" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="420" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A420" s="10">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -9774,7 +9775,7 @@
       <c r="F420" s="10"/>
       <c r="G420" s="12"/>
     </row>
-    <row r="421" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="421" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A421" s="10">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -9790,7 +9791,7 @@
       <c r="F421" s="10"/>
       <c r="G421" s="12"/>
     </row>
-    <row r="422" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="422" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A422" s="10">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -9806,7 +9807,7 @@
       <c r="F422" s="10"/>
       <c r="G422" s="12"/>
     </row>
-    <row r="423" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="423" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A423" s="10">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -9822,7 +9823,7 @@
       <c r="F423" s="10"/>
       <c r="G423" s="12"/>
     </row>
-    <row r="424" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="424" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A424" s="10">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -9838,7 +9839,7 @@
       <c r="F424" s="10"/>
       <c r="G424" s="12"/>
     </row>
-    <row r="425" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="425" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A425" s="10">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -9854,7 +9855,7 @@
       <c r="F425" s="10"/>
       <c r="G425" s="12"/>
     </row>
-    <row r="426" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="426" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A426" s="10">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -9870,7 +9871,7 @@
       <c r="F426" s="10"/>
       <c r="G426" s="12"/>
     </row>
-    <row r="427" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="427" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A427" s="10">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -9886,7 +9887,7 @@
       <c r="F427" s="10"/>
       <c r="G427" s="12"/>
     </row>
-    <row r="428" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="428" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A428" s="10">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -9902,7 +9903,7 @@
       <c r="F428" s="10"/>
       <c r="G428" s="12"/>
     </row>
-    <row r="429" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="429" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A429" s="10">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -9918,7 +9919,7 @@
       <c r="F429" s="10"/>
       <c r="G429" s="12"/>
     </row>
-    <row r="430" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="430" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A430" s="10">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -9934,7 +9935,7 @@
       <c r="F430" s="10"/>
       <c r="G430" s="12"/>
     </row>
-    <row r="431" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="431" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A431" s="10">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -9950,7 +9951,7 @@
       <c r="F431" s="10"/>
       <c r="G431" s="12"/>
     </row>
-    <row r="432" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="432" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A432" s="10">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -9966,7 +9967,7 @@
       <c r="F432" s="10"/>
       <c r="G432" s="12"/>
     </row>
-    <row r="433" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="433" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A433" s="10">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -9982,7 +9983,7 @@
       <c r="F433" s="10"/>
       <c r="G433" s="12"/>
     </row>
-    <row r="434" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="434" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A434" s="10">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -9998,7 +9999,7 @@
       <c r="F434" s="10"/>
       <c r="G434" s="12"/>
     </row>
-    <row r="435" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="435" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A435" s="10">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -10016,7 +10017,7 @@
       <c r="F435" s="10"/>
       <c r="G435" s="12"/>
     </row>
-    <row r="436" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="436" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A436" s="10">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -10032,7 +10033,7 @@
       <c r="F436" s="10"/>
       <c r="G436" s="12"/>
     </row>
-    <row r="437" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="437" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A437" s="10">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -10050,7 +10051,7 @@
       <c r="F437" s="10"/>
       <c r="G437" s="12"/>
     </row>
-    <row r="438" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="438" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A438" s="10">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -10066,7 +10067,7 @@
       <c r="F438" s="10"/>
       <c r="G438" s="12"/>
     </row>
-    <row r="439" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="439" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A439" s="10">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -10082,7 +10083,7 @@
       <c r="F439" s="10"/>
       <c r="G439" s="12"/>
     </row>
-    <row r="440" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="440" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A440" s="10">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -10093,12 +10094,14 @@
       <c r="C440" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="D440" s="10"/>
+      <c r="D440" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E440" s="10"/>
       <c r="F440" s="10"/>
       <c r="G440" s="12"/>
     </row>
-    <row r="441" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="441" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A441" s="10">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -10132,7 +10135,7 @@
       <c r="F442" s="10"/>
       <c r="G442" s="12"/>
     </row>
-    <row r="443" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="443" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A443" s="10">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -10148,7 +10151,7 @@
       <c r="F443" s="10"/>
       <c r="G443" s="12"/>
     </row>
-    <row r="444" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="444" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A444" s="10">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -10164,7 +10167,7 @@
       <c r="F444" s="10"/>
       <c r="G444" s="12"/>
     </row>
-    <row r="445" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="445" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A445" s="10">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -10180,7 +10183,7 @@
       <c r="F445" s="10"/>
       <c r="G445" s="12"/>
     </row>
-    <row r="446" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="446" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A446" s="10">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -10196,7 +10199,7 @@
       <c r="F446" s="10"/>
       <c r="G446" s="12"/>
     </row>
-    <row r="447" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="447" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A447" s="10">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -10212,7 +10215,7 @@
       <c r="F447" s="10"/>
       <c r="G447" s="12"/>
     </row>
-    <row r="448" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="448" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A448" s="10">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -10228,7 +10231,7 @@
       <c r="F448" s="10"/>
       <c r="G448" s="12"/>
     </row>
-    <row r="449" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="449" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A449" s="10">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -10244,7 +10247,7 @@
       <c r="F449" s="10"/>
       <c r="G449" s="12"/>
     </row>
-    <row r="450" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="450" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A450" s="10">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -10260,7 +10263,7 @@
       <c r="F450" s="10"/>
       <c r="G450" s="12"/>
     </row>
-    <row r="451" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="451" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A451" s="10">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -10271,12 +10274,14 @@
       <c r="C451" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="D451" s="10"/>
+      <c r="D451" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E451" s="10"/>
       <c r="F451" s="10"/>
       <c r="G451" s="12"/>
     </row>
-    <row r="452" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="452" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A452" s="10">
         <f t="shared" si="6"/>
         <v>447</v>
@@ -10292,7 +10297,7 @@
       <c r="F452" s="10"/>
       <c r="G452" s="12"/>
     </row>
-    <row r="453" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="453" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A453" s="10">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -10308,7 +10313,7 @@
       <c r="F453" s="10"/>
       <c r="G453" s="12"/>
     </row>
-    <row r="454" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="454" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A454" s="10">
         <f t="shared" si="6"/>
         <v>449</v>
@@ -10324,7 +10329,7 @@
       <c r="F454" s="10"/>
       <c r="G454" s="12"/>
     </row>
-    <row r="455" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="455" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A455" s="10">
         <f t="shared" ref="A455:A518" si="7">A454+1</f>
         <v>450</v>
@@ -10340,7 +10345,7 @@
       <c r="F455" s="10"/>
       <c r="G455" s="12"/>
     </row>
-    <row r="456" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="456" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A456" s="10">
         <f t="shared" si="7"/>
         <v>451</v>
@@ -10356,7 +10361,7 @@
       <c r="F456" s="10"/>
       <c r="G456" s="12"/>
     </row>
-    <row r="457" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="457" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A457" s="10">
         <f t="shared" si="7"/>
         <v>452</v>
@@ -10372,7 +10377,7 @@
       <c r="F457" s="10"/>
       <c r="G457" s="12"/>
     </row>
-    <row r="458" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="458" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A458" s="10">
         <f t="shared" si="7"/>
         <v>453</v>
@@ -10388,7 +10393,7 @@
       <c r="F458" s="10"/>
       <c r="G458" s="12"/>
     </row>
-    <row r="459" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="459" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A459" s="10">
         <f t="shared" si="7"/>
         <v>454</v>
@@ -10404,7 +10409,7 @@
       <c r="F459" s="10"/>
       <c r="G459" s="12"/>
     </row>
-    <row r="460" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="460" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A460" s="10">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -10420,7 +10425,7 @@
       <c r="F460" s="10"/>
       <c r="G460" s="12"/>
     </row>
-    <row r="461" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="461" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A461" s="10">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -10436,7 +10441,7 @@
       <c r="F461" s="10"/>
       <c r="G461" s="12"/>
     </row>
-    <row r="462" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="462" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A462" s="10">
         <f t="shared" si="7"/>
         <v>457</v>
@@ -10452,7 +10457,7 @@
       <c r="F462" s="10"/>
       <c r="G462" s="12"/>
     </row>
-    <row r="463" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="463" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A463" s="10">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -10468,7 +10473,7 @@
       <c r="F463" s="10"/>
       <c r="G463" s="12"/>
     </row>
-    <row r="464" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="464" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A464" s="10">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -10484,7 +10489,7 @@
       <c r="F464" s="10"/>
       <c r="G464" s="12"/>
     </row>
-    <row r="465" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="465" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A465" s="10">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -10500,7 +10505,7 @@
       <c r="F465" s="10"/>
       <c r="G465" s="12"/>
     </row>
-    <row r="466" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="466" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A466" s="10">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -10516,7 +10521,7 @@
       <c r="F466" s="10"/>
       <c r="G466" s="12"/>
     </row>
-    <row r="467" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="467" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A467" s="10">
         <f t="shared" si="7"/>
         <v>462</v>
@@ -10532,7 +10537,7 @@
       <c r="F467" s="10"/>
       <c r="G467" s="12"/>
     </row>
-    <row r="468" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="468" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A468" s="10">
         <f t="shared" si="7"/>
         <v>463</v>
@@ -10548,7 +10553,7 @@
       <c r="F468" s="10"/>
       <c r="G468" s="12"/>
     </row>
-    <row r="469" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="469" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A469" s="10">
         <f t="shared" si="7"/>
         <v>464</v>
@@ -10564,7 +10569,7 @@
       <c r="F469" s="10"/>
       <c r="G469" s="12"/>
     </row>
-    <row r="470" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="470" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A470" s="10">
         <f t="shared" si="7"/>
         <v>465</v>
@@ -10580,7 +10585,7 @@
       <c r="F470" s="10"/>
       <c r="G470" s="12"/>
     </row>
-    <row r="471" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="471" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A471" s="10">
         <f t="shared" si="7"/>
         <v>466</v>
@@ -10596,7 +10601,7 @@
       <c r="F471" s="10"/>
       <c r="G471" s="12"/>
     </row>
-    <row r="472" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="472" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A472" s="10">
         <f t="shared" si="7"/>
         <v>467</v>
@@ -10612,7 +10617,7 @@
       <c r="F472" s="10"/>
       <c r="G472" s="12"/>
     </row>
-    <row r="473" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="473" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A473" s="10">
         <f t="shared" si="7"/>
         <v>468</v>
@@ -10628,7 +10633,7 @@
       <c r="F473" s="10"/>
       <c r="G473" s="12"/>
     </row>
-    <row r="474" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="474" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A474" s="10">
         <f t="shared" si="7"/>
         <v>469</v>
@@ -10644,7 +10649,7 @@
       <c r="F474" s="10"/>
       <c r="G474" s="12"/>
     </row>
-    <row r="475" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="475" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A475" s="10">
         <f t="shared" si="7"/>
         <v>470</v>
@@ -10660,7 +10665,7 @@
       <c r="F475" s="10"/>
       <c r="G475" s="12"/>
     </row>
-    <row r="476" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="476" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A476" s="10">
         <f t="shared" si="7"/>
         <v>471</v>
@@ -10676,7 +10681,7 @@
       <c r="F476" s="10"/>
       <c r="G476" s="12"/>
     </row>
-    <row r="477" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="477" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A477" s="10">
         <f t="shared" si="7"/>
         <v>472</v>
@@ -10692,7 +10697,7 @@
       <c r="F477" s="10"/>
       <c r="G477" s="12"/>
     </row>
-    <row r="478" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="478" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A478" s="10">
         <f t="shared" si="7"/>
         <v>473</v>
@@ -10708,7 +10713,7 @@
       <c r="F478" s="10"/>
       <c r="G478" s="12"/>
     </row>
-    <row r="479" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="479" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A479" s="10">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -10724,7 +10729,7 @@
       <c r="F479" s="10"/>
       <c r="G479" s="12"/>
     </row>
-    <row r="480" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="480" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A480" s="10">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -10740,7 +10745,7 @@
       <c r="F480" s="10"/>
       <c r="G480" s="12"/>
     </row>
-    <row r="481" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="481" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A481" s="10">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -10756,7 +10761,7 @@
       <c r="F481" s="10"/>
       <c r="G481" s="12"/>
     </row>
-    <row r="482" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="482" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A482" s="10">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -10772,7 +10777,7 @@
       <c r="F482" s="10"/>
       <c r="G482" s="12"/>
     </row>
-    <row r="483" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="483" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A483" s="10">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -10788,7 +10793,7 @@
       <c r="F483" s="10"/>
       <c r="G483" s="12"/>
     </row>
-    <row r="484" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="484" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A484" s="10">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -10804,7 +10809,7 @@
       <c r="F484" s="10"/>
       <c r="G484" s="12"/>
     </row>
-    <row r="485" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="485" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A485" s="10">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -10820,7 +10825,7 @@
       <c r="F485" s="10"/>
       <c r="G485" s="12"/>
     </row>
-    <row r="486" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="486" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A486" s="10">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -10836,7 +10841,7 @@
       <c r="F486" s="10"/>
       <c r="G486" s="12"/>
     </row>
-    <row r="487" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="487" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A487" s="10">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -10852,7 +10857,7 @@
       <c r="F487" s="10"/>
       <c r="G487" s="12"/>
     </row>
-    <row r="488" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="488" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A488" s="10">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -10868,7 +10873,7 @@
       <c r="F488" s="10"/>
       <c r="G488" s="12"/>
     </row>
-    <row r="489" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="489" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A489" s="10">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -10884,7 +10889,7 @@
       <c r="F489" s="10"/>
       <c r="G489" s="12"/>
     </row>
-    <row r="490" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="490" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A490" s="10">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -10900,7 +10905,7 @@
       <c r="F490" s="10"/>
       <c r="G490" s="12"/>
     </row>
-    <row r="491" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="491" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A491" s="10">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -10916,7 +10921,7 @@
       <c r="F491" s="10"/>
       <c r="G491" s="12"/>
     </row>
-    <row r="492" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="492" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A492" s="10">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -10932,7 +10937,7 @@
       <c r="F492" s="10"/>
       <c r="G492" s="12"/>
     </row>
-    <row r="493" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="493" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A493" s="10">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -10948,7 +10953,7 @@
       <c r="F493" s="10"/>
       <c r="G493" s="12"/>
     </row>
-    <row r="494" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="494" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A494" s="10">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -10964,7 +10969,7 @@
       <c r="F494" s="10"/>
       <c r="G494" s="12"/>
     </row>
-    <row r="495" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="495" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A495" s="10">
         <f t="shared" si="7"/>
         <v>490</v>
@@ -10980,7 +10985,7 @@
       <c r="F495" s="10"/>
       <c r="G495" s="12"/>
     </row>
-    <row r="496" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="496" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A496" s="10">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -10996,7 +11001,7 @@
       <c r="F496" s="10"/>
       <c r="G496" s="12"/>
     </row>
-    <row r="497" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="497" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A497" s="10">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -11012,7 +11017,7 @@
       <c r="F497" s="10"/>
       <c r="G497" s="12"/>
     </row>
-    <row r="498" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="498" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A498" s="10">
         <f t="shared" si="7"/>
         <v>493</v>
@@ -11028,7 +11033,7 @@
       <c r="F498" s="10"/>
       <c r="G498" s="12"/>
     </row>
-    <row r="499" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="499" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A499" s="10">
         <f t="shared" si="7"/>
         <v>494</v>
@@ -11044,7 +11049,7 @@
       <c r="F499" s="10"/>
       <c r="G499" s="12"/>
     </row>
-    <row r="500" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="500" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A500" s="10">
         <f t="shared" si="7"/>
         <v>495</v>
@@ -11060,7 +11065,7 @@
       <c r="F500" s="10"/>
       <c r="G500" s="12"/>
     </row>
-    <row r="501" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="501" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A501" s="10">
         <f t="shared" si="7"/>
         <v>496</v>
@@ -11076,7 +11081,7 @@
       <c r="F501" s="10"/>
       <c r="G501" s="12"/>
     </row>
-    <row r="502" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="502" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A502" s="10">
         <f t="shared" si="7"/>
         <v>497</v>
@@ -11092,7 +11097,7 @@
       <c r="F502" s="10"/>
       <c r="G502" s="12"/>
     </row>
-    <row r="503" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="503" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A503" s="10">
         <f t="shared" si="7"/>
         <v>498</v>
@@ -11108,7 +11113,7 @@
       <c r="F503" s="10"/>
       <c r="G503" s="12"/>
     </row>
-    <row r="504" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="504" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A504" s="10">
         <f t="shared" si="7"/>
         <v>499</v>
@@ -11124,7 +11129,7 @@
       <c r="F504" s="10"/>
       <c r="G504" s="12"/>
     </row>
-    <row r="505" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="505" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A505" s="10">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -11140,7 +11145,7 @@
       <c r="F505" s="10"/>
       <c r="G505" s="12"/>
     </row>
-    <row r="506" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="506" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A506" s="10">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -11156,7 +11161,7 @@
       <c r="F506" s="10"/>
       <c r="G506" s="12"/>
     </row>
-    <row r="507" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="507" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A507" s="10">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -11172,7 +11177,7 @@
       <c r="F507" s="10"/>
       <c r="G507" s="12"/>
     </row>
-    <row r="508" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="508" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A508" s="10">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -11188,7 +11193,7 @@
       <c r="F508" s="10"/>
       <c r="G508" s="12"/>
     </row>
-    <row r="509" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="509" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A509" s="10">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -11204,7 +11209,7 @@
       <c r="F509" s="10"/>
       <c r="G509" s="12"/>
     </row>
-    <row r="510" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="510" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A510" s="10">
         <f t="shared" si="7"/>
         <v>505</v>
@@ -11220,7 +11225,7 @@
       <c r="F510" s="10"/>
       <c r="G510" s="12"/>
     </row>
-    <row r="511" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="511" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A511" s="10">
         <f t="shared" si="7"/>
         <v>506</v>
@@ -11236,7 +11241,7 @@
       <c r="F511" s="10"/>
       <c r="G511" s="12"/>
     </row>
-    <row r="512" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="512" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A512" s="10">
         <f t="shared" si="7"/>
         <v>507</v>
@@ -11252,7 +11257,7 @@
       <c r="F512" s="10"/>
       <c r="G512" s="12"/>
     </row>
-    <row r="513" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="513" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A513" s="10">
         <f t="shared" si="7"/>
         <v>508</v>
@@ -11268,7 +11273,7 @@
       <c r="F513" s="10"/>
       <c r="G513" s="12"/>
     </row>
-    <row r="514" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="514" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A514" s="10">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -11284,7 +11289,7 @@
       <c r="F514" s="10"/>
       <c r="G514" s="12"/>
     </row>
-    <row r="515" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="515" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A515" s="10">
         <f t="shared" si="7"/>
         <v>510</v>
@@ -11300,7 +11305,7 @@
       <c r="F515" s="10"/>
       <c r="G515" s="12"/>
     </row>
-    <row r="516" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="516" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A516" s="10">
         <f t="shared" si="7"/>
         <v>511</v>
@@ -11352,7 +11357,7 @@
       <c r="F518" s="10"/>
       <c r="G518" s="12"/>
     </row>
-    <row r="519" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="519" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A519" s="10">
         <f t="shared" ref="A519:A582" si="8">A518+1</f>
         <v>514</v>
@@ -11368,7 +11373,7 @@
       <c r="F519" s="10"/>
       <c r="G519" s="12"/>
     </row>
-    <row r="520" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="520" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A520" s="10">
         <f t="shared" si="8"/>
         <v>515</v>
@@ -11384,7 +11389,7 @@
       <c r="F520" s="10"/>
       <c r="G520" s="12"/>
     </row>
-    <row r="521" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="521" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A521" s="10">
         <f t="shared" si="8"/>
         <v>516</v>
@@ -11400,7 +11405,7 @@
       <c r="F521" s="10"/>
       <c r="G521" s="12"/>
     </row>
-    <row r="522" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="522" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A522" s="10">
         <f t="shared" si="8"/>
         <v>517</v>
@@ -11416,7 +11421,7 @@
       <c r="F522" s="10"/>
       <c r="G522" s="12"/>
     </row>
-    <row r="523" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="523" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A523" s="10">
         <f t="shared" si="8"/>
         <v>518</v>
@@ -11432,7 +11437,7 @@
       <c r="F523" s="10"/>
       <c r="G523" s="12"/>
     </row>
-    <row r="524" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="524" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A524" s="10">
         <f t="shared" si="8"/>
         <v>519</v>
@@ -11448,7 +11453,7 @@
       <c r="F524" s="10"/>
       <c r="G524" s="12"/>
     </row>
-    <row r="525" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="525" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A525" s="10">
         <f t="shared" si="8"/>
         <v>520</v>
@@ -11464,7 +11469,7 @@
       <c r="F525" s="10"/>
       <c r="G525" s="12"/>
     </row>
-    <row r="526" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="526" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A526" s="10">
         <f t="shared" si="8"/>
         <v>521</v>
@@ -11480,7 +11485,7 @@
       <c r="F526" s="10"/>
       <c r="G526" s="12"/>
     </row>
-    <row r="527" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="527" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A527" s="10">
         <f t="shared" si="8"/>
         <v>522</v>
@@ -11496,7 +11501,7 @@
       <c r="F527" s="10"/>
       <c r="G527" s="12"/>
     </row>
-    <row r="528" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="528" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A528" s="10">
         <f t="shared" si="8"/>
         <v>523</v>
@@ -11512,7 +11517,7 @@
       <c r="F528" s="10"/>
       <c r="G528" s="12"/>
     </row>
-    <row r="529" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="529" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A529" s="10">
         <f t="shared" si="8"/>
         <v>524</v>
@@ -11528,7 +11533,7 @@
       <c r="F529" s="10"/>
       <c r="G529" s="12"/>
     </row>
-    <row r="530" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="530" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A530" s="10">
         <f t="shared" si="8"/>
         <v>525</v>
@@ -11544,7 +11549,7 @@
       <c r="F530" s="10"/>
       <c r="G530" s="12"/>
     </row>
-    <row r="531" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="531" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A531" s="10">
         <f t="shared" si="8"/>
         <v>526</v>
@@ -11560,7 +11565,7 @@
       <c r="F531" s="10"/>
       <c r="G531" s="12"/>
     </row>
-    <row r="532" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="532" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A532" s="10">
         <f t="shared" si="8"/>
         <v>527</v>
@@ -11576,7 +11581,7 @@
       <c r="F532" s="10"/>
       <c r="G532" s="12"/>
     </row>
-    <row r="533" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="533" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A533" s="10">
         <f t="shared" si="8"/>
         <v>528</v>
@@ -11592,7 +11597,7 @@
       <c r="F533" s="10"/>
       <c r="G533" s="12"/>
     </row>
-    <row r="534" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="534" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A534" s="10">
         <f t="shared" si="8"/>
         <v>529</v>
@@ -11608,7 +11613,7 @@
       <c r="F534" s="10"/>
       <c r="G534" s="12"/>
     </row>
-    <row r="535" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="535" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A535" s="10">
         <f t="shared" si="8"/>
         <v>530</v>
@@ -11624,7 +11629,7 @@
       <c r="F535" s="10"/>
       <c r="G535" s="12"/>
     </row>
-    <row r="536" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="536" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A536" s="10">
         <f t="shared" si="8"/>
         <v>531</v>
@@ -11640,7 +11645,7 @@
       <c r="F536" s="10"/>
       <c r="G536" s="12"/>
     </row>
-    <row r="537" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="537" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A537" s="10">
         <f t="shared" si="8"/>
         <v>532</v>
@@ -11656,7 +11661,7 @@
       <c r="F537" s="10"/>
       <c r="G537" s="12"/>
     </row>
-    <row r="538" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="538" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A538" s="10">
         <f t="shared" si="8"/>
         <v>533</v>
@@ -11672,7 +11677,7 @@
       <c r="F538" s="10"/>
       <c r="G538" s="12"/>
     </row>
-    <row r="539" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="539" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A539" s="10">
         <f t="shared" si="8"/>
         <v>534</v>
@@ -11688,7 +11693,7 @@
       <c r="F539" s="10"/>
       <c r="G539" s="12"/>
     </row>
-    <row r="540" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="540" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A540" s="10">
         <f t="shared" si="8"/>
         <v>535</v>
@@ -11704,7 +11709,7 @@
       <c r="F540" s="10"/>
       <c r="G540" s="12"/>
     </row>
-    <row r="541" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="541" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A541" s="10">
         <f t="shared" si="8"/>
         <v>536</v>
@@ -11720,7 +11725,7 @@
       <c r="F541" s="10"/>
       <c r="G541" s="12"/>
     </row>
-    <row r="542" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="542" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A542" s="10">
         <f t="shared" si="8"/>
         <v>537</v>
@@ -11736,7 +11741,7 @@
       <c r="F542" s="10"/>
       <c r="G542" s="12"/>
     </row>
-    <row r="543" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="543" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A543" s="10">
         <f t="shared" si="8"/>
         <v>538</v>
@@ -11752,7 +11757,7 @@
       <c r="F543" s="10"/>
       <c r="G543" s="12"/>
     </row>
-    <row r="544" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="544" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A544" s="10">
         <f t="shared" si="8"/>
         <v>539</v>
@@ -11768,7 +11773,7 @@
       <c r="F544" s="10"/>
       <c r="G544" s="12"/>
     </row>
-    <row r="545" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="545" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A545" s="10">
         <f t="shared" si="8"/>
         <v>540</v>
@@ -11784,7 +11789,7 @@
       <c r="F545" s="10"/>
       <c r="G545" s="12"/>
     </row>
-    <row r="546" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="546" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A546" s="10">
         <f t="shared" si="8"/>
         <v>541</v>
@@ -11800,7 +11805,7 @@
       <c r="F546" s="10"/>
       <c r="G546" s="12"/>
     </row>
-    <row r="547" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="547" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A547" s="10">
         <f t="shared" si="8"/>
         <v>542</v>
@@ -11816,7 +11821,7 @@
       <c r="F547" s="10"/>
       <c r="G547" s="12"/>
     </row>
-    <row r="548" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="548" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A548" s="10">
         <f t="shared" si="8"/>
         <v>543</v>
@@ -11832,7 +11837,7 @@
       <c r="F548" s="10"/>
       <c r="G548" s="12"/>
     </row>
-    <row r="549" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="549" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A549" s="10">
         <f t="shared" si="8"/>
         <v>544</v>
@@ -11848,7 +11853,7 @@
       <c r="F549" s="10"/>
       <c r="G549" s="12"/>
     </row>
-    <row r="550" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="550" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A550" s="10">
         <f t="shared" si="8"/>
         <v>545</v>
@@ -11864,7 +11869,7 @@
       <c r="F550" s="10"/>
       <c r="G550" s="12"/>
     </row>
-    <row r="551" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="551" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A551" s="10">
         <f t="shared" si="8"/>
         <v>546</v>
@@ -11880,7 +11885,7 @@
       <c r="F551" s="10"/>
       <c r="G551" s="12"/>
     </row>
-    <row r="552" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="552" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A552" s="10">
         <f t="shared" si="8"/>
         <v>547</v>
@@ -11896,7 +11901,7 @@
       <c r="F552" s="10"/>
       <c r="G552" s="12"/>
     </row>
-    <row r="553" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="553" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A553" s="10">
         <f t="shared" si="8"/>
         <v>548</v>
@@ -11912,7 +11917,7 @@
       <c r="F553" s="10"/>
       <c r="G553" s="12"/>
     </row>
-    <row r="554" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="554" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A554" s="10">
         <f t="shared" si="8"/>
         <v>549</v>
@@ -11928,7 +11933,7 @@
       <c r="F554" s="10"/>
       <c r="G554" s="12"/>
     </row>
-    <row r="555" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="555" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A555" s="10">
         <f t="shared" si="8"/>
         <v>550</v>
@@ -11944,7 +11949,7 @@
       <c r="F555" s="10"/>
       <c r="G555" s="12"/>
     </row>
-    <row r="556" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="556" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A556" s="10">
         <f t="shared" si="8"/>
         <v>551</v>
@@ -11960,7 +11965,7 @@
       <c r="F556" s="10"/>
       <c r="G556" s="12"/>
     </row>
-    <row r="557" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="557" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A557" s="10">
         <f t="shared" si="8"/>
         <v>552</v>
@@ -11976,7 +11981,7 @@
       <c r="F557" s="10"/>
       <c r="G557" s="12"/>
     </row>
-    <row r="558" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="558" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A558" s="10">
         <f t="shared" si="8"/>
         <v>553</v>
@@ -11992,7 +11997,7 @@
       <c r="F558" s="10"/>
       <c r="G558" s="12"/>
     </row>
-    <row r="559" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="559" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A559" s="10">
         <f t="shared" si="8"/>
         <v>554</v>
@@ -12010,7 +12015,7 @@
       <c r="F559" s="10"/>
       <c r="G559" s="12"/>
     </row>
-    <row r="560" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="560" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A560" s="10">
         <f t="shared" si="8"/>
         <v>555</v>
@@ -12019,14 +12024,14 @@
         <v>502</v>
       </c>
       <c r="C560" s="10" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
       <c r="D560" s="10"/>
       <c r="E560" s="10"/>
       <c r="F560" s="10"/>
       <c r="G560" s="12"/>
     </row>
-    <row r="561" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="561" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A561" s="10">
         <f t="shared" si="8"/>
         <v>556</v>
@@ -12042,7 +12047,7 @@
       <c r="F561" s="10"/>
       <c r="G561" s="12"/>
     </row>
-    <row r="562" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="562" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A562" s="10">
         <f t="shared" si="8"/>
         <v>557</v>
@@ -12058,7 +12063,7 @@
       <c r="F562" s="10"/>
       <c r="G562" s="12"/>
     </row>
-    <row r="563" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="563" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A563" s="10">
         <f t="shared" si="8"/>
         <v>558</v>
@@ -12090,7 +12095,7 @@
       <c r="F564" s="10"/>
       <c r="G564" s="12"/>
     </row>
-    <row r="565" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="565" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A565" s="10">
         <f t="shared" si="8"/>
         <v>560</v>
@@ -12106,7 +12111,7 @@
       <c r="F565" s="10"/>
       <c r="G565" s="12"/>
     </row>
-    <row r="566" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="566" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A566" s="10">
         <f t="shared" si="8"/>
         <v>561</v>
@@ -12122,7 +12127,7 @@
       <c r="F566" s="10"/>
       <c r="G566" s="12"/>
     </row>
-    <row r="567" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="567" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A567" s="10">
         <f t="shared" si="8"/>
         <v>562</v>
@@ -12138,7 +12143,7 @@
       <c r="F567" s="10"/>
       <c r="G567" s="12"/>
     </row>
-    <row r="568" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="568" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A568" s="10">
         <f t="shared" si="8"/>
         <v>563</v>
@@ -12154,7 +12159,7 @@
       <c r="F568" s="10"/>
       <c r="G568" s="12"/>
     </row>
-    <row r="569" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="569" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A569" s="10">
         <f t="shared" si="8"/>
         <v>564</v>
@@ -12170,7 +12175,7 @@
       <c r="F569" s="10"/>
       <c r="G569" s="12"/>
     </row>
-    <row r="570" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="570" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A570" s="10">
         <f t="shared" si="8"/>
         <v>565</v>
@@ -12186,7 +12191,7 @@
       <c r="F570" s="10"/>
       <c r="G570" s="12"/>
     </row>
-    <row r="571" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="571" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A571" s="10">
         <f t="shared" si="8"/>
         <v>566</v>
@@ -12202,7 +12207,7 @@
       <c r="F571" s="10"/>
       <c r="G571" s="12"/>
     </row>
-    <row r="572" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="572" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A572" s="10">
         <f t="shared" si="8"/>
         <v>567</v>
@@ -12218,7 +12223,7 @@
       <c r="F572" s="10"/>
       <c r="G572" s="12"/>
     </row>
-    <row r="573" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="573" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A573" s="10">
         <f t="shared" si="8"/>
         <v>568</v>
@@ -12234,7 +12239,7 @@
       <c r="F573" s="10"/>
       <c r="G573" s="12"/>
     </row>
-    <row r="574" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="574" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A574" s="10">
         <f t="shared" si="8"/>
         <v>569</v>
@@ -12250,7 +12255,7 @@
       <c r="F574" s="10"/>
       <c r="G574" s="12"/>
     </row>
-    <row r="575" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="575" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A575" s="10">
         <f t="shared" si="8"/>
         <v>570</v>
@@ -12266,7 +12271,7 @@
       <c r="F575" s="10"/>
       <c r="G575" s="12"/>
     </row>
-    <row r="576" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="576" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A576" s="10">
         <f t="shared" si="8"/>
         <v>571</v>
@@ -12282,7 +12287,7 @@
       <c r="F576" s="10"/>
       <c r="G576" s="12"/>
     </row>
-    <row r="577" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="577" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A577" s="10">
         <f t="shared" si="8"/>
         <v>572</v>
@@ -12298,7 +12303,7 @@
       <c r="F577" s="10"/>
       <c r="G577" s="12"/>
     </row>
-    <row r="578" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="578" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A578" s="10">
         <f t="shared" si="8"/>
         <v>573</v>
@@ -12314,7 +12319,7 @@
       <c r="F578" s="10"/>
       <c r="G578" s="12"/>
     </row>
-    <row r="579" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="579" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A579" s="10">
         <f t="shared" si="8"/>
         <v>574</v>
@@ -12330,7 +12335,7 @@
       <c r="F579" s="10"/>
       <c r="G579" s="12"/>
     </row>
-    <row r="580" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="580" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A580" s="10">
         <f t="shared" si="8"/>
         <v>575</v>
@@ -12346,7 +12351,7 @@
       <c r="F580" s="10"/>
       <c r="G580" s="12"/>
     </row>
-    <row r="581" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="581" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A581" s="10">
         <f t="shared" si="8"/>
         <v>576</v>
@@ -12362,7 +12367,7 @@
       <c r="F581" s="10"/>
       <c r="G581" s="12"/>
     </row>
-    <row r="582" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="582" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A582" s="10">
         <f t="shared" si="8"/>
         <v>577</v>
@@ -12378,7 +12383,7 @@
       <c r="F582" s="10"/>
       <c r="G582" s="12"/>
     </row>
-    <row r="583" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="583" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A583" s="10">
         <f t="shared" ref="A583:A646" si="9">A582+1</f>
         <v>578</v>
@@ -12394,7 +12399,7 @@
       <c r="F583" s="10"/>
       <c r="G583" s="12"/>
     </row>
-    <row r="584" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="584" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A584" s="10">
         <f t="shared" si="9"/>
         <v>579</v>
@@ -12410,7 +12415,7 @@
       <c r="F584" s="10"/>
       <c r="G584" s="12"/>
     </row>
-    <row r="585" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="585" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A585" s="10">
         <f t="shared" si="9"/>
         <v>580</v>
@@ -12426,7 +12431,7 @@
       <c r="F585" s="10"/>
       <c r="G585" s="12"/>
     </row>
-    <row r="586" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="586" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A586" s="10">
         <f t="shared" si="9"/>
         <v>581</v>
@@ -12442,7 +12447,7 @@
       <c r="F586" s="10"/>
       <c r="G586" s="12"/>
     </row>
-    <row r="587" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="587" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A587" s="10">
         <f t="shared" si="9"/>
         <v>582</v>
@@ -12458,7 +12463,7 @@
       <c r="F587" s="10"/>
       <c r="G587" s="12"/>
     </row>
-    <row r="588" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="588" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A588" s="10">
         <f t="shared" si="9"/>
         <v>583</v>
@@ -12474,7 +12479,7 @@
       <c r="F588" s="10"/>
       <c r="G588" s="12"/>
     </row>
-    <row r="589" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="589" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A589" s="10">
         <f t="shared" si="9"/>
         <v>584</v>
@@ -12490,7 +12495,7 @@
       <c r="F589" s="10"/>
       <c r="G589" s="12"/>
     </row>
-    <row r="590" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="590" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A590" s="10">
         <f t="shared" si="9"/>
         <v>585</v>
@@ -12506,7 +12511,7 @@
       <c r="F590" s="10"/>
       <c r="G590" s="12"/>
     </row>
-    <row r="591" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="591" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A591" s="10">
         <f t="shared" si="9"/>
         <v>586</v>
@@ -12522,7 +12527,7 @@
       <c r="F591" s="10"/>
       <c r="G591" s="12"/>
     </row>
-    <row r="592" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="592" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A592" s="10">
         <f t="shared" si="9"/>
         <v>587</v>
@@ -12538,7 +12543,7 @@
       <c r="F592" s="10"/>
       <c r="G592" s="12"/>
     </row>
-    <row r="593" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="593" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A593" s="10">
         <f t="shared" si="9"/>
         <v>588</v>
@@ -12554,7 +12559,7 @@
       <c r="F593" s="10"/>
       <c r="G593" s="12"/>
     </row>
-    <row r="594" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="594" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A594" s="10">
         <f t="shared" si="9"/>
         <v>589</v>
@@ -12570,7 +12575,7 @@
       <c r="F594" s="10"/>
       <c r="G594" s="12"/>
     </row>
-    <row r="595" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="595" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A595" s="10">
         <f t="shared" si="9"/>
         <v>590</v>
@@ -12586,7 +12591,7 @@
       <c r="F595" s="10"/>
       <c r="G595" s="12"/>
     </row>
-    <row r="596" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="596" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A596" s="10">
         <f t="shared" si="9"/>
         <v>591</v>
@@ -12602,7 +12607,7 @@
       <c r="F596" s="10"/>
       <c r="G596" s="12"/>
     </row>
-    <row r="597" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="597" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A597" s="10">
         <f t="shared" si="9"/>
         <v>592</v>
@@ -12618,7 +12623,7 @@
       <c r="F597" s="10"/>
       <c r="G597" s="12"/>
     </row>
-    <row r="598" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="598" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A598" s="10">
         <f t="shared" si="9"/>
         <v>593</v>
@@ -12634,7 +12639,7 @@
       <c r="F598" s="10"/>
       <c r="G598" s="12"/>
     </row>
-    <row r="599" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="599" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A599" s="10">
         <f t="shared" si="9"/>
         <v>594</v>
@@ -12650,7 +12655,7 @@
       <c r="F599" s="10"/>
       <c r="G599" s="12"/>
     </row>
-    <row r="600" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="600" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A600" s="10">
         <f t="shared" si="9"/>
         <v>595</v>
@@ -12666,7 +12671,7 @@
       <c r="F600" s="10"/>
       <c r="G600" s="12"/>
     </row>
-    <row r="601" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="601" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A601" s="10">
         <f t="shared" si="9"/>
         <v>596</v>
@@ -12682,7 +12687,7 @@
       <c r="F601" s="10"/>
       <c r="G601" s="12"/>
     </row>
-    <row r="602" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="602" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A602" s="10">
         <f t="shared" si="9"/>
         <v>597</v>
@@ -12698,7 +12703,7 @@
       <c r="F602" s="10"/>
       <c r="G602" s="12"/>
     </row>
-    <row r="603" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="603" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A603" s="10">
         <f t="shared" si="9"/>
         <v>598</v>
@@ -12714,7 +12719,7 @@
       <c r="F603" s="10"/>
       <c r="G603" s="12"/>
     </row>
-    <row r="604" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="604" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A604" s="10">
         <f t="shared" si="9"/>
         <v>599</v>
@@ -12730,7 +12735,7 @@
       <c r="F604" s="10"/>
       <c r="G604" s="12"/>
     </row>
-    <row r="605" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="605" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A605" s="10">
         <f t="shared" si="9"/>
         <v>600</v>
@@ -12762,7 +12767,7 @@
       <c r="F606" s="10"/>
       <c r="G606" s="12"/>
     </row>
-    <row r="607" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="607" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A607" s="10">
         <f t="shared" si="9"/>
         <v>602</v>
@@ -12778,7 +12783,7 @@
       <c r="F607" s="10"/>
       <c r="G607" s="12"/>
     </row>
-    <row r="608" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="608" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A608" s="10">
         <f t="shared" si="9"/>
         <v>603</v>
@@ -12794,7 +12799,7 @@
       <c r="F608" s="10"/>
       <c r="G608" s="12"/>
     </row>
-    <row r="609" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="609" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A609" s="10">
         <f t="shared" si="9"/>
         <v>604</v>
@@ -12810,7 +12815,7 @@
       <c r="F609" s="10"/>
       <c r="G609" s="12"/>
     </row>
-    <row r="610" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="610" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A610" s="10">
         <f t="shared" si="9"/>
         <v>605</v>
@@ -12826,7 +12831,7 @@
       <c r="F610" s="10"/>
       <c r="G610" s="12"/>
     </row>
-    <row r="611" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="611" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A611" s="10">
         <f t="shared" si="9"/>
         <v>606</v>
@@ -12842,7 +12847,7 @@
       <c r="F611" s="10"/>
       <c r="G611" s="12"/>
     </row>
-    <row r="612" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="612" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A612" s="10">
         <f t="shared" si="9"/>
         <v>607</v>
@@ -12858,7 +12863,7 @@
       <c r="F612" s="10"/>
       <c r="G612" s="12"/>
     </row>
-    <row r="613" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="613" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A613" s="10">
         <f t="shared" si="9"/>
         <v>608</v>
@@ -12874,7 +12879,7 @@
       <c r="F613" s="10"/>
       <c r="G613" s="12"/>
     </row>
-    <row r="614" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="614" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A614" s="10">
         <f t="shared" si="9"/>
         <v>609</v>
@@ -12890,7 +12895,7 @@
       <c r="F614" s="10"/>
       <c r="G614" s="12"/>
     </row>
-    <row r="615" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="615" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A615" s="10">
         <f t="shared" si="9"/>
         <v>610</v>
@@ -12906,7 +12911,7 @@
       <c r="F615" s="10"/>
       <c r="G615" s="12"/>
     </row>
-    <row r="616" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="616" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A616" s="10">
         <f t="shared" si="9"/>
         <v>611</v>
@@ -12922,7 +12927,7 @@
       <c r="F616" s="10"/>
       <c r="G616" s="12"/>
     </row>
-    <row r="617" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="617" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A617" s="10">
         <f t="shared" si="9"/>
         <v>612</v>
@@ -12938,7 +12943,7 @@
       <c r="F617" s="10"/>
       <c r="G617" s="12"/>
     </row>
-    <row r="618" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="618" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A618" s="10">
         <f t="shared" si="9"/>
         <v>613</v>
@@ -12954,7 +12959,7 @@
       <c r="F618" s="10"/>
       <c r="G618" s="12"/>
     </row>
-    <row r="619" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="619" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A619" s="10">
         <f t="shared" si="9"/>
         <v>614</v>
@@ -12972,7 +12977,7 @@
       <c r="F619" s="10"/>
       <c r="G619" s="12"/>
     </row>
-    <row r="620" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="620" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A620" s="10">
         <f t="shared" si="9"/>
         <v>615</v>
@@ -12988,7 +12993,7 @@
       <c r="F620" s="10"/>
       <c r="G620" s="12"/>
     </row>
-    <row r="621" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="621" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A621" s="10">
         <f t="shared" si="9"/>
         <v>616</v>
@@ -13006,7 +13011,7 @@
       <c r="F621" s="10"/>
       <c r="G621" s="12"/>
     </row>
-    <row r="622" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="622" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A622" s="10">
         <f t="shared" si="9"/>
         <v>617</v>
@@ -13022,7 +13027,7 @@
       <c r="F622" s="10"/>
       <c r="G622" s="12"/>
     </row>
-    <row r="623" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="623" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A623" s="10">
         <f t="shared" si="9"/>
         <v>618</v>
@@ -13038,7 +13043,7 @@
       <c r="F623" s="10"/>
       <c r="G623" s="12"/>
     </row>
-    <row r="624" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="624" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A624" s="10">
         <f t="shared" si="9"/>
         <v>619</v>
@@ -13054,7 +13059,7 @@
       <c r="F624" s="10"/>
       <c r="G624" s="12"/>
     </row>
-    <row r="625" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="625" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A625" s="10">
         <f t="shared" si="9"/>
         <v>620</v>
@@ -13070,7 +13075,7 @@
       <c r="F625" s="10"/>
       <c r="G625" s="12"/>
     </row>
-    <row r="626" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="626" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A626" s="10">
         <f t="shared" si="9"/>
         <v>621</v>
@@ -13086,7 +13091,7 @@
       <c r="F626" s="10"/>
       <c r="G626" s="12"/>
     </row>
-    <row r="627" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="627" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A627" s="10">
         <f t="shared" si="9"/>
         <v>622</v>
@@ -13102,7 +13107,7 @@
       <c r="F627" s="10"/>
       <c r="G627" s="12"/>
     </row>
-    <row r="628" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="628" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A628" s="10">
         <f t="shared" si="9"/>
         <v>623</v>
@@ -13118,7 +13123,7 @@
       <c r="F628" s="10"/>
       <c r="G628" s="12"/>
     </row>
-    <row r="629" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="629" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A629" s="10">
         <f t="shared" si="9"/>
         <v>624</v>
@@ -13134,7 +13139,7 @@
       <c r="F629" s="10"/>
       <c r="G629" s="12"/>
     </row>
-    <row r="630" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="630" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A630" s="10">
         <f t="shared" si="9"/>
         <v>625</v>
@@ -13150,7 +13155,7 @@
       <c r="F630" s="10"/>
       <c r="G630" s="12"/>
     </row>
-    <row r="631" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="631" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A631" s="10">
         <f t="shared" si="9"/>
         <v>626</v>
@@ -13166,7 +13171,7 @@
       <c r="F631" s="10"/>
       <c r="G631" s="12"/>
     </row>
-    <row r="632" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="632" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A632" s="10">
         <f t="shared" si="9"/>
         <v>627</v>
@@ -13198,7 +13203,7 @@
       <c r="F633" s="10"/>
       <c r="G633" s="12"/>
     </row>
-    <row r="634" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="634" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A634" s="10">
         <f t="shared" si="9"/>
         <v>629</v>
@@ -13214,7 +13219,7 @@
       <c r="F634" s="10"/>
       <c r="G634" s="12"/>
     </row>
-    <row r="635" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="635" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A635" s="10">
         <f t="shared" si="9"/>
         <v>630</v>
@@ -13230,7 +13235,7 @@
       <c r="F635" s="10"/>
       <c r="G635" s="12"/>
     </row>
-    <row r="636" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="636" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A636" s="10">
         <f t="shared" si="9"/>
         <v>631</v>
@@ -13246,7 +13251,7 @@
       <c r="F636" s="10"/>
       <c r="G636" s="12"/>
     </row>
-    <row r="637" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="637" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A637" s="10">
         <f t="shared" si="9"/>
         <v>632</v>
@@ -13262,7 +13267,7 @@
       <c r="F637" s="10"/>
       <c r="G637" s="12"/>
     </row>
-    <row r="638" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="638" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A638" s="10">
         <f t="shared" si="9"/>
         <v>633</v>
@@ -13278,7 +13283,7 @@
       <c r="F638" s="10"/>
       <c r="G638" s="12"/>
     </row>
-    <row r="639" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="639" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A639" s="10">
         <f t="shared" si="9"/>
         <v>634</v>
@@ -13294,7 +13299,7 @@
       <c r="F639" s="10"/>
       <c r="G639" s="12"/>
     </row>
-    <row r="640" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="640" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A640" s="10">
         <f t="shared" si="9"/>
         <v>635</v>
@@ -13310,7 +13315,7 @@
       <c r="F640" s="10"/>
       <c r="G640" s="12"/>
     </row>
-    <row r="641" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="641" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A641" s="10">
         <f t="shared" si="9"/>
         <v>636</v>
@@ -13328,7 +13333,7 @@
       <c r="F641" s="10"/>
       <c r="G641" s="12"/>
     </row>
-    <row r="642" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="642" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A642" s="10">
         <f t="shared" si="9"/>
         <v>637</v>
@@ -13344,7 +13349,7 @@
       <c r="F642" s="10"/>
       <c r="G642" s="12"/>
     </row>
-    <row r="643" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="643" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A643" s="10">
         <f t="shared" si="9"/>
         <v>638</v>
@@ -13362,7 +13367,7 @@
       <c r="F643" s="10"/>
       <c r="G643" s="12"/>
     </row>
-    <row r="644" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="644" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A644" s="10">
         <f t="shared" si="9"/>
         <v>639</v>
@@ -13378,7 +13383,7 @@
       <c r="F644" s="10"/>
       <c r="G644" s="12"/>
     </row>
-    <row r="645" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="645" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A645" s="10">
         <f t="shared" si="9"/>
         <v>640</v>
@@ -13394,7 +13399,7 @@
       <c r="F645" s="10"/>
       <c r="G645" s="12"/>
     </row>
-    <row r="646" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="646" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A646" s="10">
         <f t="shared" si="9"/>
         <v>641</v>
@@ -13412,7 +13417,7 @@
       <c r="F646" s="10"/>
       <c r="G646" s="12"/>
     </row>
-    <row r="647" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="647" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A647" s="10">
         <f t="shared" ref="A647:A710" si="10">A646+1</f>
         <v>642</v>
@@ -13428,7 +13433,7 @@
       <c r="F647" s="10"/>
       <c r="G647" s="12"/>
     </row>
-    <row r="648" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="648" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A648" s="10">
         <f t="shared" si="10"/>
         <v>643</v>
@@ -13444,7 +13449,7 @@
       <c r="F648" s="10"/>
       <c r="G648" s="12"/>
     </row>
-    <row r="649" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="649" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A649" s="10">
         <f t="shared" si="10"/>
         <v>644</v>
@@ -13460,7 +13465,7 @@
       <c r="F649" s="10"/>
       <c r="G649" s="12"/>
     </row>
-    <row r="650" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="650" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A650" s="10">
         <f t="shared" si="10"/>
         <v>645</v>
@@ -13476,7 +13481,7 @@
       <c r="F650" s="10"/>
       <c r="G650" s="12"/>
     </row>
-    <row r="651" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="651" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A651" s="10">
         <f t="shared" si="10"/>
         <v>646</v>
@@ -13492,7 +13497,7 @@
       <c r="F651" s="10"/>
       <c r="G651" s="12"/>
     </row>
-    <row r="652" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="652" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A652" s="10">
         <f t="shared" si="10"/>
         <v>647</v>
@@ -13508,7 +13513,7 @@
       <c r="F652" s="10"/>
       <c r="G652" s="12"/>
     </row>
-    <row r="653" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="653" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A653" s="10">
         <f t="shared" si="10"/>
         <v>648</v>
@@ -13524,7 +13529,7 @@
       <c r="F653" s="10"/>
       <c r="G653" s="12"/>
     </row>
-    <row r="654" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="654" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A654" s="10">
         <f t="shared" si="10"/>
         <v>649</v>
@@ -13540,7 +13545,7 @@
       <c r="F654" s="10"/>
       <c r="G654" s="12"/>
     </row>
-    <row r="655" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="655" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A655" s="10">
         <f t="shared" si="10"/>
         <v>650</v>
@@ -13556,7 +13561,7 @@
       <c r="F655" s="10"/>
       <c r="G655" s="12"/>
     </row>
-    <row r="656" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="656" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A656" s="10">
         <f t="shared" si="10"/>
         <v>651</v>
@@ -13572,7 +13577,7 @@
       <c r="F656" s="10"/>
       <c r="G656" s="12"/>
     </row>
-    <row r="657" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="657" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A657" s="10">
         <f t="shared" si="10"/>
         <v>652</v>
@@ -13606,7 +13611,7 @@
       <c r="F658" s="10"/>
       <c r="G658" s="12"/>
     </row>
-    <row r="659" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="659" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A659" s="10">
         <f t="shared" si="10"/>
         <v>654</v>
@@ -13622,7 +13627,7 @@
       <c r="F659" s="10"/>
       <c r="G659" s="12"/>
     </row>
-    <row r="660" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="660" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A660" s="10">
         <f t="shared" si="10"/>
         <v>655</v>
@@ -13638,7 +13643,7 @@
       <c r="F660" s="10"/>
       <c r="G660" s="12"/>
     </row>
-    <row r="661" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="661" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A661" s="10">
         <f t="shared" si="10"/>
         <v>656</v>
@@ -13654,7 +13659,7 @@
       <c r="F661" s="10"/>
       <c r="G661" s="12"/>
     </row>
-    <row r="662" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="662" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A662" s="10">
         <f t="shared" si="10"/>
         <v>657</v>
@@ -13670,7 +13675,7 @@
       <c r="F662" s="10"/>
       <c r="G662" s="12"/>
     </row>
-    <row r="663" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="663" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A663" s="10">
         <f t="shared" si="10"/>
         <v>658</v>
@@ -13686,7 +13691,7 @@
       <c r="F663" s="10"/>
       <c r="G663" s="12"/>
     </row>
-    <row r="664" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="664" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A664" s="10">
         <f t="shared" si="10"/>
         <v>659</v>
@@ -13702,7 +13707,7 @@
       <c r="F664" s="10"/>
       <c r="G664" s="12"/>
     </row>
-    <row r="665" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="665" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A665" s="10">
         <f t="shared" si="10"/>
         <v>660</v>
@@ -13718,7 +13723,7 @@
       <c r="F665" s="10"/>
       <c r="G665" s="12"/>
     </row>
-    <row r="666" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="666" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A666" s="10">
         <f t="shared" si="10"/>
         <v>661</v>
@@ -13734,7 +13739,7 @@
       <c r="F666" s="10"/>
       <c r="G666" s="12"/>
     </row>
-    <row r="667" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="667" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A667" s="10">
         <f t="shared" si="10"/>
         <v>662</v>
@@ -13752,7 +13757,7 @@
       <c r="F667" s="10"/>
       <c r="G667" s="12"/>
     </row>
-    <row r="668" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="668" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A668" s="10">
         <f t="shared" si="10"/>
         <v>663</v>
@@ -13768,7 +13773,7 @@
       <c r="F668" s="10"/>
       <c r="G668" s="12"/>
     </row>
-    <row r="669" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="669" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A669" s="10">
         <f t="shared" si="10"/>
         <v>664</v>
@@ -13784,7 +13789,7 @@
       <c r="F669" s="10"/>
       <c r="G669" s="12"/>
     </row>
-    <row r="670" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="670" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A670" s="10">
         <f t="shared" si="10"/>
         <v>665</v>
@@ -13800,7 +13805,7 @@
       <c r="F670" s="10"/>
       <c r="G670" s="12"/>
     </row>
-    <row r="671" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="671" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A671" s="10">
         <f t="shared" si="10"/>
         <v>666</v>
@@ -13816,7 +13821,7 @@
       <c r="F671" s="10"/>
       <c r="G671" s="12"/>
     </row>
-    <row r="672" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="672" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A672" s="10">
         <f t="shared" si="10"/>
         <v>667</v>
@@ -13850,7 +13855,7 @@
       <c r="F673" s="10"/>
       <c r="G673" s="12"/>
     </row>
-    <row r="674" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="674" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A674" s="10">
         <f t="shared" si="10"/>
         <v>669</v>
@@ -13868,7 +13873,7 @@
       <c r="F674" s="10"/>
       <c r="G674" s="12"/>
     </row>
-    <row r="675" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="675" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A675" s="10">
         <f t="shared" si="10"/>
         <v>670</v>
@@ -13884,7 +13889,7 @@
       <c r="F675" s="10"/>
       <c r="G675" s="12"/>
     </row>
-    <row r="676" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="676" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A676" s="10">
         <f t="shared" si="10"/>
         <v>671</v>
@@ -13900,7 +13905,7 @@
       <c r="F676" s="10"/>
       <c r="G676" s="12"/>
     </row>
-    <row r="677" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="677" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A677" s="10">
         <f t="shared" si="10"/>
         <v>672</v>
@@ -13916,7 +13921,7 @@
       <c r="F677" s="10"/>
       <c r="G677" s="12"/>
     </row>
-    <row r="678" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="678" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A678" s="10">
         <f t="shared" si="10"/>
         <v>673</v>
@@ -13934,7 +13939,7 @@
       <c r="F678" s="10"/>
       <c r="G678" s="12"/>
     </row>
-    <row r="679" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="679" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A679" s="10">
         <f t="shared" si="10"/>
         <v>674</v>
@@ -13950,7 +13955,7 @@
       <c r="F679" s="10"/>
       <c r="G679" s="12"/>
     </row>
-    <row r="680" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="680" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A680" s="10">
         <f t="shared" si="10"/>
         <v>675</v>
@@ -13966,7 +13971,7 @@
       <c r="F680" s="10"/>
       <c r="G680" s="12"/>
     </row>
-    <row r="681" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="681" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A681" s="10">
         <f t="shared" si="10"/>
         <v>676</v>
@@ -13982,7 +13987,7 @@
       <c r="F681" s="10"/>
       <c r="G681" s="12"/>
     </row>
-    <row r="682" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="682" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A682" s="10">
         <f t="shared" si="10"/>
         <v>677</v>
@@ -13998,7 +14003,7 @@
       <c r="F682" s="10"/>
       <c r="G682" s="12"/>
     </row>
-    <row r="683" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="683" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A683" s="10">
         <f t="shared" si="10"/>
         <v>678</v>
@@ -14014,7 +14019,7 @@
       <c r="F683" s="10"/>
       <c r="G683" s="12"/>
     </row>
-    <row r="684" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="684" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A684" s="10">
         <f t="shared" si="10"/>
         <v>679</v>
@@ -14030,7 +14035,7 @@
       <c r="F684" s="10"/>
       <c r="G684" s="12"/>
     </row>
-    <row r="685" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="685" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A685" s="10">
         <f t="shared" si="10"/>
         <v>680</v>
@@ -14046,7 +14051,7 @@
       <c r="F685" s="10"/>
       <c r="G685" s="12"/>
     </row>
-    <row r="686" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="686" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A686" s="10">
         <f t="shared" si="10"/>
         <v>681</v>
@@ -14062,7 +14067,7 @@
       <c r="F686" s="10"/>
       <c r="G686" s="12"/>
     </row>
-    <row r="687" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="687" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A687" s="10">
         <f t="shared" si="10"/>
         <v>682</v>
@@ -14078,7 +14083,7 @@
       <c r="F687" s="10"/>
       <c r="G687" s="12"/>
     </row>
-    <row r="688" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="688" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A688" s="10">
         <f t="shared" si="10"/>
         <v>683</v>
@@ -14096,7 +14101,7 @@
       <c r="F688" s="10"/>
       <c r="G688" s="12"/>
     </row>
-    <row r="689" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="689" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A689" s="10">
         <f t="shared" si="10"/>
         <v>684</v>
@@ -14112,7 +14117,7 @@
       <c r="F689" s="10"/>
       <c r="G689" s="12"/>
     </row>
-    <row r="690" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="690" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A690" s="10">
         <f t="shared" si="10"/>
         <v>685</v>
@@ -14128,7 +14133,7 @@
       <c r="F690" s="10"/>
       <c r="G690" s="12"/>
     </row>
-    <row r="691" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="691" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A691" s="10">
         <f t="shared" si="10"/>
         <v>686</v>
@@ -14144,7 +14149,7 @@
       <c r="F691" s="10"/>
       <c r="G691" s="12"/>
     </row>
-    <row r="692" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="692" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A692" s="10">
         <f t="shared" si="10"/>
         <v>687</v>
@@ -14160,7 +14165,7 @@
       <c r="F692" s="10"/>
       <c r="G692" s="12"/>
     </row>
-    <row r="693" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="693" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A693" s="10">
         <f t="shared" si="10"/>
         <v>688</v>
@@ -14176,7 +14181,7 @@
       <c r="F693" s="10"/>
       <c r="G693" s="12"/>
     </row>
-    <row r="694" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="694" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A694" s="10">
         <f t="shared" si="10"/>
         <v>689</v>
@@ -14192,7 +14197,7 @@
       <c r="F694" s="10"/>
       <c r="G694" s="12"/>
     </row>
-    <row r="695" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="695" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A695" s="10">
         <f t="shared" si="10"/>
         <v>690</v>
@@ -14208,7 +14213,7 @@
       <c r="F695" s="10"/>
       <c r="G695" s="12"/>
     </row>
-    <row r="696" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="696" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A696" s="10">
         <f t="shared" si="10"/>
         <v>691</v>
@@ -14224,7 +14229,7 @@
       <c r="F696" s="10"/>
       <c r="G696" s="12"/>
     </row>
-    <row r="697" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="697" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A697" s="10">
         <f t="shared" si="10"/>
         <v>692</v>
@@ -14240,7 +14245,7 @@
       <c r="F697" s="10"/>
       <c r="G697" s="12"/>
     </row>
-    <row r="698" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="698" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A698" s="10">
         <f t="shared" si="10"/>
         <v>693</v>
@@ -14256,7 +14261,7 @@
       <c r="F698" s="10"/>
       <c r="G698" s="12"/>
     </row>
-    <row r="699" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="699" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A699" s="10">
         <f t="shared" si="10"/>
         <v>694</v>
@@ -14272,7 +14277,7 @@
       <c r="F699" s="10"/>
       <c r="G699" s="12"/>
     </row>
-    <row r="700" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="700" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A700" s="10">
         <f t="shared" si="10"/>
         <v>695</v>
@@ -14288,7 +14293,7 @@
       <c r="F700" s="10"/>
       <c r="G700" s="12"/>
     </row>
-    <row r="701" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="701" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A701" s="10">
         <f t="shared" si="10"/>
         <v>696</v>
@@ -14304,7 +14309,7 @@
       <c r="F701" s="10"/>
       <c r="G701" s="12"/>
     </row>
-    <row r="702" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="702" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A702" s="10">
         <f t="shared" si="10"/>
         <v>697</v>
@@ -14320,7 +14325,7 @@
       <c r="F702" s="10"/>
       <c r="G702" s="12"/>
     </row>
-    <row r="703" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="703" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A703" s="10">
         <f t="shared" si="10"/>
         <v>698</v>
@@ -14336,7 +14341,7 @@
       <c r="F703" s="10"/>
       <c r="G703" s="12"/>
     </row>
-    <row r="704" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="704" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A704" s="10">
         <f t="shared" si="10"/>
         <v>699</v>
@@ -14352,7 +14357,7 @@
       <c r="F704" s="10"/>
       <c r="G704" s="12"/>
     </row>
-    <row r="705" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="705" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A705" s="10">
         <f t="shared" si="10"/>
         <v>700</v>
@@ -14368,7 +14373,7 @@
       <c r="F705" s="10"/>
       <c r="G705" s="12"/>
     </row>
-    <row r="706" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="706" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A706" s="10">
         <f t="shared" si="10"/>
         <v>701</v>
@@ -14384,7 +14389,7 @@
       <c r="F706" s="10"/>
       <c r="G706" s="12"/>
     </row>
-    <row r="707" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="707" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A707" s="10">
         <f t="shared" si="10"/>
         <v>702</v>
@@ -14400,7 +14405,7 @@
       <c r="F707" s="10"/>
       <c r="G707" s="12"/>
     </row>
-    <row r="708" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="708" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A708" s="10">
         <f t="shared" si="10"/>
         <v>703</v>
@@ -14416,7 +14421,7 @@
       <c r="F708" s="10"/>
       <c r="G708" s="12"/>
     </row>
-    <row r="709" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="709" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A709" s="10">
         <f t="shared" si="10"/>
         <v>704</v>
@@ -14432,7 +14437,7 @@
       <c r="F709" s="10"/>
       <c r="G709" s="12"/>
     </row>
-    <row r="710" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="710" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A710" s="10">
         <f t="shared" si="10"/>
         <v>705</v>
@@ -14448,7 +14453,7 @@
       <c r="F710" s="10"/>
       <c r="G710" s="12"/>
     </row>
-    <row r="711" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="711" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A711" s="10">
         <f t="shared" ref="A711:A774" si="11">A710+1</f>
         <v>706</v>
@@ -14464,7 +14469,7 @@
       <c r="F711" s="10"/>
       <c r="G711" s="12"/>
     </row>
-    <row r="712" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="712" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A712" s="10">
         <f t="shared" si="11"/>
         <v>707</v>
@@ -14480,7 +14485,7 @@
       <c r="F712" s="10"/>
       <c r="G712" s="12"/>
     </row>
-    <row r="713" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="713" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A713" s="10">
         <f t="shared" si="11"/>
         <v>708</v>
@@ -14496,7 +14501,7 @@
       <c r="F713" s="10"/>
       <c r="G713" s="12"/>
     </row>
-    <row r="714" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="714" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A714" s="10">
         <f t="shared" si="11"/>
         <v>709</v>
@@ -14512,7 +14517,7 @@
       <c r="F714" s="10"/>
       <c r="G714" s="12"/>
     </row>
-    <row r="715" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="715" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A715" s="10">
         <f t="shared" si="11"/>
         <v>710</v>
@@ -14528,7 +14533,7 @@
       <c r="F715" s="10"/>
       <c r="G715" s="12"/>
     </row>
-    <row r="716" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="716" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A716" s="10">
         <f t="shared" si="11"/>
         <v>711</v>
@@ -14544,7 +14549,7 @@
       <c r="F716" s="10"/>
       <c r="G716" s="12"/>
     </row>
-    <row r="717" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="717" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A717" s="10">
         <f t="shared" si="11"/>
         <v>712</v>
@@ -14560,7 +14565,7 @@
       <c r="F717" s="10"/>
       <c r="G717" s="12"/>
     </row>
-    <row r="718" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="718" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A718" s="10">
         <f t="shared" si="11"/>
         <v>713</v>
@@ -14576,7 +14581,7 @@
       <c r="F718" s="10"/>
       <c r="G718" s="12"/>
     </row>
-    <row r="719" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="719" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A719" s="10">
         <f t="shared" si="11"/>
         <v>714</v>
@@ -14592,7 +14597,7 @@
       <c r="F719" s="10"/>
       <c r="G719" s="12"/>
     </row>
-    <row r="720" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="720" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A720" s="10">
         <f t="shared" si="11"/>
         <v>715</v>
@@ -14608,7 +14613,7 @@
       <c r="F720" s="10"/>
       <c r="G720" s="12"/>
     </row>
-    <row r="721" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="721" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A721" s="10">
         <f t="shared" si="11"/>
         <v>716</v>
@@ -14624,7 +14629,7 @@
       <c r="F721" s="10"/>
       <c r="G721" s="12"/>
     </row>
-    <row r="722" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="722" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A722" s="10">
         <f t="shared" si="11"/>
         <v>717</v>
@@ -14640,7 +14645,7 @@
       <c r="F722" s="10"/>
       <c r="G722" s="12"/>
     </row>
-    <row r="723" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="723" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A723" s="10">
         <f t="shared" si="11"/>
         <v>718</v>
@@ -14658,7 +14663,7 @@
       <c r="F723" s="10"/>
       <c r="G723" s="12"/>
     </row>
-    <row r="724" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="724" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A724" s="10">
         <f t="shared" si="11"/>
         <v>719</v>
@@ -14676,7 +14681,7 @@
       <c r="F724" s="10"/>
       <c r="G724" s="12"/>
     </row>
-    <row r="725" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="725" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A725" s="10">
         <f t="shared" si="11"/>
         <v>720</v>
@@ -14694,7 +14699,7 @@
       <c r="F725" s="10"/>
       <c r="G725" s="12"/>
     </row>
-    <row r="726" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="726" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A726" s="10">
         <f t="shared" si="11"/>
         <v>721</v>
@@ -14710,7 +14715,7 @@
       <c r="F726" s="10"/>
       <c r="G726" s="12"/>
     </row>
-    <row r="727" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="727" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A727" s="10">
         <f t="shared" si="11"/>
         <v>722</v>
@@ -14726,7 +14731,7 @@
       <c r="F727" s="10"/>
       <c r="G727" s="12"/>
     </row>
-    <row r="728" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="728" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A728" s="10">
         <f t="shared" si="11"/>
         <v>723</v>
@@ -14742,7 +14747,7 @@
       <c r="F728" s="10"/>
       <c r="G728" s="12"/>
     </row>
-    <row r="729" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="729" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A729" s="10">
         <f t="shared" si="11"/>
         <v>724</v>
@@ -14758,7 +14763,7 @@
       <c r="F729" s="10"/>
       <c r="G729" s="12"/>
     </row>
-    <row r="730" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="730" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A730" s="10">
         <f t="shared" si="11"/>
         <v>725</v>
@@ -14774,7 +14779,7 @@
       <c r="F730" s="10"/>
       <c r="G730" s="12"/>
     </row>
-    <row r="731" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="731" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A731" s="10">
         <f t="shared" si="11"/>
         <v>726</v>
@@ -14790,7 +14795,7 @@
       <c r="F731" s="10"/>
       <c r="G731" s="12"/>
     </row>
-    <row r="732" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="732" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A732" s="10">
         <f t="shared" si="11"/>
         <v>727</v>
@@ -14806,7 +14811,7 @@
       <c r="F732" s="10"/>
       <c r="G732" s="12"/>
     </row>
-    <row r="733" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="733" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A733" s="10">
         <f t="shared" si="11"/>
         <v>728</v>
@@ -14822,7 +14827,7 @@
       <c r="F733" s="10"/>
       <c r="G733" s="12"/>
     </row>
-    <row r="734" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="734" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A734" s="10">
         <f t="shared" si="11"/>
         <v>729</v>
@@ -14838,7 +14843,7 @@
       <c r="F734" s="10"/>
       <c r="G734" s="12"/>
     </row>
-    <row r="735" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="735" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A735" s="10">
         <f t="shared" si="11"/>
         <v>730</v>
@@ -14854,7 +14859,7 @@
       <c r="F735" s="10"/>
       <c r="G735" s="12"/>
     </row>
-    <row r="736" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="736" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A736" s="10">
         <f t="shared" si="11"/>
         <v>731</v>
@@ -14870,7 +14875,7 @@
       <c r="F736" s="10"/>
       <c r="G736" s="12"/>
     </row>
-    <row r="737" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="737" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A737" s="10">
         <f t="shared" si="11"/>
         <v>732</v>
@@ -14886,7 +14891,7 @@
       <c r="F737" s="10"/>
       <c r="G737" s="12"/>
     </row>
-    <row r="738" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="738" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A738" s="10">
         <f t="shared" si="11"/>
         <v>733</v>
@@ -14902,7 +14907,7 @@
       <c r="F738" s="10"/>
       <c r="G738" s="12"/>
     </row>
-    <row r="739" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="739" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A739" s="10">
         <f t="shared" si="11"/>
         <v>734</v>
@@ -14918,7 +14923,7 @@
       <c r="F739" s="10"/>
       <c r="G739" s="12"/>
     </row>
-    <row r="740" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="740" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A740" s="10">
         <f t="shared" si="11"/>
         <v>735</v>
@@ -14934,7 +14939,7 @@
       <c r="F740" s="10"/>
       <c r="G740" s="12"/>
     </row>
-    <row r="741" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="741" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A741" s="10">
         <f t="shared" si="11"/>
         <v>736</v>
@@ -14950,7 +14955,7 @@
       <c r="F741" s="10"/>
       <c r="G741" s="12"/>
     </row>
-    <row r="742" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="742" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A742" s="10">
         <f t="shared" si="11"/>
         <v>737</v>
@@ -14968,7 +14973,7 @@
       <c r="F742" s="10"/>
       <c r="G742" s="12"/>
     </row>
-    <row r="743" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="743" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A743" s="10">
         <f t="shared" si="11"/>
         <v>738</v>
@@ -14984,7 +14989,7 @@
       <c r="F743" s="10"/>
       <c r="G743" s="12"/>
     </row>
-    <row r="744" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="744" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A744" s="10">
         <f t="shared" si="11"/>
         <v>739</v>
@@ -15000,7 +15005,7 @@
       <c r="F744" s="10"/>
       <c r="G744" s="12"/>
     </row>
-    <row r="745" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="745" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A745" s="10">
         <f t="shared" si="11"/>
         <v>740</v>
@@ -15016,7 +15021,7 @@
       <c r="F745" s="10"/>
       <c r="G745" s="12"/>
     </row>
-    <row r="746" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="746" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A746" s="10">
         <f t="shared" si="11"/>
         <v>741</v>
@@ -15032,7 +15037,7 @@
       <c r="F746" s="10"/>
       <c r="G746" s="12"/>
     </row>
-    <row r="747" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="747" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A747" s="10">
         <f t="shared" si="11"/>
         <v>742</v>
@@ -15064,7 +15069,7 @@
       <c r="F748" s="10"/>
       <c r="G748" s="12"/>
     </row>
-    <row r="749" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="749" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A749" s="10">
         <f t="shared" si="11"/>
         <v>744</v>
@@ -15080,7 +15085,7 @@
       <c r="F749" s="10"/>
       <c r="G749" s="12"/>
     </row>
-    <row r="750" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="750" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A750" s="10">
         <f t="shared" si="11"/>
         <v>745</v>
@@ -15096,7 +15101,7 @@
       <c r="F750" s="10"/>
       <c r="G750" s="12"/>
     </row>
-    <row r="751" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="751" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A751" s="10">
         <f t="shared" si="11"/>
         <v>746</v>
@@ -15112,7 +15117,7 @@
       <c r="F751" s="10"/>
       <c r="G751" s="12"/>
     </row>
-    <row r="752" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="752" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A752" s="10">
         <f t="shared" si="11"/>
         <v>747</v>
@@ -15128,7 +15133,7 @@
       <c r="F752" s="10"/>
       <c r="G752" s="12"/>
     </row>
-    <row r="753" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="753" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A753" s="10">
         <f t="shared" si="11"/>
         <v>748</v>
@@ -15144,7 +15149,7 @@
       <c r="F753" s="10"/>
       <c r="G753" s="12"/>
     </row>
-    <row r="754" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="754" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A754" s="10">
         <f t="shared" si="11"/>
         <v>749</v>
@@ -15160,7 +15165,7 @@
       <c r="F754" s="10"/>
       <c r="G754" s="12"/>
     </row>
-    <row r="755" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="755" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A755" s="10">
         <f t="shared" si="11"/>
         <v>750</v>
@@ -15176,7 +15181,7 @@
       <c r="F755" s="10"/>
       <c r="G755" s="12"/>
     </row>
-    <row r="756" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="756" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A756" s="10">
         <f t="shared" si="11"/>
         <v>751</v>
@@ -15192,7 +15197,7 @@
       <c r="F756" s="10"/>
       <c r="G756" s="12"/>
     </row>
-    <row r="757" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="757" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A757" s="10">
         <f t="shared" si="11"/>
         <v>752</v>
@@ -15208,7 +15213,7 @@
       <c r="F757" s="10"/>
       <c r="G757" s="12"/>
     </row>
-    <row r="758" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="758" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A758" s="10">
         <f t="shared" si="11"/>
         <v>753</v>
@@ -15224,7 +15229,7 @@
       <c r="F758" s="10"/>
       <c r="G758" s="12"/>
     </row>
-    <row r="759" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="759" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A759" s="10">
         <f t="shared" si="11"/>
         <v>754</v>
@@ -15240,7 +15245,7 @@
       <c r="F759" s="10"/>
       <c r="G759" s="12"/>
     </row>
-    <row r="760" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="760" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A760" s="10">
         <f t="shared" si="11"/>
         <v>755</v>
@@ -15256,7 +15261,7 @@
       <c r="F760" s="10"/>
       <c r="G760" s="12"/>
     </row>
-    <row r="761" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="761" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A761" s="10">
         <f t="shared" si="11"/>
         <v>756</v>
@@ -15272,7 +15277,7 @@
       <c r="F761" s="10"/>
       <c r="G761" s="12"/>
     </row>
-    <row r="762" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="762" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A762" s="10">
         <f t="shared" si="11"/>
         <v>757</v>
@@ -15288,7 +15293,7 @@
       <c r="F762" s="10"/>
       <c r="G762" s="12"/>
     </row>
-    <row r="763" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="763" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A763" s="10">
         <f t="shared" si="11"/>
         <v>758</v>
@@ -15304,7 +15309,7 @@
       <c r="F763" s="10"/>
       <c r="G763" s="12"/>
     </row>
-    <row r="764" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="764" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A764" s="10">
         <f t="shared" si="11"/>
         <v>759</v>
@@ -15320,7 +15325,7 @@
       <c r="F764" s="10"/>
       <c r="G764" s="12"/>
     </row>
-    <row r="765" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="765" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A765" s="10">
         <f t="shared" si="11"/>
         <v>760</v>
@@ -15336,7 +15341,7 @@
       <c r="F765" s="10"/>
       <c r="G765" s="12"/>
     </row>
-    <row r="766" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="766" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A766" s="10">
         <f t="shared" si="11"/>
         <v>761</v>
@@ -15352,7 +15357,7 @@
       <c r="F766" s="10"/>
       <c r="G766" s="12"/>
     </row>
-    <row r="767" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="767" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A767" s="10">
         <f t="shared" si="11"/>
         <v>762</v>
@@ -15379,12 +15384,14 @@
       <c r="C768" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="D768" s="10"/>
+      <c r="D768" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E768" s="10"/>
       <c r="F768" s="10"/>
       <c r="G768" s="12"/>
     </row>
-    <row r="769" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="769" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A769" s="10">
         <f t="shared" si="11"/>
         <v>764</v>
@@ -15420,7 +15427,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="771" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="771" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A771" s="10">
         <f t="shared" si="11"/>
         <v>766</v>
@@ -15436,7 +15443,7 @@
       <c r="F771" s="10"/>
       <c r="G771" s="12"/>
     </row>
-    <row r="772" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="772" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A772" s="10">
         <f t="shared" si="11"/>
         <v>767</v>
@@ -15452,7 +15459,7 @@
       <c r="F772" s="10"/>
       <c r="G772" s="12"/>
     </row>
-    <row r="773" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="773" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A773" s="10">
         <f t="shared" si="11"/>
         <v>768</v>
@@ -15468,7 +15475,7 @@
       <c r="F773" s="10"/>
       <c r="G773" s="12"/>
     </row>
-    <row r="774" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="774" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A774" s="10">
         <f t="shared" si="11"/>
         <v>769</v>
@@ -15504,7 +15511,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="776" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="776" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A776" s="10">
         <f t="shared" si="12"/>
         <v>771</v>
@@ -15520,7 +15527,7 @@
       <c r="F776" s="10"/>
       <c r="G776" s="12"/>
     </row>
-    <row r="777" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="777" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A777" s="10">
         <f t="shared" si="12"/>
         <v>772</v>
@@ -15536,7 +15543,7 @@
       <c r="F777" s="10"/>
       <c r="G777" s="12"/>
     </row>
-    <row r="778" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="778" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A778" s="10">
         <f t="shared" si="12"/>
         <v>773</v>
@@ -15552,7 +15559,7 @@
       <c r="F778" s="10"/>
       <c r="G778" s="12"/>
     </row>
-    <row r="779" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="779" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A779" s="10">
         <f t="shared" si="12"/>
         <v>774</v>
@@ -15568,7 +15575,7 @@
       <c r="F779" s="10"/>
       <c r="G779" s="12"/>
     </row>
-    <row r="780" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="780" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A780" s="10">
         <f t="shared" si="12"/>
         <v>775</v>
@@ -15584,7 +15591,7 @@
       <c r="F780" s="10"/>
       <c r="G780" s="12"/>
     </row>
-    <row r="781" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="781" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A781" s="10">
         <f t="shared" si="12"/>
         <v>776</v>
@@ -15600,7 +15607,7 @@
       <c r="F781" s="10"/>
       <c r="G781" s="12"/>
     </row>
-    <row r="782" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="782" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A782" s="10">
         <f t="shared" si="12"/>
         <v>777</v>
@@ -15616,7 +15623,7 @@
       <c r="F782" s="10"/>
       <c r="G782" s="12"/>
     </row>
-    <row r="783" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="783" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A783" s="10">
         <f t="shared" si="12"/>
         <v>778</v>
@@ -15634,7 +15641,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:G783">
-    <filterColumn colId="2"/>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Lists"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <sortState ref="A6:G783">
     <sortCondition ref="B6:B783"/>

--- a/docs/newRPL Command Database.xlsx
+++ b/docs/newRPL Command Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="828">
   <si>
     <t>!</t>
   </si>
@@ -2952,8 +2952,8 @@
   <dimension ref="A2:G783"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D790" sqref="D790"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2973,7 +2973,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7">
         <f>COUNTA(D6:D1001)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>823</v>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="D3" s="8">
         <f>D2/F2</f>
-        <v>0.10668380462724936</v>
+        <v>0.11053984575835475</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
@@ -3675,7 +3675,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="45" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A45" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4067,7 +4067,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="69" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A69" s="10">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4078,7 +4078,9 @@
       <c r="C69" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="D69" s="10"/>
+      <c r="D69" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="12"/>
@@ -4277,7 +4279,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="82" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A82" s="10">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4941,7 +4943,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="12"/>
     </row>
-    <row r="123" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="123" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A123" s="10">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -5459,7 +5461,7 @@
       <c r="F154" s="10"/>
       <c r="G154" s="12"/>
     </row>
-    <row r="155" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="155" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A155" s="10">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -6381,7 +6383,7 @@
       <c r="F211" s="10"/>
       <c r="G211" s="12"/>
     </row>
-    <row r="212" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="212" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A212" s="10">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -6417,7 +6419,7 @@
       <c r="F213" s="10"/>
       <c r="G213" s="12"/>
     </row>
-    <row r="214" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="214" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A214" s="10">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -6781,7 +6783,7 @@
       <c r="F235" s="10"/>
       <c r="G235" s="12"/>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="236" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A236" s="10">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -7753,7 +7755,7 @@
       <c r="F295" s="10"/>
       <c r="G295" s="12"/>
     </row>
-    <row r="296" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="296" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A296" s="10">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -7771,7 +7773,7 @@
       <c r="F296" s="10"/>
       <c r="G296" s="12"/>
     </row>
-    <row r="297" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="297" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A297" s="10">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -8013,7 +8015,7 @@
       <c r="F311" s="10"/>
       <c r="G311" s="12"/>
     </row>
-    <row r="312" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="312" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A312" s="10">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -8499,7 +8501,7 @@
       <c r="F341" s="10"/>
       <c r="G341" s="12"/>
     </row>
-    <row r="342" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="342" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A342" s="10">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -9241,7 +9243,7 @@
       <c r="F387" s="10"/>
       <c r="G387" s="12"/>
     </row>
-    <row r="388" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="388" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A388" s="10">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -9501,7 +9503,7 @@
       <c r="F403" s="10"/>
       <c r="G403" s="12"/>
     </row>
-    <row r="404" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="404" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A404" s="10">
         <f t="shared" si="6"/>
         <v>399</v>
@@ -10117,7 +10119,7 @@
       <c r="F441" s="10"/>
       <c r="G441" s="12"/>
     </row>
-    <row r="442" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="442" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A442" s="10">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -11321,7 +11323,7 @@
       <c r="F516" s="10"/>
       <c r="G516" s="12"/>
     </row>
-    <row r="517" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="517" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A517" s="10">
         <f t="shared" si="7"/>
         <v>512</v>
@@ -11339,7 +11341,7 @@
       <c r="F517" s="10"/>
       <c r="G517" s="12"/>
     </row>
-    <row r="518" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="518" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A518" s="10">
         <f t="shared" si="7"/>
         <v>513</v>
@@ -11533,7 +11535,7 @@
       <c r="F529" s="10"/>
       <c r="G529" s="12"/>
     </row>
-    <row r="530" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="530" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A530" s="10">
         <f t="shared" si="8"/>
         <v>525</v>
@@ -11869,7 +11871,7 @@
       <c r="F550" s="10"/>
       <c r="G550" s="12"/>
     </row>
-    <row r="551" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="551" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A551" s="10">
         <f t="shared" si="8"/>
         <v>546</v>
@@ -12079,7 +12081,7 @@
       <c r="F563" s="10"/>
       <c r="G563" s="12"/>
     </row>
-    <row r="564" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="564" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A564" s="10">
         <f t="shared" si="8"/>
         <v>559</v>
@@ -12090,7 +12092,9 @@
       <c r="C564" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="D564" s="10"/>
+      <c r="D564" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E564" s="10"/>
       <c r="F564" s="10"/>
       <c r="G564" s="12"/>
@@ -12751,7 +12755,7 @@
       <c r="F605" s="10"/>
       <c r="G605" s="12"/>
     </row>
-    <row r="606" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="606" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A606" s="10">
         <f t="shared" si="9"/>
         <v>601</v>
@@ -13187,7 +13191,7 @@
       <c r="F632" s="10"/>
       <c r="G632" s="12"/>
     </row>
-    <row r="633" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="633" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A633" s="10">
         <f t="shared" si="9"/>
         <v>628</v>
@@ -13198,7 +13202,9 @@
       <c r="C633" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="D633" s="10"/>
+      <c r="D633" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E633" s="10"/>
       <c r="F633" s="10"/>
       <c r="G633" s="12"/>
@@ -13593,7 +13599,7 @@
       <c r="F657" s="10"/>
       <c r="G657" s="12"/>
     </row>
-    <row r="658" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="658" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A658" s="10">
         <f t="shared" si="10"/>
         <v>653</v>
@@ -13837,7 +13843,7 @@
       <c r="F672" s="10"/>
       <c r="G672" s="12"/>
     </row>
-    <row r="673" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="673" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A673" s="10">
         <f t="shared" si="10"/>
         <v>668</v>
@@ -15053,7 +15059,7 @@
       <c r="F747" s="10"/>
       <c r="G747" s="12"/>
     </row>
-    <row r="748" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="748" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A748" s="10">
         <f t="shared" si="11"/>
         <v>743</v>
@@ -15373,7 +15379,7 @@
       <c r="F767" s="10"/>
       <c r="G767" s="12"/>
     </row>
-    <row r="768" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="768" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A768" s="10">
         <f t="shared" si="11"/>
         <v>763</v>
@@ -15407,7 +15413,7 @@
       <c r="F769" s="10"/>
       <c r="G769" s="12"/>
     </row>
-    <row r="770" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="770" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A770" s="10">
         <f t="shared" si="11"/>
         <v>765</v>
@@ -15491,7 +15497,7 @@
       <c r="F774" s="10"/>
       <c r="G774" s="12"/>
     </row>
-    <row r="775" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="775" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A775" s="10">
         <f t="shared" ref="A775:A783" si="12">A774+1</f>
         <v>770</v>
@@ -15643,7 +15649,7 @@
   <autoFilter ref="A5:G783">
     <filterColumn colId="2">
       <filters>
-        <filter val="Lists"/>
+        <filter val="Complex"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/docs/newRPL Command Database.xlsx
+++ b/docs/newRPL Command Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="828">
   <si>
     <t>!</t>
   </si>
@@ -2953,7 +2953,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomLeft" activeCell="D223" sqref="D223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2973,7 +2973,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7">
         <f>COUNTA(D6:D1001)</f>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>823</v>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="D3" s="8">
         <f>D2/F2</f>
-        <v>0.11053984575835475</v>
+        <v>0.12339331619537275</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
@@ -3800,12 +3800,14 @@
       <c r="C52" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="D52" s="10"/>
+      <c r="D52" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="53" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A53" s="10">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4279,7 +4281,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="82" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A82" s="10">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4290,7 +4292,9 @@
       <c r="C82" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D82" s="10"/>
+      <c r="D82" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="12"/>
@@ -4943,7 +4947,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="12"/>
     </row>
-    <row r="123" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="123" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A123" s="10">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -4954,7 +4958,9 @@
       <c r="C123" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D123" s="10"/>
+      <c r="D123" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
       <c r="G123" s="12"/>
@@ -5461,7 +5467,7 @@
       <c r="F154" s="10"/>
       <c r="G154" s="12"/>
     </row>
-    <row r="155" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="155" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A155" s="10">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -5472,7 +5478,9 @@
       <c r="C155" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D155" s="10"/>
+      <c r="D155" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
       <c r="G155" s="12"/>
@@ -6569,7 +6577,7 @@
       <c r="F222" s="10"/>
       <c r="G222" s="12"/>
     </row>
-    <row r="223" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="223" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A223" s="10">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -8220,7 +8228,9 @@
       <c r="C324" s="10" t="s">
         <v>805</v>
       </c>
-      <c r="D324" s="10"/>
+      <c r="D324" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
       <c r="G324" s="12"/>
@@ -8501,7 +8511,7 @@
       <c r="F341" s="10"/>
       <c r="G341" s="12"/>
     </row>
-    <row r="342" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="342" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A342" s="10">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -8512,7 +8522,9 @@
       <c r="C342" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D342" s="10"/>
+      <c r="D342" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E342" s="10"/>
       <c r="F342" s="10"/>
       <c r="G342" s="12"/>
@@ -11535,7 +11547,7 @@
       <c r="F529" s="10"/>
       <c r="G529" s="12"/>
     </row>
-    <row r="530" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="530" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A530" s="10">
         <f t="shared" si="8"/>
         <v>525</v>
@@ -11546,7 +11558,9 @@
       <c r="C530" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D530" s="10"/>
+      <c r="D530" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E530" s="10"/>
       <c r="F530" s="10"/>
       <c r="G530" s="12"/>
@@ -11871,7 +11885,7 @@
       <c r="F550" s="10"/>
       <c r="G550" s="12"/>
     </row>
-    <row r="551" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="551" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A551" s="10">
         <f t="shared" si="8"/>
         <v>546</v>
@@ -11882,7 +11896,9 @@
       <c r="C551" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D551" s="10"/>
+      <c r="D551" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E551" s="10"/>
       <c r="F551" s="10"/>
       <c r="G551" s="12"/>
@@ -12542,7 +12558,9 @@
       <c r="C592" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="D592" s="10"/>
+      <c r="D592" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E592" s="10"/>
       <c r="F592" s="10"/>
       <c r="G592" s="12"/>
@@ -15086,7 +15104,9 @@
       <c r="C749" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="D749" s="10"/>
+      <c r="D749" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E749" s="10"/>
       <c r="F749" s="10"/>
       <c r="G749" s="12"/>
@@ -15649,7 +15669,7 @@
   <autoFilter ref="A5:G783">
     <filterColumn colId="2">
       <filters>
-        <filter val="Complex"/>
+        <filter val="Tags"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/docs/newRPL Command Database.xlsx
+++ b/docs/newRPL Command Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="828">
   <si>
     <t>!</t>
   </si>
@@ -2948,12 +2948,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:G783"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D223" sqref="D223"/>
+      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2973,7 +2972,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7">
         <f>COUNTA(D6:D1001)</f>
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>823</v>
@@ -2989,7 +2988,7 @@
       </c>
       <c r="D3" s="8">
         <f>D2/F2</f>
-        <v>0.12339331619537275</v>
+        <v>0.14267352185089974</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
@@ -3018,7 +3017,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -3035,9 +3034,9 @@
       <c r="F6" s="10"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="7" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="10">
-        <f t="shared" ref="A7:A70" si="0">A6+1</f>
+        <f>A6+1</f>
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3053,9 +3052,9 @@
       <c r="F7" s="10"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="8" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A8" s="10">
-        <f t="shared" si="0"/>
+        <f>A7+1</f>
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -3069,9 +3068,9 @@
       <c r="F8" s="10"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="10">
-        <f t="shared" si="0"/>
+        <f>A8+1</f>
         <v>4</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -3085,9 +3084,9 @@
       <c r="F9" s="10"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="10" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="10">
-        <f t="shared" si="0"/>
+        <f>A9+1</f>
         <v>5</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -3101,9 +3100,9 @@
       <c r="F10" s="10"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="10">
-        <f t="shared" si="0"/>
+        <f>A10+1</f>
         <v>6</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -3117,9 +3116,9 @@
       <c r="F11" s="10"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="10">
-        <f t="shared" si="0"/>
+        <f>A11+1</f>
         <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -3135,9 +3134,9 @@
       <c r="F12" s="10"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A13" s="10">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>8</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -3153,9 +3152,9 @@
       <c r="F13" s="10"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="10">
-        <f t="shared" si="0"/>
+        <f>A13+1</f>
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -3171,9 +3170,9 @@
       <c r="F14" s="10"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="15" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A15" s="10">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>10</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -3189,9 +3188,9 @@
       <c r="F15" s="10"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="10">
-        <f t="shared" si="0"/>
+        <f>A15+1</f>
         <v>11</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -3205,9 +3204,9 @@
       <c r="F16" s="10"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="17" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="10">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>12</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -3221,9 +3220,9 @@
       <c r="F17" s="10"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="18" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="10">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>13</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -3239,9 +3238,9 @@
       <c r="F18" s="10"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="19" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="10">
-        <f t="shared" si="0"/>
+        <f>A18+1</f>
         <v>14</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -3257,9 +3256,9 @@
       <c r="F19" s="10"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="20" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A20" s="10">
-        <f t="shared" si="0"/>
+        <f>A19+1</f>
         <v>15</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -3273,9 +3272,9 @@
       <c r="F20" s="10"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="21" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="10">
-        <f t="shared" si="0"/>
+        <f>A20+1</f>
         <v>16</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -3291,9 +3290,9 @@
       <c r="F21" s="10"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="22" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A22" s="10">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>17</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -3309,9 +3308,9 @@
       <c r="F22" s="10"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="23" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A23" s="10">
-        <f t="shared" si="0"/>
+        <f>A22+1</f>
         <v>18</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -3327,9 +3326,9 @@
       <c r="F23" s="10"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="24" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A24" s="10">
-        <f t="shared" si="0"/>
+        <f>A23+1</f>
         <v>19</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -3345,9 +3344,9 @@
       <c r="F24" s="10"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A25" s="10">
-        <f t="shared" si="0"/>
+        <f>A24+1</f>
         <v>20</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -3363,9 +3362,9 @@
       <c r="F25" s="10"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A26" s="10">
-        <f t="shared" si="0"/>
+        <f>A25+1</f>
         <v>21</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -3379,9 +3378,9 @@
       <c r="F26" s="10"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="27" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A27" s="10">
-        <f t="shared" si="0"/>
+        <f>A26+1</f>
         <v>22</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -3397,9 +3396,9 @@
       <c r="F27" s="10"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="28" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A28" s="10">
-        <f t="shared" si="0"/>
+        <f>A27+1</f>
         <v>23</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -3413,9 +3412,9 @@
       <c r="F28" s="10"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="29" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A29" s="10">
-        <f t="shared" si="0"/>
+        <f>A28+1</f>
         <v>24</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -3431,9 +3430,9 @@
       <c r="F29" s="10"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="30" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A30" s="10">
-        <f t="shared" si="0"/>
+        <f>A29+1</f>
         <v>25</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -3449,9 +3448,9 @@
       <c r="F30" s="10"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="31" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A31" s="10">
-        <f t="shared" si="0"/>
+        <f>A30+1</f>
         <v>26</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -3465,9 +3464,9 @@
       <c r="F31" s="10"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="32" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="10">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
         <v>27</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -3481,9 +3480,9 @@
       <c r="F32" s="10"/>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="33" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A33" s="10">
-        <f t="shared" si="0"/>
+        <f>A32+1</f>
         <v>28</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -3499,9 +3498,9 @@
       <c r="F33" s="10"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="34" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A34" s="10">
-        <f t="shared" si="0"/>
+        <f>A33+1</f>
         <v>29</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -3515,9 +3514,9 @@
       <c r="F34" s="10"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A35" s="10">
-        <f t="shared" si="0"/>
+        <f>A34+1</f>
         <v>30</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -3531,9 +3530,9 @@
       <c r="F35" s="10"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="36" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A36" s="10">
-        <f t="shared" si="0"/>
+        <f>A35+1</f>
         <v>31</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -3547,9 +3546,9 @@
       <c r="F36" s="10"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="37" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A37" s="10">
-        <f t="shared" si="0"/>
+        <f>A36+1</f>
         <v>32</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -3563,9 +3562,9 @@
       <c r="F37" s="10"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="38" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A38" s="10">
-        <f t="shared" si="0"/>
+        <f>A37+1</f>
         <v>33</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -3579,9 +3578,9 @@
       <c r="F38" s="10"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="39" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A39" s="10">
-        <f t="shared" si="0"/>
+        <f>A38+1</f>
         <v>34</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -3595,9 +3594,9 @@
       <c r="F39" s="10"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="40" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A40" s="10">
-        <f t="shared" si="0"/>
+        <f>A39+1</f>
         <v>35</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -3611,9 +3610,9 @@
       <c r="F40" s="10"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="41" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A41" s="10">
-        <f t="shared" si="0"/>
+        <f>A40+1</f>
         <v>36</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -3627,9 +3626,9 @@
       <c r="F41" s="10"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="42" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A42" s="10">
-        <f t="shared" si="0"/>
+        <f>A41+1</f>
         <v>37</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -3643,9 +3642,9 @@
       <c r="F42" s="10"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="43" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A43" s="10">
-        <f t="shared" si="0"/>
+        <f>A42+1</f>
         <v>38</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -3659,9 +3658,9 @@
       <c r="F43" s="10"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="44" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A44" s="10">
-        <f t="shared" si="0"/>
+        <f>A43+1</f>
         <v>39</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -3675,9 +3674,9 @@
       <c r="F44" s="10"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="45" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A45" s="10">
-        <f t="shared" si="0"/>
+        <f>A44+1</f>
         <v>40</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -3693,9 +3692,9 @@
       <c r="F45" s="10"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="46" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A46" s="10">
-        <f t="shared" si="0"/>
+        <f>A45+1</f>
         <v>41</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -3709,9 +3708,9 @@
       <c r="F46" s="10"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="47" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A47" s="10">
-        <f t="shared" si="0"/>
+        <f>A46+1</f>
         <v>42</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -3725,9 +3724,9 @@
       <c r="F47" s="10"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="48" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A48" s="10">
-        <f t="shared" si="0"/>
+        <f>A47+1</f>
         <v>43</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -3741,9 +3740,9 @@
       <c r="F48" s="10"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="49" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A49" s="10">
-        <f t="shared" si="0"/>
+        <f>A48+1</f>
         <v>44</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -3757,9 +3756,9 @@
       <c r="F49" s="10"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="50" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A50" s="10">
-        <f t="shared" si="0"/>
+        <f>A49+1</f>
         <v>45</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -3773,9 +3772,9 @@
       <c r="F50" s="10"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="51" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A51" s="10">
-        <f t="shared" si="0"/>
+        <f>A50+1</f>
         <v>46</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -3789,9 +3788,9 @@
       <c r="F51" s="10"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="52" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A52" s="10">
-        <f t="shared" si="0"/>
+        <f>A51+1</f>
         <v>47</v>
       </c>
       <c r="B52" s="11" t="s">
@@ -3809,7 +3808,7 @@
     </row>
     <row r="53" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A53" s="10">
-        <f t="shared" si="0"/>
+        <f>A52+1</f>
         <v>48</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -3823,9 +3822,9 @@
       <c r="F53" s="10"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="54" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A54" s="10">
-        <f t="shared" si="0"/>
+        <f>A53+1</f>
         <v>49</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -3839,9 +3838,9 @@
       <c r="F54" s="10"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="55" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A55" s="10">
-        <f t="shared" si="0"/>
+        <f>A54+1</f>
         <v>50</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -3855,9 +3854,9 @@
       <c r="F55" s="10"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="56" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A56" s="10">
-        <f t="shared" si="0"/>
+        <f>A55+1</f>
         <v>51</v>
       </c>
       <c r="B56" s="11" t="s">
@@ -3871,9 +3870,9 @@
       <c r="F56" s="10"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="57" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A57" s="10">
-        <f t="shared" si="0"/>
+        <f>A56+1</f>
         <v>52</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -3887,9 +3886,9 @@
       <c r="F57" s="10"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="58" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A58" s="10">
-        <f t="shared" si="0"/>
+        <f>A57+1</f>
         <v>53</v>
       </c>
       <c r="B58" s="11" t="s">
@@ -3903,9 +3902,9 @@
       <c r="F58" s="10"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="59" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A59" s="10">
-        <f t="shared" si="0"/>
+        <f>A58+1</f>
         <v>54</v>
       </c>
       <c r="B59" s="11" t="s">
@@ -3919,9 +3918,9 @@
       <c r="F59" s="10"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="60" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A60" s="10">
-        <f t="shared" si="0"/>
+        <f>A59+1</f>
         <v>55</v>
       </c>
       <c r="B60" s="11" t="s">
@@ -3935,9 +3934,9 @@
       <c r="F60" s="10"/>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="61" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A61" s="10">
-        <f t="shared" si="0"/>
+        <f>A60+1</f>
         <v>56</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -3951,9 +3950,9 @@
       <c r="F61" s="10"/>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="62" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A62" s="10">
-        <f t="shared" si="0"/>
+        <f>A61+1</f>
         <v>57</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -3967,9 +3966,9 @@
       <c r="F62" s="10"/>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="63" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A63" s="10">
-        <f t="shared" si="0"/>
+        <f>A62+1</f>
         <v>58</v>
       </c>
       <c r="B63" s="11" t="s">
@@ -3985,9 +3984,9 @@
       <c r="F63" s="10"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="64" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A64" s="10">
-        <f t="shared" si="0"/>
+        <f>A63+1</f>
         <v>59</v>
       </c>
       <c r="B64" s="11" t="s">
@@ -4001,9 +4000,9 @@
       <c r="F64" s="10"/>
       <c r="G64" s="12"/>
     </row>
-    <row r="65" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="65" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A65" s="10">
-        <f t="shared" si="0"/>
+        <f>A64+1</f>
         <v>60</v>
       </c>
       <c r="B65" s="11" t="s">
@@ -4017,9 +4016,9 @@
       <c r="F65" s="10"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="66" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A66" s="10">
-        <f t="shared" si="0"/>
+        <f>A65+1</f>
         <v>61</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -4035,9 +4034,9 @@
       <c r="F66" s="10"/>
       <c r="G66" s="12"/>
     </row>
-    <row r="67" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="67" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A67" s="10">
-        <f t="shared" si="0"/>
+        <f>A66+1</f>
         <v>62</v>
       </c>
       <c r="B67" s="11" t="s">
@@ -4051,9 +4050,9 @@
       <c r="F67" s="10"/>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="68" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A68" s="10">
-        <f t="shared" si="0"/>
+        <f>A67+1</f>
         <v>63</v>
       </c>
       <c r="B68" s="11" t="s">
@@ -4069,9 +4068,9 @@
       <c r="F68" s="10"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="69" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A69" s="10">
-        <f t="shared" si="0"/>
+        <f>A68+1</f>
         <v>64</v>
       </c>
       <c r="B69" s="11" t="s">
@@ -4087,9 +4086,9 @@
       <c r="F69" s="10"/>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="70" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A70" s="10">
-        <f t="shared" si="0"/>
+        <f>A69+1</f>
         <v>65</v>
       </c>
       <c r="B70" s="11" t="s">
@@ -4103,9 +4102,9 @@
       <c r="F70" s="10"/>
       <c r="G70" s="12"/>
     </row>
-    <row r="71" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="71" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A71" s="10">
-        <f t="shared" ref="A71:A134" si="1">A70+1</f>
+        <f>A70+1</f>
         <v>66</v>
       </c>
       <c r="B71" s="11" t="s">
@@ -4119,9 +4118,9 @@
       <c r="F71" s="10"/>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="72" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A72" s="10">
-        <f t="shared" si="1"/>
+        <f>A71+1</f>
         <v>67</v>
       </c>
       <c r="B72" s="11" t="s">
@@ -4135,9 +4134,9 @@
       <c r="F72" s="10"/>
       <c r="G72" s="12"/>
     </row>
-    <row r="73" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="73" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A73" s="10">
-        <f t="shared" si="1"/>
+        <f>A72+1</f>
         <v>68</v>
       </c>
       <c r="B73" s="11" t="s">
@@ -4151,9 +4150,9 @@
       <c r="F73" s="10"/>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="74" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A74" s="10">
-        <f t="shared" si="1"/>
+        <f>A73+1</f>
         <v>69</v>
       </c>
       <c r="B74" s="11" t="s">
@@ -4167,9 +4166,9 @@
       <c r="F74" s="10"/>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="75" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A75" s="10">
-        <f t="shared" si="1"/>
+        <f>A74+1</f>
         <v>70</v>
       </c>
       <c r="B75" s="11" t="s">
@@ -4185,9 +4184,9 @@
       <c r="F75" s="10"/>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="76" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A76" s="10">
-        <f t="shared" si="1"/>
+        <f>A75+1</f>
         <v>71</v>
       </c>
       <c r="B76" s="11" t="s">
@@ -4201,9 +4200,9 @@
       <c r="F76" s="10"/>
       <c r="G76" s="12"/>
     </row>
-    <row r="77" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="77" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A77" s="10">
-        <f t="shared" si="1"/>
+        <f>A76+1</f>
         <v>72</v>
       </c>
       <c r="B77" s="11" t="s">
@@ -4217,9 +4216,9 @@
       <c r="F77" s="10"/>
       <c r="G77" s="12"/>
     </row>
-    <row r="78" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="78" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A78" s="10">
-        <f t="shared" si="1"/>
+        <f>A77+1</f>
         <v>73</v>
       </c>
       <c r="B78" s="11" t="s">
@@ -4233,9 +4232,9 @@
       <c r="F78" s="10"/>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="79" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A79" s="10">
-        <f t="shared" si="1"/>
+        <f>A78+1</f>
         <v>74</v>
       </c>
       <c r="B79" s="11" t="s">
@@ -4249,9 +4248,9 @@
       <c r="F79" s="10"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="80" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A80" s="10">
-        <f t="shared" si="1"/>
+        <f>A79+1</f>
         <v>75</v>
       </c>
       <c r="B80" s="11" t="s">
@@ -4265,9 +4264,9 @@
       <c r="F80" s="10"/>
       <c r="G80" s="12"/>
     </row>
-    <row r="81" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="81" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A81" s="10">
-        <f t="shared" si="1"/>
+        <f>A80+1</f>
         <v>76</v>
       </c>
       <c r="B81" s="11" t="s">
@@ -4281,9 +4280,9 @@
       <c r="F81" s="10"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="82" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A82" s="10">
-        <f t="shared" si="1"/>
+        <f>A81+1</f>
         <v>77</v>
       </c>
       <c r="B82" s="11" t="s">
@@ -4299,9 +4298,9 @@
       <c r="F82" s="10"/>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="83" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A83" s="10">
-        <f t="shared" si="1"/>
+        <f>A82+1</f>
         <v>78</v>
       </c>
       <c r="B83" s="11" t="s">
@@ -4315,9 +4314,9 @@
       <c r="F83" s="10"/>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="84" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A84" s="10">
-        <f t="shared" si="1"/>
+        <f>A83+1</f>
         <v>79</v>
       </c>
       <c r="B84" s="11" t="s">
@@ -4331,9 +4330,9 @@
       <c r="F84" s="10"/>
       <c r="G84" s="12"/>
     </row>
-    <row r="85" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="85" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A85" s="10">
-        <f t="shared" si="1"/>
+        <f>A84+1</f>
         <v>80</v>
       </c>
       <c r="B85" s="11" t="s">
@@ -4347,9 +4346,9 @@
       <c r="F85" s="10"/>
       <c r="G85" s="12"/>
     </row>
-    <row r="86" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="86" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A86" s="10">
-        <f t="shared" si="1"/>
+        <f>A85+1</f>
         <v>81</v>
       </c>
       <c r="B86" s="11" t="s">
@@ -4365,9 +4364,9 @@
       <c r="F86" s="10"/>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="87" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A87" s="10">
-        <f t="shared" si="1"/>
+        <f>A86+1</f>
         <v>82</v>
       </c>
       <c r="B87" s="11" t="s">
@@ -4381,9 +4380,9 @@
       <c r="F87" s="10"/>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="88" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A88" s="10">
-        <f t="shared" si="1"/>
+        <f>A87+1</f>
         <v>83</v>
       </c>
       <c r="B88" s="11" t="s">
@@ -4397,9 +4396,9 @@
       <c r="F88" s="10"/>
       <c r="G88" s="12"/>
     </row>
-    <row r="89" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="89" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A89" s="10">
-        <f t="shared" si="1"/>
+        <f>A88+1</f>
         <v>84</v>
       </c>
       <c r="B89" s="11" t="s">
@@ -4415,9 +4414,9 @@
       <c r="F89" s="10"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="90" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A90" s="10">
-        <f t="shared" si="1"/>
+        <f>A89+1</f>
         <v>85</v>
       </c>
       <c r="B90" s="11" t="s">
@@ -4431,9 +4430,9 @@
       <c r="F90" s="10"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="91" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A91" s="10">
-        <f t="shared" si="1"/>
+        <f>A90+1</f>
         <v>86</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -4447,9 +4446,9 @@
       <c r="F91" s="10"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="92" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A92" s="10">
-        <f t="shared" si="1"/>
+        <f>A91+1</f>
         <v>87</v>
       </c>
       <c r="B92" s="11" t="s">
@@ -4463,9 +4462,9 @@
       <c r="F92" s="10"/>
       <c r="G92" s="12"/>
     </row>
-    <row r="93" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="93" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A93" s="10">
-        <f t="shared" si="1"/>
+        <f>A92+1</f>
         <v>88</v>
       </c>
       <c r="B93" s="11" t="s">
@@ -4479,9 +4478,9 @@
       <c r="F93" s="10"/>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="94" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A94" s="10">
-        <f t="shared" si="1"/>
+        <f>A93+1</f>
         <v>89</v>
       </c>
       <c r="B94" s="11" t="s">
@@ -4495,9 +4494,9 @@
       <c r="F94" s="10"/>
       <c r="G94" s="12"/>
     </row>
-    <row r="95" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="95" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A95" s="10">
-        <f t="shared" si="1"/>
+        <f>A94+1</f>
         <v>90</v>
       </c>
       <c r="B95" s="11" t="s">
@@ -4511,9 +4510,9 @@
       <c r="F95" s="10"/>
       <c r="G95" s="12"/>
     </row>
-    <row r="96" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="96" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A96" s="10">
-        <f t="shared" si="1"/>
+        <f>A95+1</f>
         <v>91</v>
       </c>
       <c r="B96" s="11" t="s">
@@ -4527,9 +4526,9 @@
       <c r="F96" s="10"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="97" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A97" s="10">
-        <f t="shared" si="1"/>
+        <f>A96+1</f>
         <v>92</v>
       </c>
       <c r="B97" s="11" t="s">
@@ -4545,9 +4544,9 @@
       <c r="F97" s="10"/>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="98" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A98" s="10">
-        <f t="shared" si="1"/>
+        <f>A97+1</f>
         <v>93</v>
       </c>
       <c r="B98" s="11" t="s">
@@ -4561,9 +4560,9 @@
       <c r="F98" s="10"/>
       <c r="G98" s="12"/>
     </row>
-    <row r="99" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="99" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A99" s="10">
-        <f t="shared" si="1"/>
+        <f>A98+1</f>
         <v>94</v>
       </c>
       <c r="B99" s="11" t="s">
@@ -4579,9 +4578,9 @@
       <c r="F99" s="10"/>
       <c r="G99" s="12"/>
     </row>
-    <row r="100" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="100" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A100" s="10">
-        <f t="shared" si="1"/>
+        <f>A99+1</f>
         <v>95</v>
       </c>
       <c r="B100" s="11" t="s">
@@ -4595,9 +4594,9 @@
       <c r="F100" s="10"/>
       <c r="G100" s="12"/>
     </row>
-    <row r="101" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="101" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A101" s="10">
-        <f t="shared" si="1"/>
+        <f>A100+1</f>
         <v>96</v>
       </c>
       <c r="B101" s="11" t="s">
@@ -4611,9 +4610,9 @@
       <c r="F101" s="10"/>
       <c r="G101" s="12"/>
     </row>
-    <row r="102" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="102" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A102" s="10">
-        <f t="shared" si="1"/>
+        <f>A101+1</f>
         <v>97</v>
       </c>
       <c r="B102" s="11" t="s">
@@ -4627,9 +4626,9 @@
       <c r="F102" s="10"/>
       <c r="G102" s="12"/>
     </row>
-    <row r="103" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="103" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A103" s="10">
-        <f t="shared" si="1"/>
+        <f>A102+1</f>
         <v>98</v>
       </c>
       <c r="B103" s="11" t="s">
@@ -4643,9 +4642,9 @@
       <c r="F103" s="10"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="104" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A104" s="10">
-        <f t="shared" si="1"/>
+        <f>A103+1</f>
         <v>99</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -4659,9 +4658,9 @@
       <c r="F104" s="10"/>
       <c r="G104" s="12"/>
     </row>
-    <row r="105" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="105" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A105" s="10">
-        <f t="shared" si="1"/>
+        <f>A104+1</f>
         <v>100</v>
       </c>
       <c r="B105" s="11" t="s">
@@ -4675,9 +4674,9 @@
       <c r="F105" s="10"/>
       <c r="G105" s="12"/>
     </row>
-    <row r="106" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="106" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A106" s="10">
-        <f t="shared" si="1"/>
+        <f>A105+1</f>
         <v>101</v>
       </c>
       <c r="B106" s="11" t="s">
@@ -4691,9 +4690,9 @@
       <c r="F106" s="10"/>
       <c r="G106" s="12"/>
     </row>
-    <row r="107" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="107" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A107" s="10">
-        <f t="shared" si="1"/>
+        <f>A106+1</f>
         <v>102</v>
       </c>
       <c r="B107" s="11" t="s">
@@ -4707,9 +4706,9 @@
       <c r="F107" s="10"/>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="108" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A108" s="10">
-        <f t="shared" si="1"/>
+        <f>A107+1</f>
         <v>103</v>
       </c>
       <c r="B108" s="11" t="s">
@@ -4723,9 +4722,9 @@
       <c r="F108" s="10"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="109" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A109" s="10">
-        <f t="shared" si="1"/>
+        <f>A108+1</f>
         <v>104</v>
       </c>
       <c r="B109" s="11" t="s">
@@ -4739,9 +4738,9 @@
       <c r="F109" s="10"/>
       <c r="G109" s="12"/>
     </row>
-    <row r="110" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="110" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A110" s="10">
-        <f t="shared" si="1"/>
+        <f>A109+1</f>
         <v>105</v>
       </c>
       <c r="B110" s="11" t="s">
@@ -4755,9 +4754,9 @@
       <c r="F110" s="10"/>
       <c r="G110" s="12"/>
     </row>
-    <row r="111" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="111" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A111" s="10">
-        <f t="shared" si="1"/>
+        <f>A110+1</f>
         <v>106</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -4771,9 +4770,9 @@
       <c r="F111" s="10"/>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="112" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A112" s="10">
-        <f t="shared" si="1"/>
+        <f>A111+1</f>
         <v>107</v>
       </c>
       <c r="B112" s="11" t="s">
@@ -4787,9 +4786,9 @@
       <c r="F112" s="10"/>
       <c r="G112" s="12"/>
     </row>
-    <row r="113" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="113" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A113" s="10">
-        <f t="shared" si="1"/>
+        <f>A112+1</f>
         <v>108</v>
       </c>
       <c r="B113" s="11" t="s">
@@ -4803,9 +4802,9 @@
       <c r="F113" s="10"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="114" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A114" s="10">
-        <f t="shared" si="1"/>
+        <f>A113+1</f>
         <v>109</v>
       </c>
       <c r="B114" s="11" t="s">
@@ -4819,9 +4818,9 @@
       <c r="F114" s="10"/>
       <c r="G114" s="12"/>
     </row>
-    <row r="115" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="115" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A115" s="10">
-        <f t="shared" si="1"/>
+        <f>A114+1</f>
         <v>110</v>
       </c>
       <c r="B115" s="11" t="s">
@@ -4835,9 +4834,9 @@
       <c r="F115" s="10"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="116" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A116" s="10">
-        <f t="shared" si="1"/>
+        <f>A115+1</f>
         <v>111</v>
       </c>
       <c r="B116" s="11" t="s">
@@ -4851,9 +4850,9 @@
       <c r="F116" s="10"/>
       <c r="G116" s="12"/>
     </row>
-    <row r="117" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="117" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A117" s="10">
-        <f t="shared" si="1"/>
+        <f>A116+1</f>
         <v>112</v>
       </c>
       <c r="B117" s="11" t="s">
@@ -4867,9 +4866,9 @@
       <c r="F117" s="10"/>
       <c r="G117" s="12"/>
     </row>
-    <row r="118" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="118" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A118" s="10">
-        <f t="shared" si="1"/>
+        <f>A117+1</f>
         <v>113</v>
       </c>
       <c r="B118" s="11" t="s">
@@ -4883,9 +4882,9 @@
       <c r="F118" s="10"/>
       <c r="G118" s="12"/>
     </row>
-    <row r="119" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="119" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A119" s="10">
-        <f t="shared" si="1"/>
+        <f>A118+1</f>
         <v>114</v>
       </c>
       <c r="B119" s="11" t="s">
@@ -4899,9 +4898,9 @@
       <c r="F119" s="10"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="120" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A120" s="10">
-        <f t="shared" si="1"/>
+        <f>A119+1</f>
         <v>115</v>
       </c>
       <c r="B120" s="11" t="s">
@@ -4915,9 +4914,9 @@
       <c r="F120" s="10"/>
       <c r="G120" s="12"/>
     </row>
-    <row r="121" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="121" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A121" s="10">
-        <f t="shared" si="1"/>
+        <f>A120+1</f>
         <v>116</v>
       </c>
       <c r="B121" s="11" t="s">
@@ -4931,9 +4930,9 @@
       <c r="F121" s="10"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="122" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A122" s="10">
-        <f t="shared" si="1"/>
+        <f>A121+1</f>
         <v>117</v>
       </c>
       <c r="B122" s="11" t="s">
@@ -4947,9 +4946,9 @@
       <c r="F122" s="10"/>
       <c r="G122" s="12"/>
     </row>
-    <row r="123" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="123" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A123" s="10">
-        <f t="shared" si="1"/>
+        <f>A122+1</f>
         <v>118</v>
       </c>
       <c r="B123" s="11" t="s">
@@ -4965,9 +4964,9 @@
       <c r="F123" s="10"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="124" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A124" s="10">
-        <f t="shared" si="1"/>
+        <f>A123+1</f>
         <v>119</v>
       </c>
       <c r="B124" s="11" t="s">
@@ -4981,9 +4980,9 @@
       <c r="F124" s="10"/>
       <c r="G124" s="12"/>
     </row>
-    <row r="125" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="125" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A125" s="10">
-        <f t="shared" si="1"/>
+        <f>A124+1</f>
         <v>120</v>
       </c>
       <c r="B125" s="11" t="s">
@@ -4997,9 +4996,9 @@
       <c r="F125" s="10"/>
       <c r="G125" s="12"/>
     </row>
-    <row r="126" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="126" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A126" s="10">
-        <f t="shared" si="1"/>
+        <f>A125+1</f>
         <v>121</v>
       </c>
       <c r="B126" s="11" t="s">
@@ -5013,9 +5012,9 @@
       <c r="F126" s="10"/>
       <c r="G126" s="12"/>
     </row>
-    <row r="127" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="127" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A127" s="10">
-        <f t="shared" si="1"/>
+        <f>A126+1</f>
         <v>122</v>
       </c>
       <c r="B127" s="11" t="s">
@@ -5031,9 +5030,9 @@
       <c r="F127" s="10"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="128" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A128" s="10">
-        <f t="shared" si="1"/>
+        <f>A127+1</f>
         <v>123</v>
       </c>
       <c r="B128" s="11" t="s">
@@ -5049,9 +5048,9 @@
       <c r="F128" s="10"/>
       <c r="G128" s="12"/>
     </row>
-    <row r="129" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="129" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A129" s="10">
-        <f t="shared" si="1"/>
+        <f>A128+1</f>
         <v>124</v>
       </c>
       <c r="B129" s="11" t="s">
@@ -5065,9 +5064,9 @@
       <c r="F129" s="10"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="130" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A130" s="10">
-        <f t="shared" si="1"/>
+        <f>A129+1</f>
         <v>125</v>
       </c>
       <c r="B130" s="11" t="s">
@@ -5081,9 +5080,9 @@
       <c r="F130" s="10"/>
       <c r="G130" s="12"/>
     </row>
-    <row r="131" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="131" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A131" s="10">
-        <f t="shared" si="1"/>
+        <f>A130+1</f>
         <v>126</v>
       </c>
       <c r="B131" s="11" t="s">
@@ -5097,9 +5096,9 @@
       <c r="F131" s="10"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="132" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A132" s="10">
-        <f t="shared" si="1"/>
+        <f>A131+1</f>
         <v>127</v>
       </c>
       <c r="B132" s="11" t="s">
@@ -5113,9 +5112,9 @@
       <c r="F132" s="10"/>
       <c r="G132" s="12"/>
     </row>
-    <row r="133" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="133" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A133" s="10">
-        <f t="shared" si="1"/>
+        <f>A132+1</f>
         <v>128</v>
       </c>
       <c r="B133" s="11" t="s">
@@ -5129,9 +5128,9 @@
       <c r="F133" s="10"/>
       <c r="G133" s="12"/>
     </row>
-    <row r="134" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="134" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A134" s="10">
-        <f t="shared" si="1"/>
+        <f>A133+1</f>
         <v>129</v>
       </c>
       <c r="B134" s="11" t="s">
@@ -5145,9 +5144,9 @@
       <c r="F134" s="10"/>
       <c r="G134" s="12"/>
     </row>
-    <row r="135" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="135" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A135" s="10">
-        <f t="shared" ref="A135:A198" si="2">A134+1</f>
+        <f>A134+1</f>
         <v>130</v>
       </c>
       <c r="B135" s="11" t="s">
@@ -5161,9 +5160,9 @@
       <c r="F135" s="10"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="136" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A136" s="10">
-        <f t="shared" si="2"/>
+        <f>A135+1</f>
         <v>131</v>
       </c>
       <c r="B136" s="11" t="s">
@@ -5177,9 +5176,9 @@
       <c r="F136" s="10"/>
       <c r="G136" s="12"/>
     </row>
-    <row r="137" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="137" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A137" s="10">
-        <f t="shared" si="2"/>
+        <f>A136+1</f>
         <v>132</v>
       </c>
       <c r="B137" s="11" t="s">
@@ -5195,9 +5194,9 @@
       <c r="F137" s="10"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="138" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A138" s="10">
-        <f t="shared" si="2"/>
+        <f>A137+1</f>
         <v>133</v>
       </c>
       <c r="B138" s="11" t="s">
@@ -5211,9 +5210,9 @@
       <c r="F138" s="10"/>
       <c r="G138" s="12"/>
     </row>
-    <row r="139" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="139" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A139" s="10">
-        <f t="shared" si="2"/>
+        <f>A138+1</f>
         <v>134</v>
       </c>
       <c r="B139" s="11" t="s">
@@ -5227,9 +5226,9 @@
       <c r="F139" s="10"/>
       <c r="G139" s="12"/>
     </row>
-    <row r="140" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="140" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A140" s="10">
-        <f t="shared" si="2"/>
+        <f>A139+1</f>
         <v>135</v>
       </c>
       <c r="B140" s="11" t="s">
@@ -5243,9 +5242,9 @@
       <c r="F140" s="10"/>
       <c r="G140" s="12"/>
     </row>
-    <row r="141" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="141" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A141" s="10">
-        <f t="shared" si="2"/>
+        <f>A140+1</f>
         <v>136</v>
       </c>
       <c r="B141" s="11" t="s">
@@ -5259,9 +5258,9 @@
       <c r="F141" s="10"/>
       <c r="G141" s="12"/>
     </row>
-    <row r="142" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="142" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A142" s="10">
-        <f t="shared" si="2"/>
+        <f>A141+1</f>
         <v>137</v>
       </c>
       <c r="B142" s="11" t="s">
@@ -5275,9 +5274,9 @@
       <c r="F142" s="10"/>
       <c r="G142" s="12"/>
     </row>
-    <row r="143" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="143" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A143" s="10">
-        <f t="shared" si="2"/>
+        <f>A142+1</f>
         <v>138</v>
       </c>
       <c r="B143" s="11" t="s">
@@ -5291,9 +5290,9 @@
       <c r="F143" s="10"/>
       <c r="G143" s="12"/>
     </row>
-    <row r="144" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="144" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A144" s="10">
-        <f t="shared" si="2"/>
+        <f>A143+1</f>
         <v>139</v>
       </c>
       <c r="B144" s="11" t="s">
@@ -5307,9 +5306,9 @@
       <c r="F144" s="10"/>
       <c r="G144" s="12"/>
     </row>
-    <row r="145" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="145" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A145" s="10">
-        <f t="shared" si="2"/>
+        <f>A144+1</f>
         <v>140</v>
       </c>
       <c r="B145" s="11" t="s">
@@ -5323,9 +5322,9 @@
       <c r="F145" s="10"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="146" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A146" s="10">
-        <f t="shared" si="2"/>
+        <f>A145+1</f>
         <v>141</v>
       </c>
       <c r="B146" s="11" t="s">
@@ -5339,9 +5338,9 @@
       <c r="F146" s="10"/>
       <c r="G146" s="12"/>
     </row>
-    <row r="147" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="147" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A147" s="10">
-        <f t="shared" si="2"/>
+        <f>A146+1</f>
         <v>142</v>
       </c>
       <c r="B147" s="11" t="s">
@@ -5355,9 +5354,9 @@
       <c r="F147" s="10"/>
       <c r="G147" s="12"/>
     </row>
-    <row r="148" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="148" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A148" s="10">
-        <f t="shared" si="2"/>
+        <f>A147+1</f>
         <v>143</v>
       </c>
       <c r="B148" s="11" t="s">
@@ -5371,9 +5370,9 @@
       <c r="F148" s="10"/>
       <c r="G148" s="12"/>
     </row>
-    <row r="149" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="149" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A149" s="10">
-        <f t="shared" si="2"/>
+        <f>A148+1</f>
         <v>144</v>
       </c>
       <c r="B149" s="11" t="s">
@@ -5387,9 +5386,9 @@
       <c r="F149" s="10"/>
       <c r="G149" s="12"/>
     </row>
-    <row r="150" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="150" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A150" s="10">
-        <f t="shared" si="2"/>
+        <f>A149+1</f>
         <v>145</v>
       </c>
       <c r="B150" s="11" t="s">
@@ -5403,9 +5402,9 @@
       <c r="F150" s="10"/>
       <c r="G150" s="12"/>
     </row>
-    <row r="151" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="151" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A151" s="10">
-        <f t="shared" si="2"/>
+        <f>A150+1</f>
         <v>146</v>
       </c>
       <c r="B151" s="11" t="s">
@@ -5419,9 +5418,9 @@
       <c r="F151" s="10"/>
       <c r="G151" s="12"/>
     </row>
-    <row r="152" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="152" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A152" s="10">
-        <f t="shared" si="2"/>
+        <f>A151+1</f>
         <v>147</v>
       </c>
       <c r="B152" s="11" t="s">
@@ -5435,9 +5434,9 @@
       <c r="F152" s="10"/>
       <c r="G152" s="12"/>
     </row>
-    <row r="153" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="153" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A153" s="10">
-        <f t="shared" si="2"/>
+        <f>A152+1</f>
         <v>148</v>
       </c>
       <c r="B153" s="11" t="s">
@@ -5451,9 +5450,9 @@
       <c r="F153" s="10"/>
       <c r="G153" s="12"/>
     </row>
-    <row r="154" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="154" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A154" s="10">
-        <f t="shared" si="2"/>
+        <f>A153+1</f>
         <v>149</v>
       </c>
       <c r="B154" s="11" t="s">
@@ -5467,9 +5466,9 @@
       <c r="F154" s="10"/>
       <c r="G154" s="12"/>
     </row>
-    <row r="155" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="155" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A155" s="10">
-        <f t="shared" si="2"/>
+        <f>A154+1</f>
         <v>150</v>
       </c>
       <c r="B155" s="11" t="s">
@@ -5485,9 +5484,9 @@
       <c r="F155" s="10"/>
       <c r="G155" s="12"/>
     </row>
-    <row r="156" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="156" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A156" s="10">
-        <f t="shared" si="2"/>
+        <f>A155+1</f>
         <v>151</v>
       </c>
       <c r="B156" s="11" t="s">
@@ -5501,9 +5500,9 @@
       <c r="F156" s="10"/>
       <c r="G156" s="12"/>
     </row>
-    <row r="157" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="157" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A157" s="10">
-        <f t="shared" si="2"/>
+        <f>A156+1</f>
         <v>152</v>
       </c>
       <c r="B157" s="11" t="s">
@@ -5517,9 +5516,9 @@
       <c r="F157" s="10"/>
       <c r="G157" s="12"/>
     </row>
-    <row r="158" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="158" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A158" s="10">
-        <f t="shared" si="2"/>
+        <f>A157+1</f>
         <v>153</v>
       </c>
       <c r="B158" s="11" t="s">
@@ -5533,9 +5532,9 @@
       <c r="F158" s="10"/>
       <c r="G158" s="12"/>
     </row>
-    <row r="159" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="159" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A159" s="10">
-        <f t="shared" si="2"/>
+        <f>A158+1</f>
         <v>154</v>
       </c>
       <c r="B159" s="11" t="s">
@@ -5549,9 +5548,9 @@
       <c r="F159" s="10"/>
       <c r="G159" s="12"/>
     </row>
-    <row r="160" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="160" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A160" s="10">
-        <f t="shared" si="2"/>
+        <f>A159+1</f>
         <v>155</v>
       </c>
       <c r="B160" s="11" t="s">
@@ -5565,9 +5564,9 @@
       <c r="F160" s="10"/>
       <c r="G160" s="12"/>
     </row>
-    <row r="161" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="161" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A161" s="10">
-        <f t="shared" si="2"/>
+        <f>A160+1</f>
         <v>156</v>
       </c>
       <c r="B161" s="11" t="s">
@@ -5581,9 +5580,9 @@
       <c r="F161" s="10"/>
       <c r="G161" s="12"/>
     </row>
-    <row r="162" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="162" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A162" s="10">
-        <f t="shared" si="2"/>
+        <f>A161+1</f>
         <v>157</v>
       </c>
       <c r="B162" s="11" t="s">
@@ -5599,9 +5598,9 @@
       <c r="F162" s="10"/>
       <c r="G162" s="12"/>
     </row>
-    <row r="163" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="163" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A163" s="10">
-        <f t="shared" si="2"/>
+        <f>A162+1</f>
         <v>158</v>
       </c>
       <c r="B163" s="11" t="s">
@@ -5617,9 +5616,9 @@
       <c r="F163" s="10"/>
       <c r="G163" s="12"/>
     </row>
-    <row r="164" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="164" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A164" s="10">
-        <f t="shared" si="2"/>
+        <f>A163+1</f>
         <v>159</v>
       </c>
       <c r="B164" s="11" t="s">
@@ -5633,9 +5632,9 @@
       <c r="F164" s="10"/>
       <c r="G164" s="12"/>
     </row>
-    <row r="165" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="165" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A165" s="10">
-        <f t="shared" si="2"/>
+        <f>A164+1</f>
         <v>160</v>
       </c>
       <c r="B165" s="11" t="s">
@@ -5649,9 +5648,9 @@
       <c r="F165" s="10"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="166" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A166" s="10">
-        <f t="shared" si="2"/>
+        <f>A165+1</f>
         <v>161</v>
       </c>
       <c r="B166" s="11" t="s">
@@ -5667,9 +5666,9 @@
       <c r="F166" s="10"/>
       <c r="G166" s="12"/>
     </row>
-    <row r="167" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="167" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A167" s="10">
-        <f t="shared" si="2"/>
+        <f>A166+1</f>
         <v>162</v>
       </c>
       <c r="B167" s="11" t="s">
@@ -5683,9 +5682,9 @@
       <c r="F167" s="10"/>
       <c r="G167" s="12"/>
     </row>
-    <row r="168" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="168" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A168" s="10">
-        <f t="shared" si="2"/>
+        <f>A167+1</f>
         <v>163</v>
       </c>
       <c r="B168" s="11" t="s">
@@ -5699,9 +5698,9 @@
       <c r="F168" s="10"/>
       <c r="G168" s="12"/>
     </row>
-    <row r="169" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="169" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A169" s="10">
-        <f t="shared" si="2"/>
+        <f>A168+1</f>
         <v>164</v>
       </c>
       <c r="B169" s="11" t="s">
@@ -5715,9 +5714,9 @@
       <c r="F169" s="10"/>
       <c r="G169" s="12"/>
     </row>
-    <row r="170" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="170" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A170" s="10">
-        <f t="shared" si="2"/>
+        <f>A169+1</f>
         <v>165</v>
       </c>
       <c r="B170" s="11" t="s">
@@ -5731,9 +5730,9 @@
       <c r="F170" s="10"/>
       <c r="G170" s="12"/>
     </row>
-    <row r="171" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="171" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A171" s="10">
-        <f t="shared" si="2"/>
+        <f>A170+1</f>
         <v>166</v>
       </c>
       <c r="B171" s="11" t="s">
@@ -5747,9 +5746,9 @@
       <c r="F171" s="10"/>
       <c r="G171" s="12"/>
     </row>
-    <row r="172" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="172" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A172" s="10">
-        <f t="shared" si="2"/>
+        <f>A171+1</f>
         <v>167</v>
       </c>
       <c r="B172" s="11" t="s">
@@ -5763,9 +5762,9 @@
       <c r="F172" s="10"/>
       <c r="G172" s="12"/>
     </row>
-    <row r="173" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="173" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A173" s="10">
-        <f t="shared" si="2"/>
+        <f>A172+1</f>
         <v>168</v>
       </c>
       <c r="B173" s="11" t="s">
@@ -5779,9 +5778,9 @@
       <c r="F173" s="10"/>
       <c r="G173" s="12"/>
     </row>
-    <row r="174" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="174" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A174" s="10">
-        <f t="shared" si="2"/>
+        <f>A173+1</f>
         <v>169</v>
       </c>
       <c r="B174" s="11" t="s">
@@ -5795,9 +5794,9 @@
       <c r="F174" s="10"/>
       <c r="G174" s="12"/>
     </row>
-    <row r="175" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="175" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A175" s="10">
-        <f t="shared" si="2"/>
+        <f>A174+1</f>
         <v>170</v>
       </c>
       <c r="B175" s="11" t="s">
@@ -5811,9 +5810,9 @@
       <c r="F175" s="10"/>
       <c r="G175" s="12"/>
     </row>
-    <row r="176" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="176" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A176" s="10">
-        <f t="shared" si="2"/>
+        <f>A175+1</f>
         <v>171</v>
       </c>
       <c r="B176" s="11" t="s">
@@ -5827,9 +5826,9 @@
       <c r="F176" s="10"/>
       <c r="G176" s="12"/>
     </row>
-    <row r="177" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="177" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A177" s="10">
-        <f t="shared" si="2"/>
+        <f>A176+1</f>
         <v>172</v>
       </c>
       <c r="B177" s="11" t="s">
@@ -5843,9 +5842,9 @@
       <c r="F177" s="10"/>
       <c r="G177" s="12"/>
     </row>
-    <row r="178" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="178" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A178" s="10">
-        <f t="shared" si="2"/>
+        <f>A177+1</f>
         <v>173</v>
       </c>
       <c r="B178" s="11" t="s">
@@ -5859,9 +5858,9 @@
       <c r="F178" s="10"/>
       <c r="G178" s="12"/>
     </row>
-    <row r="179" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="179" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A179" s="10">
-        <f t="shared" si="2"/>
+        <f>A178+1</f>
         <v>174</v>
       </c>
       <c r="B179" s="11" t="s">
@@ -5875,9 +5874,9 @@
       <c r="F179" s="10"/>
       <c r="G179" s="12"/>
     </row>
-    <row r="180" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="180" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A180" s="10">
-        <f t="shared" si="2"/>
+        <f>A179+1</f>
         <v>175</v>
       </c>
       <c r="B180" s="11" t="s">
@@ -5893,9 +5892,9 @@
       <c r="F180" s="10"/>
       <c r="G180" s="12"/>
     </row>
-    <row r="181" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="181" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A181" s="10">
-        <f t="shared" si="2"/>
+        <f>A180+1</f>
         <v>176</v>
       </c>
       <c r="B181" s="11" t="s">
@@ -5909,9 +5908,9 @@
       <c r="F181" s="10"/>
       <c r="G181" s="12"/>
     </row>
-    <row r="182" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="182" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A182" s="10">
-        <f t="shared" si="2"/>
+        <f>A181+1</f>
         <v>177</v>
       </c>
       <c r="B182" s="11" t="s">
@@ -5925,9 +5924,9 @@
       <c r="F182" s="10"/>
       <c r="G182" s="12"/>
     </row>
-    <row r="183" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="183" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A183" s="10">
-        <f t="shared" si="2"/>
+        <f>A182+1</f>
         <v>178</v>
       </c>
       <c r="B183" s="11" t="s">
@@ -5941,9 +5940,9 @@
       <c r="F183" s="10"/>
       <c r="G183" s="12"/>
     </row>
-    <row r="184" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="184" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A184" s="10">
-        <f t="shared" si="2"/>
+        <f>A183+1</f>
         <v>179</v>
       </c>
       <c r="B184" s="11" t="s">
@@ -5957,9 +5956,9 @@
       <c r="F184" s="10"/>
       <c r="G184" s="12"/>
     </row>
-    <row r="185" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="185" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A185" s="10">
-        <f t="shared" si="2"/>
+        <f>A184+1</f>
         <v>180</v>
       </c>
       <c r="B185" s="11" t="s">
@@ -5973,9 +5972,9 @@
       <c r="F185" s="10"/>
       <c r="G185" s="12"/>
     </row>
-    <row r="186" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="186" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A186" s="10">
-        <f t="shared" si="2"/>
+        <f>A185+1</f>
         <v>181</v>
       </c>
       <c r="B186" s="11" t="s">
@@ -5989,9 +5988,9 @@
       <c r="F186" s="10"/>
       <c r="G186" s="12"/>
     </row>
-    <row r="187" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="187" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A187" s="10">
-        <f t="shared" si="2"/>
+        <f>A186+1</f>
         <v>182</v>
       </c>
       <c r="B187" s="11" t="s">
@@ -6005,9 +6004,9 @@
       <c r="F187" s="10"/>
       <c r="G187" s="12"/>
     </row>
-    <row r="188" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="188" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A188" s="10">
-        <f t="shared" si="2"/>
+        <f>A187+1</f>
         <v>183</v>
       </c>
       <c r="B188" s="11" t="s">
@@ -6021,9 +6020,9 @@
       <c r="F188" s="10"/>
       <c r="G188" s="12"/>
     </row>
-    <row r="189" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="189" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A189" s="10">
-        <f t="shared" si="2"/>
+        <f>A188+1</f>
         <v>184</v>
       </c>
       <c r="B189" s="11" t="s">
@@ -6037,9 +6036,9 @@
       <c r="F189" s="10"/>
       <c r="G189" s="12"/>
     </row>
-    <row r="190" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="190" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A190" s="10">
-        <f t="shared" si="2"/>
+        <f>A189+1</f>
         <v>185</v>
       </c>
       <c r="B190" s="11" t="s">
@@ -6048,14 +6047,16 @@
       <c r="C190" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D190" s="10"/>
+      <c r="D190" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
       <c r="G190" s="12"/>
     </row>
-    <row r="191" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="191" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A191" s="10">
-        <f t="shared" si="2"/>
+        <f>A190+1</f>
         <v>186</v>
       </c>
       <c r="B191" s="11" t="s">
@@ -6069,9 +6070,9 @@
       <c r="F191" s="10"/>
       <c r="G191" s="12"/>
     </row>
-    <row r="192" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="192" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A192" s="10">
-        <f t="shared" si="2"/>
+        <f>A191+1</f>
         <v>187</v>
       </c>
       <c r="B192" s="11" t="s">
@@ -6085,9 +6086,9 @@
       <c r="F192" s="10"/>
       <c r="G192" s="12"/>
     </row>
-    <row r="193" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="193" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A193" s="10">
-        <f t="shared" si="2"/>
+        <f>A192+1</f>
         <v>188</v>
       </c>
       <c r="B193" s="11" t="s">
@@ -6101,9 +6102,9 @@
       <c r="F193" s="10"/>
       <c r="G193" s="12"/>
     </row>
-    <row r="194" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="194" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A194" s="10">
-        <f t="shared" si="2"/>
+        <f>A193+1</f>
         <v>189</v>
       </c>
       <c r="B194" s="11" t="s">
@@ -6117,9 +6118,9 @@
       <c r="F194" s="10"/>
       <c r="G194" s="12"/>
     </row>
-    <row r="195" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="195" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A195" s="10">
-        <f t="shared" si="2"/>
+        <f>A194+1</f>
         <v>190</v>
       </c>
       <c r="B195" s="11" t="s">
@@ -6133,9 +6134,9 @@
       <c r="F195" s="10"/>
       <c r="G195" s="12"/>
     </row>
-    <row r="196" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="196" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A196" s="10">
-        <f t="shared" si="2"/>
+        <f>A195+1</f>
         <v>191</v>
       </c>
       <c r="B196" s="11" t="s">
@@ -6149,9 +6150,9 @@
       <c r="F196" s="10"/>
       <c r="G196" s="12"/>
     </row>
-    <row r="197" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="197" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A197" s="10">
-        <f t="shared" si="2"/>
+        <f>A196+1</f>
         <v>192</v>
       </c>
       <c r="B197" s="11" t="s">
@@ -6165,9 +6166,9 @@
       <c r="F197" s="10"/>
       <c r="G197" s="12"/>
     </row>
-    <row r="198" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="198" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A198" s="10">
-        <f t="shared" si="2"/>
+        <f>A197+1</f>
         <v>193</v>
       </c>
       <c r="B198" s="11" t="s">
@@ -6181,9 +6182,9 @@
       <c r="F198" s="10"/>
       <c r="G198" s="12"/>
     </row>
-    <row r="199" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="199" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A199" s="10">
-        <f t="shared" ref="A199:A262" si="3">A198+1</f>
+        <f>A198+1</f>
         <v>194</v>
       </c>
       <c r="B199" s="11" t="s">
@@ -6197,9 +6198,9 @@
       <c r="F199" s="10"/>
       <c r="G199" s="12"/>
     </row>
-    <row r="200" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="200" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A200" s="10">
-        <f t="shared" si="3"/>
+        <f>A199+1</f>
         <v>195</v>
       </c>
       <c r="B200" s="11" t="s">
@@ -6213,9 +6214,9 @@
       <c r="F200" s="10"/>
       <c r="G200" s="12"/>
     </row>
-    <row r="201" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="201" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A201" s="10">
-        <f t="shared" si="3"/>
+        <f>A200+1</f>
         <v>196</v>
       </c>
       <c r="B201" s="11" t="s">
@@ -6229,9 +6230,9 @@
       <c r="F201" s="10"/>
       <c r="G201" s="12"/>
     </row>
-    <row r="202" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="202" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A202" s="10">
-        <f t="shared" si="3"/>
+        <f>A201+1</f>
         <v>197</v>
       </c>
       <c r="B202" s="11" t="s">
@@ -6245,9 +6246,9 @@
       <c r="F202" s="10"/>
       <c r="G202" s="12"/>
     </row>
-    <row r="203" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="203" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A203" s="10">
-        <f t="shared" si="3"/>
+        <f>A202+1</f>
         <v>198</v>
       </c>
       <c r="B203" s="11" t="s">
@@ -6261,9 +6262,9 @@
       <c r="F203" s="10"/>
       <c r="G203" s="12"/>
     </row>
-    <row r="204" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="204" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A204" s="10">
-        <f t="shared" si="3"/>
+        <f>A203+1</f>
         <v>199</v>
       </c>
       <c r="B204" s="11" t="s">
@@ -6277,9 +6278,9 @@
       <c r="F204" s="10"/>
       <c r="G204" s="12"/>
     </row>
-    <row r="205" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="205" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A205" s="10">
-        <f t="shared" si="3"/>
+        <f>A204+1</f>
         <v>200</v>
       </c>
       <c r="B205" s="11" t="s">
@@ -6293,9 +6294,9 @@
       <c r="F205" s="10"/>
       <c r="G205" s="12"/>
     </row>
-    <row r="206" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="206" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A206" s="10">
-        <f t="shared" si="3"/>
+        <f>A205+1</f>
         <v>201</v>
       </c>
       <c r="B206" s="11" t="s">
@@ -6309,9 +6310,9 @@
       <c r="F206" s="10"/>
       <c r="G206" s="12"/>
     </row>
-    <row r="207" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="207" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A207" s="10">
-        <f t="shared" si="3"/>
+        <f>A206+1</f>
         <v>202</v>
       </c>
       <c r="B207" s="11" t="s">
@@ -6325,9 +6326,9 @@
       <c r="F207" s="10"/>
       <c r="G207" s="12"/>
     </row>
-    <row r="208" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="208" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A208" s="10">
-        <f t="shared" si="3"/>
+        <f>A207+1</f>
         <v>203</v>
       </c>
       <c r="B208" s="11" t="s">
@@ -6341,9 +6342,9 @@
       <c r="F208" s="10"/>
       <c r="G208" s="12"/>
     </row>
-    <row r="209" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="209" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A209" s="10">
-        <f t="shared" si="3"/>
+        <f>A208+1</f>
         <v>204</v>
       </c>
       <c r="B209" s="11" t="s">
@@ -6357,9 +6358,9 @@
       <c r="F209" s="10"/>
       <c r="G209" s="12"/>
     </row>
-    <row r="210" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="210" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A210" s="10">
-        <f t="shared" si="3"/>
+        <f>A209+1</f>
         <v>205</v>
       </c>
       <c r="B210" s="11" t="s">
@@ -6375,9 +6376,9 @@
       <c r="F210" s="10"/>
       <c r="G210" s="12"/>
     </row>
-    <row r="211" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="211" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A211" s="10">
-        <f t="shared" si="3"/>
+        <f>A210+1</f>
         <v>206</v>
       </c>
       <c r="B211" s="11" t="s">
@@ -6391,9 +6392,9 @@
       <c r="F211" s="10"/>
       <c r="G211" s="12"/>
     </row>
-    <row r="212" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="212" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A212" s="10">
-        <f t="shared" si="3"/>
+        <f>A211+1</f>
         <v>207</v>
       </c>
       <c r="B212" s="11" t="s">
@@ -6411,9 +6412,9 @@
         <v>825</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="213" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A213" s="10">
-        <f t="shared" si="3"/>
+        <f>A212+1</f>
         <v>208</v>
       </c>
       <c r="B213" s="11" t="s">
@@ -6427,9 +6428,9 @@
       <c r="F213" s="10"/>
       <c r="G213" s="12"/>
     </row>
-    <row r="214" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="214" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A214" s="10">
-        <f t="shared" si="3"/>
+        <f>A213+1</f>
         <v>209</v>
       </c>
       <c r="B214" s="11" t="s">
@@ -6447,9 +6448,9 @@
         <v>826</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="215" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A215" s="10">
-        <f t="shared" si="3"/>
+        <f>A214+1</f>
         <v>210</v>
       </c>
       <c r="B215" s="11" t="s">
@@ -6463,9 +6464,9 @@
       <c r="F215" s="10"/>
       <c r="G215" s="12"/>
     </row>
-    <row r="216" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="216" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A216" s="10">
-        <f t="shared" si="3"/>
+        <f>A215+1</f>
         <v>211</v>
       </c>
       <c r="B216" s="11" t="s">
@@ -6479,9 +6480,9 @@
       <c r="F216" s="10"/>
       <c r="G216" s="12"/>
     </row>
-    <row r="217" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="217" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A217" s="10">
-        <f t="shared" si="3"/>
+        <f>A216+1</f>
         <v>212</v>
       </c>
       <c r="B217" s="11" t="s">
@@ -6495,9 +6496,9 @@
       <c r="F217" s="10"/>
       <c r="G217" s="12"/>
     </row>
-    <row r="218" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="218" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A218" s="10">
-        <f t="shared" si="3"/>
+        <f>A217+1</f>
         <v>213</v>
       </c>
       <c r="B218" s="11" t="s">
@@ -6511,9 +6512,9 @@
       <c r="F218" s="10"/>
       <c r="G218" s="12"/>
     </row>
-    <row r="219" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="219" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A219" s="10">
-        <f t="shared" si="3"/>
+        <f>A218+1</f>
         <v>214</v>
       </c>
       <c r="B219" s="11" t="s">
@@ -6527,9 +6528,9 @@
       <c r="F219" s="10"/>
       <c r="G219" s="12"/>
     </row>
-    <row r="220" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="220" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A220" s="10">
-        <f t="shared" si="3"/>
+        <f>A219+1</f>
         <v>215</v>
       </c>
       <c r="B220" s="11" t="s">
@@ -6545,9 +6546,9 @@
       <c r="F220" s="10"/>
       <c r="G220" s="12"/>
     </row>
-    <row r="221" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="221" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A221" s="10">
-        <f t="shared" si="3"/>
+        <f>A220+1</f>
         <v>216</v>
       </c>
       <c r="B221" s="11" t="s">
@@ -6556,14 +6557,16 @@
       <c r="C221" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D221" s="10"/>
+      <c r="D221" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
       <c r="G221" s="12"/>
     </row>
-    <row r="222" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="222" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A222" s="10">
-        <f t="shared" si="3"/>
+        <f>A221+1</f>
         <v>217</v>
       </c>
       <c r="B222" s="11" t="s">
@@ -6572,14 +6575,16 @@
       <c r="C222" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D222" s="10"/>
+      <c r="D222" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E222" s="10"/>
       <c r="F222" s="10"/>
       <c r="G222" s="12"/>
     </row>
     <row r="223" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A223" s="10">
-        <f t="shared" si="3"/>
+        <f>A222+1</f>
         <v>218</v>
       </c>
       <c r="B223" s="11" t="s">
@@ -6593,9 +6598,9 @@
       <c r="F223" s="10"/>
       <c r="G223" s="12"/>
     </row>
-    <row r="224" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="224" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A224" s="10">
-        <f t="shared" si="3"/>
+        <f>A223+1</f>
         <v>219</v>
       </c>
       <c r="B224" s="11" t="s">
@@ -6611,9 +6616,9 @@
       <c r="F224" s="10"/>
       <c r="G224" s="12"/>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A225" s="10">
-        <f t="shared" si="3"/>
+        <f>A224+1</f>
         <v>220</v>
       </c>
       <c r="B225" s="11" t="s">
@@ -6622,14 +6627,16 @@
       <c r="C225" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D225" s="10"/>
+      <c r="D225" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E225" s="10"/>
       <c r="F225" s="10"/>
       <c r="G225" s="12"/>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="226" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A226" s="10">
-        <f t="shared" si="3"/>
+        <f>A225+1</f>
         <v>221</v>
       </c>
       <c r="B226" s="11" t="s">
@@ -6638,14 +6645,16 @@
       <c r="C226" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D226" s="10"/>
+      <c r="D226" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E226" s="10"/>
       <c r="F226" s="10"/>
       <c r="G226" s="12"/>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="227" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A227" s="10">
-        <f t="shared" si="3"/>
+        <f>A226+1</f>
         <v>222</v>
       </c>
       <c r="B227" s="11" t="s">
@@ -6654,14 +6663,16 @@
       <c r="C227" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D227" s="10"/>
+      <c r="D227" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E227" s="10"/>
       <c r="F227" s="10"/>
       <c r="G227" s="12"/>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A228" s="10">
-        <f t="shared" si="3"/>
+        <f>A227+1</f>
         <v>223</v>
       </c>
       <c r="B228" s="11" t="s">
@@ -6675,9 +6686,9 @@
       <c r="F228" s="10"/>
       <c r="G228" s="12"/>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="229" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A229" s="10">
-        <f t="shared" si="3"/>
+        <f>A228+1</f>
         <v>224</v>
       </c>
       <c r="B229" s="11" t="s">
@@ -6691,9 +6702,9 @@
       <c r="F229" s="10"/>
       <c r="G229" s="12"/>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="230" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A230" s="10">
-        <f t="shared" si="3"/>
+        <f>A229+1</f>
         <v>225</v>
       </c>
       <c r="B230" s="11" t="s">
@@ -6707,9 +6718,9 @@
       <c r="F230" s="10"/>
       <c r="G230" s="12"/>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="231" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A231" s="10">
-        <f t="shared" si="3"/>
+        <f>A230+1</f>
         <v>226</v>
       </c>
       <c r="B231" s="11" t="s">
@@ -6723,9 +6734,9 @@
       <c r="F231" s="10"/>
       <c r="G231" s="12"/>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="232" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A232" s="10">
-        <f t="shared" si="3"/>
+        <f>A231+1</f>
         <v>227</v>
       </c>
       <c r="B232" s="11" t="s">
@@ -6739,9 +6750,9 @@
       <c r="F232" s="10"/>
       <c r="G232" s="12"/>
     </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="233" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A233" s="10">
-        <f t="shared" si="3"/>
+        <f>A232+1</f>
         <v>228</v>
       </c>
       <c r="B233" s="11" t="s">
@@ -6755,9 +6766,9 @@
       <c r="F233" s="10"/>
       <c r="G233" s="12"/>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A234" s="10">
-        <f t="shared" si="3"/>
+        <f>A233+1</f>
         <v>229</v>
       </c>
       <c r="B234" s="11" t="s">
@@ -6773,9 +6784,9 @@
       <c r="F234" s="10"/>
       <c r="G234" s="12"/>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="235" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A235" s="10">
-        <f t="shared" si="3"/>
+        <f>A234+1</f>
         <v>230</v>
       </c>
       <c r="B235" s="11" t="s">
@@ -6791,9 +6802,9 @@
       <c r="F235" s="10"/>
       <c r="G235" s="12"/>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="236" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A236" s="10">
-        <f t="shared" si="3"/>
+        <f>A235+1</f>
         <v>231</v>
       </c>
       <c r="B236" s="11" t="s">
@@ -6809,9 +6820,9 @@
       <c r="F236" s="10"/>
       <c r="G236" s="12"/>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="237" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A237" s="10">
-        <f t="shared" si="3"/>
+        <f>A236+1</f>
         <v>232</v>
       </c>
       <c r="B237" s="11" t="s">
@@ -6825,9 +6836,9 @@
       <c r="F237" s="10"/>
       <c r="G237" s="12"/>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="238" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A238" s="10">
-        <f t="shared" si="3"/>
+        <f>A237+1</f>
         <v>233</v>
       </c>
       <c r="B238" s="11" t="s">
@@ -6841,9 +6852,9 @@
       <c r="F238" s="10"/>
       <c r="G238" s="12"/>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="239" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A239" s="10">
-        <f t="shared" si="3"/>
+        <f>A238+1</f>
         <v>234</v>
       </c>
       <c r="B239" s="11" t="s">
@@ -6857,9 +6868,9 @@
       <c r="F239" s="10"/>
       <c r="G239" s="12"/>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="240" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A240" s="10">
-        <f t="shared" si="3"/>
+        <f>A239+1</f>
         <v>235</v>
       </c>
       <c r="B240" s="11" t="s">
@@ -6873,9 +6884,9 @@
       <c r="F240" s="10"/>
       <c r="G240" s="12"/>
     </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A241" s="10">
-        <f t="shared" si="3"/>
+        <f>A240+1</f>
         <v>236</v>
       </c>
       <c r="B241" s="11" t="s">
@@ -6889,9 +6900,9 @@
       <c r="F241" s="10"/>
       <c r="G241" s="12"/>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="242" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A242" s="10">
-        <f t="shared" si="3"/>
+        <f>A241+1</f>
         <v>237</v>
       </c>
       <c r="B242" s="11" t="s">
@@ -6905,9 +6916,9 @@
       <c r="F242" s="10"/>
       <c r="G242" s="12"/>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="243" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A243" s="10">
-        <f t="shared" si="3"/>
+        <f>A242+1</f>
         <v>238</v>
       </c>
       <c r="B243" s="11" t="s">
@@ -6921,9 +6932,9 @@
       <c r="F243" s="10"/>
       <c r="G243" s="12"/>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="244" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A244" s="10">
-        <f t="shared" si="3"/>
+        <f>A243+1</f>
         <v>239</v>
       </c>
       <c r="B244" s="11" t="s">
@@ -6937,9 +6948,9 @@
       <c r="F244" s="10"/>
       <c r="G244" s="12"/>
     </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="245" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A245" s="10">
-        <f t="shared" si="3"/>
+        <f>A244+1</f>
         <v>240</v>
       </c>
       <c r="B245" s="11" t="s">
@@ -6953,9 +6964,9 @@
       <c r="F245" s="10"/>
       <c r="G245" s="12"/>
     </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="246" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A246" s="10">
-        <f t="shared" si="3"/>
+        <f>A245+1</f>
         <v>241</v>
       </c>
       <c r="B246" s="11" t="s">
@@ -6969,9 +6980,9 @@
       <c r="F246" s="10"/>
       <c r="G246" s="12"/>
     </row>
-    <row r="247" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="247" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A247" s="10">
-        <f t="shared" si="3"/>
+        <f>A246+1</f>
         <v>242</v>
       </c>
       <c r="B247" s="11" t="s">
@@ -6987,9 +6998,9 @@
       <c r="F247" s="10"/>
       <c r="G247" s="12"/>
     </row>
-    <row r="248" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="248" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A248" s="10">
-        <f t="shared" si="3"/>
+        <f>A247+1</f>
         <v>243</v>
       </c>
       <c r="B248" s="11" t="s">
@@ -7003,9 +7014,9 @@
       <c r="F248" s="10"/>
       <c r="G248" s="12"/>
     </row>
-    <row r="249" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="249" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A249" s="10">
-        <f t="shared" si="3"/>
+        <f>A248+1</f>
         <v>244</v>
       </c>
       <c r="B249" s="11" t="s">
@@ -7021,9 +7032,9 @@
       <c r="F249" s="10"/>
       <c r="G249" s="12"/>
     </row>
-    <row r="250" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="250" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A250" s="10">
-        <f t="shared" si="3"/>
+        <f>A249+1</f>
         <v>245</v>
       </c>
       <c r="B250" s="11" t="s">
@@ -7037,9 +7048,9 @@
       <c r="F250" s="10"/>
       <c r="G250" s="12"/>
     </row>
-    <row r="251" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="251" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A251" s="10">
-        <f t="shared" si="3"/>
+        <f>A250+1</f>
         <v>246</v>
       </c>
       <c r="B251" s="11" t="s">
@@ -7053,9 +7064,9 @@
       <c r="F251" s="10"/>
       <c r="G251" s="12"/>
     </row>
-    <row r="252" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="252" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A252" s="10">
-        <f t="shared" si="3"/>
+        <f>A251+1</f>
         <v>247</v>
       </c>
       <c r="B252" s="11" t="s">
@@ -7069,9 +7080,9 @@
       <c r="F252" s="10"/>
       <c r="G252" s="12"/>
     </row>
-    <row r="253" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="253" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A253" s="10">
-        <f t="shared" si="3"/>
+        <f>A252+1</f>
         <v>248</v>
       </c>
       <c r="B253" s="11" t="s">
@@ -7085,9 +7096,9 @@
       <c r="F253" s="10"/>
       <c r="G253" s="12"/>
     </row>
-    <row r="254" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="254" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A254" s="10">
-        <f t="shared" si="3"/>
+        <f>A253+1</f>
         <v>249</v>
       </c>
       <c r="B254" s="11" t="s">
@@ -7101,9 +7112,9 @@
       <c r="F254" s="10"/>
       <c r="G254" s="12"/>
     </row>
-    <row r="255" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="255" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A255" s="10">
-        <f t="shared" si="3"/>
+        <f>A254+1</f>
         <v>250</v>
       </c>
       <c r="B255" s="11" t="s">
@@ -7117,9 +7128,9 @@
       <c r="F255" s="10"/>
       <c r="G255" s="12"/>
     </row>
-    <row r="256" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="256" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A256" s="10">
-        <f t="shared" si="3"/>
+        <f>A255+1</f>
         <v>251</v>
       </c>
       <c r="B256" s="11" t="s">
@@ -7133,9 +7144,9 @@
       <c r="F256" s="10"/>
       <c r="G256" s="12"/>
     </row>
-    <row r="257" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="257" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A257" s="10">
-        <f t="shared" si="3"/>
+        <f>A256+1</f>
         <v>252</v>
       </c>
       <c r="B257" s="11" t="s">
@@ -7149,9 +7160,9 @@
       <c r="F257" s="10"/>
       <c r="G257" s="12"/>
     </row>
-    <row r="258" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="258" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A258" s="10">
-        <f t="shared" si="3"/>
+        <f>A257+1</f>
         <v>253</v>
       </c>
       <c r="B258" s="11" t="s">
@@ -7165,9 +7176,9 @@
       <c r="F258" s="10"/>
       <c r="G258" s="12"/>
     </row>
-    <row r="259" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="259" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A259" s="10">
-        <f t="shared" si="3"/>
+        <f>A258+1</f>
         <v>254</v>
       </c>
       <c r="B259" s="11" t="s">
@@ -7181,9 +7192,9 @@
       <c r="F259" s="10"/>
       <c r="G259" s="12"/>
     </row>
-    <row r="260" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="260" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A260" s="10">
-        <f t="shared" si="3"/>
+        <f>A259+1</f>
         <v>255</v>
       </c>
       <c r="B260" s="11" t="s">
@@ -7197,9 +7208,9 @@
       <c r="F260" s="10"/>
       <c r="G260" s="12"/>
     </row>
-    <row r="261" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="261" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A261" s="10">
-        <f t="shared" si="3"/>
+        <f>A260+1</f>
         <v>256</v>
       </c>
       <c r="B261" s="11" t="s">
@@ -7213,9 +7224,9 @@
       <c r="F261" s="10"/>
       <c r="G261" s="12"/>
     </row>
-    <row r="262" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="262" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A262" s="10">
-        <f t="shared" si="3"/>
+        <f>A261+1</f>
         <v>257</v>
       </c>
       <c r="B262" s="11" t="s">
@@ -7229,9 +7240,9 @@
       <c r="F262" s="10"/>
       <c r="G262" s="12"/>
     </row>
-    <row r="263" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="263" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A263" s="10">
-        <f t="shared" ref="A263:A326" si="4">A262+1</f>
+        <f>A262+1</f>
         <v>258</v>
       </c>
       <c r="B263" s="11" t="s">
@@ -7245,9 +7256,9 @@
       <c r="F263" s="10"/>
       <c r="G263" s="12"/>
     </row>
-    <row r="264" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="264" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A264" s="10">
-        <f t="shared" si="4"/>
+        <f>A263+1</f>
         <v>259</v>
       </c>
       <c r="B264" s="11" t="s">
@@ -7261,9 +7272,9 @@
       <c r="F264" s="10"/>
       <c r="G264" s="12"/>
     </row>
-    <row r="265" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="265" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A265" s="10">
-        <f t="shared" si="4"/>
+        <f>A264+1</f>
         <v>260</v>
       </c>
       <c r="B265" s="11" t="s">
@@ -7277,9 +7288,9 @@
       <c r="F265" s="10"/>
       <c r="G265" s="12"/>
     </row>
-    <row r="266" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="266" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A266" s="10">
-        <f t="shared" si="4"/>
+        <f>A265+1</f>
         <v>261</v>
       </c>
       <c r="B266" s="11" t="s">
@@ -7293,9 +7304,9 @@
       <c r="F266" s="10"/>
       <c r="G266" s="12"/>
     </row>
-    <row r="267" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="267" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A267" s="10">
-        <f t="shared" si="4"/>
+        <f>A266+1</f>
         <v>262</v>
       </c>
       <c r="B267" s="11" t="s">
@@ -7309,9 +7320,9 @@
       <c r="F267" s="10"/>
       <c r="G267" s="12"/>
     </row>
-    <row r="268" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="268" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A268" s="10">
-        <f t="shared" si="4"/>
+        <f>A267+1</f>
         <v>263</v>
       </c>
       <c r="B268" s="11" t="s">
@@ -7325,9 +7336,9 @@
       <c r="F268" s="10"/>
       <c r="G268" s="12"/>
     </row>
-    <row r="269" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="269" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A269" s="10">
-        <f t="shared" si="4"/>
+        <f>A268+1</f>
         <v>264</v>
       </c>
       <c r="B269" s="11" t="s">
@@ -7341,9 +7352,9 @@
       <c r="F269" s="10"/>
       <c r="G269" s="12"/>
     </row>
-    <row r="270" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="270" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A270" s="10">
-        <f t="shared" si="4"/>
+        <f>A269+1</f>
         <v>265</v>
       </c>
       <c r="B270" s="11" t="s">
@@ -7357,9 +7368,9 @@
       <c r="F270" s="10"/>
       <c r="G270" s="12"/>
     </row>
-    <row r="271" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="271" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A271" s="10">
-        <f t="shared" si="4"/>
+        <f>A270+1</f>
         <v>266</v>
       </c>
       <c r="B271" s="11" t="s">
@@ -7373,9 +7384,9 @@
       <c r="F271" s="10"/>
       <c r="G271" s="12"/>
     </row>
-    <row r="272" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="272" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A272" s="10">
-        <f t="shared" si="4"/>
+        <f>A271+1</f>
         <v>267</v>
       </c>
       <c r="B272" s="11" t="s">
@@ -7389,9 +7400,9 @@
       <c r="F272" s="10"/>
       <c r="G272" s="12"/>
     </row>
-    <row r="273" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="273" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A273" s="10">
-        <f t="shared" si="4"/>
+        <f>A272+1</f>
         <v>268</v>
       </c>
       <c r="B273" s="11" t="s">
@@ -7405,9 +7416,9 @@
       <c r="F273" s="10"/>
       <c r="G273" s="12"/>
     </row>
-    <row r="274" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="274" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A274" s="10">
-        <f t="shared" si="4"/>
+        <f>A273+1</f>
         <v>269</v>
       </c>
       <c r="B274" s="11" t="s">
@@ -7421,9 +7432,9 @@
       <c r="F274" s="10"/>
       <c r="G274" s="12"/>
     </row>
-    <row r="275" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="275" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A275" s="10">
-        <f t="shared" si="4"/>
+        <f>A274+1</f>
         <v>270</v>
       </c>
       <c r="B275" s="11" t="s">
@@ -7437,9 +7448,9 @@
       <c r="F275" s="10"/>
       <c r="G275" s="12"/>
     </row>
-    <row r="276" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="276" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A276" s="10">
-        <f t="shared" si="4"/>
+        <f>A275+1</f>
         <v>271</v>
       </c>
       <c r="B276" s="11" t="s">
@@ -7453,9 +7464,9 @@
       <c r="F276" s="10"/>
       <c r="G276" s="12"/>
     </row>
-    <row r="277" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="277" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A277" s="10">
-        <f t="shared" si="4"/>
+        <f>A276+1</f>
         <v>272</v>
       </c>
       <c r="B277" s="11" t="s">
@@ -7471,9 +7482,9 @@
       <c r="F277" s="10"/>
       <c r="G277" s="12"/>
     </row>
-    <row r="278" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="278" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A278" s="10">
-        <f t="shared" si="4"/>
+        <f>A277+1</f>
         <v>273</v>
       </c>
       <c r="B278" s="11" t="s">
@@ -7487,9 +7498,9 @@
       <c r="F278" s="10"/>
       <c r="G278" s="12"/>
     </row>
-    <row r="279" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="279" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A279" s="10">
-        <f t="shared" si="4"/>
+        <f>A278+1</f>
         <v>274</v>
       </c>
       <c r="B279" s="11" t="s">
@@ -7503,9 +7514,9 @@
       <c r="F279" s="10"/>
       <c r="G279" s="12"/>
     </row>
-    <row r="280" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="280" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A280" s="10">
-        <f t="shared" si="4"/>
+        <f>A279+1</f>
         <v>275</v>
       </c>
       <c r="B280" s="11" t="s">
@@ -7519,9 +7530,9 @@
       <c r="F280" s="10"/>
       <c r="G280" s="12"/>
     </row>
-    <row r="281" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="281" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A281" s="10">
-        <f t="shared" si="4"/>
+        <f>A280+1</f>
         <v>276</v>
       </c>
       <c r="B281" s="11" t="s">
@@ -7535,9 +7546,9 @@
       <c r="F281" s="10"/>
       <c r="G281" s="12"/>
     </row>
-    <row r="282" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="282" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A282" s="10">
-        <f t="shared" si="4"/>
+        <f>A281+1</f>
         <v>277</v>
       </c>
       <c r="B282" s="11" t="s">
@@ -7553,9 +7564,9 @@
       <c r="F282" s="10"/>
       <c r="G282" s="12"/>
     </row>
-    <row r="283" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="283" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A283" s="10">
-        <f t="shared" si="4"/>
+        <f>A282+1</f>
         <v>278</v>
       </c>
       <c r="B283" s="11" t="s">
@@ -7569,9 +7580,9 @@
       <c r="F283" s="10"/>
       <c r="G283" s="12"/>
     </row>
-    <row r="284" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="284" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A284" s="10">
-        <f t="shared" si="4"/>
+        <f>A283+1</f>
         <v>279</v>
       </c>
       <c r="B284" s="11" t="s">
@@ -7587,9 +7598,9 @@
       <c r="F284" s="10"/>
       <c r="G284" s="12"/>
     </row>
-    <row r="285" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="285" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A285" s="10">
-        <f t="shared" si="4"/>
+        <f>A284+1</f>
         <v>280</v>
       </c>
       <c r="B285" s="11" t="s">
@@ -7603,9 +7614,9 @@
       <c r="F285" s="10"/>
       <c r="G285" s="12"/>
     </row>
-    <row r="286" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="286" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A286" s="10">
-        <f t="shared" si="4"/>
+        <f>A285+1</f>
         <v>281</v>
       </c>
       <c r="B286" s="11" t="s">
@@ -7619,9 +7630,9 @@
       <c r="F286" s="10"/>
       <c r="G286" s="12"/>
     </row>
-    <row r="287" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="287" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A287" s="10">
-        <f t="shared" si="4"/>
+        <f>A286+1</f>
         <v>282</v>
       </c>
       <c r="B287" s="11" t="s">
@@ -7635,9 +7646,9 @@
       <c r="F287" s="10"/>
       <c r="G287" s="12"/>
     </row>
-    <row r="288" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="288" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A288" s="10">
-        <f t="shared" si="4"/>
+        <f>A287+1</f>
         <v>283</v>
       </c>
       <c r="B288" s="11" t="s">
@@ -7651,9 +7662,9 @@
       <c r="F288" s="10"/>
       <c r="G288" s="12"/>
     </row>
-    <row r="289" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="289" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A289" s="10">
-        <f t="shared" si="4"/>
+        <f>A288+1</f>
         <v>284</v>
       </c>
       <c r="B289" s="11" t="s">
@@ -7667,9 +7678,9 @@
       <c r="F289" s="10"/>
       <c r="G289" s="12"/>
     </row>
-    <row r="290" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="290" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A290" s="10">
-        <f t="shared" si="4"/>
+        <f>A289+1</f>
         <v>285</v>
       </c>
       <c r="B290" s="11" t="s">
@@ -7683,9 +7694,9 @@
       <c r="F290" s="10"/>
       <c r="G290" s="12"/>
     </row>
-    <row r="291" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="291" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A291" s="10">
-        <f t="shared" si="4"/>
+        <f>A290+1</f>
         <v>286</v>
       </c>
       <c r="B291" s="11" t="s">
@@ -7699,9 +7710,9 @@
       <c r="F291" s="10"/>
       <c r="G291" s="12"/>
     </row>
-    <row r="292" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="292" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A292" s="10">
-        <f t="shared" si="4"/>
+        <f>A291+1</f>
         <v>287</v>
       </c>
       <c r="B292" s="11" t="s">
@@ -7715,9 +7726,9 @@
       <c r="F292" s="10"/>
       <c r="G292" s="12"/>
     </row>
-    <row r="293" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="293" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A293" s="10">
-        <f t="shared" si="4"/>
+        <f>A292+1</f>
         <v>288</v>
       </c>
       <c r="B293" s="11" t="s">
@@ -7731,9 +7742,9 @@
       <c r="F293" s="10"/>
       <c r="G293" s="12"/>
     </row>
-    <row r="294" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="294" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A294" s="10">
-        <f t="shared" si="4"/>
+        <f>A293+1</f>
         <v>289</v>
       </c>
       <c r="B294" s="11" t="s">
@@ -7747,9 +7758,9 @@
       <c r="F294" s="10"/>
       <c r="G294" s="12"/>
     </row>
-    <row r="295" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="295" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A295" s="10">
-        <f t="shared" si="4"/>
+        <f>A294+1</f>
         <v>290</v>
       </c>
       <c r="B295" s="11" t="s">
@@ -7763,9 +7774,9 @@
       <c r="F295" s="10"/>
       <c r="G295" s="12"/>
     </row>
-    <row r="296" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="296" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A296" s="10">
-        <f t="shared" si="4"/>
+        <f>A295+1</f>
         <v>291</v>
       </c>
       <c r="B296" s="11" t="s">
@@ -7781,9 +7792,9 @@
       <c r="F296" s="10"/>
       <c r="G296" s="12"/>
     </row>
-    <row r="297" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="297" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A297" s="10">
-        <f t="shared" si="4"/>
+        <f>A296+1</f>
         <v>292</v>
       </c>
       <c r="B297" s="11" t="s">
@@ -7799,9 +7810,9 @@
       <c r="F297" s="10"/>
       <c r="G297" s="12"/>
     </row>
-    <row r="298" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="298" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A298" s="10">
-        <f t="shared" si="4"/>
+        <f>A297+1</f>
         <v>293</v>
       </c>
       <c r="B298" s="11" t="s">
@@ -7815,9 +7826,9 @@
       <c r="F298" s="10"/>
       <c r="G298" s="12"/>
     </row>
-    <row r="299" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="299" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A299" s="10">
-        <f t="shared" si="4"/>
+        <f>A298+1</f>
         <v>294</v>
       </c>
       <c r="B299" s="11" t="s">
@@ -7831,9 +7842,9 @@
       <c r="F299" s="10"/>
       <c r="G299" s="12"/>
     </row>
-    <row r="300" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="300" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A300" s="10">
-        <f t="shared" si="4"/>
+        <f>A299+1</f>
         <v>295</v>
       </c>
       <c r="B300" s="11" t="s">
@@ -7847,9 +7858,9 @@
       <c r="F300" s="10"/>
       <c r="G300" s="12"/>
     </row>
-    <row r="301" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="301" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A301" s="10">
-        <f t="shared" si="4"/>
+        <f>A300+1</f>
         <v>296</v>
       </c>
       <c r="B301" s="11" t="s">
@@ -7863,9 +7874,9 @@
       <c r="F301" s="10"/>
       <c r="G301" s="12"/>
     </row>
-    <row r="302" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="302" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A302" s="10">
-        <f t="shared" si="4"/>
+        <f>A301+1</f>
         <v>297</v>
       </c>
       <c r="B302" s="11" t="s">
@@ -7879,9 +7890,9 @@
       <c r="F302" s="10"/>
       <c r="G302" s="12"/>
     </row>
-    <row r="303" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="303" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A303" s="10">
-        <f t="shared" si="4"/>
+        <f>A302+1</f>
         <v>298</v>
       </c>
       <c r="B303" s="11" t="s">
@@ -7895,9 +7906,9 @@
       <c r="F303" s="10"/>
       <c r="G303" s="12"/>
     </row>
-    <row r="304" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="304" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A304" s="10">
-        <f t="shared" si="4"/>
+        <f>A303+1</f>
         <v>299</v>
       </c>
       <c r="B304" s="11" t="s">
@@ -7911,9 +7922,9 @@
       <c r="F304" s="10"/>
       <c r="G304" s="12"/>
     </row>
-    <row r="305" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="305" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A305" s="10">
-        <f t="shared" si="4"/>
+        <f>A304+1</f>
         <v>300</v>
       </c>
       <c r="B305" s="11" t="s">
@@ -7927,9 +7938,9 @@
       <c r="F305" s="10"/>
       <c r="G305" s="12"/>
     </row>
-    <row r="306" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="306" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A306" s="10">
-        <f t="shared" si="4"/>
+        <f>A305+1</f>
         <v>301</v>
       </c>
       <c r="B306" s="11" t="s">
@@ -7943,9 +7954,9 @@
       <c r="F306" s="10"/>
       <c r="G306" s="12"/>
     </row>
-    <row r="307" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="307" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A307" s="10">
-        <f t="shared" si="4"/>
+        <f>A306+1</f>
         <v>302</v>
       </c>
       <c r="B307" s="11" t="s">
@@ -7959,9 +7970,9 @@
       <c r="F307" s="10"/>
       <c r="G307" s="12"/>
     </row>
-    <row r="308" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="308" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A308" s="10">
-        <f t="shared" si="4"/>
+        <f>A307+1</f>
         <v>303</v>
       </c>
       <c r="B308" s="11" t="s">
@@ -7975,9 +7986,9 @@
       <c r="F308" s="10"/>
       <c r="G308" s="12"/>
     </row>
-    <row r="309" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="309" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A309" s="10">
-        <f t="shared" si="4"/>
+        <f>A308+1</f>
         <v>304</v>
       </c>
       <c r="B309" s="11" t="s">
@@ -7991,9 +8002,9 @@
       <c r="F309" s="10"/>
       <c r="G309" s="12"/>
     </row>
-    <row r="310" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="310" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A310" s="10">
-        <f t="shared" si="4"/>
+        <f>A309+1</f>
         <v>305</v>
       </c>
       <c r="B310" s="11" t="s">
@@ -8007,9 +8018,9 @@
       <c r="F310" s="10"/>
       <c r="G310" s="12"/>
     </row>
-    <row r="311" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="311" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A311" s="10">
-        <f t="shared" si="4"/>
+        <f>A310+1</f>
         <v>306</v>
       </c>
       <c r="B311" s="11" t="s">
@@ -8023,9 +8034,9 @@
       <c r="F311" s="10"/>
       <c r="G311" s="12"/>
     </row>
-    <row r="312" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="312" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A312" s="10">
-        <f t="shared" si="4"/>
+        <f>A311+1</f>
         <v>307</v>
       </c>
       <c r="B312" s="11" t="s">
@@ -8041,9 +8052,9 @@
       <c r="F312" s="10"/>
       <c r="G312" s="12"/>
     </row>
-    <row r="313" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="313" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A313" s="10">
-        <f t="shared" si="4"/>
+        <f>A312+1</f>
         <v>308</v>
       </c>
       <c r="B313" s="11" t="s">
@@ -8057,9 +8068,9 @@
       <c r="F313" s="10"/>
       <c r="G313" s="12"/>
     </row>
-    <row r="314" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="314" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A314" s="10">
-        <f t="shared" si="4"/>
+        <f>A313+1</f>
         <v>309</v>
       </c>
       <c r="B314" s="11" t="s">
@@ -8073,9 +8084,9 @@
       <c r="F314" s="10"/>
       <c r="G314" s="12"/>
     </row>
-    <row r="315" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="315" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A315" s="10">
-        <f t="shared" si="4"/>
+        <f>A314+1</f>
         <v>310</v>
       </c>
       <c r="B315" s="11" t="s">
@@ -8089,9 +8100,9 @@
       <c r="F315" s="10"/>
       <c r="G315" s="12"/>
     </row>
-    <row r="316" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="316" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A316" s="10">
-        <f t="shared" si="4"/>
+        <f>A315+1</f>
         <v>311</v>
       </c>
       <c r="B316" s="11" t="s">
@@ -8105,9 +8116,9 @@
       <c r="F316" s="10"/>
       <c r="G316" s="12"/>
     </row>
-    <row r="317" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="317" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A317" s="10">
-        <f t="shared" si="4"/>
+        <f>A316+1</f>
         <v>312</v>
       </c>
       <c r="B317" s="11" t="s">
@@ -8121,9 +8132,9 @@
       <c r="F317" s="10"/>
       <c r="G317" s="12"/>
     </row>
-    <row r="318" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="318" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A318" s="10">
-        <f t="shared" si="4"/>
+        <f>A317+1</f>
         <v>313</v>
       </c>
       <c r="B318" s="11" t="s">
@@ -8137,9 +8148,9 @@
       <c r="F318" s="10"/>
       <c r="G318" s="12"/>
     </row>
-    <row r="319" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="319" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A319" s="10">
-        <f t="shared" si="4"/>
+        <f>A318+1</f>
         <v>314</v>
       </c>
       <c r="B319" s="11" t="s">
@@ -8153,9 +8164,9 @@
       <c r="F319" s="10"/>
       <c r="G319" s="12"/>
     </row>
-    <row r="320" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="320" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A320" s="10">
-        <f t="shared" si="4"/>
+        <f>A319+1</f>
         <v>315</v>
       </c>
       <c r="B320" s="11" t="s">
@@ -8169,9 +8180,9 @@
       <c r="F320" s="10"/>
       <c r="G320" s="12"/>
     </row>
-    <row r="321" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="321" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A321" s="10">
-        <f t="shared" si="4"/>
+        <f>A320+1</f>
         <v>316</v>
       </c>
       <c r="B321" s="11" t="s">
@@ -8185,9 +8196,9 @@
       <c r="F321" s="10"/>
       <c r="G321" s="12"/>
     </row>
-    <row r="322" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="322" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A322" s="10">
-        <f t="shared" si="4"/>
+        <f>A321+1</f>
         <v>317</v>
       </c>
       <c r="B322" s="11" t="s">
@@ -8201,9 +8212,9 @@
       <c r="F322" s="10"/>
       <c r="G322" s="12"/>
     </row>
-    <row r="323" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="323" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A323" s="10">
-        <f t="shared" si="4"/>
+        <f>A322+1</f>
         <v>318</v>
       </c>
       <c r="B323" s="11" t="s">
@@ -8217,9 +8228,9 @@
       <c r="F323" s="10"/>
       <c r="G323" s="12"/>
     </row>
-    <row r="324" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="324" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A324" s="10">
-        <f t="shared" si="4"/>
+        <f>A323+1</f>
         <v>319</v>
       </c>
       <c r="B324" s="11" t="s">
@@ -8235,9 +8246,9 @@
       <c r="F324" s="10"/>
       <c r="G324" s="12"/>
     </row>
-    <row r="325" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="325" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A325" s="10">
-        <f t="shared" si="4"/>
+        <f>A324+1</f>
         <v>320</v>
       </c>
       <c r="B325" s="11" t="s">
@@ -8251,9 +8262,9 @@
       <c r="F325" s="10"/>
       <c r="G325" s="12"/>
     </row>
-    <row r="326" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="326" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A326" s="10">
-        <f t="shared" si="4"/>
+        <f>A325+1</f>
         <v>321</v>
       </c>
       <c r="B326" s="11" t="s">
@@ -8267,9 +8278,9 @@
       <c r="F326" s="10"/>
       <c r="G326" s="12"/>
     </row>
-    <row r="327" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="327" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A327" s="10">
-        <f t="shared" ref="A327:A390" si="5">A326+1</f>
+        <f>A326+1</f>
         <v>322</v>
       </c>
       <c r="B327" s="11" t="s">
@@ -8283,9 +8294,9 @@
       <c r="F327" s="10"/>
       <c r="G327" s="12"/>
     </row>
-    <row r="328" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="328" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A328" s="10">
-        <f t="shared" si="5"/>
+        <f>A327+1</f>
         <v>323</v>
       </c>
       <c r="B328" s="11" t="s">
@@ -8299,9 +8310,9 @@
       <c r="F328" s="10"/>
       <c r="G328" s="12"/>
     </row>
-    <row r="329" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="329" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A329" s="10">
-        <f t="shared" si="5"/>
+        <f>A328+1</f>
         <v>324</v>
       </c>
       <c r="B329" s="11" t="s">
@@ -8315,9 +8326,9 @@
       <c r="F329" s="10"/>
       <c r="G329" s="12"/>
     </row>
-    <row r="330" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="330" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A330" s="10">
-        <f t="shared" si="5"/>
+        <f>A329+1</f>
         <v>325</v>
       </c>
       <c r="B330" s="11" t="s">
@@ -8331,9 +8342,9 @@
       <c r="F330" s="10"/>
       <c r="G330" s="12"/>
     </row>
-    <row r="331" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="331" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A331" s="10">
-        <f t="shared" si="5"/>
+        <f>A330+1</f>
         <v>326</v>
       </c>
       <c r="B331" s="11" t="s">
@@ -8347,9 +8358,9 @@
       <c r="F331" s="10"/>
       <c r="G331" s="12"/>
     </row>
-    <row r="332" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="332" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A332" s="10">
-        <f t="shared" si="5"/>
+        <f>A331+1</f>
         <v>327</v>
       </c>
       <c r="B332" s="11" t="s">
@@ -8363,9 +8374,9 @@
       <c r="F332" s="10"/>
       <c r="G332" s="12"/>
     </row>
-    <row r="333" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="333" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A333" s="10">
-        <f t="shared" si="5"/>
+        <f>A332+1</f>
         <v>328</v>
       </c>
       <c r="B333" s="11" t="s">
@@ -8379,9 +8390,9 @@
       <c r="F333" s="10"/>
       <c r="G333" s="12"/>
     </row>
-    <row r="334" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="334" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A334" s="10">
-        <f t="shared" si="5"/>
+        <f>A333+1</f>
         <v>329</v>
       </c>
       <c r="B334" s="11" t="s">
@@ -8395,9 +8406,9 @@
       <c r="F334" s="10"/>
       <c r="G334" s="12"/>
     </row>
-    <row r="335" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="335" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A335" s="10">
-        <f t="shared" si="5"/>
+        <f>A334+1</f>
         <v>330</v>
       </c>
       <c r="B335" s="11" t="s">
@@ -8411,9 +8422,9 @@
       <c r="F335" s="10"/>
       <c r="G335" s="12"/>
     </row>
-    <row r="336" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="336" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A336" s="10">
-        <f t="shared" si="5"/>
+        <f>A335+1</f>
         <v>331</v>
       </c>
       <c r="B336" s="11" t="s">
@@ -8429,9 +8440,9 @@
       <c r="F336" s="10"/>
       <c r="G336" s="12"/>
     </row>
-    <row r="337" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="337" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A337" s="10">
-        <f t="shared" si="5"/>
+        <f>A336+1</f>
         <v>332</v>
       </c>
       <c r="B337" s="11" t="s">
@@ -8447,9 +8458,9 @@
       <c r="F337" s="10"/>
       <c r="G337" s="12"/>
     </row>
-    <row r="338" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="338" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A338" s="10">
-        <f t="shared" si="5"/>
+        <f>A337+1</f>
         <v>333</v>
       </c>
       <c r="B338" s="11" t="s">
@@ -8463,9 +8474,9 @@
       <c r="F338" s="10"/>
       <c r="G338" s="12"/>
     </row>
-    <row r="339" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="339" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A339" s="10">
-        <f t="shared" si="5"/>
+        <f>A338+1</f>
         <v>334</v>
       </c>
       <c r="B339" s="11" t="s">
@@ -8479,9 +8490,9 @@
       <c r="F339" s="10"/>
       <c r="G339" s="12"/>
     </row>
-    <row r="340" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="340" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A340" s="10">
-        <f t="shared" si="5"/>
+        <f>A339+1</f>
         <v>335</v>
       </c>
       <c r="B340" s="11" t="s">
@@ -8495,9 +8506,9 @@
       <c r="F340" s="10"/>
       <c r="G340" s="12"/>
     </row>
-    <row r="341" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="341" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A341" s="10">
-        <f t="shared" si="5"/>
+        <f>A340+1</f>
         <v>336</v>
       </c>
       <c r="B341" s="11" t="s">
@@ -8511,9 +8522,9 @@
       <c r="F341" s="10"/>
       <c r="G341" s="12"/>
     </row>
-    <row r="342" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="342" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A342" s="10">
-        <f t="shared" si="5"/>
+        <f>A341+1</f>
         <v>337</v>
       </c>
       <c r="B342" s="11" t="s">
@@ -8529,9 +8540,9 @@
       <c r="F342" s="10"/>
       <c r="G342" s="12"/>
     </row>
-    <row r="343" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="343" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A343" s="10">
-        <f t="shared" si="5"/>
+        <f>A342+1</f>
         <v>338</v>
       </c>
       <c r="B343" s="11" t="s">
@@ -8545,9 +8556,9 @@
       <c r="F343" s="10"/>
       <c r="G343" s="12"/>
     </row>
-    <row r="344" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="344" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A344" s="10">
-        <f t="shared" si="5"/>
+        <f>A343+1</f>
         <v>339</v>
       </c>
       <c r="B344" s="11" t="s">
@@ -8563,9 +8574,9 @@
       <c r="F344" s="10"/>
       <c r="G344" s="12"/>
     </row>
-    <row r="345" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="345" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A345" s="10">
-        <f t="shared" si="5"/>
+        <f>A344+1</f>
         <v>340</v>
       </c>
       <c r="B345" s="11" t="s">
@@ -8579,9 +8590,9 @@
       <c r="F345" s="10"/>
       <c r="G345" s="12"/>
     </row>
-    <row r="346" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="346" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A346" s="10">
-        <f t="shared" si="5"/>
+        <f>A345+1</f>
         <v>341</v>
       </c>
       <c r="B346" s="11" t="s">
@@ -8595,9 +8606,9 @@
       <c r="F346" s="10"/>
       <c r="G346" s="12"/>
     </row>
-    <row r="347" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="347" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A347" s="10">
-        <f t="shared" si="5"/>
+        <f>A346+1</f>
         <v>342</v>
       </c>
       <c r="B347" s="11" t="s">
@@ -8611,9 +8622,9 @@
       <c r="F347" s="10"/>
       <c r="G347" s="12"/>
     </row>
-    <row r="348" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="348" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A348" s="10">
-        <f t="shared" si="5"/>
+        <f>A347+1</f>
         <v>343</v>
       </c>
       <c r="B348" s="11" t="s">
@@ -8627,9 +8638,9 @@
       <c r="F348" s="10"/>
       <c r="G348" s="12"/>
     </row>
-    <row r="349" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="349" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A349" s="10">
-        <f t="shared" si="5"/>
+        <f>A348+1</f>
         <v>344</v>
       </c>
       <c r="B349" s="11" t="s">
@@ -8643,9 +8654,9 @@
       <c r="F349" s="10"/>
       <c r="G349" s="12"/>
     </row>
-    <row r="350" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="350" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A350" s="10">
-        <f t="shared" si="5"/>
+        <f>A349+1</f>
         <v>345</v>
       </c>
       <c r="B350" s="11" t="s">
@@ -8659,9 +8670,9 @@
       <c r="F350" s="10"/>
       <c r="G350" s="12"/>
     </row>
-    <row r="351" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="351" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A351" s="10">
-        <f t="shared" si="5"/>
+        <f>A350+1</f>
         <v>346</v>
       </c>
       <c r="B351" s="11" t="s">
@@ -8677,9 +8688,9 @@
       <c r="F351" s="10"/>
       <c r="G351" s="12"/>
     </row>
-    <row r="352" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="352" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A352" s="10">
-        <f t="shared" si="5"/>
+        <f>A351+1</f>
         <v>347</v>
       </c>
       <c r="B352" s="11" t="s">
@@ -8693,9 +8704,9 @@
       <c r="F352" s="10"/>
       <c r="G352" s="12"/>
     </row>
-    <row r="353" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="353" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A353" s="10">
-        <f t="shared" si="5"/>
+        <f>A352+1</f>
         <v>348</v>
       </c>
       <c r="B353" s="11" t="s">
@@ -8711,9 +8722,9 @@
       <c r="F353" s="10"/>
       <c r="G353" s="12"/>
     </row>
-    <row r="354" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="354" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A354" s="10">
-        <f t="shared" si="5"/>
+        <f>A353+1</f>
         <v>349</v>
       </c>
       <c r="B354" s="11" t="s">
@@ -8727,9 +8738,9 @@
       <c r="F354" s="10"/>
       <c r="G354" s="12"/>
     </row>
-    <row r="355" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="355" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A355" s="10">
-        <f t="shared" si="5"/>
+        <f>A354+1</f>
         <v>350</v>
       </c>
       <c r="B355" s="11" t="s">
@@ -8743,9 +8754,9 @@
       <c r="F355" s="10"/>
       <c r="G355" s="12"/>
     </row>
-    <row r="356" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="356" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A356" s="10">
-        <f t="shared" si="5"/>
+        <f>A355+1</f>
         <v>351</v>
       </c>
       <c r="B356" s="11" t="s">
@@ -8759,9 +8770,9 @@
       <c r="F356" s="10"/>
       <c r="G356" s="12"/>
     </row>
-    <row r="357" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="357" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A357" s="10">
-        <f t="shared" si="5"/>
+        <f>A356+1</f>
         <v>352</v>
       </c>
       <c r="B357" s="11" t="s">
@@ -8775,9 +8786,9 @@
       <c r="F357" s="10"/>
       <c r="G357" s="12"/>
     </row>
-    <row r="358" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="358" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A358" s="10">
-        <f t="shared" si="5"/>
+        <f>A357+1</f>
         <v>353</v>
       </c>
       <c r="B358" s="11" t="s">
@@ -8791,9 +8802,9 @@
       <c r="F358" s="10"/>
       <c r="G358" s="12"/>
     </row>
-    <row r="359" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="359" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A359" s="10">
-        <f t="shared" si="5"/>
+        <f>A358+1</f>
         <v>354</v>
       </c>
       <c r="B359" s="11" t="s">
@@ -8807,9 +8818,9 @@
       <c r="F359" s="10"/>
       <c r="G359" s="12"/>
     </row>
-    <row r="360" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="360" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A360" s="10">
-        <f t="shared" si="5"/>
+        <f>A359+1</f>
         <v>355</v>
       </c>
       <c r="B360" s="11" t="s">
@@ -8823,9 +8834,9 @@
       <c r="F360" s="10"/>
       <c r="G360" s="12"/>
     </row>
-    <row r="361" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="361" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A361" s="10">
-        <f t="shared" si="5"/>
+        <f>A360+1</f>
         <v>356</v>
       </c>
       <c r="B361" s="11" t="s">
@@ -8839,9 +8850,9 @@
       <c r="F361" s="10"/>
       <c r="G361" s="12"/>
     </row>
-    <row r="362" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="362" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A362" s="10">
-        <f t="shared" si="5"/>
+        <f>A361+1</f>
         <v>357</v>
       </c>
       <c r="B362" s="11" t="s">
@@ -8855,9 +8866,9 @@
       <c r="F362" s="10"/>
       <c r="G362" s="12"/>
     </row>
-    <row r="363" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="363" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A363" s="10">
-        <f t="shared" si="5"/>
+        <f>A362+1</f>
         <v>358</v>
       </c>
       <c r="B363" s="11" t="s">
@@ -8871,9 +8882,9 @@
       <c r="F363" s="10"/>
       <c r="G363" s="12"/>
     </row>
-    <row r="364" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="364" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A364" s="10">
-        <f t="shared" si="5"/>
+        <f>A363+1</f>
         <v>359</v>
       </c>
       <c r="B364" s="11" t="s">
@@ -8887,9 +8898,9 @@
       <c r="F364" s="10"/>
       <c r="G364" s="12"/>
     </row>
-    <row r="365" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="365" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A365" s="10">
-        <f t="shared" si="5"/>
+        <f>A364+1</f>
         <v>360</v>
       </c>
       <c r="B365" s="11" t="s">
@@ -8903,9 +8914,9 @@
       <c r="F365" s="10"/>
       <c r="G365" s="12"/>
     </row>
-    <row r="366" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="366" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A366" s="10">
-        <f t="shared" si="5"/>
+        <f>A365+1</f>
         <v>361</v>
       </c>
       <c r="B366" s="11" t="s">
@@ -8919,9 +8930,9 @@
       <c r="F366" s="10"/>
       <c r="G366" s="12"/>
     </row>
-    <row r="367" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="367" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A367" s="10">
-        <f t="shared" si="5"/>
+        <f>A366+1</f>
         <v>362</v>
       </c>
       <c r="B367" s="11" t="s">
@@ -8935,9 +8946,9 @@
       <c r="F367" s="10"/>
       <c r="G367" s="12"/>
     </row>
-    <row r="368" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="368" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A368" s="10">
-        <f t="shared" si="5"/>
+        <f>A367+1</f>
         <v>363</v>
       </c>
       <c r="B368" s="11" t="s">
@@ -8951,9 +8962,9 @@
       <c r="F368" s="10"/>
       <c r="G368" s="12"/>
     </row>
-    <row r="369" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="369" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A369" s="10">
-        <f t="shared" si="5"/>
+        <f>A368+1</f>
         <v>364</v>
       </c>
       <c r="B369" s="11" t="s">
@@ -8967,9 +8978,9 @@
       <c r="F369" s="10"/>
       <c r="G369" s="12"/>
     </row>
-    <row r="370" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="370" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A370" s="10">
-        <f t="shared" si="5"/>
+        <f>A369+1</f>
         <v>365</v>
       </c>
       <c r="B370" s="11" t="s">
@@ -8983,9 +8994,9 @@
       <c r="F370" s="10"/>
       <c r="G370" s="12"/>
     </row>
-    <row r="371" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="371" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A371" s="10">
-        <f t="shared" si="5"/>
+        <f>A370+1</f>
         <v>366</v>
       </c>
       <c r="B371" s="11" t="s">
@@ -8999,9 +9010,9 @@
       <c r="F371" s="10"/>
       <c r="G371" s="12"/>
     </row>
-    <row r="372" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="372" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A372" s="10">
-        <f t="shared" si="5"/>
+        <f>A371+1</f>
         <v>367</v>
       </c>
       <c r="B372" s="11" t="s">
@@ -9015,9 +9026,9 @@
       <c r="F372" s="10"/>
       <c r="G372" s="12"/>
     </row>
-    <row r="373" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="373" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A373" s="10">
-        <f t="shared" si="5"/>
+        <f>A372+1</f>
         <v>368</v>
       </c>
       <c r="B373" s="11" t="s">
@@ -9031,9 +9042,9 @@
       <c r="F373" s="10"/>
       <c r="G373" s="12"/>
     </row>
-    <row r="374" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="374" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A374" s="10">
-        <f t="shared" si="5"/>
+        <f>A373+1</f>
         <v>369</v>
       </c>
       <c r="B374" s="11" t="s">
@@ -9047,9 +9058,9 @@
       <c r="F374" s="10"/>
       <c r="G374" s="12"/>
     </row>
-    <row r="375" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="375" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A375" s="10">
-        <f t="shared" si="5"/>
+        <f>A374+1</f>
         <v>370</v>
       </c>
       <c r="B375" s="11" t="s">
@@ -9063,9 +9074,9 @@
       <c r="F375" s="10"/>
       <c r="G375" s="12"/>
     </row>
-    <row r="376" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="376" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A376" s="10">
-        <f t="shared" si="5"/>
+        <f>A375+1</f>
         <v>371</v>
       </c>
       <c r="B376" s="11" t="s">
@@ -9079,9 +9090,9 @@
       <c r="F376" s="10"/>
       <c r="G376" s="12"/>
     </row>
-    <row r="377" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="377" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A377" s="10">
-        <f t="shared" si="5"/>
+        <f>A376+1</f>
         <v>372</v>
       </c>
       <c r="B377" s="11" t="s">
@@ -9095,9 +9106,9 @@
       <c r="F377" s="10"/>
       <c r="G377" s="12"/>
     </row>
-    <row r="378" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="378" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A378" s="10">
-        <f t="shared" si="5"/>
+        <f>A377+1</f>
         <v>373</v>
       </c>
       <c r="B378" s="11" t="s">
@@ -9111,9 +9122,9 @@
       <c r="F378" s="10"/>
       <c r="G378" s="12"/>
     </row>
-    <row r="379" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="379" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A379" s="10">
-        <f t="shared" si="5"/>
+        <f>A378+1</f>
         <v>374</v>
       </c>
       <c r="B379" s="11" t="s">
@@ -9127,9 +9138,9 @@
       <c r="F379" s="10"/>
       <c r="G379" s="12"/>
     </row>
-    <row r="380" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="380" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A380" s="10">
-        <f t="shared" si="5"/>
+        <f>A379+1</f>
         <v>375</v>
       </c>
       <c r="B380" s="11" t="s">
@@ -9143,9 +9154,9 @@
       <c r="F380" s="10"/>
       <c r="G380" s="12"/>
     </row>
-    <row r="381" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="381" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A381" s="10">
-        <f t="shared" si="5"/>
+        <f>A380+1</f>
         <v>376</v>
       </c>
       <c r="B381" s="11" t="s">
@@ -9159,9 +9170,9 @@
       <c r="F381" s="10"/>
       <c r="G381" s="12"/>
     </row>
-    <row r="382" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="382" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A382" s="10">
-        <f t="shared" si="5"/>
+        <f>A381+1</f>
         <v>377</v>
       </c>
       <c r="B382" s="11" t="s">
@@ -9175,9 +9186,9 @@
       <c r="F382" s="10"/>
       <c r="G382" s="12"/>
     </row>
-    <row r="383" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="383" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A383" s="10">
-        <f t="shared" si="5"/>
+        <f>A382+1</f>
         <v>378</v>
       </c>
       <c r="B383" s="11" t="s">
@@ -9191,9 +9202,9 @@
       <c r="F383" s="10"/>
       <c r="G383" s="12"/>
     </row>
-    <row r="384" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="384" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A384" s="10">
-        <f t="shared" si="5"/>
+        <f>A383+1</f>
         <v>379</v>
       </c>
       <c r="B384" s="11" t="s">
@@ -9207,9 +9218,9 @@
       <c r="F384" s="10"/>
       <c r="G384" s="12"/>
     </row>
-    <row r="385" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="385" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A385" s="10">
-        <f t="shared" si="5"/>
+        <f>A384+1</f>
         <v>380</v>
       </c>
       <c r="B385" s="11" t="s">
@@ -9223,9 +9234,9 @@
       <c r="F385" s="10"/>
       <c r="G385" s="12"/>
     </row>
-    <row r="386" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="386" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A386" s="10">
-        <f t="shared" si="5"/>
+        <f>A385+1</f>
         <v>381</v>
       </c>
       <c r="B386" s="11" t="s">
@@ -9239,9 +9250,9 @@
       <c r="F386" s="10"/>
       <c r="G386" s="12"/>
     </row>
-    <row r="387" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="387" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A387" s="10">
-        <f t="shared" si="5"/>
+        <f>A386+1</f>
         <v>382</v>
       </c>
       <c r="B387" s="11" t="s">
@@ -9255,9 +9266,9 @@
       <c r="F387" s="10"/>
       <c r="G387" s="12"/>
     </row>
-    <row r="388" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="388" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A388" s="10">
-        <f t="shared" si="5"/>
+        <f>A387+1</f>
         <v>383</v>
       </c>
       <c r="B388" s="11" t="s">
@@ -9273,9 +9284,9 @@
       <c r="F388" s="10"/>
       <c r="G388" s="12"/>
     </row>
-    <row r="389" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="389" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A389" s="10">
-        <f t="shared" si="5"/>
+        <f>A388+1</f>
         <v>384</v>
       </c>
       <c r="B389" s="11" t="s">
@@ -9291,9 +9302,9 @@
       <c r="F389" s="10"/>
       <c r="G389" s="12"/>
     </row>
-    <row r="390" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="390" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A390" s="10">
-        <f t="shared" si="5"/>
+        <f>A389+1</f>
         <v>385</v>
       </c>
       <c r="B390" s="11" t="s">
@@ -9307,9 +9318,9 @@
       <c r="F390" s="10"/>
       <c r="G390" s="12"/>
     </row>
-    <row r="391" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="391" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A391" s="10">
-        <f t="shared" ref="A391:A454" si="6">A390+1</f>
+        <f>A390+1</f>
         <v>386</v>
       </c>
       <c r="B391" s="11" t="s">
@@ -9323,9 +9334,9 @@
       <c r="F391" s="10"/>
       <c r="G391" s="12"/>
     </row>
-    <row r="392" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="392" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A392" s="10">
-        <f t="shared" si="6"/>
+        <f>A391+1</f>
         <v>387</v>
       </c>
       <c r="B392" s="11" t="s">
@@ -9339,9 +9350,9 @@
       <c r="F392" s="10"/>
       <c r="G392" s="12"/>
     </row>
-    <row r="393" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="393" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A393" s="10">
-        <f t="shared" si="6"/>
+        <f>A392+1</f>
         <v>388</v>
       </c>
       <c r="B393" s="11" t="s">
@@ -9355,9 +9366,9 @@
       <c r="F393" s="10"/>
       <c r="G393" s="12"/>
     </row>
-    <row r="394" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="394" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A394" s="10">
-        <f t="shared" si="6"/>
+        <f>A393+1</f>
         <v>389</v>
       </c>
       <c r="B394" s="11" t="s">
@@ -9371,9 +9382,9 @@
       <c r="F394" s="10"/>
       <c r="G394" s="12"/>
     </row>
-    <row r="395" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="395" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A395" s="10">
-        <f t="shared" si="6"/>
+        <f>A394+1</f>
         <v>390</v>
       </c>
       <c r="B395" s="11" t="s">
@@ -9387,9 +9398,9 @@
       <c r="F395" s="10"/>
       <c r="G395" s="12"/>
     </row>
-    <row r="396" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="396" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A396" s="10">
-        <f t="shared" si="6"/>
+        <f>A395+1</f>
         <v>391</v>
       </c>
       <c r="B396" s="11" t="s">
@@ -9403,9 +9414,9 @@
       <c r="F396" s="10"/>
       <c r="G396" s="12"/>
     </row>
-    <row r="397" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="397" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A397" s="10">
-        <f t="shared" si="6"/>
+        <f>A396+1</f>
         <v>392</v>
       </c>
       <c r="B397" s="11" t="s">
@@ -9419,9 +9430,9 @@
       <c r="F397" s="10"/>
       <c r="G397" s="12"/>
     </row>
-    <row r="398" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="398" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A398" s="10">
-        <f t="shared" si="6"/>
+        <f>A397+1</f>
         <v>393</v>
       </c>
       <c r="B398" s="11" t="s">
@@ -9435,9 +9446,9 @@
       <c r="F398" s="10"/>
       <c r="G398" s="12"/>
     </row>
-    <row r="399" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="399" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A399" s="10">
-        <f t="shared" si="6"/>
+        <f>A398+1</f>
         <v>394</v>
       </c>
       <c r="B399" s="11" t="s">
@@ -9451,9 +9462,9 @@
       <c r="F399" s="10"/>
       <c r="G399" s="12"/>
     </row>
-    <row r="400" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="400" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A400" s="10">
-        <f t="shared" si="6"/>
+        <f>A399+1</f>
         <v>395</v>
       </c>
       <c r="B400" s="11" t="s">
@@ -9467,9 +9478,9 @@
       <c r="F400" s="10"/>
       <c r="G400" s="12"/>
     </row>
-    <row r="401" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="401" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A401" s="10">
-        <f t="shared" si="6"/>
+        <f>A400+1</f>
         <v>396</v>
       </c>
       <c r="B401" s="11" t="s">
@@ -9483,9 +9494,9 @@
       <c r="F401" s="10"/>
       <c r="G401" s="12"/>
     </row>
-    <row r="402" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="402" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A402" s="10">
-        <f t="shared" si="6"/>
+        <f>A401+1</f>
         <v>397</v>
       </c>
       <c r="B402" s="11" t="s">
@@ -9499,9 +9510,9 @@
       <c r="F402" s="10"/>
       <c r="G402" s="12"/>
     </row>
-    <row r="403" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="403" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A403" s="10">
-        <f t="shared" si="6"/>
+        <f>A402+1</f>
         <v>398</v>
       </c>
       <c r="B403" s="11" t="s">
@@ -9515,9 +9526,9 @@
       <c r="F403" s="10"/>
       <c r="G403" s="12"/>
     </row>
-    <row r="404" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="404" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A404" s="10">
-        <f t="shared" si="6"/>
+        <f>A403+1</f>
         <v>399</v>
       </c>
       <c r="B404" s="11" t="s">
@@ -9533,9 +9544,9 @@
       <c r="F404" s="10"/>
       <c r="G404" s="12"/>
     </row>
-    <row r="405" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="405" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A405" s="10">
-        <f t="shared" si="6"/>
+        <f>A404+1</f>
         <v>400</v>
       </c>
       <c r="B405" s="11" t="s">
@@ -9549,9 +9560,9 @@
       <c r="F405" s="10"/>
       <c r="G405" s="12"/>
     </row>
-    <row r="406" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="406" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A406" s="10">
-        <f t="shared" si="6"/>
+        <f>A405+1</f>
         <v>401</v>
       </c>
       <c r="B406" s="11" t="s">
@@ -9565,9 +9576,9 @@
       <c r="F406" s="10"/>
       <c r="G406" s="12"/>
     </row>
-    <row r="407" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="407" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A407" s="10">
-        <f t="shared" si="6"/>
+        <f>A406+1</f>
         <v>402</v>
       </c>
       <c r="B407" s="11" t="s">
@@ -9581,9 +9592,9 @@
       <c r="F407" s="10"/>
       <c r="G407" s="12"/>
     </row>
-    <row r="408" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="408" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A408" s="10">
-        <f t="shared" si="6"/>
+        <f>A407+1</f>
         <v>403</v>
       </c>
       <c r="B408" s="11" t="s">
@@ -9597,9 +9608,9 @@
       <c r="F408" s="10"/>
       <c r="G408" s="12"/>
     </row>
-    <row r="409" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="409" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A409" s="10">
-        <f t="shared" si="6"/>
+        <f>A408+1</f>
         <v>404</v>
       </c>
       <c r="B409" s="11" t="s">
@@ -9613,9 +9624,9 @@
       <c r="F409" s="10"/>
       <c r="G409" s="12"/>
     </row>
-    <row r="410" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="410" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A410" s="10">
-        <f t="shared" si="6"/>
+        <f>A409+1</f>
         <v>405</v>
       </c>
       <c r="B410" s="11" t="s">
@@ -9629,9 +9640,9 @@
       <c r="F410" s="10"/>
       <c r="G410" s="12"/>
     </row>
-    <row r="411" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="411" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A411" s="10">
-        <f t="shared" si="6"/>
+        <f>A410+1</f>
         <v>406</v>
       </c>
       <c r="B411" s="11" t="s">
@@ -9645,9 +9656,9 @@
       <c r="F411" s="10"/>
       <c r="G411" s="12"/>
     </row>
-    <row r="412" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="412" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A412" s="10">
-        <f t="shared" si="6"/>
+        <f>A411+1</f>
         <v>407</v>
       </c>
       <c r="B412" s="11" t="s">
@@ -9661,9 +9672,9 @@
       <c r="F412" s="10"/>
       <c r="G412" s="12"/>
     </row>
-    <row r="413" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="413" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A413" s="10">
-        <f t="shared" si="6"/>
+        <f>A412+1</f>
         <v>408</v>
       </c>
       <c r="B413" s="11" t="s">
@@ -9677,9 +9688,9 @@
       <c r="F413" s="10"/>
       <c r="G413" s="12"/>
     </row>
-    <row r="414" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="414" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A414" s="10">
-        <f t="shared" si="6"/>
+        <f>A413+1</f>
         <v>409</v>
       </c>
       <c r="B414" s="11" t="s">
@@ -9693,9 +9704,9 @@
       <c r="F414" s="10"/>
       <c r="G414" s="12"/>
     </row>
-    <row r="415" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="415" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A415" s="10">
-        <f t="shared" si="6"/>
+        <f>A414+1</f>
         <v>410</v>
       </c>
       <c r="B415" s="11" t="s">
@@ -9709,9 +9720,9 @@
       <c r="F415" s="10"/>
       <c r="G415" s="12"/>
     </row>
-    <row r="416" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="416" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A416" s="10">
-        <f t="shared" si="6"/>
+        <f>A415+1</f>
         <v>411</v>
       </c>
       <c r="B416" s="11" t="s">
@@ -9725,9 +9736,9 @@
       <c r="F416" s="10"/>
       <c r="G416" s="12"/>
     </row>
-    <row r="417" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="417" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A417" s="10">
-        <f t="shared" si="6"/>
+        <f>A416+1</f>
         <v>412</v>
       </c>
       <c r="B417" s="11" t="s">
@@ -9741,9 +9752,9 @@
       <c r="F417" s="10"/>
       <c r="G417" s="12"/>
     </row>
-    <row r="418" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="418" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A418" s="10">
-        <f t="shared" si="6"/>
+        <f>A417+1</f>
         <v>413</v>
       </c>
       <c r="B418" s="11" t="s">
@@ -9757,9 +9768,9 @@
       <c r="F418" s="10"/>
       <c r="G418" s="12"/>
     </row>
-    <row r="419" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="419" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A419" s="10">
-        <f t="shared" si="6"/>
+        <f>A418+1</f>
         <v>414</v>
       </c>
       <c r="B419" s="11" t="s">
@@ -9773,9 +9784,9 @@
       <c r="F419" s="10"/>
       <c r="G419" s="12"/>
     </row>
-    <row r="420" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="420" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A420" s="10">
-        <f t="shared" si="6"/>
+        <f>A419+1</f>
         <v>415</v>
       </c>
       <c r="B420" s="11" t="s">
@@ -9789,9 +9800,9 @@
       <c r="F420" s="10"/>
       <c r="G420" s="12"/>
     </row>
-    <row r="421" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="421" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A421" s="10">
-        <f t="shared" si="6"/>
+        <f>A420+1</f>
         <v>416</v>
       </c>
       <c r="B421" s="11" t="s">
@@ -9805,9 +9816,9 @@
       <c r="F421" s="10"/>
       <c r="G421" s="12"/>
     </row>
-    <row r="422" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="422" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A422" s="10">
-        <f t="shared" si="6"/>
+        <f>A421+1</f>
         <v>417</v>
       </c>
       <c r="B422" s="11" t="s">
@@ -9821,9 +9832,9 @@
       <c r="F422" s="10"/>
       <c r="G422" s="12"/>
     </row>
-    <row r="423" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="423" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A423" s="10">
-        <f t="shared" si="6"/>
+        <f>A422+1</f>
         <v>418</v>
       </c>
       <c r="B423" s="11" t="s">
@@ -9837,9 +9848,9 @@
       <c r="F423" s="10"/>
       <c r="G423" s="12"/>
     </row>
-    <row r="424" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="424" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A424" s="10">
-        <f t="shared" si="6"/>
+        <f>A423+1</f>
         <v>419</v>
       </c>
       <c r="B424" s="11" t="s">
@@ -9853,9 +9864,9 @@
       <c r="F424" s="10"/>
       <c r="G424" s="12"/>
     </row>
-    <row r="425" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="425" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A425" s="10">
-        <f t="shared" si="6"/>
+        <f>A424+1</f>
         <v>420</v>
       </c>
       <c r="B425" s="11" t="s">
@@ -9869,9 +9880,9 @@
       <c r="F425" s="10"/>
       <c r="G425" s="12"/>
     </row>
-    <row r="426" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="426" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A426" s="10">
-        <f t="shared" si="6"/>
+        <f>A425+1</f>
         <v>421</v>
       </c>
       <c r="B426" s="11" t="s">
@@ -9885,9 +9896,9 @@
       <c r="F426" s="10"/>
       <c r="G426" s="12"/>
     </row>
-    <row r="427" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="427" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A427" s="10">
-        <f t="shared" si="6"/>
+        <f>A426+1</f>
         <v>422</v>
       </c>
       <c r="B427" s="11" t="s">
@@ -9901,9 +9912,9 @@
       <c r="F427" s="10"/>
       <c r="G427" s="12"/>
     </row>
-    <row r="428" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="428" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A428" s="10">
-        <f t="shared" si="6"/>
+        <f>A427+1</f>
         <v>423</v>
       </c>
       <c r="B428" s="11" t="s">
@@ -9917,9 +9928,9 @@
       <c r="F428" s="10"/>
       <c r="G428" s="12"/>
     </row>
-    <row r="429" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="429" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A429" s="10">
-        <f t="shared" si="6"/>
+        <f>A428+1</f>
         <v>424</v>
       </c>
       <c r="B429" s="11" t="s">
@@ -9933,9 +9944,9 @@
       <c r="F429" s="10"/>
       <c r="G429" s="12"/>
     </row>
-    <row r="430" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="430" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A430" s="10">
-        <f t="shared" si="6"/>
+        <f>A429+1</f>
         <v>425</v>
       </c>
       <c r="B430" s="11" t="s">
@@ -9949,9 +9960,9 @@
       <c r="F430" s="10"/>
       <c r="G430" s="12"/>
     </row>
-    <row r="431" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="431" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A431" s="10">
-        <f t="shared" si="6"/>
+        <f>A430+1</f>
         <v>426</v>
       </c>
       <c r="B431" s="11" t="s">
@@ -9965,9 +9976,9 @@
       <c r="F431" s="10"/>
       <c r="G431" s="12"/>
     </row>
-    <row r="432" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="432" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A432" s="10">
-        <f t="shared" si="6"/>
+        <f>A431+1</f>
         <v>427</v>
       </c>
       <c r="B432" s="11" t="s">
@@ -9981,9 +9992,9 @@
       <c r="F432" s="10"/>
       <c r="G432" s="12"/>
     </row>
-    <row r="433" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="433" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A433" s="10">
-        <f t="shared" si="6"/>
+        <f>A432+1</f>
         <v>428</v>
       </c>
       <c r="B433" s="11" t="s">
@@ -9997,9 +10008,9 @@
       <c r="F433" s="10"/>
       <c r="G433" s="12"/>
     </row>
-    <row r="434" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="434" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A434" s="10">
-        <f t="shared" si="6"/>
+        <f>A433+1</f>
         <v>429</v>
       </c>
       <c r="B434" s="11" t="s">
@@ -10008,14 +10019,16 @@
       <c r="C434" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D434" s="10"/>
+      <c r="D434" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E434" s="10"/>
       <c r="F434" s="10"/>
       <c r="G434" s="12"/>
     </row>
-    <row r="435" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="435" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A435" s="10">
-        <f t="shared" si="6"/>
+        <f>A434+1</f>
         <v>430</v>
       </c>
       <c r="B435" s="11" t="s">
@@ -10031,9 +10044,9 @@
       <c r="F435" s="10"/>
       <c r="G435" s="12"/>
     </row>
-    <row r="436" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="436" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A436" s="10">
-        <f t="shared" si="6"/>
+        <f>A435+1</f>
         <v>431</v>
       </c>
       <c r="B436" s="11" t="s">
@@ -10047,9 +10060,9 @@
       <c r="F436" s="10"/>
       <c r="G436" s="12"/>
     </row>
-    <row r="437" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="437" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A437" s="10">
-        <f t="shared" si="6"/>
+        <f>A436+1</f>
         <v>432</v>
       </c>
       <c r="B437" s="11" t="s">
@@ -10065,9 +10078,9 @@
       <c r="F437" s="10"/>
       <c r="G437" s="12"/>
     </row>
-    <row r="438" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="438" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A438" s="10">
-        <f t="shared" si="6"/>
+        <f>A437+1</f>
         <v>433</v>
       </c>
       <c r="B438" s="11" t="s">
@@ -10081,9 +10094,9 @@
       <c r="F438" s="10"/>
       <c r="G438" s="12"/>
     </row>
-    <row r="439" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="439" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A439" s="10">
-        <f t="shared" si="6"/>
+        <f>A438+1</f>
         <v>434</v>
       </c>
       <c r="B439" s="11" t="s">
@@ -10092,14 +10105,16 @@
       <c r="C439" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D439" s="10"/>
+      <c r="D439" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E439" s="10"/>
       <c r="F439" s="10"/>
       <c r="G439" s="12"/>
     </row>
-    <row r="440" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="440" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A440" s="10">
-        <f t="shared" si="6"/>
+        <f>A439+1</f>
         <v>435</v>
       </c>
       <c r="B440" s="11" t="s">
@@ -10115,9 +10130,9 @@
       <c r="F440" s="10"/>
       <c r="G440" s="12"/>
     </row>
-    <row r="441" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="441" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A441" s="10">
-        <f t="shared" si="6"/>
+        <f>A440+1</f>
         <v>436</v>
       </c>
       <c r="B441" s="11" t="s">
@@ -10131,9 +10146,9 @@
       <c r="F441" s="10"/>
       <c r="G441" s="12"/>
     </row>
-    <row r="442" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="442" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A442" s="10">
-        <f t="shared" si="6"/>
+        <f>A441+1</f>
         <v>437</v>
       </c>
       <c r="B442" s="11" t="s">
@@ -10149,9 +10164,9 @@
       <c r="F442" s="10"/>
       <c r="G442" s="12"/>
     </row>
-    <row r="443" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="443" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A443" s="10">
-        <f t="shared" si="6"/>
+        <f>A442+1</f>
         <v>438</v>
       </c>
       <c r="B443" s="11" t="s">
@@ -10165,9 +10180,9 @@
       <c r="F443" s="10"/>
       <c r="G443" s="12"/>
     </row>
-    <row r="444" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="444" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A444" s="10">
-        <f t="shared" si="6"/>
+        <f>A443+1</f>
         <v>439</v>
       </c>
       <c r="B444" s="11" t="s">
@@ -10181,9 +10196,9 @@
       <c r="F444" s="10"/>
       <c r="G444" s="12"/>
     </row>
-    <row r="445" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="445" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A445" s="10">
-        <f t="shared" si="6"/>
+        <f>A444+1</f>
         <v>440</v>
       </c>
       <c r="B445" s="11" t="s">
@@ -10197,9 +10212,9 @@
       <c r="F445" s="10"/>
       <c r="G445" s="12"/>
     </row>
-    <row r="446" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="446" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A446" s="10">
-        <f t="shared" si="6"/>
+        <f>A445+1</f>
         <v>441</v>
       </c>
       <c r="B446" s="11" t="s">
@@ -10213,9 +10228,9 @@
       <c r="F446" s="10"/>
       <c r="G446" s="12"/>
     </row>
-    <row r="447" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="447" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A447" s="10">
-        <f t="shared" si="6"/>
+        <f>A446+1</f>
         <v>442</v>
       </c>
       <c r="B447" s="11" t="s">
@@ -10229,9 +10244,9 @@
       <c r="F447" s="10"/>
       <c r="G447" s="12"/>
     </row>
-    <row r="448" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="448" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A448" s="10">
-        <f t="shared" si="6"/>
+        <f>A447+1</f>
         <v>443</v>
       </c>
       <c r="B448" s="11" t="s">
@@ -10245,9 +10260,9 @@
       <c r="F448" s="10"/>
       <c r="G448" s="12"/>
     </row>
-    <row r="449" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="449" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A449" s="10">
-        <f t="shared" si="6"/>
+        <f>A448+1</f>
         <v>444</v>
       </c>
       <c r="B449" s="11" t="s">
@@ -10261,9 +10276,9 @@
       <c r="F449" s="10"/>
       <c r="G449" s="12"/>
     </row>
-    <row r="450" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="450" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A450" s="10">
-        <f t="shared" si="6"/>
+        <f>A449+1</f>
         <v>445</v>
       </c>
       <c r="B450" s="11" t="s">
@@ -10277,9 +10292,9 @@
       <c r="F450" s="10"/>
       <c r="G450" s="12"/>
     </row>
-    <row r="451" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="451" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A451" s="10">
-        <f t="shared" si="6"/>
+        <f>A450+1</f>
         <v>446</v>
       </c>
       <c r="B451" s="11" t="s">
@@ -10295,9 +10310,9 @@
       <c r="F451" s="10"/>
       <c r="G451" s="12"/>
     </row>
-    <row r="452" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="452" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A452" s="10">
-        <f t="shared" si="6"/>
+        <f>A451+1</f>
         <v>447</v>
       </c>
       <c r="B452" s="11" t="s">
@@ -10311,9 +10326,9 @@
       <c r="F452" s="10"/>
       <c r="G452" s="12"/>
     </row>
-    <row r="453" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="453" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A453" s="10">
-        <f t="shared" si="6"/>
+        <f>A452+1</f>
         <v>448</v>
       </c>
       <c r="B453" s="11" t="s">
@@ -10322,14 +10337,16 @@
       <c r="C453" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D453" s="10"/>
+      <c r="D453" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E453" s="10"/>
       <c r="F453" s="10"/>
       <c r="G453" s="12"/>
     </row>
-    <row r="454" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="454" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A454" s="10">
-        <f t="shared" si="6"/>
+        <f>A453+1</f>
         <v>449</v>
       </c>
       <c r="B454" s="11" t="s">
@@ -10343,9 +10360,9 @@
       <c r="F454" s="10"/>
       <c r="G454" s="12"/>
     </row>
-    <row r="455" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="455" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A455" s="10">
-        <f t="shared" ref="A455:A518" si="7">A454+1</f>
+        <f>A454+1</f>
         <v>450</v>
       </c>
       <c r="B455" s="11" t="s">
@@ -10359,9 +10376,9 @@
       <c r="F455" s="10"/>
       <c r="G455" s="12"/>
     </row>
-    <row r="456" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="456" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A456" s="10">
-        <f t="shared" si="7"/>
+        <f>A455+1</f>
         <v>451</v>
       </c>
       <c r="B456" s="11" t="s">
@@ -10375,9 +10392,9 @@
       <c r="F456" s="10"/>
       <c r="G456" s="12"/>
     </row>
-    <row r="457" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="457" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A457" s="10">
-        <f t="shared" si="7"/>
+        <f>A456+1</f>
         <v>452</v>
       </c>
       <c r="B457" s="11" t="s">
@@ -10391,9 +10408,9 @@
       <c r="F457" s="10"/>
       <c r="G457" s="12"/>
     </row>
-    <row r="458" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="458" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A458" s="10">
-        <f t="shared" si="7"/>
+        <f>A457+1</f>
         <v>453</v>
       </c>
       <c r="B458" s="11" t="s">
@@ -10407,9 +10424,9 @@
       <c r="F458" s="10"/>
       <c r="G458" s="12"/>
     </row>
-    <row r="459" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="459" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A459" s="10">
-        <f t="shared" si="7"/>
+        <f>A458+1</f>
         <v>454</v>
       </c>
       <c r="B459" s="11" t="s">
@@ -10423,9 +10440,9 @@
       <c r="F459" s="10"/>
       <c r="G459" s="12"/>
     </row>
-    <row r="460" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="460" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A460" s="10">
-        <f t="shared" si="7"/>
+        <f>A459+1</f>
         <v>455</v>
       </c>
       <c r="B460" s="11" t="s">
@@ -10439,9 +10456,9 @@
       <c r="F460" s="10"/>
       <c r="G460" s="12"/>
     </row>
-    <row r="461" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="461" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A461" s="10">
-        <f t="shared" si="7"/>
+        <f>A460+1</f>
         <v>456</v>
       </c>
       <c r="B461" s="11" t="s">
@@ -10455,9 +10472,9 @@
       <c r="F461" s="10"/>
       <c r="G461" s="12"/>
     </row>
-    <row r="462" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="462" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A462" s="10">
-        <f t="shared" si="7"/>
+        <f>A461+1</f>
         <v>457</v>
       </c>
       <c r="B462" s="11" t="s">
@@ -10471,9 +10488,9 @@
       <c r="F462" s="10"/>
       <c r="G462" s="12"/>
     </row>
-    <row r="463" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="463" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A463" s="10">
-        <f t="shared" si="7"/>
+        <f>A462+1</f>
         <v>458</v>
       </c>
       <c r="B463" s="11" t="s">
@@ -10487,9 +10504,9 @@
       <c r="F463" s="10"/>
       <c r="G463" s="12"/>
     </row>
-    <row r="464" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="464" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A464" s="10">
-        <f t="shared" si="7"/>
+        <f>A463+1</f>
         <v>459</v>
       </c>
       <c r="B464" s="11" t="s">
@@ -10503,9 +10520,9 @@
       <c r="F464" s="10"/>
       <c r="G464" s="12"/>
     </row>
-    <row r="465" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="465" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A465" s="10">
-        <f t="shared" si="7"/>
+        <f>A464+1</f>
         <v>460</v>
       </c>
       <c r="B465" s="11" t="s">
@@ -10519,9 +10536,9 @@
       <c r="F465" s="10"/>
       <c r="G465" s="12"/>
     </row>
-    <row r="466" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="466" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A466" s="10">
-        <f t="shared" si="7"/>
+        <f>A465+1</f>
         <v>461</v>
       </c>
       <c r="B466" s="11" t="s">
@@ -10535,9 +10552,9 @@
       <c r="F466" s="10"/>
       <c r="G466" s="12"/>
     </row>
-    <row r="467" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="467" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A467" s="10">
-        <f t="shared" si="7"/>
+        <f>A466+1</f>
         <v>462</v>
       </c>
       <c r="B467" s="11" t="s">
@@ -10551,9 +10568,9 @@
       <c r="F467" s="10"/>
       <c r="G467" s="12"/>
     </row>
-    <row r="468" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="468" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A468" s="10">
-        <f t="shared" si="7"/>
+        <f>A467+1</f>
         <v>463</v>
       </c>
       <c r="B468" s="11" t="s">
@@ -10567,9 +10584,9 @@
       <c r="F468" s="10"/>
       <c r="G468" s="12"/>
     </row>
-    <row r="469" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="469" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A469" s="10">
-        <f t="shared" si="7"/>
+        <f>A468+1</f>
         <v>464</v>
       </c>
       <c r="B469" s="11" t="s">
@@ -10583,9 +10600,9 @@
       <c r="F469" s="10"/>
       <c r="G469" s="12"/>
     </row>
-    <row r="470" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="470" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A470" s="10">
-        <f t="shared" si="7"/>
+        <f>A469+1</f>
         <v>465</v>
       </c>
       <c r="B470" s="11" t="s">
@@ -10599,9 +10616,9 @@
       <c r="F470" s="10"/>
       <c r="G470" s="12"/>
     </row>
-    <row r="471" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="471" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A471" s="10">
-        <f t="shared" si="7"/>
+        <f>A470+1</f>
         <v>466</v>
       </c>
       <c r="B471" s="11" t="s">
@@ -10615,9 +10632,9 @@
       <c r="F471" s="10"/>
       <c r="G471" s="12"/>
     </row>
-    <row r="472" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="472" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A472" s="10">
-        <f t="shared" si="7"/>
+        <f>A471+1</f>
         <v>467</v>
       </c>
       <c r="B472" s="11" t="s">
@@ -10631,9 +10648,9 @@
       <c r="F472" s="10"/>
       <c r="G472" s="12"/>
     </row>
-    <row r="473" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="473" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A473" s="10">
-        <f t="shared" si="7"/>
+        <f>A472+1</f>
         <v>468</v>
       </c>
       <c r="B473" s="11" t="s">
@@ -10642,14 +10659,16 @@
       <c r="C473" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D473" s="10"/>
+      <c r="D473" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E473" s="10"/>
       <c r="F473" s="10"/>
       <c r="G473" s="12"/>
     </row>
-    <row r="474" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="474" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A474" s="10">
-        <f t="shared" si="7"/>
+        <f>A473+1</f>
         <v>469</v>
       </c>
       <c r="B474" s="11" t="s">
@@ -10658,14 +10677,16 @@
       <c r="C474" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D474" s="10"/>
+      <c r="D474" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E474" s="10"/>
       <c r="F474" s="10"/>
       <c r="G474" s="12"/>
     </row>
-    <row r="475" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="475" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A475" s="10">
-        <f t="shared" si="7"/>
+        <f>A474+1</f>
         <v>470</v>
       </c>
       <c r="B475" s="11" t="s">
@@ -10679,9 +10700,9 @@
       <c r="F475" s="10"/>
       <c r="G475" s="12"/>
     </row>
-    <row r="476" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="476" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A476" s="10">
-        <f t="shared" si="7"/>
+        <f>A475+1</f>
         <v>471</v>
       </c>
       <c r="B476" s="11" t="s">
@@ -10695,9 +10716,9 @@
       <c r="F476" s="10"/>
       <c r="G476" s="12"/>
     </row>
-    <row r="477" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="477" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A477" s="10">
-        <f t="shared" si="7"/>
+        <f>A476+1</f>
         <v>472</v>
       </c>
       <c r="B477" s="11" t="s">
@@ -10711,9 +10732,9 @@
       <c r="F477" s="10"/>
       <c r="G477" s="12"/>
     </row>
-    <row r="478" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="478" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A478" s="10">
-        <f t="shared" si="7"/>
+        <f>A477+1</f>
         <v>473</v>
       </c>
       <c r="B478" s="11" t="s">
@@ -10727,9 +10748,9 @@
       <c r="F478" s="10"/>
       <c r="G478" s="12"/>
     </row>
-    <row r="479" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="479" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A479" s="10">
-        <f t="shared" si="7"/>
+        <f>A478+1</f>
         <v>474</v>
       </c>
       <c r="B479" s="11" t="s">
@@ -10743,9 +10764,9 @@
       <c r="F479" s="10"/>
       <c r="G479" s="12"/>
     </row>
-    <row r="480" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="480" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A480" s="10">
-        <f t="shared" si="7"/>
+        <f>A479+1</f>
         <v>475</v>
       </c>
       <c r="B480" s="11" t="s">
@@ -10759,9 +10780,9 @@
       <c r="F480" s="10"/>
       <c r="G480" s="12"/>
     </row>
-    <row r="481" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="481" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A481" s="10">
-        <f t="shared" si="7"/>
+        <f>A480+1</f>
         <v>476</v>
       </c>
       <c r="B481" s="11" t="s">
@@ -10775,9 +10796,9 @@
       <c r="F481" s="10"/>
       <c r="G481" s="12"/>
     </row>
-    <row r="482" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="482" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A482" s="10">
-        <f t="shared" si="7"/>
+        <f>A481+1</f>
         <v>477</v>
       </c>
       <c r="B482" s="11" t="s">
@@ -10791,9 +10812,9 @@
       <c r="F482" s="10"/>
       <c r="G482" s="12"/>
     </row>
-    <row r="483" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="483" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A483" s="10">
-        <f t="shared" si="7"/>
+        <f>A482+1</f>
         <v>478</v>
       </c>
       <c r="B483" s="11" t="s">
@@ -10807,9 +10828,9 @@
       <c r="F483" s="10"/>
       <c r="G483" s="12"/>
     </row>
-    <row r="484" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="484" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A484" s="10">
-        <f t="shared" si="7"/>
+        <f>A483+1</f>
         <v>479</v>
       </c>
       <c r="B484" s="11" t="s">
@@ -10823,9 +10844,9 @@
       <c r="F484" s="10"/>
       <c r="G484" s="12"/>
     </row>
-    <row r="485" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="485" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A485" s="10">
-        <f t="shared" si="7"/>
+        <f>A484+1</f>
         <v>480</v>
       </c>
       <c r="B485" s="11" t="s">
@@ -10839,9 +10860,9 @@
       <c r="F485" s="10"/>
       <c r="G485" s="12"/>
     </row>
-    <row r="486" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="486" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A486" s="10">
-        <f t="shared" si="7"/>
+        <f>A485+1</f>
         <v>481</v>
       </c>
       <c r="B486" s="11" t="s">
@@ -10855,9 +10876,9 @@
       <c r="F486" s="10"/>
       <c r="G486" s="12"/>
     </row>
-    <row r="487" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="487" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A487" s="10">
-        <f t="shared" si="7"/>
+        <f>A486+1</f>
         <v>482</v>
       </c>
       <c r="B487" s="11" t="s">
@@ -10871,9 +10892,9 @@
       <c r="F487" s="10"/>
       <c r="G487" s="12"/>
     </row>
-    <row r="488" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="488" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A488" s="10">
-        <f t="shared" si="7"/>
+        <f>A487+1</f>
         <v>483</v>
       </c>
       <c r="B488" s="11" t="s">
@@ -10887,9 +10908,9 @@
       <c r="F488" s="10"/>
       <c r="G488" s="12"/>
     </row>
-    <row r="489" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="489" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A489" s="10">
-        <f t="shared" si="7"/>
+        <f>A488+1</f>
         <v>484</v>
       </c>
       <c r="B489" s="11" t="s">
@@ -10903,9 +10924,9 @@
       <c r="F489" s="10"/>
       <c r="G489" s="12"/>
     </row>
-    <row r="490" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="490" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A490" s="10">
-        <f t="shared" si="7"/>
+        <f>A489+1</f>
         <v>485</v>
       </c>
       <c r="B490" s="11" t="s">
@@ -10919,9 +10940,9 @@
       <c r="F490" s="10"/>
       <c r="G490" s="12"/>
     </row>
-    <row r="491" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="491" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A491" s="10">
-        <f t="shared" si="7"/>
+        <f>A490+1</f>
         <v>486</v>
       </c>
       <c r="B491" s="11" t="s">
@@ -10935,9 +10956,9 @@
       <c r="F491" s="10"/>
       <c r="G491" s="12"/>
     </row>
-    <row r="492" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="492" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A492" s="10">
-        <f t="shared" si="7"/>
+        <f>A491+1</f>
         <v>487</v>
       </c>
       <c r="B492" s="11" t="s">
@@ -10951,9 +10972,9 @@
       <c r="F492" s="10"/>
       <c r="G492" s="12"/>
     </row>
-    <row r="493" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="493" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A493" s="10">
-        <f t="shared" si="7"/>
+        <f>A492+1</f>
         <v>488</v>
       </c>
       <c r="B493" s="11" t="s">
@@ -10967,9 +10988,9 @@
       <c r="F493" s="10"/>
       <c r="G493" s="12"/>
     </row>
-    <row r="494" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="494" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A494" s="10">
-        <f t="shared" si="7"/>
+        <f>A493+1</f>
         <v>489</v>
       </c>
       <c r="B494" s="11" t="s">
@@ -10983,9 +11004,9 @@
       <c r="F494" s="10"/>
       <c r="G494" s="12"/>
     </row>
-    <row r="495" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="495" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A495" s="10">
-        <f t="shared" si="7"/>
+        <f>A494+1</f>
         <v>490</v>
       </c>
       <c r="B495" s="11" t="s">
@@ -10999,9 +11020,9 @@
       <c r="F495" s="10"/>
       <c r="G495" s="12"/>
     </row>
-    <row r="496" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="496" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A496" s="10">
-        <f t="shared" si="7"/>
+        <f>A495+1</f>
         <v>491</v>
       </c>
       <c r="B496" s="11" t="s">
@@ -11015,9 +11036,9 @@
       <c r="F496" s="10"/>
       <c r="G496" s="12"/>
     </row>
-    <row r="497" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="497" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A497" s="10">
-        <f t="shared" si="7"/>
+        <f>A496+1</f>
         <v>492</v>
       </c>
       <c r="B497" s="11" t="s">
@@ -11031,9 +11052,9 @@
       <c r="F497" s="10"/>
       <c r="G497" s="12"/>
     </row>
-    <row r="498" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="498" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A498" s="10">
-        <f t="shared" si="7"/>
+        <f>A497+1</f>
         <v>493</v>
       </c>
       <c r="B498" s="11" t="s">
@@ -11047,9 +11068,9 @@
       <c r="F498" s="10"/>
       <c r="G498" s="12"/>
     </row>
-    <row r="499" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="499" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A499" s="10">
-        <f t="shared" si="7"/>
+        <f>A498+1</f>
         <v>494</v>
       </c>
       <c r="B499" s="11" t="s">
@@ -11063,9 +11084,9 @@
       <c r="F499" s="10"/>
       <c r="G499" s="12"/>
     </row>
-    <row r="500" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="500" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A500" s="10">
-        <f t="shared" si="7"/>
+        <f>A499+1</f>
         <v>495</v>
       </c>
       <c r="B500" s="11" t="s">
@@ -11079,9 +11100,9 @@
       <c r="F500" s="10"/>
       <c r="G500" s="12"/>
     </row>
-    <row r="501" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="501" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A501" s="10">
-        <f t="shared" si="7"/>
+        <f>A500+1</f>
         <v>496</v>
       </c>
       <c r="B501" s="11" t="s">
@@ -11095,9 +11116,9 @@
       <c r="F501" s="10"/>
       <c r="G501" s="12"/>
     </row>
-    <row r="502" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="502" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A502" s="10">
-        <f t="shared" si="7"/>
+        <f>A501+1</f>
         <v>497</v>
       </c>
       <c r="B502" s="11" t="s">
@@ -11111,9 +11132,9 @@
       <c r="F502" s="10"/>
       <c r="G502" s="12"/>
     </row>
-    <row r="503" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="503" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A503" s="10">
-        <f t="shared" si="7"/>
+        <f>A502+1</f>
         <v>498</v>
       </c>
       <c r="B503" s="11" t="s">
@@ -11127,9 +11148,9 @@
       <c r="F503" s="10"/>
       <c r="G503" s="12"/>
     </row>
-    <row r="504" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="504" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A504" s="10">
-        <f t="shared" si="7"/>
+        <f>A503+1</f>
         <v>499</v>
       </c>
       <c r="B504" s="11" t="s">
@@ -11143,9 +11164,9 @@
       <c r="F504" s="10"/>
       <c r="G504" s="12"/>
     </row>
-    <row r="505" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="505" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A505" s="10">
-        <f t="shared" si="7"/>
+        <f>A504+1</f>
         <v>500</v>
       </c>
       <c r="B505" s="11" t="s">
@@ -11159,9 +11180,9 @@
       <c r="F505" s="10"/>
       <c r="G505" s="12"/>
     </row>
-    <row r="506" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="506" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A506" s="10">
-        <f t="shared" si="7"/>
+        <f>A505+1</f>
         <v>501</v>
       </c>
       <c r="B506" s="11" t="s">
@@ -11175,9 +11196,9 @@
       <c r="F506" s="10"/>
       <c r="G506" s="12"/>
     </row>
-    <row r="507" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="507" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A507" s="10">
-        <f t="shared" si="7"/>
+        <f>A506+1</f>
         <v>502</v>
       </c>
       <c r="B507" s="11" t="s">
@@ -11191,9 +11212,9 @@
       <c r="F507" s="10"/>
       <c r="G507" s="12"/>
     </row>
-    <row r="508" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="508" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A508" s="10">
-        <f t="shared" si="7"/>
+        <f>A507+1</f>
         <v>503</v>
       </c>
       <c r="B508" s="11" t="s">
@@ -11207,9 +11228,9 @@
       <c r="F508" s="10"/>
       <c r="G508" s="12"/>
     </row>
-    <row r="509" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="509" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A509" s="10">
-        <f t="shared" si="7"/>
+        <f>A508+1</f>
         <v>504</v>
       </c>
       <c r="B509" s="11" t="s">
@@ -11223,9 +11244,9 @@
       <c r="F509" s="10"/>
       <c r="G509" s="12"/>
     </row>
-    <row r="510" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="510" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A510" s="10">
-        <f t="shared" si="7"/>
+        <f>A509+1</f>
         <v>505</v>
       </c>
       <c r="B510" s="11" t="s">
@@ -11239,9 +11260,9 @@
       <c r="F510" s="10"/>
       <c r="G510" s="12"/>
     </row>
-    <row r="511" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="511" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A511" s="10">
-        <f t="shared" si="7"/>
+        <f>A510+1</f>
         <v>506</v>
       </c>
       <c r="B511" s="11" t="s">
@@ -11255,9 +11276,9 @@
       <c r="F511" s="10"/>
       <c r="G511" s="12"/>
     </row>
-    <row r="512" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="512" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A512" s="10">
-        <f t="shared" si="7"/>
+        <f>A511+1</f>
         <v>507</v>
       </c>
       <c r="B512" s="11" t="s">
@@ -11271,9 +11292,9 @@
       <c r="F512" s="10"/>
       <c r="G512" s="12"/>
     </row>
-    <row r="513" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="513" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A513" s="10">
-        <f t="shared" si="7"/>
+        <f>A512+1</f>
         <v>508</v>
       </c>
       <c r="B513" s="11" t="s">
@@ -11287,9 +11308,9 @@
       <c r="F513" s="10"/>
       <c r="G513" s="12"/>
     </row>
-    <row r="514" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="514" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A514" s="10">
-        <f t="shared" si="7"/>
+        <f>A513+1</f>
         <v>509</v>
       </c>
       <c r="B514" s="11" t="s">
@@ -11303,9 +11324,9 @@
       <c r="F514" s="10"/>
       <c r="G514" s="12"/>
     </row>
-    <row r="515" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="515" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A515" s="10">
-        <f t="shared" si="7"/>
+        <f>A514+1</f>
         <v>510</v>
       </c>
       <c r="B515" s="11" t="s">
@@ -11319,9 +11340,9 @@
       <c r="F515" s="10"/>
       <c r="G515" s="12"/>
     </row>
-    <row r="516" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="516" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A516" s="10">
-        <f t="shared" si="7"/>
+        <f>A515+1</f>
         <v>511</v>
       </c>
       <c r="B516" s="11" t="s">
@@ -11335,9 +11356,9 @@
       <c r="F516" s="10"/>
       <c r="G516" s="12"/>
     </row>
-    <row r="517" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="517" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A517" s="10">
-        <f t="shared" si="7"/>
+        <f>A516+1</f>
         <v>512</v>
       </c>
       <c r="B517" s="11" t="s">
@@ -11353,9 +11374,9 @@
       <c r="F517" s="10"/>
       <c r="G517" s="12"/>
     </row>
-    <row r="518" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="518" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A518" s="10">
-        <f t="shared" si="7"/>
+        <f>A517+1</f>
         <v>513</v>
       </c>
       <c r="B518" s="11" t="s">
@@ -11371,9 +11392,9 @@
       <c r="F518" s="10"/>
       <c r="G518" s="12"/>
     </row>
-    <row r="519" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="519" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A519" s="10">
-        <f t="shared" ref="A519:A582" si="8">A518+1</f>
+        <f>A518+1</f>
         <v>514</v>
       </c>
       <c r="B519" s="11" t="s">
@@ -11387,9 +11408,9 @@
       <c r="F519" s="10"/>
       <c r="G519" s="12"/>
     </row>
-    <row r="520" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="520" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A520" s="10">
-        <f t="shared" si="8"/>
+        <f>A519+1</f>
         <v>515</v>
       </c>
       <c r="B520" s="11" t="s">
@@ -11403,9 +11424,9 @@
       <c r="F520" s="10"/>
       <c r="G520" s="12"/>
     </row>
-    <row r="521" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="521" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A521" s="10">
-        <f t="shared" si="8"/>
+        <f>A520+1</f>
         <v>516</v>
       </c>
       <c r="B521" s="11" t="s">
@@ -11419,9 +11440,9 @@
       <c r="F521" s="10"/>
       <c r="G521" s="12"/>
     </row>
-    <row r="522" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="522" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A522" s="10">
-        <f t="shared" si="8"/>
+        <f>A521+1</f>
         <v>517</v>
       </c>
       <c r="B522" s="11" t="s">
@@ -11435,9 +11456,9 @@
       <c r="F522" s="10"/>
       <c r="G522" s="12"/>
     </row>
-    <row r="523" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="523" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A523" s="10">
-        <f t="shared" si="8"/>
+        <f>A522+1</f>
         <v>518</v>
       </c>
       <c r="B523" s="11" t="s">
@@ -11451,9 +11472,9 @@
       <c r="F523" s="10"/>
       <c r="G523" s="12"/>
     </row>
-    <row r="524" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="524" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A524" s="10">
-        <f t="shared" si="8"/>
+        <f>A523+1</f>
         <v>519</v>
       </c>
       <c r="B524" s="11" t="s">
@@ -11467,9 +11488,9 @@
       <c r="F524" s="10"/>
       <c r="G524" s="12"/>
     </row>
-    <row r="525" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="525" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A525" s="10">
-        <f t="shared" si="8"/>
+        <f>A524+1</f>
         <v>520</v>
       </c>
       <c r="B525" s="11" t="s">
@@ -11483,9 +11504,9 @@
       <c r="F525" s="10"/>
       <c r="G525" s="12"/>
     </row>
-    <row r="526" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="526" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A526" s="10">
-        <f t="shared" si="8"/>
+        <f>A525+1</f>
         <v>521</v>
       </c>
       <c r="B526" s="11" t="s">
@@ -11499,9 +11520,9 @@
       <c r="F526" s="10"/>
       <c r="G526" s="12"/>
     </row>
-    <row r="527" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="527" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A527" s="10">
-        <f t="shared" si="8"/>
+        <f>A526+1</f>
         <v>522</v>
       </c>
       <c r="B527" s="11" t="s">
@@ -11515,9 +11536,9 @@
       <c r="F527" s="10"/>
       <c r="G527" s="12"/>
     </row>
-    <row r="528" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="528" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A528" s="10">
-        <f t="shared" si="8"/>
+        <f>A527+1</f>
         <v>523</v>
       </c>
       <c r="B528" s="11" t="s">
@@ -11531,9 +11552,9 @@
       <c r="F528" s="10"/>
       <c r="G528" s="12"/>
     </row>
-    <row r="529" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="529" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A529" s="10">
-        <f t="shared" si="8"/>
+        <f>A528+1</f>
         <v>524</v>
       </c>
       <c r="B529" s="11" t="s">
@@ -11547,9 +11568,9 @@
       <c r="F529" s="10"/>
       <c r="G529" s="12"/>
     </row>
-    <row r="530" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="530" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A530" s="10">
-        <f t="shared" si="8"/>
+        <f>A529+1</f>
         <v>525</v>
       </c>
       <c r="B530" s="11" t="s">
@@ -11565,9 +11586,9 @@
       <c r="F530" s="10"/>
       <c r="G530" s="12"/>
     </row>
-    <row r="531" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="531" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A531" s="10">
-        <f t="shared" si="8"/>
+        <f>A530+1</f>
         <v>526</v>
       </c>
       <c r="B531" s="11" t="s">
@@ -11581,9 +11602,9 @@
       <c r="F531" s="10"/>
       <c r="G531" s="12"/>
     </row>
-    <row r="532" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="532" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A532" s="10">
-        <f t="shared" si="8"/>
+        <f>A531+1</f>
         <v>527</v>
       </c>
       <c r="B532" s="11" t="s">
@@ -11597,9 +11618,9 @@
       <c r="F532" s="10"/>
       <c r="G532" s="12"/>
     </row>
-    <row r="533" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="533" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A533" s="10">
-        <f t="shared" si="8"/>
+        <f>A532+1</f>
         <v>528</v>
       </c>
       <c r="B533" s="11" t="s">
@@ -11613,9 +11634,9 @@
       <c r="F533" s="10"/>
       <c r="G533" s="12"/>
     </row>
-    <row r="534" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="534" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A534" s="10">
-        <f t="shared" si="8"/>
+        <f>A533+1</f>
         <v>529</v>
       </c>
       <c r="B534" s="11" t="s">
@@ -11629,9 +11650,9 @@
       <c r="F534" s="10"/>
       <c r="G534" s="12"/>
     </row>
-    <row r="535" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="535" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A535" s="10">
-        <f t="shared" si="8"/>
+        <f>A534+1</f>
         <v>530</v>
       </c>
       <c r="B535" s="11" t="s">
@@ -11645,9 +11666,9 @@
       <c r="F535" s="10"/>
       <c r="G535" s="12"/>
     </row>
-    <row r="536" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="536" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A536" s="10">
-        <f t="shared" si="8"/>
+        <f>A535+1</f>
         <v>531</v>
       </c>
       <c r="B536" s="11" t="s">
@@ -11661,9 +11682,9 @@
       <c r="F536" s="10"/>
       <c r="G536" s="12"/>
     </row>
-    <row r="537" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="537" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A537" s="10">
-        <f t="shared" si="8"/>
+        <f>A536+1</f>
         <v>532</v>
       </c>
       <c r="B537" s="11" t="s">
@@ -11677,9 +11698,9 @@
       <c r="F537" s="10"/>
       <c r="G537" s="12"/>
     </row>
-    <row r="538" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="538" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A538" s="10">
-        <f t="shared" si="8"/>
+        <f>A537+1</f>
         <v>533</v>
       </c>
       <c r="B538" s="11" t="s">
@@ -11693,9 +11714,9 @@
       <c r="F538" s="10"/>
       <c r="G538" s="12"/>
     </row>
-    <row r="539" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="539" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A539" s="10">
-        <f t="shared" si="8"/>
+        <f>A538+1</f>
         <v>534</v>
       </c>
       <c r="B539" s="11" t="s">
@@ -11709,9 +11730,9 @@
       <c r="F539" s="10"/>
       <c r="G539" s="12"/>
     </row>
-    <row r="540" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="540" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A540" s="10">
-        <f t="shared" si="8"/>
+        <f>A539+1</f>
         <v>535</v>
       </c>
       <c r="B540" s="11" t="s">
@@ -11725,9 +11746,9 @@
       <c r="F540" s="10"/>
       <c r="G540" s="12"/>
     </row>
-    <row r="541" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="541" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A541" s="10">
-        <f t="shared" si="8"/>
+        <f>A540+1</f>
         <v>536</v>
       </c>
       <c r="B541" s="11" t="s">
@@ -11741,9 +11762,9 @@
       <c r="F541" s="10"/>
       <c r="G541" s="12"/>
     </row>
-    <row r="542" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="542" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A542" s="10">
-        <f t="shared" si="8"/>
+        <f>A541+1</f>
         <v>537</v>
       </c>
       <c r="B542" s="11" t="s">
@@ -11757,9 +11778,9 @@
       <c r="F542" s="10"/>
       <c r="G542" s="12"/>
     </row>
-    <row r="543" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="543" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A543" s="10">
-        <f t="shared" si="8"/>
+        <f>A542+1</f>
         <v>538</v>
       </c>
       <c r="B543" s="11" t="s">
@@ -11773,9 +11794,9 @@
       <c r="F543" s="10"/>
       <c r="G543" s="12"/>
     </row>
-    <row r="544" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="544" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A544" s="10">
-        <f t="shared" si="8"/>
+        <f>A543+1</f>
         <v>539</v>
       </c>
       <c r="B544" s="11" t="s">
@@ -11789,9 +11810,9 @@
       <c r="F544" s="10"/>
       <c r="G544" s="12"/>
     </row>
-    <row r="545" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="545" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A545" s="10">
-        <f t="shared" si="8"/>
+        <f>A544+1</f>
         <v>540</v>
       </c>
       <c r="B545" s="11" t="s">
@@ -11805,9 +11826,9 @@
       <c r="F545" s="10"/>
       <c r="G545" s="12"/>
     </row>
-    <row r="546" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="546" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A546" s="10">
-        <f t="shared" si="8"/>
+        <f>A545+1</f>
         <v>541</v>
       </c>
       <c r="B546" s="11" t="s">
@@ -11821,9 +11842,9 @@
       <c r="F546" s="10"/>
       <c r="G546" s="12"/>
     </row>
-    <row r="547" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="547" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A547" s="10">
-        <f t="shared" si="8"/>
+        <f>A546+1</f>
         <v>542</v>
       </c>
       <c r="B547" s="11" t="s">
@@ -11837,9 +11858,9 @@
       <c r="F547" s="10"/>
       <c r="G547" s="12"/>
     </row>
-    <row r="548" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="548" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A548" s="10">
-        <f t="shared" si="8"/>
+        <f>A547+1</f>
         <v>543</v>
       </c>
       <c r="B548" s="11" t="s">
@@ -11853,9 +11874,9 @@
       <c r="F548" s="10"/>
       <c r="G548" s="12"/>
     </row>
-    <row r="549" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="549" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A549" s="10">
-        <f t="shared" si="8"/>
+        <f>A548+1</f>
         <v>544</v>
       </c>
       <c r="B549" s="11" t="s">
@@ -11869,9 +11890,9 @@
       <c r="F549" s="10"/>
       <c r="G549" s="12"/>
     </row>
-    <row r="550" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="550" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A550" s="10">
-        <f t="shared" si="8"/>
+        <f>A549+1</f>
         <v>545</v>
       </c>
       <c r="B550" s="11" t="s">
@@ -11885,9 +11906,9 @@
       <c r="F550" s="10"/>
       <c r="G550" s="12"/>
     </row>
-    <row r="551" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="551" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A551" s="10">
-        <f t="shared" si="8"/>
+        <f>A550+1</f>
         <v>546</v>
       </c>
       <c r="B551" s="11" t="s">
@@ -11903,9 +11924,9 @@
       <c r="F551" s="10"/>
       <c r="G551" s="12"/>
     </row>
-    <row r="552" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="552" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A552" s="10">
-        <f t="shared" si="8"/>
+        <f>A551+1</f>
         <v>547</v>
       </c>
       <c r="B552" s="11" t="s">
@@ -11919,9 +11940,9 @@
       <c r="F552" s="10"/>
       <c r="G552" s="12"/>
     </row>
-    <row r="553" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="553" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A553" s="10">
-        <f t="shared" si="8"/>
+        <f>A552+1</f>
         <v>548</v>
       </c>
       <c r="B553" s="11" t="s">
@@ -11935,9 +11956,9 @@
       <c r="F553" s="10"/>
       <c r="G553" s="12"/>
     </row>
-    <row r="554" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="554" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A554" s="10">
-        <f t="shared" si="8"/>
+        <f>A553+1</f>
         <v>549</v>
       </c>
       <c r="B554" s="11" t="s">
@@ -11951,9 +11972,9 @@
       <c r="F554" s="10"/>
       <c r="G554" s="12"/>
     </row>
-    <row r="555" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="555" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A555" s="10">
-        <f t="shared" si="8"/>
+        <f>A554+1</f>
         <v>550</v>
       </c>
       <c r="B555" s="11" t="s">
@@ -11967,9 +11988,9 @@
       <c r="F555" s="10"/>
       <c r="G555" s="12"/>
     </row>
-    <row r="556" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="556" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A556" s="10">
-        <f t="shared" si="8"/>
+        <f>A555+1</f>
         <v>551</v>
       </c>
       <c r="B556" s="11" t="s">
@@ -11983,9 +12004,9 @@
       <c r="F556" s="10"/>
       <c r="G556" s="12"/>
     </row>
-    <row r="557" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="557" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A557" s="10">
-        <f t="shared" si="8"/>
+        <f>A556+1</f>
         <v>552</v>
       </c>
       <c r="B557" s="11" t="s">
@@ -11999,9 +12020,9 @@
       <c r="F557" s="10"/>
       <c r="G557" s="12"/>
     </row>
-    <row r="558" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="558" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A558" s="10">
-        <f t="shared" si="8"/>
+        <f>A557+1</f>
         <v>553</v>
       </c>
       <c r="B558" s="11" t="s">
@@ -12015,9 +12036,9 @@
       <c r="F558" s="10"/>
       <c r="G558" s="12"/>
     </row>
-    <row r="559" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="559" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A559" s="10">
-        <f t="shared" si="8"/>
+        <f>A558+1</f>
         <v>554</v>
       </c>
       <c r="B559" s="11" t="s">
@@ -12033,9 +12054,9 @@
       <c r="F559" s="10"/>
       <c r="G559" s="12"/>
     </row>
-    <row r="560" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="560" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A560" s="10">
-        <f t="shared" si="8"/>
+        <f>A559+1</f>
         <v>555</v>
       </c>
       <c r="B560" s="11" t="s">
@@ -12049,9 +12070,9 @@
       <c r="F560" s="10"/>
       <c r="G560" s="12"/>
     </row>
-    <row r="561" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="561" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A561" s="10">
-        <f t="shared" si="8"/>
+        <f>A560+1</f>
         <v>556</v>
       </c>
       <c r="B561" s="11" t="s">
@@ -12065,9 +12086,9 @@
       <c r="F561" s="10"/>
       <c r="G561" s="12"/>
     </row>
-    <row r="562" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="562" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A562" s="10">
-        <f t="shared" si="8"/>
+        <f>A561+1</f>
         <v>557</v>
       </c>
       <c r="B562" s="11" t="s">
@@ -12081,9 +12102,9 @@
       <c r="F562" s="10"/>
       <c r="G562" s="12"/>
     </row>
-    <row r="563" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="563" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A563" s="10">
-        <f t="shared" si="8"/>
+        <f>A562+1</f>
         <v>558</v>
       </c>
       <c r="B563" s="11" t="s">
@@ -12097,9 +12118,9 @@
       <c r="F563" s="10"/>
       <c r="G563" s="12"/>
     </row>
-    <row r="564" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="564" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A564" s="10">
-        <f t="shared" si="8"/>
+        <f>A563+1</f>
         <v>559</v>
       </c>
       <c r="B564" s="11" t="s">
@@ -12115,9 +12136,9 @@
       <c r="F564" s="10"/>
       <c r="G564" s="12"/>
     </row>
-    <row r="565" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="565" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A565" s="10">
-        <f t="shared" si="8"/>
+        <f>A564+1</f>
         <v>560</v>
       </c>
       <c r="B565" s="11" t="s">
@@ -12131,9 +12152,9 @@
       <c r="F565" s="10"/>
       <c r="G565" s="12"/>
     </row>
-    <row r="566" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="566" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A566" s="10">
-        <f t="shared" si="8"/>
+        <f>A565+1</f>
         <v>561</v>
       </c>
       <c r="B566" s="11" t="s">
@@ -12147,9 +12168,9 @@
       <c r="F566" s="10"/>
       <c r="G566" s="12"/>
     </row>
-    <row r="567" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="567" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A567" s="10">
-        <f t="shared" si="8"/>
+        <f>A566+1</f>
         <v>562</v>
       </c>
       <c r="B567" s="11" t="s">
@@ -12163,9 +12184,9 @@
       <c r="F567" s="10"/>
       <c r="G567" s="12"/>
     </row>
-    <row r="568" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="568" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A568" s="10">
-        <f t="shared" si="8"/>
+        <f>A567+1</f>
         <v>563</v>
       </c>
       <c r="B568" s="11" t="s">
@@ -12179,9 +12200,9 @@
       <c r="F568" s="10"/>
       <c r="G568" s="12"/>
     </row>
-    <row r="569" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="569" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A569" s="10">
-        <f t="shared" si="8"/>
+        <f>A568+1</f>
         <v>564</v>
       </c>
       <c r="B569" s="11" t="s">
@@ -12195,9 +12216,9 @@
       <c r="F569" s="10"/>
       <c r="G569" s="12"/>
     </row>
-    <row r="570" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="570" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A570" s="10">
-        <f t="shared" si="8"/>
+        <f>A569+1</f>
         <v>565</v>
       </c>
       <c r="B570" s="11" t="s">
@@ -12211,9 +12232,9 @@
       <c r="F570" s="10"/>
       <c r="G570" s="12"/>
     </row>
-    <row r="571" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="571" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A571" s="10">
-        <f t="shared" si="8"/>
+        <f>A570+1</f>
         <v>566</v>
       </c>
       <c r="B571" s="11" t="s">
@@ -12227,9 +12248,9 @@
       <c r="F571" s="10"/>
       <c r="G571" s="12"/>
     </row>
-    <row r="572" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="572" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A572" s="10">
-        <f t="shared" si="8"/>
+        <f>A571+1</f>
         <v>567</v>
       </c>
       <c r="B572" s="11" t="s">
@@ -12243,9 +12264,9 @@
       <c r="F572" s="10"/>
       <c r="G572" s="12"/>
     </row>
-    <row r="573" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="573" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A573" s="10">
-        <f t="shared" si="8"/>
+        <f>A572+1</f>
         <v>568</v>
       </c>
       <c r="B573" s="11" t="s">
@@ -12259,9 +12280,9 @@
       <c r="F573" s="10"/>
       <c r="G573" s="12"/>
     </row>
-    <row r="574" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="574" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A574" s="10">
-        <f t="shared" si="8"/>
+        <f>A573+1</f>
         <v>569</v>
       </c>
       <c r="B574" s="11" t="s">
@@ -12270,14 +12291,16 @@
       <c r="C574" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D574" s="10"/>
+      <c r="D574" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E574" s="10"/>
       <c r="F574" s="10"/>
       <c r="G574" s="12"/>
     </row>
-    <row r="575" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="575" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A575" s="10">
-        <f t="shared" si="8"/>
+        <f>A574+1</f>
         <v>570</v>
       </c>
       <c r="B575" s="11" t="s">
@@ -12286,14 +12309,16 @@
       <c r="C575" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D575" s="10"/>
+      <c r="D575" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E575" s="10"/>
       <c r="F575" s="10"/>
       <c r="G575" s="12"/>
     </row>
-    <row r="576" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="576" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A576" s="10">
-        <f t="shared" si="8"/>
+        <f>A575+1</f>
         <v>571</v>
       </c>
       <c r="B576" s="11" t="s">
@@ -12307,9 +12332,9 @@
       <c r="F576" s="10"/>
       <c r="G576" s="12"/>
     </row>
-    <row r="577" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="577" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A577" s="10">
-        <f t="shared" si="8"/>
+        <f>A576+1</f>
         <v>572</v>
       </c>
       <c r="B577" s="11" t="s">
@@ -12318,14 +12343,16 @@
       <c r="C577" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D577" s="10"/>
+      <c r="D577" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E577" s="10"/>
       <c r="F577" s="10"/>
       <c r="G577" s="12"/>
     </row>
-    <row r="578" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="578" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A578" s="10">
-        <f t="shared" si="8"/>
+        <f>A577+1</f>
         <v>573</v>
       </c>
       <c r="B578" s="11" t="s">
@@ -12339,9 +12366,9 @@
       <c r="F578" s="10"/>
       <c r="G578" s="12"/>
     </row>
-    <row r="579" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="579" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A579" s="10">
-        <f t="shared" si="8"/>
+        <f>A578+1</f>
         <v>574</v>
       </c>
       <c r="B579" s="11" t="s">
@@ -12355,9 +12382,9 @@
       <c r="F579" s="10"/>
       <c r="G579" s="12"/>
     </row>
-    <row r="580" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="580" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A580" s="10">
-        <f t="shared" si="8"/>
+        <f>A579+1</f>
         <v>575</v>
       </c>
       <c r="B580" s="11" t="s">
@@ -12371,9 +12398,9 @@
       <c r="F580" s="10"/>
       <c r="G580" s="12"/>
     </row>
-    <row r="581" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="581" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A581" s="10">
-        <f t="shared" si="8"/>
+        <f>A580+1</f>
         <v>576</v>
       </c>
       <c r="B581" s="11" t="s">
@@ -12387,9 +12414,9 @@
       <c r="F581" s="10"/>
       <c r="G581" s="12"/>
     </row>
-    <row r="582" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="582" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A582" s="10">
-        <f t="shared" si="8"/>
+        <f>A581+1</f>
         <v>577</v>
       </c>
       <c r="B582" s="11" t="s">
@@ -12403,9 +12430,9 @@
       <c r="F582" s="10"/>
       <c r="G582" s="12"/>
     </row>
-    <row r="583" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="583" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A583" s="10">
-        <f t="shared" ref="A583:A646" si="9">A582+1</f>
+        <f>A582+1</f>
         <v>578</v>
       </c>
       <c r="B583" s="11" t="s">
@@ -12419,9 +12446,9 @@
       <c r="F583" s="10"/>
       <c r="G583" s="12"/>
     </row>
-    <row r="584" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="584" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A584" s="10">
-        <f t="shared" si="9"/>
+        <f>A583+1</f>
         <v>579</v>
       </c>
       <c r="B584" s="11" t="s">
@@ -12435,9 +12462,9 @@
       <c r="F584" s="10"/>
       <c r="G584" s="12"/>
     </row>
-    <row r="585" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="585" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A585" s="10">
-        <f t="shared" si="9"/>
+        <f>A584+1</f>
         <v>580</v>
       </c>
       <c r="B585" s="11" t="s">
@@ -12451,9 +12478,9 @@
       <c r="F585" s="10"/>
       <c r="G585" s="12"/>
     </row>
-    <row r="586" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="586" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A586" s="10">
-        <f t="shared" si="9"/>
+        <f>A585+1</f>
         <v>581</v>
       </c>
       <c r="B586" s="11" t="s">
@@ -12467,9 +12494,9 @@
       <c r="F586" s="10"/>
       <c r="G586" s="12"/>
     </row>
-    <row r="587" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="587" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A587" s="10">
-        <f t="shared" si="9"/>
+        <f>A586+1</f>
         <v>582</v>
       </c>
       <c r="B587" s="11" t="s">
@@ -12483,9 +12510,9 @@
       <c r="F587" s="10"/>
       <c r="G587" s="12"/>
     </row>
-    <row r="588" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="588" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A588" s="10">
-        <f t="shared" si="9"/>
+        <f>A587+1</f>
         <v>583</v>
       </c>
       <c r="B588" s="11" t="s">
@@ -12499,9 +12526,9 @@
       <c r="F588" s="10"/>
       <c r="G588" s="12"/>
     </row>
-    <row r="589" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="589" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A589" s="10">
-        <f t="shared" si="9"/>
+        <f>A588+1</f>
         <v>584</v>
       </c>
       <c r="B589" s="11" t="s">
@@ -12515,9 +12542,9 @@
       <c r="F589" s="10"/>
       <c r="G589" s="12"/>
     </row>
-    <row r="590" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="590" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A590" s="10">
-        <f t="shared" si="9"/>
+        <f>A589+1</f>
         <v>585</v>
       </c>
       <c r="B590" s="11" t="s">
@@ -12531,9 +12558,9 @@
       <c r="F590" s="10"/>
       <c r="G590" s="12"/>
     </row>
-    <row r="591" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="591" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A591" s="10">
-        <f t="shared" si="9"/>
+        <f>A590+1</f>
         <v>586</v>
       </c>
       <c r="B591" s="11" t="s">
@@ -12547,9 +12574,9 @@
       <c r="F591" s="10"/>
       <c r="G591" s="12"/>
     </row>
-    <row r="592" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="592" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A592" s="10">
-        <f t="shared" si="9"/>
+        <f>A591+1</f>
         <v>587</v>
       </c>
       <c r="B592" s="11" t="s">
@@ -12565,9 +12592,9 @@
       <c r="F592" s="10"/>
       <c r="G592" s="12"/>
     </row>
-    <row r="593" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="593" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A593" s="10">
-        <f t="shared" si="9"/>
+        <f>A592+1</f>
         <v>588</v>
       </c>
       <c r="B593" s="11" t="s">
@@ -12581,9 +12608,9 @@
       <c r="F593" s="10"/>
       <c r="G593" s="12"/>
     </row>
-    <row r="594" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="594" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A594" s="10">
-        <f t="shared" si="9"/>
+        <f>A593+1</f>
         <v>589</v>
       </c>
       <c r="B594" s="11" t="s">
@@ -12597,9 +12624,9 @@
       <c r="F594" s="10"/>
       <c r="G594" s="12"/>
     </row>
-    <row r="595" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="595" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A595" s="10">
-        <f t="shared" si="9"/>
+        <f>A594+1</f>
         <v>590</v>
       </c>
       <c r="B595" s="11" t="s">
@@ -12613,9 +12640,9 @@
       <c r="F595" s="10"/>
       <c r="G595" s="12"/>
     </row>
-    <row r="596" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="596" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A596" s="10">
-        <f t="shared" si="9"/>
+        <f>A595+1</f>
         <v>591</v>
       </c>
       <c r="B596" s="11" t="s">
@@ -12629,9 +12656,9 @@
       <c r="F596" s="10"/>
       <c r="G596" s="12"/>
     </row>
-    <row r="597" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="597" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A597" s="10">
-        <f t="shared" si="9"/>
+        <f>A596+1</f>
         <v>592</v>
       </c>
       <c r="B597" s="11" t="s">
@@ -12645,9 +12672,9 @@
       <c r="F597" s="10"/>
       <c r="G597" s="12"/>
     </row>
-    <row r="598" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="598" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A598" s="10">
-        <f t="shared" si="9"/>
+        <f>A597+1</f>
         <v>593</v>
       </c>
       <c r="B598" s="11" t="s">
@@ -12661,9 +12688,9 @@
       <c r="F598" s="10"/>
       <c r="G598" s="12"/>
     </row>
-    <row r="599" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="599" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A599" s="10">
-        <f t="shared" si="9"/>
+        <f>A598+1</f>
         <v>594</v>
       </c>
       <c r="B599" s="11" t="s">
@@ -12677,9 +12704,9 @@
       <c r="F599" s="10"/>
       <c r="G599" s="12"/>
     </row>
-    <row r="600" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="600" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A600" s="10">
-        <f t="shared" si="9"/>
+        <f>A599+1</f>
         <v>595</v>
       </c>
       <c r="B600" s="11" t="s">
@@ -12693,9 +12720,9 @@
       <c r="F600" s="10"/>
       <c r="G600" s="12"/>
     </row>
-    <row r="601" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="601" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A601" s="10">
-        <f t="shared" si="9"/>
+        <f>A600+1</f>
         <v>596</v>
       </c>
       <c r="B601" s="11" t="s">
@@ -12709,9 +12736,9 @@
       <c r="F601" s="10"/>
       <c r="G601" s="12"/>
     </row>
-    <row r="602" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="602" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A602" s="10">
-        <f t="shared" si="9"/>
+        <f>A601+1</f>
         <v>597</v>
       </c>
       <c r="B602" s="11" t="s">
@@ -12725,9 +12752,9 @@
       <c r="F602" s="10"/>
       <c r="G602" s="12"/>
     </row>
-    <row r="603" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="603" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A603" s="10">
-        <f t="shared" si="9"/>
+        <f>A602+1</f>
         <v>598</v>
       </c>
       <c r="B603" s="11" t="s">
@@ -12741,9 +12768,9 @@
       <c r="F603" s="10"/>
       <c r="G603" s="12"/>
     </row>
-    <row r="604" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="604" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A604" s="10">
-        <f t="shared" si="9"/>
+        <f>A603+1</f>
         <v>599</v>
       </c>
       <c r="B604" s="11" t="s">
@@ -12757,9 +12784,9 @@
       <c r="F604" s="10"/>
       <c r="G604" s="12"/>
     </row>
-    <row r="605" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="605" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A605" s="10">
-        <f t="shared" si="9"/>
+        <f>A604+1</f>
         <v>600</v>
       </c>
       <c r="B605" s="11" t="s">
@@ -12773,9 +12800,9 @@
       <c r="F605" s="10"/>
       <c r="G605" s="12"/>
     </row>
-    <row r="606" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="606" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A606" s="10">
-        <f t="shared" si="9"/>
+        <f>A605+1</f>
         <v>601</v>
       </c>
       <c r="B606" s="11" t="s">
@@ -12789,9 +12816,9 @@
       <c r="F606" s="10"/>
       <c r="G606" s="12"/>
     </row>
-    <row r="607" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="607" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A607" s="10">
-        <f t="shared" si="9"/>
+        <f>A606+1</f>
         <v>602</v>
       </c>
       <c r="B607" s="11" t="s">
@@ -12805,9 +12832,9 @@
       <c r="F607" s="10"/>
       <c r="G607" s="12"/>
     </row>
-    <row r="608" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="608" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A608" s="10">
-        <f t="shared" si="9"/>
+        <f>A607+1</f>
         <v>603</v>
       </c>
       <c r="B608" s="11" t="s">
@@ -12821,9 +12848,9 @@
       <c r="F608" s="10"/>
       <c r="G608" s="12"/>
     </row>
-    <row r="609" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="609" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A609" s="10">
-        <f t="shared" si="9"/>
+        <f>A608+1</f>
         <v>604</v>
       </c>
       <c r="B609" s="11" t="s">
@@ -12837,9 +12864,9 @@
       <c r="F609" s="10"/>
       <c r="G609" s="12"/>
     </row>
-    <row r="610" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="610" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A610" s="10">
-        <f t="shared" si="9"/>
+        <f>A609+1</f>
         <v>605</v>
       </c>
       <c r="B610" s="11" t="s">
@@ -12853,9 +12880,9 @@
       <c r="F610" s="10"/>
       <c r="G610" s="12"/>
     </row>
-    <row r="611" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="611" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A611" s="10">
-        <f t="shared" si="9"/>
+        <f>A610+1</f>
         <v>606</v>
       </c>
       <c r="B611" s="11" t="s">
@@ -12869,9 +12896,9 @@
       <c r="F611" s="10"/>
       <c r="G611" s="12"/>
     </row>
-    <row r="612" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="612" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A612" s="10">
-        <f t="shared" si="9"/>
+        <f>A611+1</f>
         <v>607</v>
       </c>
       <c r="B612" s="11" t="s">
@@ -12885,9 +12912,9 @@
       <c r="F612" s="10"/>
       <c r="G612" s="12"/>
     </row>
-    <row r="613" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="613" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A613" s="10">
-        <f t="shared" si="9"/>
+        <f>A612+1</f>
         <v>608</v>
       </c>
       <c r="B613" s="11" t="s">
@@ -12901,9 +12928,9 @@
       <c r="F613" s="10"/>
       <c r="G613" s="12"/>
     </row>
-    <row r="614" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="614" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A614" s="10">
-        <f t="shared" si="9"/>
+        <f>A613+1</f>
         <v>609</v>
       </c>
       <c r="B614" s="11" t="s">
@@ -12917,9 +12944,9 @@
       <c r="F614" s="10"/>
       <c r="G614" s="12"/>
     </row>
-    <row r="615" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="615" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A615" s="10">
-        <f t="shared" si="9"/>
+        <f>A614+1</f>
         <v>610</v>
       </c>
       <c r="B615" s="11" t="s">
@@ -12933,9 +12960,9 @@
       <c r="F615" s="10"/>
       <c r="G615" s="12"/>
     </row>
-    <row r="616" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="616" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A616" s="10">
-        <f t="shared" si="9"/>
+        <f>A615+1</f>
         <v>611</v>
       </c>
       <c r="B616" s="11" t="s">
@@ -12949,9 +12976,9 @@
       <c r="F616" s="10"/>
       <c r="G616" s="12"/>
     </row>
-    <row r="617" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="617" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A617" s="10">
-        <f t="shared" si="9"/>
+        <f>A616+1</f>
         <v>612</v>
       </c>
       <c r="B617" s="11" t="s">
@@ -12965,9 +12992,9 @@
       <c r="F617" s="10"/>
       <c r="G617" s="12"/>
     </row>
-    <row r="618" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="618" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A618" s="10">
-        <f t="shared" si="9"/>
+        <f>A617+1</f>
         <v>613</v>
       </c>
       <c r="B618" s="11" t="s">
@@ -12981,9 +13008,9 @@
       <c r="F618" s="10"/>
       <c r="G618" s="12"/>
     </row>
-    <row r="619" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="619" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A619" s="10">
-        <f t="shared" si="9"/>
+        <f>A618+1</f>
         <v>614</v>
       </c>
       <c r="B619" s="11" t="s">
@@ -12999,9 +13026,9 @@
       <c r="F619" s="10"/>
       <c r="G619" s="12"/>
     </row>
-    <row r="620" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="620" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A620" s="10">
-        <f t="shared" si="9"/>
+        <f>A619+1</f>
         <v>615</v>
       </c>
       <c r="B620" s="11" t="s">
@@ -13015,9 +13042,9 @@
       <c r="F620" s="10"/>
       <c r="G620" s="12"/>
     </row>
-    <row r="621" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="621" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A621" s="10">
-        <f t="shared" si="9"/>
+        <f>A620+1</f>
         <v>616</v>
       </c>
       <c r="B621" s="11" t="s">
@@ -13033,9 +13060,9 @@
       <c r="F621" s="10"/>
       <c r="G621" s="12"/>
     </row>
-    <row r="622" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="622" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A622" s="10">
-        <f t="shared" si="9"/>
+        <f>A621+1</f>
         <v>617</v>
       </c>
       <c r="B622" s="11" t="s">
@@ -13049,9 +13076,9 @@
       <c r="F622" s="10"/>
       <c r="G622" s="12"/>
     </row>
-    <row r="623" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="623" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A623" s="10">
-        <f t="shared" si="9"/>
+        <f>A622+1</f>
         <v>618</v>
       </c>
       <c r="B623" s="11" t="s">
@@ -13065,9 +13092,9 @@
       <c r="F623" s="10"/>
       <c r="G623" s="12"/>
     </row>
-    <row r="624" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="624" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A624" s="10">
-        <f t="shared" si="9"/>
+        <f>A623+1</f>
         <v>619</v>
       </c>
       <c r="B624" s="11" t="s">
@@ -13081,9 +13108,9 @@
       <c r="F624" s="10"/>
       <c r="G624" s="12"/>
     </row>
-    <row r="625" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="625" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A625" s="10">
-        <f t="shared" si="9"/>
+        <f>A624+1</f>
         <v>620</v>
       </c>
       <c r="B625" s="11" t="s">
@@ -13097,9 +13124,9 @@
       <c r="F625" s="10"/>
       <c r="G625" s="12"/>
     </row>
-    <row r="626" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="626" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A626" s="10">
-        <f t="shared" si="9"/>
+        <f>A625+1</f>
         <v>621</v>
       </c>
       <c r="B626" s="11" t="s">
@@ -13113,9 +13140,9 @@
       <c r="F626" s="10"/>
       <c r="G626" s="12"/>
     </row>
-    <row r="627" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="627" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A627" s="10">
-        <f t="shared" si="9"/>
+        <f>A626+1</f>
         <v>622</v>
       </c>
       <c r="B627" s="11" t="s">
@@ -13129,9 +13156,9 @@
       <c r="F627" s="10"/>
       <c r="G627" s="12"/>
     </row>
-    <row r="628" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="628" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A628" s="10">
-        <f t="shared" si="9"/>
+        <f>A627+1</f>
         <v>623</v>
       </c>
       <c r="B628" s="11" t="s">
@@ -13145,9 +13172,9 @@
       <c r="F628" s="10"/>
       <c r="G628" s="12"/>
     </row>
-    <row r="629" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="629" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A629" s="10">
-        <f t="shared" si="9"/>
+        <f>A628+1</f>
         <v>624</v>
       </c>
       <c r="B629" s="11" t="s">
@@ -13161,9 +13188,9 @@
       <c r="F629" s="10"/>
       <c r="G629" s="12"/>
     </row>
-    <row r="630" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="630" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A630" s="10">
-        <f t="shared" si="9"/>
+        <f>A629+1</f>
         <v>625</v>
       </c>
       <c r="B630" s="11" t="s">
@@ -13177,9 +13204,9 @@
       <c r="F630" s="10"/>
       <c r="G630" s="12"/>
     </row>
-    <row r="631" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="631" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A631" s="10">
-        <f t="shared" si="9"/>
+        <f>A630+1</f>
         <v>626</v>
       </c>
       <c r="B631" s="11" t="s">
@@ -13193,9 +13220,9 @@
       <c r="F631" s="10"/>
       <c r="G631" s="12"/>
     </row>
-    <row r="632" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="632" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A632" s="10">
-        <f t="shared" si="9"/>
+        <f>A631+1</f>
         <v>627</v>
       </c>
       <c r="B632" s="11" t="s">
@@ -13209,9 +13236,9 @@
       <c r="F632" s="10"/>
       <c r="G632" s="12"/>
     </row>
-    <row r="633" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="633" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A633" s="10">
-        <f t="shared" si="9"/>
+        <f>A632+1</f>
         <v>628</v>
       </c>
       <c r="B633" s="11" t="s">
@@ -13227,9 +13254,9 @@
       <c r="F633" s="10"/>
       <c r="G633" s="12"/>
     </row>
-    <row r="634" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="634" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A634" s="10">
-        <f t="shared" si="9"/>
+        <f>A633+1</f>
         <v>629</v>
       </c>
       <c r="B634" s="11" t="s">
@@ -13243,9 +13270,9 @@
       <c r="F634" s="10"/>
       <c r="G634" s="12"/>
     </row>
-    <row r="635" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="635" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A635" s="10">
-        <f t="shared" si="9"/>
+        <f>A634+1</f>
         <v>630</v>
       </c>
       <c r="B635" s="11" t="s">
@@ -13259,9 +13286,9 @@
       <c r="F635" s="10"/>
       <c r="G635" s="12"/>
     </row>
-    <row r="636" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="636" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A636" s="10">
-        <f t="shared" si="9"/>
+        <f>A635+1</f>
         <v>631</v>
       </c>
       <c r="B636" s="11" t="s">
@@ -13275,9 +13302,9 @@
       <c r="F636" s="10"/>
       <c r="G636" s="12"/>
     </row>
-    <row r="637" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="637" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A637" s="10">
-        <f t="shared" si="9"/>
+        <f>A636+1</f>
         <v>632</v>
       </c>
       <c r="B637" s="11" t="s">
@@ -13291,9 +13318,9 @@
       <c r="F637" s="10"/>
       <c r="G637" s="12"/>
     </row>
-    <row r="638" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="638" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A638" s="10">
-        <f t="shared" si="9"/>
+        <f>A637+1</f>
         <v>633</v>
       </c>
       <c r="B638" s="11" t="s">
@@ -13307,9 +13334,9 @@
       <c r="F638" s="10"/>
       <c r="G638" s="12"/>
     </row>
-    <row r="639" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="639" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A639" s="10">
-        <f t="shared" si="9"/>
+        <f>A638+1</f>
         <v>634</v>
       </c>
       <c r="B639" s="11" t="s">
@@ -13323,9 +13350,9 @@
       <c r="F639" s="10"/>
       <c r="G639" s="12"/>
     </row>
-    <row r="640" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="640" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A640" s="10">
-        <f t="shared" si="9"/>
+        <f>A639+1</f>
         <v>635</v>
       </c>
       <c r="B640" s="11" t="s">
@@ -13339,9 +13366,9 @@
       <c r="F640" s="10"/>
       <c r="G640" s="12"/>
     </row>
-    <row r="641" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="641" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A641" s="10">
-        <f t="shared" si="9"/>
+        <f>A640+1</f>
         <v>636</v>
       </c>
       <c r="B641" s="11" t="s">
@@ -13357,9 +13384,9 @@
       <c r="F641" s="10"/>
       <c r="G641" s="12"/>
     </row>
-    <row r="642" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="642" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A642" s="10">
-        <f t="shared" si="9"/>
+        <f>A641+1</f>
         <v>637</v>
       </c>
       <c r="B642" s="11" t="s">
@@ -13373,9 +13400,9 @@
       <c r="F642" s="10"/>
       <c r="G642" s="12"/>
     </row>
-    <row r="643" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="643" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A643" s="10">
-        <f t="shared" si="9"/>
+        <f>A642+1</f>
         <v>638</v>
       </c>
       <c r="B643" s="11" t="s">
@@ -13391,9 +13418,9 @@
       <c r="F643" s="10"/>
       <c r="G643" s="12"/>
     </row>
-    <row r="644" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="644" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A644" s="10">
-        <f t="shared" si="9"/>
+        <f>A643+1</f>
         <v>639</v>
       </c>
       <c r="B644" s="11" t="s">
@@ -13407,9 +13434,9 @@
       <c r="F644" s="10"/>
       <c r="G644" s="12"/>
     </row>
-    <row r="645" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="645" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A645" s="10">
-        <f t="shared" si="9"/>
+        <f>A644+1</f>
         <v>640</v>
       </c>
       <c r="B645" s="11" t="s">
@@ -13423,9 +13450,9 @@
       <c r="F645" s="10"/>
       <c r="G645" s="12"/>
     </row>
-    <row r="646" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="646" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A646" s="10">
-        <f t="shared" si="9"/>
+        <f>A645+1</f>
         <v>641</v>
       </c>
       <c r="B646" s="11" t="s">
@@ -13441,9 +13468,9 @@
       <c r="F646" s="10"/>
       <c r="G646" s="12"/>
     </row>
-    <row r="647" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="647" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A647" s="10">
-        <f t="shared" ref="A647:A710" si="10">A646+1</f>
+        <f>A646+1</f>
         <v>642</v>
       </c>
       <c r="B647" s="11" t="s">
@@ -13457,9 +13484,9 @@
       <c r="F647" s="10"/>
       <c r="G647" s="12"/>
     </row>
-    <row r="648" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="648" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A648" s="10">
-        <f t="shared" si="10"/>
+        <f>A647+1</f>
         <v>643</v>
       </c>
       <c r="B648" s="11" t="s">
@@ -13473,9 +13500,9 @@
       <c r="F648" s="10"/>
       <c r="G648" s="12"/>
     </row>
-    <row r="649" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="649" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A649" s="10">
-        <f t="shared" si="10"/>
+        <f>A648+1</f>
         <v>644</v>
       </c>
       <c r="B649" s="11" t="s">
@@ -13489,9 +13516,9 @@
       <c r="F649" s="10"/>
       <c r="G649" s="12"/>
     </row>
-    <row r="650" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="650" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A650" s="10">
-        <f t="shared" si="10"/>
+        <f>A649+1</f>
         <v>645</v>
       </c>
       <c r="B650" s="11" t="s">
@@ -13505,9 +13532,9 @@
       <c r="F650" s="10"/>
       <c r="G650" s="12"/>
     </row>
-    <row r="651" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="651" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A651" s="10">
-        <f t="shared" si="10"/>
+        <f>A650+1</f>
         <v>646</v>
       </c>
       <c r="B651" s="11" t="s">
@@ -13521,9 +13548,9 @@
       <c r="F651" s="10"/>
       <c r="G651" s="12"/>
     </row>
-    <row r="652" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="652" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A652" s="10">
-        <f t="shared" si="10"/>
+        <f>A651+1</f>
         <v>647</v>
       </c>
       <c r="B652" s="11" t="s">
@@ -13537,9 +13564,9 @@
       <c r="F652" s="10"/>
       <c r="G652" s="12"/>
     </row>
-    <row r="653" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="653" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A653" s="10">
-        <f t="shared" si="10"/>
+        <f>A652+1</f>
         <v>648</v>
       </c>
       <c r="B653" s="11" t="s">
@@ -13553,9 +13580,9 @@
       <c r="F653" s="10"/>
       <c r="G653" s="12"/>
     </row>
-    <row r="654" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="654" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A654" s="10">
-        <f t="shared" si="10"/>
+        <f>A653+1</f>
         <v>649</v>
       </c>
       <c r="B654" s="11" t="s">
@@ -13569,9 +13596,9 @@
       <c r="F654" s="10"/>
       <c r="G654" s="12"/>
     </row>
-    <row r="655" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="655" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A655" s="10">
-        <f t="shared" si="10"/>
+        <f>A654+1</f>
         <v>650</v>
       </c>
       <c r="B655" s="11" t="s">
@@ -13585,9 +13612,9 @@
       <c r="F655" s="10"/>
       <c r="G655" s="12"/>
     </row>
-    <row r="656" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="656" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A656" s="10">
-        <f t="shared" si="10"/>
+        <f>A655+1</f>
         <v>651</v>
       </c>
       <c r="B656" s="11" t="s">
@@ -13601,9 +13628,9 @@
       <c r="F656" s="10"/>
       <c r="G656" s="12"/>
     </row>
-    <row r="657" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="657" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A657" s="10">
-        <f t="shared" si="10"/>
+        <f>A656+1</f>
         <v>652</v>
       </c>
       <c r="B657" s="11" t="s">
@@ -13617,9 +13644,9 @@
       <c r="F657" s="10"/>
       <c r="G657" s="12"/>
     </row>
-    <row r="658" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="658" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A658" s="10">
-        <f t="shared" si="10"/>
+        <f>A657+1</f>
         <v>653</v>
       </c>
       <c r="B658" s="11" t="s">
@@ -13635,9 +13662,9 @@
       <c r="F658" s="10"/>
       <c r="G658" s="12"/>
     </row>
-    <row r="659" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="659" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A659" s="10">
-        <f t="shared" si="10"/>
+        <f>A658+1</f>
         <v>654</v>
       </c>
       <c r="B659" s="11" t="s">
@@ -13651,9 +13678,9 @@
       <c r="F659" s="10"/>
       <c r="G659" s="12"/>
     </row>
-    <row r="660" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="660" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A660" s="10">
-        <f t="shared" si="10"/>
+        <f>A659+1</f>
         <v>655</v>
       </c>
       <c r="B660" s="11" t="s">
@@ -13667,9 +13694,9 @@
       <c r="F660" s="10"/>
       <c r="G660" s="12"/>
     </row>
-    <row r="661" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="661" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A661" s="10">
-        <f t="shared" si="10"/>
+        <f>A660+1</f>
         <v>656</v>
       </c>
       <c r="B661" s="11" t="s">
@@ -13683,9 +13710,9 @@
       <c r="F661" s="10"/>
       <c r="G661" s="12"/>
     </row>
-    <row r="662" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="662" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A662" s="10">
-        <f t="shared" si="10"/>
+        <f>A661+1</f>
         <v>657</v>
       </c>
       <c r="B662" s="11" t="s">
@@ -13699,9 +13726,9 @@
       <c r="F662" s="10"/>
       <c r="G662" s="12"/>
     </row>
-    <row r="663" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="663" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A663" s="10">
-        <f t="shared" si="10"/>
+        <f>A662+1</f>
         <v>658</v>
       </c>
       <c r="B663" s="11" t="s">
@@ -13715,9 +13742,9 @@
       <c r="F663" s="10"/>
       <c r="G663" s="12"/>
     </row>
-    <row r="664" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="664" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A664" s="10">
-        <f t="shared" si="10"/>
+        <f>A663+1</f>
         <v>659</v>
       </c>
       <c r="B664" s="11" t="s">
@@ -13731,9 +13758,9 @@
       <c r="F664" s="10"/>
       <c r="G664" s="12"/>
     </row>
-    <row r="665" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="665" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A665" s="10">
-        <f t="shared" si="10"/>
+        <f>A664+1</f>
         <v>660</v>
       </c>
       <c r="B665" s="11" t="s">
@@ -13747,9 +13774,9 @@
       <c r="F665" s="10"/>
       <c r="G665" s="12"/>
     </row>
-    <row r="666" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="666" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A666" s="10">
-        <f t="shared" si="10"/>
+        <f>A665+1</f>
         <v>661</v>
       </c>
       <c r="B666" s="11" t="s">
@@ -13763,9 +13790,9 @@
       <c r="F666" s="10"/>
       <c r="G666" s="12"/>
     </row>
-    <row r="667" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="667" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A667" s="10">
-        <f t="shared" si="10"/>
+        <f>A666+1</f>
         <v>662</v>
       </c>
       <c r="B667" s="11" t="s">
@@ -13781,9 +13808,9 @@
       <c r="F667" s="10"/>
       <c r="G667" s="12"/>
     </row>
-    <row r="668" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="668" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A668" s="10">
-        <f t="shared" si="10"/>
+        <f>A667+1</f>
         <v>663</v>
       </c>
       <c r="B668" s="11" t="s">
@@ -13797,9 +13824,9 @@
       <c r="F668" s="10"/>
       <c r="G668" s="12"/>
     </row>
-    <row r="669" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="669" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A669" s="10">
-        <f t="shared" si="10"/>
+        <f>A668+1</f>
         <v>664</v>
       </c>
       <c r="B669" s="11" t="s">
@@ -13813,9 +13840,9 @@
       <c r="F669" s="10"/>
       <c r="G669" s="12"/>
     </row>
-    <row r="670" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="670" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A670" s="10">
-        <f t="shared" si="10"/>
+        <f>A669+1</f>
         <v>665</v>
       </c>
       <c r="B670" s="11" t="s">
@@ -13829,9 +13856,9 @@
       <c r="F670" s="10"/>
       <c r="G670" s="12"/>
     </row>
-    <row r="671" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="671" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A671" s="10">
-        <f t="shared" si="10"/>
+        <f>A670+1</f>
         <v>666</v>
       </c>
       <c r="B671" s="11" t="s">
@@ -13845,9 +13872,9 @@
       <c r="F671" s="10"/>
       <c r="G671" s="12"/>
     </row>
-    <row r="672" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="672" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A672" s="10">
-        <f t="shared" si="10"/>
+        <f>A671+1</f>
         <v>667</v>
       </c>
       <c r="B672" s="11" t="s">
@@ -13861,9 +13888,9 @@
       <c r="F672" s="10"/>
       <c r="G672" s="12"/>
     </row>
-    <row r="673" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="673" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A673" s="10">
-        <f t="shared" si="10"/>
+        <f>A672+1</f>
         <v>668</v>
       </c>
       <c r="B673" s="11" t="s">
@@ -13879,9 +13906,9 @@
       <c r="F673" s="10"/>
       <c r="G673" s="12"/>
     </row>
-    <row r="674" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="674" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A674" s="10">
-        <f t="shared" si="10"/>
+        <f>A673+1</f>
         <v>669</v>
       </c>
       <c r="B674" s="11" t="s">
@@ -13897,9 +13924,9 @@
       <c r="F674" s="10"/>
       <c r="G674" s="12"/>
     </row>
-    <row r="675" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="675" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A675" s="10">
-        <f t="shared" si="10"/>
+        <f>A674+1</f>
         <v>670</v>
       </c>
       <c r="B675" s="11" t="s">
@@ -13913,9 +13940,9 @@
       <c r="F675" s="10"/>
       <c r="G675" s="12"/>
     </row>
-    <row r="676" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="676" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A676" s="10">
-        <f t="shared" si="10"/>
+        <f>A675+1</f>
         <v>671</v>
       </c>
       <c r="B676" s="11" t="s">
@@ -13929,9 +13956,9 @@
       <c r="F676" s="10"/>
       <c r="G676" s="12"/>
     </row>
-    <row r="677" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="677" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A677" s="10">
-        <f t="shared" si="10"/>
+        <f>A676+1</f>
         <v>672</v>
       </c>
       <c r="B677" s="11" t="s">
@@ -13945,9 +13972,9 @@
       <c r="F677" s="10"/>
       <c r="G677" s="12"/>
     </row>
-    <row r="678" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="678" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A678" s="10">
-        <f t="shared" si="10"/>
+        <f>A677+1</f>
         <v>673</v>
       </c>
       <c r="B678" s="11" t="s">
@@ -13963,9 +13990,9 @@
       <c r="F678" s="10"/>
       <c r="G678" s="12"/>
     </row>
-    <row r="679" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="679" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A679" s="10">
-        <f t="shared" si="10"/>
+        <f>A678+1</f>
         <v>674</v>
       </c>
       <c r="B679" s="11" t="s">
@@ -13979,9 +14006,9 @@
       <c r="F679" s="10"/>
       <c r="G679" s="12"/>
     </row>
-    <row r="680" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="680" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A680" s="10">
-        <f t="shared" si="10"/>
+        <f>A679+1</f>
         <v>675</v>
       </c>
       <c r="B680" s="11" t="s">
@@ -13995,9 +14022,9 @@
       <c r="F680" s="10"/>
       <c r="G680" s="12"/>
     </row>
-    <row r="681" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="681" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A681" s="10">
-        <f t="shared" si="10"/>
+        <f>A680+1</f>
         <v>676</v>
       </c>
       <c r="B681" s="11" t="s">
@@ -14011,9 +14038,9 @@
       <c r="F681" s="10"/>
       <c r="G681" s="12"/>
     </row>
-    <row r="682" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="682" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A682" s="10">
-        <f t="shared" si="10"/>
+        <f>A681+1</f>
         <v>677</v>
       </c>
       <c r="B682" s="11" t="s">
@@ -14027,9 +14054,9 @@
       <c r="F682" s="10"/>
       <c r="G682" s="12"/>
     </row>
-    <row r="683" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="683" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A683" s="10">
-        <f t="shared" si="10"/>
+        <f>A682+1</f>
         <v>678</v>
       </c>
       <c r="B683" s="11" t="s">
@@ -14043,9 +14070,9 @@
       <c r="F683" s="10"/>
       <c r="G683" s="12"/>
     </row>
-    <row r="684" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="684" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A684" s="10">
-        <f t="shared" si="10"/>
+        <f>A683+1</f>
         <v>679</v>
       </c>
       <c r="B684" s="11" t="s">
@@ -14059,9 +14086,9 @@
       <c r="F684" s="10"/>
       <c r="G684" s="12"/>
     </row>
-    <row r="685" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="685" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A685" s="10">
-        <f t="shared" si="10"/>
+        <f>A684+1</f>
         <v>680</v>
       </c>
       <c r="B685" s="11" t="s">
@@ -14075,9 +14102,9 @@
       <c r="F685" s="10"/>
       <c r="G685" s="12"/>
     </row>
-    <row r="686" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="686" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A686" s="10">
-        <f t="shared" si="10"/>
+        <f>A685+1</f>
         <v>681</v>
       </c>
       <c r="B686" s="11" t="s">
@@ -14091,9 +14118,9 @@
       <c r="F686" s="10"/>
       <c r="G686" s="12"/>
     </row>
-    <row r="687" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="687" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A687" s="10">
-        <f t="shared" si="10"/>
+        <f>A686+1</f>
         <v>682</v>
       </c>
       <c r="B687" s="11" t="s">
@@ -14107,9 +14134,9 @@
       <c r="F687" s="10"/>
       <c r="G687" s="12"/>
     </row>
-    <row r="688" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="688" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A688" s="10">
-        <f t="shared" si="10"/>
+        <f>A687+1</f>
         <v>683</v>
       </c>
       <c r="B688" s="11" t="s">
@@ -14125,9 +14152,9 @@
       <c r="F688" s="10"/>
       <c r="G688" s="12"/>
     </row>
-    <row r="689" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="689" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A689" s="10">
-        <f t="shared" si="10"/>
+        <f>A688+1</f>
         <v>684</v>
       </c>
       <c r="B689" s="11" t="s">
@@ -14141,9 +14168,9 @@
       <c r="F689" s="10"/>
       <c r="G689" s="12"/>
     </row>
-    <row r="690" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="690" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A690" s="10">
-        <f t="shared" si="10"/>
+        <f>A689+1</f>
         <v>685</v>
       </c>
       <c r="B690" s="11" t="s">
@@ -14157,9 +14184,9 @@
       <c r="F690" s="10"/>
       <c r="G690" s="12"/>
     </row>
-    <row r="691" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="691" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A691" s="10">
-        <f t="shared" si="10"/>
+        <f>A690+1</f>
         <v>686</v>
       </c>
       <c r="B691" s="11" t="s">
@@ -14173,9 +14200,9 @@
       <c r="F691" s="10"/>
       <c r="G691" s="12"/>
     </row>
-    <row r="692" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="692" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A692" s="10">
-        <f t="shared" si="10"/>
+        <f>A691+1</f>
         <v>687</v>
       </c>
       <c r="B692" s="11" t="s">
@@ -14189,9 +14216,9 @@
       <c r="F692" s="10"/>
       <c r="G692" s="12"/>
     </row>
-    <row r="693" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="693" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A693" s="10">
-        <f t="shared" si="10"/>
+        <f>A692+1</f>
         <v>688</v>
       </c>
       <c r="B693" s="11" t="s">
@@ -14205,9 +14232,9 @@
       <c r="F693" s="10"/>
       <c r="G693" s="12"/>
     </row>
-    <row r="694" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="694" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A694" s="10">
-        <f t="shared" si="10"/>
+        <f>A693+1</f>
         <v>689</v>
       </c>
       <c r="B694" s="11" t="s">
@@ -14221,9 +14248,9 @@
       <c r="F694" s="10"/>
       <c r="G694" s="12"/>
     </row>
-    <row r="695" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="695" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A695" s="10">
-        <f t="shared" si="10"/>
+        <f>A694+1</f>
         <v>690</v>
       </c>
       <c r="B695" s="11" t="s">
@@ -14237,9 +14264,9 @@
       <c r="F695" s="10"/>
       <c r="G695" s="12"/>
     </row>
-    <row r="696" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="696" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A696" s="10">
-        <f t="shared" si="10"/>
+        <f>A695+1</f>
         <v>691</v>
       </c>
       <c r="B696" s="11" t="s">
@@ -14253,9 +14280,9 @@
       <c r="F696" s="10"/>
       <c r="G696" s="12"/>
     </row>
-    <row r="697" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="697" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A697" s="10">
-        <f t="shared" si="10"/>
+        <f>A696+1</f>
         <v>692</v>
       </c>
       <c r="B697" s="11" t="s">
@@ -14269,9 +14296,9 @@
       <c r="F697" s="10"/>
       <c r="G697" s="12"/>
     </row>
-    <row r="698" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="698" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A698" s="10">
-        <f t="shared" si="10"/>
+        <f>A697+1</f>
         <v>693</v>
       </c>
       <c r="B698" s="11" t="s">
@@ -14285,9 +14312,9 @@
       <c r="F698" s="10"/>
       <c r="G698" s="12"/>
     </row>
-    <row r="699" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="699" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A699" s="10">
-        <f t="shared" si="10"/>
+        <f>A698+1</f>
         <v>694</v>
       </c>
       <c r="B699" s="11" t="s">
@@ -14301,9 +14328,9 @@
       <c r="F699" s="10"/>
       <c r="G699" s="12"/>
     </row>
-    <row r="700" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="700" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A700" s="10">
-        <f t="shared" si="10"/>
+        <f>A699+1</f>
         <v>695</v>
       </c>
       <c r="B700" s="11" t="s">
@@ -14317,9 +14344,9 @@
       <c r="F700" s="10"/>
       <c r="G700" s="12"/>
     </row>
-    <row r="701" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="701" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A701" s="10">
-        <f t="shared" si="10"/>
+        <f>A700+1</f>
         <v>696</v>
       </c>
       <c r="B701" s="11" t="s">
@@ -14333,9 +14360,9 @@
       <c r="F701" s="10"/>
       <c r="G701" s="12"/>
     </row>
-    <row r="702" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="702" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A702" s="10">
-        <f t="shared" si="10"/>
+        <f>A701+1</f>
         <v>697</v>
       </c>
       <c r="B702" s="11" t="s">
@@ -14349,9 +14376,9 @@
       <c r="F702" s="10"/>
       <c r="G702" s="12"/>
     </row>
-    <row r="703" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="703" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A703" s="10">
-        <f t="shared" si="10"/>
+        <f>A702+1</f>
         <v>698</v>
       </c>
       <c r="B703" s="11" t="s">
@@ -14365,9 +14392,9 @@
       <c r="F703" s="10"/>
       <c r="G703" s="12"/>
     </row>
-    <row r="704" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="704" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A704" s="10">
-        <f t="shared" si="10"/>
+        <f>A703+1</f>
         <v>699</v>
       </c>
       <c r="B704" s="11" t="s">
@@ -14381,9 +14408,9 @@
       <c r="F704" s="10"/>
       <c r="G704" s="12"/>
     </row>
-    <row r="705" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="705" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A705" s="10">
-        <f t="shared" si="10"/>
+        <f>A704+1</f>
         <v>700</v>
       </c>
       <c r="B705" s="11" t="s">
@@ -14397,9 +14424,9 @@
       <c r="F705" s="10"/>
       <c r="G705" s="12"/>
     </row>
-    <row r="706" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="706" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A706" s="10">
-        <f t="shared" si="10"/>
+        <f>A705+1</f>
         <v>701</v>
       </c>
       <c r="B706" s="11" t="s">
@@ -14413,9 +14440,9 @@
       <c r="F706" s="10"/>
       <c r="G706" s="12"/>
     </row>
-    <row r="707" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="707" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A707" s="10">
-        <f t="shared" si="10"/>
+        <f>A706+1</f>
         <v>702</v>
       </c>
       <c r="B707" s="11" t="s">
@@ -14429,9 +14456,9 @@
       <c r="F707" s="10"/>
       <c r="G707" s="12"/>
     </row>
-    <row r="708" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="708" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A708" s="10">
-        <f t="shared" si="10"/>
+        <f>A707+1</f>
         <v>703</v>
       </c>
       <c r="B708" s="11" t="s">
@@ -14445,9 +14472,9 @@
       <c r="F708" s="10"/>
       <c r="G708" s="12"/>
     </row>
-    <row r="709" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="709" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A709" s="10">
-        <f t="shared" si="10"/>
+        <f>A708+1</f>
         <v>704</v>
       </c>
       <c r="B709" s="11" t="s">
@@ -14461,9 +14488,9 @@
       <c r="F709" s="10"/>
       <c r="G709" s="12"/>
     </row>
-    <row r="710" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="710" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A710" s="10">
-        <f t="shared" si="10"/>
+        <f>A709+1</f>
         <v>705</v>
       </c>
       <c r="B710" s="11" t="s">
@@ -14477,9 +14504,9 @@
       <c r="F710" s="10"/>
       <c r="G710" s="12"/>
     </row>
-    <row r="711" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="711" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A711" s="10">
-        <f t="shared" ref="A711:A774" si="11">A710+1</f>
+        <f>A710+1</f>
         <v>706</v>
       </c>
       <c r="B711" s="11" t="s">
@@ -14493,9 +14520,9 @@
       <c r="F711" s="10"/>
       <c r="G711" s="12"/>
     </row>
-    <row r="712" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="712" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A712" s="10">
-        <f t="shared" si="11"/>
+        <f>A711+1</f>
         <v>707</v>
       </c>
       <c r="B712" s="11" t="s">
@@ -14509,9 +14536,9 @@
       <c r="F712" s="10"/>
       <c r="G712" s="12"/>
     </row>
-    <row r="713" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="713" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A713" s="10">
-        <f t="shared" si="11"/>
+        <f>A712+1</f>
         <v>708</v>
       </c>
       <c r="B713" s="11" t="s">
@@ -14525,9 +14552,9 @@
       <c r="F713" s="10"/>
       <c r="G713" s="12"/>
     </row>
-    <row r="714" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="714" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A714" s="10">
-        <f t="shared" si="11"/>
+        <f>A713+1</f>
         <v>709</v>
       </c>
       <c r="B714" s="11" t="s">
@@ -14541,9 +14568,9 @@
       <c r="F714" s="10"/>
       <c r="G714" s="12"/>
     </row>
-    <row r="715" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="715" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A715" s="10">
-        <f t="shared" si="11"/>
+        <f>A714+1</f>
         <v>710</v>
       </c>
       <c r="B715" s="11" t="s">
@@ -14557,9 +14584,9 @@
       <c r="F715" s="10"/>
       <c r="G715" s="12"/>
     </row>
-    <row r="716" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="716" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A716" s="10">
-        <f t="shared" si="11"/>
+        <f>A715+1</f>
         <v>711</v>
       </c>
       <c r="B716" s="11" t="s">
@@ -14573,9 +14600,9 @@
       <c r="F716" s="10"/>
       <c r="G716" s="12"/>
     </row>
-    <row r="717" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="717" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A717" s="10">
-        <f t="shared" si="11"/>
+        <f>A716+1</f>
         <v>712</v>
       </c>
       <c r="B717" s="11" t="s">
@@ -14589,9 +14616,9 @@
       <c r="F717" s="10"/>
       <c r="G717" s="12"/>
     </row>
-    <row r="718" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="718" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A718" s="10">
-        <f t="shared" si="11"/>
+        <f>A717+1</f>
         <v>713</v>
       </c>
       <c r="B718" s="11" t="s">
@@ -14605,9 +14632,9 @@
       <c r="F718" s="10"/>
       <c r="G718" s="12"/>
     </row>
-    <row r="719" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="719" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A719" s="10">
-        <f t="shared" si="11"/>
+        <f>A718+1</f>
         <v>714</v>
       </c>
       <c r="B719" s="11" t="s">
@@ -14621,9 +14648,9 @@
       <c r="F719" s="10"/>
       <c r="G719" s="12"/>
     </row>
-    <row r="720" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="720" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A720" s="10">
-        <f t="shared" si="11"/>
+        <f>A719+1</f>
         <v>715</v>
       </c>
       <c r="B720" s="11" t="s">
@@ -14637,9 +14664,9 @@
       <c r="F720" s="10"/>
       <c r="G720" s="12"/>
     </row>
-    <row r="721" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="721" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A721" s="10">
-        <f t="shared" si="11"/>
+        <f>A720+1</f>
         <v>716</v>
       </c>
       <c r="B721" s="11" t="s">
@@ -14653,9 +14680,9 @@
       <c r="F721" s="10"/>
       <c r="G721" s="12"/>
     </row>
-    <row r="722" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="722" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A722" s="10">
-        <f t="shared" si="11"/>
+        <f>A721+1</f>
         <v>717</v>
       </c>
       <c r="B722" s="11" t="s">
@@ -14664,14 +14691,16 @@
       <c r="C722" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D722" s="10"/>
+      <c r="D722" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E722" s="10"/>
       <c r="F722" s="10"/>
       <c r="G722" s="12"/>
     </row>
-    <row r="723" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="723" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A723" s="10">
-        <f t="shared" si="11"/>
+        <f>A722+1</f>
         <v>718</v>
       </c>
       <c r="B723" s="11" t="s">
@@ -14687,9 +14716,9 @@
       <c r="F723" s="10"/>
       <c r="G723" s="12"/>
     </row>
-    <row r="724" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="724" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A724" s="10">
-        <f t="shared" si="11"/>
+        <f>A723+1</f>
         <v>719</v>
       </c>
       <c r="B724" s="11" t="s">
@@ -14705,9 +14734,9 @@
       <c r="F724" s="10"/>
       <c r="G724" s="12"/>
     </row>
-    <row r="725" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="725" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A725" s="10">
-        <f t="shared" si="11"/>
+        <f>A724+1</f>
         <v>720</v>
       </c>
       <c r="B725" s="11" t="s">
@@ -14723,9 +14752,9 @@
       <c r="F725" s="10"/>
       <c r="G725" s="12"/>
     </row>
-    <row r="726" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="726" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A726" s="10">
-        <f t="shared" si="11"/>
+        <f>A725+1</f>
         <v>721</v>
       </c>
       <c r="B726" s="11" t="s">
@@ -14739,9 +14768,9 @@
       <c r="F726" s="10"/>
       <c r="G726" s="12"/>
     </row>
-    <row r="727" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="727" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A727" s="10">
-        <f t="shared" si="11"/>
+        <f>A726+1</f>
         <v>722</v>
       </c>
       <c r="B727" s="11" t="s">
@@ -14755,9 +14784,9 @@
       <c r="F727" s="10"/>
       <c r="G727" s="12"/>
     </row>
-    <row r="728" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="728" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A728" s="10">
-        <f t="shared" si="11"/>
+        <f>A727+1</f>
         <v>723</v>
       </c>
       <c r="B728" s="11" t="s">
@@ -14771,9 +14800,9 @@
       <c r="F728" s="10"/>
       <c r="G728" s="12"/>
     </row>
-    <row r="729" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="729" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A729" s="10">
-        <f t="shared" si="11"/>
+        <f>A728+1</f>
         <v>724</v>
       </c>
       <c r="B729" s="11" t="s">
@@ -14787,9 +14816,9 @@
       <c r="F729" s="10"/>
       <c r="G729" s="12"/>
     </row>
-    <row r="730" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="730" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A730" s="10">
-        <f t="shared" si="11"/>
+        <f>A729+1</f>
         <v>725</v>
       </c>
       <c r="B730" s="11" t="s">
@@ -14803,9 +14832,9 @@
       <c r="F730" s="10"/>
       <c r="G730" s="12"/>
     </row>
-    <row r="731" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="731" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A731" s="10">
-        <f t="shared" si="11"/>
+        <f>A730+1</f>
         <v>726</v>
       </c>
       <c r="B731" s="11" t="s">
@@ -14819,9 +14848,9 @@
       <c r="F731" s="10"/>
       <c r="G731" s="12"/>
     </row>
-    <row r="732" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="732" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A732" s="10">
-        <f t="shared" si="11"/>
+        <f>A731+1</f>
         <v>727</v>
       </c>
       <c r="B732" s="11" t="s">
@@ -14835,9 +14864,9 @@
       <c r="F732" s="10"/>
       <c r="G732" s="12"/>
     </row>
-    <row r="733" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="733" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A733" s="10">
-        <f t="shared" si="11"/>
+        <f>A732+1</f>
         <v>728</v>
       </c>
       <c r="B733" s="11" t="s">
@@ -14851,9 +14880,9 @@
       <c r="F733" s="10"/>
       <c r="G733" s="12"/>
     </row>
-    <row r="734" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="734" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A734" s="10">
-        <f t="shared" si="11"/>
+        <f>A733+1</f>
         <v>729</v>
       </c>
       <c r="B734" s="11" t="s">
@@ -14867,9 +14896,9 @@
       <c r="F734" s="10"/>
       <c r="G734" s="12"/>
     </row>
-    <row r="735" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="735" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A735" s="10">
-        <f t="shared" si="11"/>
+        <f>A734+1</f>
         <v>730</v>
       </c>
       <c r="B735" s="11" t="s">
@@ -14883,9 +14912,9 @@
       <c r="F735" s="10"/>
       <c r="G735" s="12"/>
     </row>
-    <row r="736" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="736" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A736" s="10">
-        <f t="shared" si="11"/>
+        <f>A735+1</f>
         <v>731</v>
       </c>
       <c r="B736" s="11" t="s">
@@ -14899,9 +14928,9 @@
       <c r="F736" s="10"/>
       <c r="G736" s="12"/>
     </row>
-    <row r="737" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="737" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A737" s="10">
-        <f t="shared" si="11"/>
+        <f>A736+1</f>
         <v>732</v>
       </c>
       <c r="B737" s="11" t="s">
@@ -14915,9 +14944,9 @@
       <c r="F737" s="10"/>
       <c r="G737" s="12"/>
     </row>
-    <row r="738" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="738" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A738" s="10">
-        <f t="shared" si="11"/>
+        <f>A737+1</f>
         <v>733</v>
       </c>
       <c r="B738" s="11" t="s">
@@ -14931,9 +14960,9 @@
       <c r="F738" s="10"/>
       <c r="G738" s="12"/>
     </row>
-    <row r="739" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="739" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A739" s="10">
-        <f t="shared" si="11"/>
+        <f>A738+1</f>
         <v>734</v>
       </c>
       <c r="B739" s="11" t="s">
@@ -14947,9 +14976,9 @@
       <c r="F739" s="10"/>
       <c r="G739" s="12"/>
     </row>
-    <row r="740" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="740" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A740" s="10">
-        <f t="shared" si="11"/>
+        <f>A739+1</f>
         <v>735</v>
       </c>
       <c r="B740" s="11" t="s">
@@ -14963,9 +14992,9 @@
       <c r="F740" s="10"/>
       <c r="G740" s="12"/>
     </row>
-    <row r="741" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="741" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A741" s="10">
-        <f t="shared" si="11"/>
+        <f>A740+1</f>
         <v>736</v>
       </c>
       <c r="B741" s="11" t="s">
@@ -14979,9 +15008,9 @@
       <c r="F741" s="10"/>
       <c r="G741" s="12"/>
     </row>
-    <row r="742" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="742" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A742" s="10">
-        <f t="shared" si="11"/>
+        <f>A741+1</f>
         <v>737</v>
       </c>
       <c r="B742" s="11" t="s">
@@ -14997,9 +15026,9 @@
       <c r="F742" s="10"/>
       <c r="G742" s="12"/>
     </row>
-    <row r="743" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="743" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A743" s="10">
-        <f t="shared" si="11"/>
+        <f>A742+1</f>
         <v>738</v>
       </c>
       <c r="B743" s="11" t="s">
@@ -15013,9 +15042,9 @@
       <c r="F743" s="10"/>
       <c r="G743" s="12"/>
     </row>
-    <row r="744" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="744" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A744" s="10">
-        <f t="shared" si="11"/>
+        <f>A743+1</f>
         <v>739</v>
       </c>
       <c r="B744" s="11" t="s">
@@ -15029,9 +15058,9 @@
       <c r="F744" s="10"/>
       <c r="G744" s="12"/>
     </row>
-    <row r="745" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="745" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A745" s="10">
-        <f t="shared" si="11"/>
+        <f>A744+1</f>
         <v>740</v>
       </c>
       <c r="B745" s="11" t="s">
@@ -15045,9 +15074,9 @@
       <c r="F745" s="10"/>
       <c r="G745" s="12"/>
     </row>
-    <row r="746" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="746" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A746" s="10">
-        <f t="shared" si="11"/>
+        <f>A745+1</f>
         <v>741</v>
       </c>
       <c r="B746" s="11" t="s">
@@ -15061,9 +15090,9 @@
       <c r="F746" s="10"/>
       <c r="G746" s="12"/>
     </row>
-    <row r="747" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="747" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A747" s="10">
-        <f t="shared" si="11"/>
+        <f>A746+1</f>
         <v>742</v>
       </c>
       <c r="B747" s="11" t="s">
@@ -15077,9 +15106,9 @@
       <c r="F747" s="10"/>
       <c r="G747" s="12"/>
     </row>
-    <row r="748" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="748" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A748" s="10">
-        <f t="shared" si="11"/>
+        <f>A747+1</f>
         <v>743</v>
       </c>
       <c r="B748" s="11" t="s">
@@ -15093,9 +15122,9 @@
       <c r="F748" s="10"/>
       <c r="G748" s="12"/>
     </row>
-    <row r="749" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="749" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A749" s="10">
-        <f t="shared" si="11"/>
+        <f>A748+1</f>
         <v>744</v>
       </c>
       <c r="B749" s="11" t="s">
@@ -15111,9 +15140,9 @@
       <c r="F749" s="10"/>
       <c r="G749" s="12"/>
     </row>
-    <row r="750" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="750" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A750" s="10">
-        <f t="shared" si="11"/>
+        <f>A749+1</f>
         <v>745</v>
       </c>
       <c r="B750" s="11" t="s">
@@ -15127,9 +15156,9 @@
       <c r="F750" s="10"/>
       <c r="G750" s="12"/>
     </row>
-    <row r="751" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="751" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A751" s="10">
-        <f t="shared" si="11"/>
+        <f>A750+1</f>
         <v>746</v>
       </c>
       <c r="B751" s="11" t="s">
@@ -15143,9 +15172,9 @@
       <c r="F751" s="10"/>
       <c r="G751" s="12"/>
     </row>
-    <row r="752" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="752" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A752" s="10">
-        <f t="shared" si="11"/>
+        <f>A751+1</f>
         <v>747</v>
       </c>
       <c r="B752" s="11" t="s">
@@ -15159,9 +15188,9 @@
       <c r="F752" s="10"/>
       <c r="G752" s="12"/>
     </row>
-    <row r="753" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="753" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A753" s="10">
-        <f t="shared" si="11"/>
+        <f>A752+1</f>
         <v>748</v>
       </c>
       <c r="B753" s="11" t="s">
@@ -15175,9 +15204,9 @@
       <c r="F753" s="10"/>
       <c r="G753" s="12"/>
     </row>
-    <row r="754" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="754" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A754" s="10">
-        <f t="shared" si="11"/>
+        <f>A753+1</f>
         <v>749</v>
       </c>
       <c r="B754" s="11" t="s">
@@ -15191,9 +15220,9 @@
       <c r="F754" s="10"/>
       <c r="G754" s="12"/>
     </row>
-    <row r="755" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="755" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A755" s="10">
-        <f t="shared" si="11"/>
+        <f>A754+1</f>
         <v>750</v>
       </c>
       <c r="B755" s="11" t="s">
@@ -15207,9 +15236,9 @@
       <c r="F755" s="10"/>
       <c r="G755" s="12"/>
     </row>
-    <row r="756" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="756" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A756" s="10">
-        <f t="shared" si="11"/>
+        <f>A755+1</f>
         <v>751</v>
       </c>
       <c r="B756" s="11" t="s">
@@ -15223,9 +15252,9 @@
       <c r="F756" s="10"/>
       <c r="G756" s="12"/>
     </row>
-    <row r="757" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="757" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A757" s="10">
-        <f t="shared" si="11"/>
+        <f>A756+1</f>
         <v>752</v>
       </c>
       <c r="B757" s="11" t="s">
@@ -15239,9 +15268,9 @@
       <c r="F757" s="10"/>
       <c r="G757" s="12"/>
     </row>
-    <row r="758" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="758" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A758" s="10">
-        <f t="shared" si="11"/>
+        <f>A757+1</f>
         <v>753</v>
       </c>
       <c r="B758" s="11" t="s">
@@ -15255,9 +15284,9 @@
       <c r="F758" s="10"/>
       <c r="G758" s="12"/>
     </row>
-    <row r="759" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="759" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A759" s="10">
-        <f t="shared" si="11"/>
+        <f>A758+1</f>
         <v>754</v>
       </c>
       <c r="B759" s="11" t="s">
@@ -15271,9 +15300,9 @@
       <c r="F759" s="10"/>
       <c r="G759" s="12"/>
     </row>
-    <row r="760" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="760" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A760" s="10">
-        <f t="shared" si="11"/>
+        <f>A759+1</f>
         <v>755</v>
       </c>
       <c r="B760" s="11" t="s">
@@ -15287,9 +15316,9 @@
       <c r="F760" s="10"/>
       <c r="G760" s="12"/>
     </row>
-    <row r="761" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="761" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A761" s="10">
-        <f t="shared" si="11"/>
+        <f>A760+1</f>
         <v>756</v>
       </c>
       <c r="B761" s="11" t="s">
@@ -15303,9 +15332,9 @@
       <c r="F761" s="10"/>
       <c r="G761" s="12"/>
     </row>
-    <row r="762" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="762" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A762" s="10">
-        <f t="shared" si="11"/>
+        <f>A761+1</f>
         <v>757</v>
       </c>
       <c r="B762" s="11" t="s">
@@ -15319,9 +15348,9 @@
       <c r="F762" s="10"/>
       <c r="G762" s="12"/>
     </row>
-    <row r="763" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="763" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A763" s="10">
-        <f t="shared" si="11"/>
+        <f>A762+1</f>
         <v>758</v>
       </c>
       <c r="B763" s="11" t="s">
@@ -15335,9 +15364,9 @@
       <c r="F763" s="10"/>
       <c r="G763" s="12"/>
     </row>
-    <row r="764" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="764" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A764" s="10">
-        <f t="shared" si="11"/>
+        <f>A763+1</f>
         <v>759</v>
       </c>
       <c r="B764" s="11" t="s">
@@ -15351,9 +15380,9 @@
       <c r="F764" s="10"/>
       <c r="G764" s="12"/>
     </row>
-    <row r="765" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="765" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A765" s="10">
-        <f t="shared" si="11"/>
+        <f>A764+1</f>
         <v>760</v>
       </c>
       <c r="B765" s="11" t="s">
@@ -15367,9 +15396,9 @@
       <c r="F765" s="10"/>
       <c r="G765" s="12"/>
     </row>
-    <row r="766" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="766" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A766" s="10">
-        <f t="shared" si="11"/>
+        <f>A765+1</f>
         <v>761</v>
       </c>
       <c r="B766" s="11" t="s">
@@ -15383,9 +15412,9 @@
       <c r="F766" s="10"/>
       <c r="G766" s="12"/>
     </row>
-    <row r="767" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="767" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A767" s="10">
-        <f t="shared" si="11"/>
+        <f>A766+1</f>
         <v>762</v>
       </c>
       <c r="B767" s="11" t="s">
@@ -15399,9 +15428,9 @@
       <c r="F767" s="10"/>
       <c r="G767" s="12"/>
     </row>
-    <row r="768" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="768" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A768" s="10">
-        <f t="shared" si="11"/>
+        <f>A767+1</f>
         <v>763</v>
       </c>
       <c r="B768" s="11" t="s">
@@ -15417,9 +15446,9 @@
       <c r="F768" s="10"/>
       <c r="G768" s="12"/>
     </row>
-    <row r="769" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="769" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A769" s="10">
-        <f t="shared" si="11"/>
+        <f>A768+1</f>
         <v>764</v>
       </c>
       <c r="B769" s="11" t="s">
@@ -15433,9 +15462,9 @@
       <c r="F769" s="10"/>
       <c r="G769" s="12"/>
     </row>
-    <row r="770" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="770" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A770" s="10">
-        <f t="shared" si="11"/>
+        <f>A769+1</f>
         <v>765</v>
       </c>
       <c r="B770" s="11" t="s">
@@ -15453,9 +15482,9 @@
         <v>827</v>
       </c>
     </row>
-    <row r="771" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="771" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A771" s="10">
-        <f t="shared" si="11"/>
+        <f>A770+1</f>
         <v>766</v>
       </c>
       <c r="B771" s="11" t="s">
@@ -15469,9 +15498,9 @@
       <c r="F771" s="10"/>
       <c r="G771" s="12"/>
     </row>
-    <row r="772" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="772" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A772" s="10">
-        <f t="shared" si="11"/>
+        <f>A771+1</f>
         <v>767</v>
       </c>
       <c r="B772" s="11" t="s">
@@ -15485,9 +15514,9 @@
       <c r="F772" s="10"/>
       <c r="G772" s="12"/>
     </row>
-    <row r="773" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="773" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A773" s="10">
-        <f t="shared" si="11"/>
+        <f>A772+1</f>
         <v>768</v>
       </c>
       <c r="B773" s="11" t="s">
@@ -15501,9 +15530,9 @@
       <c r="F773" s="10"/>
       <c r="G773" s="12"/>
     </row>
-    <row r="774" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="774" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A774" s="10">
-        <f t="shared" si="11"/>
+        <f>A773+1</f>
         <v>769</v>
       </c>
       <c r="B774" s="11" t="s">
@@ -15517,9 +15546,9 @@
       <c r="F774" s="10"/>
       <c r="G774" s="12"/>
     </row>
-    <row r="775" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="775" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A775" s="10">
-        <f t="shared" ref="A775:A783" si="12">A774+1</f>
+        <f>A774+1</f>
         <v>770</v>
       </c>
       <c r="B775" s="11" t="s">
@@ -15537,9 +15566,9 @@
         <v>827</v>
       </c>
     </row>
-    <row r="776" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="776" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A776" s="10">
-        <f t="shared" si="12"/>
+        <f>A775+1</f>
         <v>771</v>
       </c>
       <c r="B776" s="11" t="s">
@@ -15553,9 +15582,9 @@
       <c r="F776" s="10"/>
       <c r="G776" s="12"/>
     </row>
-    <row r="777" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="777" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A777" s="10">
-        <f t="shared" si="12"/>
+        <f>A776+1</f>
         <v>772</v>
       </c>
       <c r="B777" s="11" t="s">
@@ -15569,9 +15598,9 @@
       <c r="F777" s="10"/>
       <c r="G777" s="12"/>
     </row>
-    <row r="778" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="778" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A778" s="10">
-        <f t="shared" si="12"/>
+        <f>A777+1</f>
         <v>773</v>
       </c>
       <c r="B778" s="11" t="s">
@@ -15585,9 +15614,9 @@
       <c r="F778" s="10"/>
       <c r="G778" s="12"/>
     </row>
-    <row r="779" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="779" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A779" s="10">
-        <f t="shared" si="12"/>
+        <f>A778+1</f>
         <v>774</v>
       </c>
       <c r="B779" s="11" t="s">
@@ -15601,9 +15630,9 @@
       <c r="F779" s="10"/>
       <c r="G779" s="12"/>
     </row>
-    <row r="780" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="780" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A780" s="10">
-        <f t="shared" si="12"/>
+        <f>A779+1</f>
         <v>775</v>
       </c>
       <c r="B780" s="11" t="s">
@@ -15617,9 +15646,9 @@
       <c r="F780" s="10"/>
       <c r="G780" s="12"/>
     </row>
-    <row r="781" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="781" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A781" s="10">
-        <f t="shared" si="12"/>
+        <f>A780+1</f>
         <v>776</v>
       </c>
       <c r="B781" s="11" t="s">
@@ -15633,9 +15662,9 @@
       <c r="F781" s="10"/>
       <c r="G781" s="12"/>
     </row>
-    <row r="782" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="782" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A782" s="10">
-        <f t="shared" si="12"/>
+        <f>A781+1</f>
         <v>777</v>
       </c>
       <c r="B782" s="11" t="s">
@@ -15649,9 +15678,9 @@
       <c r="F782" s="10"/>
       <c r="G782" s="12"/>
     </row>
-    <row r="783" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="783" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A783" s="10">
-        <f t="shared" si="12"/>
+        <f>A782+1</f>
         <v>778</v>
       </c>
       <c r="B783" s="11" t="s">
@@ -15667,11 +15696,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:G783">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Tags"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="2"/>
+    <sortState ref="A6:G783">
+      <sortCondition ref="B5:B783"/>
+    </sortState>
   </autoFilter>
   <sortState ref="A6:G783">
     <sortCondition ref="B6:B783"/>
